--- a/intensities/outsidermalli.xlsx
+++ b/intensities/outsidermalli.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antti/Documents/Github/ty-llisyyspaperi/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antti/Documents/Github/econogym/intensities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993D67FA-4BF7-464F-BD22-6041DA3282FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB27688-F353-9C4F-8278-1D0E1A5A1DE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="1440" windowWidth="21900" windowHeight="15520" activeTab="1" xr2:uid="{4432A973-DB75-B946-AAB0-63A29BD95705}"/>
+    <workbookView xWindow="3780" yWindow="460" windowWidth="21900" windowHeight="15520" activeTab="1" xr2:uid="{4432A973-DB75-B946-AAB0-63A29BD95705}"/>
   </bookViews>
   <sheets>
     <sheet name="miehet" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
     <numFmt numFmtId="166" formatCode="0.00000_ ;\-0.00000\ "/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.000000"/>
-    <numFmt numFmtId="176" formatCode="0.0000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -221,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -235,7 +235,8 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -553,7 +554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92590640-645E-204B-9831-3012D0CA494E}">
   <dimension ref="B1:T310"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="O5" sqref="O5:O54"/>
     </sheetView>
   </sheetViews>
@@ -640,25 +641,25 @@
         <v>20</v>
       </c>
       <c r="D5" s="2">
-        <v>0.15136298421807748</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0</v>
+        <v>0.14634146341463414</v>
+      </c>
+      <c r="E5" s="14">
+        <v>2.5219735999999996E-3</v>
       </c>
       <c r="F5" s="3">
         <f>MAX(0,D5-E5)</f>
-        <v>0.15136298421807748</v>
+        <v>0.14381948981463413</v>
       </c>
       <c r="G5" s="2">
         <v>0.50665188470066513</v>
       </c>
       <c r="H5" s="3">
         <f>F6-F5</f>
-        <v>-7.9508602197875464E-2</v>
+        <v>-7.6584666533826048E-2</v>
       </c>
       <c r="I5">
         <f>IF(H5&lt;0,-H5/D5,0)</f>
-        <v>0.52528431973383127</v>
+        <v>0.52332855464781136</v>
       </c>
       <c r="J5">
         <f>IF(H5&gt;0,H5/G5,0)</f>
@@ -669,27 +670,27 @@
       </c>
       <c r="L5" s="8">
         <f t="shared" ref="L5:L14" si="0">K5*D5/G5</f>
-        <v>5.9750289612562762E-3</v>
+        <v>5.7768052516411388E-3</v>
       </c>
       <c r="N5" s="6">
         <f>I5+K5</f>
-        <v>0.54528431973383129</v>
+        <v>0.54332855464781138</v>
       </c>
       <c r="O5" s="4">
         <f>L5+J5</f>
-        <v>5.9750289612562762E-3</v>
+        <v>5.7768052516411388E-3</v>
       </c>
       <c r="Q5" s="4">
         <f>N5*D5</f>
-        <v>8.2535861882237022E-2</v>
+        <v>7.9511495802118734E-2</v>
       </c>
       <c r="R5" s="5">
         <f>O5*G5</f>
-        <v>3.0272596843615497E-3</v>
+        <v>2.9268292682926829E-3</v>
       </c>
       <c r="T5" s="3">
         <f>D5+R5-Q5</f>
-        <v>7.1854382020202001E-2</v>
+        <v>6.9756796880808089E-2</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
@@ -698,25 +699,25 @@
         <v>21</v>
       </c>
       <c r="D6" s="2">
-        <v>7.3895202020202014E-2</v>
-      </c>
-      <c r="E6" s="13">
-        <v>2.04082E-3</v>
+        <v>7.0580808080808077E-2</v>
+      </c>
+      <c r="E6" s="14">
+        <v>3.3459847999999996E-3</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" ref="F6:F55" si="1">MAX(0,D6-E6)</f>
-        <v>7.1854382020202015E-2</v>
+        <v>6.7234823280808084E-2</v>
       </c>
       <c r="G6" s="2">
         <v>0.62556818181818186</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" ref="H6:H54" si="2">F7-F6</f>
-        <v>-1.475810842565347E-2</v>
+        <v>-1.1439524009452522E-2</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I54" si="3">IF(H6&lt;0,-H6/D6,0)</f>
-        <v>0.19971673426941561</v>
+        <v>0.16207697702122356</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:J54" si="4">IF(H6&gt;0,H6/G6,0)</f>
@@ -727,27 +728,27 @@
       </c>
       <c r="L6" s="8">
         <f t="shared" si="0"/>
-        <v>2.3624987385205366E-3</v>
+        <v>2.256534463618932E-3</v>
       </c>
       <c r="N6" s="6">
         <f t="shared" ref="N6:N54" si="5">I6+K6</f>
-        <v>0.2197167342694156</v>
+        <v>0.18207697702122355</v>
       </c>
       <c r="O6" s="4">
         <f t="shared" ref="O6:O54" si="6">L6+J6</f>
-        <v>2.3624987385205366E-3</v>
+        <v>2.256534463618932E-3</v>
       </c>
       <c r="Q6" s="4">
         <f t="shared" ref="Q6:Q54" si="7">N6*D6</f>
-        <v>1.623601246605751E-2</v>
+        <v>1.2851140171068682E-2</v>
       </c>
       <c r="R6" s="5">
         <f t="shared" ref="R6:R54" si="8">O6*G6</f>
-        <v>1.4779040404040403E-3</v>
+        <v>1.4116161616161615E-3</v>
       </c>
       <c r="T6" s="3">
         <f t="shared" ref="T6:T54" si="9">D6+R6-Q6</f>
-        <v>5.9137093594548551E-2</v>
+        <v>5.9141284071355549E-2</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
@@ -756,25 +757,25 @@
         <v>22</v>
       </c>
       <c r="D7" s="2">
-        <v>6.2606473594548545E-2</v>
-      </c>
-      <c r="E7" s="13">
-        <v>5.5101999999999998E-3</v>
+        <v>5.9990265271355564E-2</v>
+      </c>
+      <c r="E7" s="14">
+        <v>4.1949659999999996E-3</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="1"/>
-        <v>5.7096273594548545E-2</v>
+        <v>5.5795299271355563E-2</v>
       </c>
       <c r="G7" s="2">
         <v>0.64063640788513021</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="2"/>
-        <v>-2.0190268339851658E-3</v>
+        <v>-4.4706095413086164E-3</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>3.2249489838075983E-2</v>
+        <v>7.4522249919825978E-2</v>
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
@@ -785,27 +786,27 @@
       </c>
       <c r="L7" s="8">
         <f t="shared" si="0"/>
-        <v>1.9545087610997672E-3</v>
+        <v>1.8728334678759675E-3</v>
       </c>
       <c r="N7" s="6">
         <f t="shared" si="5"/>
-        <v>5.224948983807598E-2</v>
+        <v>9.4522249919825982E-2</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="6"/>
-        <v>1.9545087610997672E-3</v>
+        <v>1.8728334678759675E-3</v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="7"/>
-        <v>3.2711563058761364E-3</v>
+        <v>5.6704148467357279E-3</v>
       </c>
       <c r="R7" s="5">
         <f t="shared" si="8"/>
-        <v>1.252129471890971E-3</v>
+        <v>1.1998053054271113E-3</v>
       </c>
       <c r="T7" s="3">
         <f t="shared" si="9"/>
-        <v>6.0587446760563386E-2</v>
+        <v>5.5519655730046948E-2</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
@@ -814,25 +815,25 @@
         <v>23</v>
       </c>
       <c r="D8" s="2">
-        <v>5.9771126760563377E-2</v>
-      </c>
-      <c r="E8" s="13">
-        <v>4.6938800000000001E-3</v>
+        <v>5.6543427230046947E-2</v>
+      </c>
+      <c r="E8" s="14">
+        <v>5.2187374999999999E-3</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="1"/>
-        <v>5.5077246760563379E-2</v>
+        <v>5.1324689730046946E-2</v>
       </c>
       <c r="G8" s="2">
         <v>0.66710680751173701</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="2"/>
-        <v>-4.0441926814702225E-3</v>
+        <v>-2.6740538518004037E-3</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>6.7661309074376633E-2</v>
+        <v>4.7292036984617418E-2</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
@@ -843,27 +844,27 @@
       </c>
       <c r="L8" s="8">
         <f t="shared" si="0"/>
-        <v>1.7919507367495052E-3</v>
+        <v>1.6951836375632286E-3</v>
       </c>
       <c r="N8" s="6">
         <f t="shared" si="5"/>
-        <v>8.7661309074376637E-2</v>
+        <v>6.7292036984617415E-2</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="6"/>
-        <v>1.7919507367495052E-3</v>
+        <v>1.6951836375632286E-3</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="7"/>
-        <v>5.2396152166814909E-3</v>
+        <v>3.8049223964013424E-3</v>
       </c>
       <c r="R8" s="5">
         <f t="shared" si="8"/>
-        <v>1.1954225352112675E-3</v>
+        <v>1.1308685446009389E-3</v>
       </c>
       <c r="T8" s="3">
         <f t="shared" si="9"/>
-        <v>5.5726934079093154E-2</v>
+        <v>5.3869373378246543E-2</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
@@ -872,56 +873,56 @@
         <v>24</v>
       </c>
       <c r="D9" s="2">
-        <v>5.7359584079093154E-2</v>
-      </c>
-      <c r="E9" s="13">
-        <v>6.3265300000000003E-3</v>
+        <v>5.451859427824654E-2</v>
+      </c>
+      <c r="E9" s="14">
+        <v>5.8679583999999996E-3</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="1"/>
-        <v>5.1033054079093157E-2</v>
+        <v>4.8650635878246543E-2</v>
       </c>
       <c r="G9" s="2">
         <v>0.71433847552487284</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="2"/>
-        <v>4.3666134279772562E-4</v>
+        <v>-1.705450838486007E-3</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.1282003159910872E-2</v>
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
-        <v>6.1128072721671747E-4</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0.02</v>
       </c>
       <c r="L9" s="8">
         <f t="shared" si="0"/>
-        <v>1.6059497295577473E-3</v>
+        <v>1.5264078905504294E-3</v>
       </c>
       <c r="N9" s="6">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>5.1282003159910869E-2</v>
       </c>
       <c r="O9" s="4">
         <f t="shared" si="6"/>
-        <v>2.2172304567744648E-3</v>
+        <v>1.5264078905504294E-3</v>
       </c>
       <c r="Q9" s="4">
         <f t="shared" si="7"/>
-        <v>1.1471916815818631E-3</v>
+        <v>2.7958227240509376E-3</v>
       </c>
       <c r="R9" s="5">
         <f t="shared" si="8"/>
-        <v>1.5838530243795887E-3</v>
+        <v>1.0903718855649308E-3</v>
       </c>
       <c r="T9" s="3">
         <f t="shared" si="9"/>
-        <v>5.7796245421890879E-2</v>
+        <v>5.2813143439760533E-2</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
@@ -930,25 +931,25 @@
         <v>25</v>
       </c>
       <c r="D10" s="2">
-        <v>5.7184005421890886E-2</v>
-      </c>
-      <c r="E10" s="13">
-        <v>5.7142900000000003E-3</v>
+        <v>5.4586016039760536E-2</v>
+      </c>
+      <c r="E10" s="14">
+        <v>7.6408309999999998E-3</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="1"/>
-        <v>5.1469715421890883E-2</v>
+        <v>4.6945185039760536E-2</v>
       </c>
       <c r="G10" s="2">
         <v>0.76208629842991082</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="2"/>
-        <v>-2.8670696233219634E-3</v>
+        <v>-8.9868440903284608E-4</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>5.0137614568433263E-2</v>
+        <v>1.6463638020005764E-2</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
@@ -959,27 +960,27 @@
       </c>
       <c r="L10" s="8">
         <f t="shared" si="0"/>
-        <v>1.5007225701263571E-3</v>
+        <v>1.4325415941008634E-3</v>
       </c>
       <c r="N10" s="6">
         <f t="shared" si="5"/>
-        <v>7.013761456843326E-2</v>
+        <v>3.6463638020005767E-2</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="6"/>
-        <v>1.5007225701263571E-3</v>
+        <v>1.4325415941008634E-3</v>
       </c>
       <c r="Q10" s="4">
         <f t="shared" si="7"/>
-        <v>4.0107497317597805E-3</v>
+        <v>1.9904047298280568E-3</v>
       </c>
       <c r="R10" s="5">
         <f t="shared" si="8"/>
-        <v>1.1436801084378178E-3</v>
+        <v>1.0917203207952107E-3</v>
       </c>
       <c r="T10" s="3">
         <f t="shared" si="9"/>
-        <v>5.4316935798568923E-2</v>
+        <v>5.3687331630727683E-2</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
@@ -988,56 +989,56 @@
         <v>26</v>
       </c>
       <c r="D11" s="2">
-        <v>5.7378155798568919E-2</v>
-      </c>
-      <c r="E11" s="13">
-        <v>8.7755100000000003E-3</v>
+        <v>5.4786013230727688E-2</v>
+      </c>
+      <c r="E11" s="14">
+        <v>8.7395126000000007E-3</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="1"/>
-        <v>4.8602645798568919E-2</v>
+        <v>4.6046500630727689E-2</v>
       </c>
       <c r="G11" s="2">
         <v>0.79859592277575264</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="2"/>
-        <v>1.7538776609835743E-3</v>
+        <v>-5.2170245299636153E-4</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.5225482241105223E-3</v>
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
-        <v>2.1962016220762335E-3</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0.02</v>
       </c>
       <c r="L11" s="8">
         <f t="shared" si="0"/>
-        <v>1.4369759264268327E-3</v>
+        <v>1.3720584257506086E-3</v>
       </c>
       <c r="N11" s="6">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>2.9522548224110524E-2</v>
       </c>
       <c r="O11" s="4">
         <f t="shared" si="6"/>
-        <v>3.6331775485030663E-3</v>
+        <v>1.3720584257506086E-3</v>
       </c>
       <c r="Q11" s="4">
         <f t="shared" si="7"/>
-        <v>1.1475631159713784E-3</v>
+        <v>1.6174227176109154E-3</v>
       </c>
       <c r="R11" s="5">
         <f t="shared" si="8"/>
-        <v>2.901440776954953E-3</v>
+        <v>1.0957202646145537E-3</v>
       </c>
       <c r="T11" s="3">
         <f t="shared" si="9"/>
-        <v>5.9132033459552494E-2</v>
+        <v>5.4264310777731327E-2</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
@@ -1046,25 +1047,25 @@
         <v>27</v>
       </c>
       <c r="D12" s="2">
-        <v>5.8519793459552494E-2</v>
-      </c>
-      <c r="E12" s="13">
-        <v>8.1632700000000002E-3</v>
+        <v>5.4913531677731331E-2</v>
+      </c>
+      <c r="E12" s="14">
+        <v>9.3887335000000013E-3</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="1"/>
-        <v>5.0356523459552494E-2</v>
+        <v>4.5524798177731328E-2</v>
       </c>
       <c r="G12" s="2">
         <v>0.82179056361500424</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="2"/>
-        <v>-3.4898528034621457E-3</v>
+        <v>-1.2067791991887122E-3</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>5.9635425847397255E-2</v>
+        <v>2.1975989566121609E-2</v>
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
@@ -1075,27 +1076,27 @@
       </c>
       <c r="L12" s="8">
         <f t="shared" si="0"/>
-        <v>1.4242021276595744E-3</v>
+        <v>1.3364361702127658E-3</v>
       </c>
       <c r="N12" s="6">
         <f t="shared" si="5"/>
-        <v>7.9635425847397259E-2</v>
+        <v>4.1975989566121613E-2</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" si="6"/>
-        <v>1.4242021276595744E-3</v>
+        <v>1.3364361702127658E-3</v>
       </c>
       <c r="Q12" s="4">
         <f t="shared" si="7"/>
-        <v>4.6602486726531958E-3</v>
+        <v>2.3050498327433391E-3</v>
       </c>
       <c r="R12" s="5">
         <f t="shared" si="8"/>
-        <v>1.1703958691910499E-3</v>
+        <v>1.0982706335546267E-3</v>
       </c>
       <c r="T12" s="3">
         <f t="shared" si="9"/>
-        <v>5.5029940656090348E-2</v>
+        <v>5.3706752478542619E-2</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
@@ -1104,25 +1105,25 @@
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>5.8295240656090347E-2</v>
-      </c>
-      <c r="E13" s="13">
-        <v>1.1428570000000001E-2</v>
+        <v>5.4880344178542616E-2</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1.05623252E-2</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="1"/>
-        <v>4.6866670656090348E-2</v>
+        <v>4.4318018978542616E-2</v>
       </c>
       <c r="G13" s="2">
         <v>0.84272653939230979</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="2"/>
-        <v>-1.9566809281057335E-3</v>
+        <v>-2.7713606516165806E-4</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>3.356502016432298E-2</v>
+        <v>5.0498237449103697E-3</v>
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
@@ -1133,27 +1134,27 @@
       </c>
       <c r="L13" s="8">
         <f t="shared" si="0"/>
-        <v>1.3834912734118248E-3</v>
+        <v>1.3024472735394532E-3</v>
       </c>
       <c r="N13" s="6">
         <f t="shared" si="5"/>
-        <v>5.3565020164322977E-2</v>
+        <v>2.5049823744910368E-2</v>
       </c>
       <c r="O13" s="4">
         <f t="shared" si="6"/>
-        <v>1.3834912734118248E-3</v>
+        <v>1.3024472735394532E-3</v>
       </c>
       <c r="Q13" s="4">
         <f t="shared" si="7"/>
-        <v>3.1225857412275401E-3</v>
+        <v>1.3747429487325103E-3</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" si="8"/>
-        <v>1.165904813121807E-3</v>
+        <v>1.0976068835708524E-3</v>
       </c>
       <c r="T13" s="3">
         <f t="shared" si="9"/>
-        <v>5.6338559727984613E-2</v>
+        <v>5.4603208113380958E-2</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
@@ -1162,56 +1163,56 @@
         <v>29</v>
       </c>
       <c r="D14" s="2">
-        <v>5.8991619727984612E-2</v>
-      </c>
-      <c r="E14" s="13">
-        <v>1.4081629999999999E-2</v>
+        <v>5.5502129413380959E-2</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1.1461246499999999E-2</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="1"/>
-        <v>4.4909989727984614E-2</v>
+        <v>4.4040882913380958E-2</v>
       </c>
       <c r="G14" s="2">
         <v>0.85764528094518477</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="2"/>
-        <v>9.9864016570326564E-5</v>
+        <v>-3.946001857159584E-4</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.1096404748179735E-3</v>
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>1.1643976686989925E-4</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0.02</v>
       </c>
       <c r="L14" s="8">
         <f t="shared" si="0"/>
-        <v>1.3756647658102134E-3</v>
+        <v>1.2942910232587941E-3</v>
       </c>
       <c r="N14" s="6">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>2.7109640474817974E-2</v>
       </c>
       <c r="O14" s="4">
         <f t="shared" si="6"/>
-        <v>1.4921045326801126E-3</v>
+        <v>1.2942910232587941E-3</v>
       </c>
       <c r="Q14" s="4">
         <f t="shared" si="7"/>
-        <v>1.1798323945596922E-3</v>
+        <v>1.5046427739835776E-3</v>
       </c>
       <c r="R14" s="5">
         <f t="shared" si="8"/>
-        <v>1.2796964111300188E-3</v>
+        <v>1.1100425882676192E-3</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="9"/>
-        <v>5.9091483744554939E-2</v>
+        <v>5.5107529227665E-2</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
@@ -1220,21 +1221,21 @@
         <v>30</v>
       </c>
       <c r="D15" s="2">
-        <v>5.8683323744554941E-2</v>
-      </c>
-      <c r="E15" s="13">
-        <v>1.367347E-2</v>
+        <v>5.5806690227664997E-2</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1.21604075E-2</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="1"/>
-        <v>4.5009853744554941E-2</v>
+        <v>4.3646282727664999E-2</v>
       </c>
       <c r="G15" s="2">
         <v>0.86362017478973174</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="2"/>
-        <v>3.6710386153557678E-3</v>
+        <v>6.9651219090291483E-4</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
@@ -1242,14 +1243,14 @@
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
-        <v>4.2507559718015699E-3</v>
+        <v>8.0650291787416476E-4</v>
       </c>
       <c r="K15">
         <v>0.02</v>
       </c>
       <c r="L15" s="8">
-        <f>K15*D15/G15</f>
-        <v>1.3590077086571709E-3</v>
+        <f t="shared" ref="L15:L54" si="11">K15*D15/G15</f>
+        <v>1.2923896837229959E-3</v>
       </c>
       <c r="N15" s="6">
         <f t="shared" si="5"/>
@@ -1257,19 +1258,19 @@
       </c>
       <c r="O15" s="4">
         <f t="shared" si="6"/>
-        <v>5.6097636804587408E-3</v>
+        <v>2.0988926015971607E-3</v>
       </c>
       <c r="Q15" s="4">
         <f t="shared" si="7"/>
-        <v>1.1736664748910987E-3</v>
+        <v>1.1161338045532999E-3</v>
       </c>
       <c r="R15" s="5">
         <f t="shared" si="8"/>
-        <v>4.8447050902468668E-3</v>
+        <v>1.8126459954562147E-3</v>
       </c>
       <c r="T15" s="3">
         <f t="shared" si="9"/>
-        <v>6.2354362359910716E-2</v>
+        <v>5.6503202418567912E-2</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
@@ -1278,25 +1279,25 @@
         <v>31</v>
       </c>
       <c r="D16" s="2">
-        <v>6.1129872359910707E-2</v>
-      </c>
-      <c r="E16" s="13">
-        <v>1.244898E-2</v>
+        <v>5.7352183618567913E-2</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1.3009388699999999E-2</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="1"/>
-        <v>4.8680892359910709E-2</v>
+        <v>4.4342794918567914E-2</v>
       </c>
       <c r="G16" s="2">
         <v>0.87118653769103094</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="2"/>
-        <v>-6.370261746289102E-3</v>
+        <v>-3.3633094664580615E-3</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>0.10420865446574616</v>
+        <v>5.8643093501485818E-2</v>
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
@@ -1306,28 +1307,28 @@
         <v>0.02</v>
       </c>
       <c r="L16" s="9">
-        <f>K16*D16/G16</f>
-        <v>1.4033704543214742E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.3166453138858775E-3</v>
       </c>
       <c r="N16" s="6">
         <f t="shared" si="5"/>
-        <v>0.12420865446574617</v>
+        <v>7.8643093501485822E-2</v>
       </c>
       <c r="O16" s="4">
         <f t="shared" si="6"/>
-        <v>1.4033704543214742E-3</v>
+        <v>1.3166453138858775E-3</v>
       </c>
       <c r="Q16" s="4">
         <f t="shared" si="7"/>
-        <v>7.592859193487316E-3</v>
+        <v>4.5103531388294201E-3</v>
       </c>
       <c r="R16" s="5">
         <f t="shared" si="8"/>
-        <v>1.2225974471982142E-3</v>
+        <v>1.1470436723713584E-3</v>
       </c>
       <c r="T16" s="3">
         <f t="shared" si="9"/>
-        <v>5.4759610613621605E-2</v>
+        <v>5.3988874152109852E-2</v>
       </c>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.2">
@@ -1336,21 +1337,21 @@
         <v>32</v>
       </c>
       <c r="D17" s="2">
-        <v>5.5575940613621609E-2</v>
-      </c>
-      <c r="E17" s="13">
-        <v>1.3265310000000001E-2</v>
+        <v>5.2640492252109851E-2</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1.16610068E-2</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="1"/>
-        <v>4.2310630613621607E-2</v>
+        <v>4.0979485452109853E-2</v>
       </c>
       <c r="G17" s="2">
         <v>0.88340060402495135</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="2"/>
-        <v>1.4615969532049897E-3</v>
+        <v>2.0207702997064592E-3</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
@@ -1358,14 +1359,14 @@
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
-        <v>1.6545120600389665E-3</v>
+        <v>2.2874902852674335E-3</v>
       </c>
       <c r="K17">
         <v>0.02</v>
       </c>
       <c r="L17" s="9">
-        <f>K17*D17/G17</f>
-        <v>1.2582273627707841E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.1917694421368777E-3</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" si="5"/>
@@ -1373,19 +1374,19 @@
       </c>
       <c r="O17" s="4">
         <f t="shared" si="6"/>
-        <v>2.9127394228097509E-3</v>
+        <v>3.4792597274043114E-3</v>
       </c>
       <c r="Q17" s="4">
         <f t="shared" si="7"/>
-        <v>1.1115188122724322E-3</v>
+        <v>1.0528098450421971E-3</v>
       </c>
       <c r="R17" s="5">
         <f t="shared" si="8"/>
-        <v>2.5731157654774223E-3</v>
+        <v>3.0735801447486564E-3</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" si="9"/>
-        <v>5.7037537566826599E-2</v>
+        <v>5.466126255181631E-2</v>
       </c>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.2">
@@ -1394,21 +1395,21 @@
         <v>33</v>
       </c>
       <c r="D18" s="2">
-        <v>5.6833447566826595E-2</v>
-      </c>
-      <c r="E18" s="13">
-        <v>1.306122E-2</v>
+        <v>5.4037011651816312E-2</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1.1036755899999999E-2</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="1"/>
-        <v>4.3772227566826596E-2</v>
+        <v>4.3000255751816312E-2</v>
       </c>
       <c r="G18" s="2">
         <v>0.88411240575736805</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="2"/>
-        <v>2.3155423024544472E-3</v>
+        <v>2.0844267932683888E-3</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
@@ -1416,14 +1417,14 @@
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
-        <v>2.6190587162622787E-3</v>
+        <v>2.3576490723289656E-3</v>
       </c>
       <c r="K18">
         <v>0.02</v>
       </c>
       <c r="L18" s="9">
-        <f>K18*D18/G18</f>
-        <v>1.2856611262713968E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.222401389233441E-3</v>
       </c>
       <c r="N18" s="6">
         <f t="shared" si="5"/>
@@ -1431,19 +1432,19 @@
       </c>
       <c r="O18" s="4">
         <f t="shared" si="6"/>
-        <v>3.9047198425336757E-3</v>
+        <v>3.5800504615624068E-3</v>
       </c>
       <c r="Q18" s="4">
         <f t="shared" si="7"/>
-        <v>1.1366689513365319E-3</v>
+        <v>1.0807402330363263E-3</v>
       </c>
       <c r="R18" s="5">
         <f t="shared" si="8"/>
-        <v>3.4522112537909793E-3</v>
+        <v>3.1651670263047153E-3</v>
       </c>
       <c r="T18" s="3">
         <f t="shared" si="9"/>
-        <v>5.9148989869281042E-2</v>
+        <v>5.6121438445084701E-2</v>
       </c>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.2">
@@ -1452,25 +1453,25 @@
         <v>34</v>
       </c>
       <c r="D19" s="2">
-        <v>5.7516339869281043E-2</v>
-      </c>
-      <c r="E19" s="13">
-        <v>1.1428570000000001E-2</v>
+        <v>5.4448446045084697E-2</v>
+      </c>
+      <c r="E19" s="14">
+        <v>9.3637635000000004E-3</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="1"/>
-        <v>4.6087769869281044E-2</v>
+        <v>4.5084682545084701E-2</v>
       </c>
       <c r="G19" s="2">
         <v>0.88547418967587033</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="2"/>
-        <v>-4.2932469118895297E-3</v>
+        <v>-4.3400054848211217E-3</v>
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>7.4643951990806603E-2</v>
+        <v>7.9708527975756865E-2</v>
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
@@ -1480,28 +1481,28 @@
         <v>0.02</v>
       </c>
       <c r="L19" s="9">
-        <f>K19*D19/G19</f>
-        <v>1.2991082188479153E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.2298144131115932E-3</v>
       </c>
       <c r="N19" s="6">
         <f t="shared" si="5"/>
-        <v>9.4643951990806607E-2</v>
+        <v>9.9708527975756869E-2</v>
       </c>
       <c r="O19" s="4">
         <f t="shared" si="6"/>
-        <v>1.2991082188479153E-3</v>
+        <v>1.2298144131115932E-3</v>
       </c>
       <c r="Q19" s="4">
         <f t="shared" si="7"/>
-        <v>5.4435737092751509E-3</v>
+        <v>5.4289744057228161E-3</v>
       </c>
       <c r="R19" s="5">
         <f t="shared" si="8"/>
-        <v>1.150326797385621E-3</v>
+        <v>1.0889689209016939E-3</v>
       </c>
       <c r="T19" s="3">
         <f t="shared" si="9"/>
-        <v>5.3223092957391513E-2</v>
+        <v>5.0108440560263576E-2</v>
       </c>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.2">
@@ -1510,21 +1511,21 @@
         <v>35</v>
       </c>
       <c r="D20" s="2">
-        <v>5.2610852957391513E-2</v>
-      </c>
-      <c r="E20" s="13">
-        <v>1.0816330000000001E-2</v>
+        <v>4.9434249560263578E-2</v>
+      </c>
+      <c r="E20" s="14">
+        <v>8.6895724999999993E-3</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="1"/>
-        <v>4.1794522957391514E-2</v>
+        <v>4.0744677060263579E-2</v>
       </c>
       <c r="G20" s="2">
         <v>0.89270431335486078</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="2"/>
-        <v>3.8421694233602977E-3</v>
+        <v>1.7983062894047358E-3</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
@@ -1532,14 +1533,14 @@
       </c>
       <c r="J20">
         <f t="shared" si="4"/>
-        <v>4.3039664599816814E-3</v>
+        <v>2.014447855243965E-3</v>
       </c>
       <c r="K20">
         <v>0.02</v>
       </c>
       <c r="L20" s="9">
-        <f>K20*D20/G20</f>
-        <v>1.1786848606046348E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.1075167627337961E-3</v>
       </c>
       <c r="N20" s="6">
         <f t="shared" si="5"/>
@@ -1547,19 +1548,19 @@
       </c>
       <c r="O20" s="4">
         <f t="shared" si="6"/>
-        <v>5.482651320586316E-3</v>
+        <v>3.1219646179777611E-3</v>
       </c>
       <c r="Q20" s="4">
         <f t="shared" si="7"/>
-        <v>1.0522170591478303E-3</v>
+        <v>9.886849912052716E-4</v>
       </c>
       <c r="R20" s="5">
         <f t="shared" si="8"/>
-        <v>4.8943864825081278E-3</v>
+        <v>2.7869912806100074E-3</v>
       </c>
       <c r="T20" s="3">
         <f t="shared" si="9"/>
-        <v>5.6453022380751811E-2</v>
+        <v>5.1232555849668314E-2</v>
       </c>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.2">
@@ -1568,25 +1569,25 @@
         <v>36</v>
       </c>
       <c r="D21" s="2">
-        <v>5.3595872380751815E-2</v>
-      </c>
-      <c r="E21" s="13">
-        <v>7.9591799999999997E-3</v>
+        <v>4.9884173949668313E-2</v>
+      </c>
+      <c r="E21" s="14">
+        <v>7.3411906000000002E-3</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="1"/>
-        <v>4.5636692380751812E-2</v>
+        <v>4.2542983349668315E-2</v>
       </c>
       <c r="G21" s="2">
         <v>0.8937559229230283</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="2"/>
-        <v>-2.4951108374255057E-3</v>
+        <v>-1.5317452817553007E-3</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>4.6554160359587482E-2</v>
+        <v>3.0706036814417078E-2</v>
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
@@ -1596,28 +1597,28 @@
         <v>0.02</v>
       </c>
       <c r="L21" s="9">
-        <f>K21*D21/G21</f>
-        <v>1.1993402450518379E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.1162818096135721E-3</v>
       </c>
       <c r="N21" s="6">
         <f t="shared" si="5"/>
-        <v>6.6554160359587486E-2</v>
+        <v>5.0706036814417078E-2</v>
       </c>
       <c r="O21" s="4">
         <f t="shared" si="6"/>
-        <v>1.1993402450518379E-3</v>
+        <v>1.1162818096135721E-3</v>
       </c>
       <c r="Q21" s="4">
         <f t="shared" si="7"/>
-        <v>3.5670282850405423E-3</v>
+        <v>2.529428760748667E-3</v>
       </c>
       <c r="R21" s="5">
         <f t="shared" si="8"/>
-        <v>1.0719174476150363E-3</v>
+        <v>9.9768347899336631E-4</v>
       </c>
       <c r="T21" s="3">
         <f t="shared" si="9"/>
-        <v>5.1100761543326309E-2</v>
+        <v>4.8352428667913012E-2</v>
       </c>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.2">
@@ -1626,21 +1627,21 @@
         <v>37</v>
       </c>
       <c r="D22" s="2">
-        <v>5.1508931543326308E-2</v>
-      </c>
-      <c r="E22" s="13">
-        <v>8.3673500000000008E-3</v>
+        <v>4.8152668367913015E-2</v>
+      </c>
+      <c r="E22" s="14">
+        <v>7.1414303000000004E-3</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="1"/>
-        <v>4.3141581543326306E-2</v>
+        <v>4.1011238067913014E-2</v>
       </c>
       <c r="G22" s="2">
         <v>0.89495728392322205</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="2"/>
-        <v>3.2290224003199836E-3</v>
+        <v>2.3335156718798378E-3</v>
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
@@ -1648,14 +1649,14 @@
       </c>
       <c r="J22">
         <f t="shared" si="4"/>
-        <v>3.6080184588977542E-3</v>
+        <v>2.607404525108071E-3</v>
       </c>
       <c r="K22">
         <v>0.02</v>
       </c>
       <c r="L22" s="9">
-        <f>K22*D22/G22</f>
-        <v>1.1510925151092515E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.0760886409421973E-3</v>
       </c>
       <c r="N22" s="6">
         <f t="shared" si="5"/>
@@ -1663,19 +1664,19 @@
       </c>
       <c r="O22" s="4">
         <f t="shared" si="6"/>
-        <v>4.7591109740070057E-3</v>
+        <v>3.6834931660502685E-3</v>
       </c>
       <c r="Q22" s="4">
         <f t="shared" si="7"/>
-        <v>1.0301786308665262E-3</v>
+        <v>9.630533673582603E-4</v>
       </c>
       <c r="R22" s="5">
         <f t="shared" si="8"/>
-        <v>4.2592010311865098E-3</v>
+        <v>3.2965690392380981E-3</v>
       </c>
       <c r="T22" s="3">
         <f t="shared" si="9"/>
-        <v>5.4737953943646292E-2</v>
+        <v>5.0486184039792853E-2</v>
       </c>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.2">
@@ -1684,25 +1685,25 @@
         <v>38</v>
       </c>
       <c r="D23" s="2">
-        <v>5.2901213943646289E-2</v>
-      </c>
-      <c r="E23" s="13">
-        <v>6.5306100000000001E-3</v>
+        <v>4.8613431339792852E-2</v>
+      </c>
+      <c r="E23" s="14">
+        <v>5.2686776000000005E-3</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="1"/>
-        <v>4.6370603943646289E-2</v>
+        <v>4.3344753739792852E-2</v>
       </c>
       <c r="G23" s="2">
         <v>0.89572892304265517</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="2"/>
-        <v>-1.4896558484081904E-3</v>
+        <v>-6.009442295887707E-4</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>2.8159199711278192E-2</v>
+        <v>1.2361691265698905E-2</v>
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
@@ -1712,28 +1713,28 @@
         <v>0.02</v>
       </c>
       <c r="L23" s="9">
-        <f>K23*D23/G23</f>
-        <v>1.1811880264834787E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.0854496285474496E-3</v>
       </c>
       <c r="N23" s="6">
         <f t="shared" si="5"/>
-        <v>4.8159199711278189E-2</v>
+        <v>3.2361691265698905E-2</v>
       </c>
       <c r="O23" s="4">
         <f t="shared" si="6"/>
-        <v>1.1811880264834787E-3</v>
+        <v>1.0854496285474496E-3</v>
       </c>
       <c r="Q23" s="4">
         <f t="shared" si="7"/>
-        <v>2.5476801272811159E-3</v>
+        <v>1.5732128563846278E-3</v>
       </c>
       <c r="R23" s="5">
         <f t="shared" si="8"/>
-        <v>1.0580242788729257E-3</v>
+        <v>9.7226862679585717E-4</v>
       </c>
       <c r="T23" s="3">
         <f t="shared" si="9"/>
-        <v>5.1411558095238098E-2</v>
+        <v>4.8012487110204081E-2</v>
       </c>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.2">
@@ -1742,21 +1743,21 @@
         <v>39</v>
       </c>
       <c r="D24" s="2">
-        <v>5.0595238095238096E-2</v>
-      </c>
-      <c r="E24" s="13">
-        <v>5.7142900000000003E-3</v>
+        <v>4.6938775510204082E-2</v>
+      </c>
+      <c r="E24" s="14">
+        <v>4.1949659999999996E-3</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>4.4880948095238099E-2</v>
+        <v>4.2743809510204081E-2</v>
       </c>
       <c r="G24" s="2">
         <v>0.90093537414965985</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="2"/>
-        <v>1.8284595855304828E-3</v>
+        <v>5.2018755166456654E-4</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
@@ -1764,14 +1765,14 @@
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
-        <v>2.0295124800225085E-3</v>
+        <v>5.773860884922419E-4</v>
       </c>
       <c r="K24">
         <v>0.02</v>
       </c>
       <c r="L24" s="9">
-        <f>K24*D24/G24</f>
-        <v>1.1231713072203872E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.0420009438414347E-3</v>
       </c>
       <c r="N24" s="6">
         <f t="shared" si="5"/>
@@ -1779,19 +1780,19 @@
       </c>
       <c r="O24" s="4">
         <f t="shared" si="6"/>
-        <v>3.1526837872428957E-3</v>
+        <v>1.6193870323336764E-3</v>
       </c>
       <c r="Q24" s="4">
         <f t="shared" si="7"/>
-        <v>1.011904761904762E-3</v>
+        <v>9.3877551020408166E-4</v>
       </c>
       <c r="R24" s="5">
         <f t="shared" si="8"/>
-        <v>2.8403643474352448E-3</v>
+        <v>1.4589630618686482E-3</v>
       </c>
       <c r="T24" s="3">
         <f t="shared" si="9"/>
-        <v>5.2423697680768579E-2</v>
+        <v>4.7458963061868649E-2</v>
       </c>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.2">
@@ -1800,25 +1801,25 @@
         <v>40</v>
       </c>
       <c r="D25" s="2">
-        <v>4.9974717680768582E-2</v>
-      </c>
-      <c r="E25" s="13">
-        <v>3.26531E-3</v>
+        <v>4.6210461261868646E-2</v>
+      </c>
+      <c r="E25" s="14">
+        <v>2.9464642000000003E-3</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="1"/>
-        <v>4.6709407680768582E-2</v>
+        <v>4.3263997061868648E-2</v>
       </c>
       <c r="G25" s="2">
         <v>0.89881454014270468</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="2"/>
-        <v>-3.8795009351749454E-3</v>
+        <v>-3.3202134028247413E-3</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>7.762927166405717E-2</v>
+        <v>7.1849821710489439E-2</v>
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
@@ -1828,28 +1829,28 @@
         <v>0.02</v>
       </c>
       <c r="L25" s="9">
-        <f>K25*D25/G25</f>
-        <v>1.1120140017502188E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.0282535316914615E-3</v>
       </c>
       <c r="N25" s="6">
         <f t="shared" si="5"/>
-        <v>9.7629271664057174E-2</v>
+        <v>9.1849821710489443E-2</v>
       </c>
       <c r="O25" s="4">
         <f t="shared" si="6"/>
-        <v>1.1120140017502188E-3</v>
+        <v>1.0282535316914615E-3</v>
       </c>
       <c r="Q25" s="4">
         <f t="shared" si="7"/>
-        <v>4.8789952887903169E-3</v>
+        <v>4.2444226280621139E-3</v>
       </c>
       <c r="R25" s="5">
         <f t="shared" si="8"/>
-        <v>9.9949435361537165E-4</v>
+        <v>9.2420922523737297E-4</v>
       </c>
       <c r="T25" s="3">
         <f t="shared" si="9"/>
-        <v>4.6095216745593637E-2</v>
+        <v>4.2890247859043905E-2</v>
       </c>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.2">
@@ -1858,21 +1859,21 @@
         <v>41</v>
       </c>
       <c r="D26" s="2">
-        <v>4.6095216745593637E-2</v>
-      </c>
-      <c r="E26" s="13">
-        <v>3.26531E-3</v>
+        <v>4.2116176759043909E-2</v>
+      </c>
+      <c r="E26" s="14">
+        <v>2.1723930999999999E-3</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="1"/>
-        <v>4.2829906745593636E-2</v>
+        <v>3.9943783659043906E-2</v>
       </c>
       <c r="G26" s="2">
         <v>0.90298988427158355</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="2"/>
-        <v>2.2044538551680842E-3</v>
+        <v>1.6006702217239294E-3</v>
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
@@ -1880,14 +1881,14 @@
       </c>
       <c r="J26">
         <f t="shared" si="4"/>
-        <v>2.4412830016876156E-3</v>
+        <v>1.7726336137365978E-3</v>
       </c>
       <c r="K26">
         <v>0.02</v>
       </c>
       <c r="L26" s="9">
-        <f>K26*D26/G26</f>
-        <v>1.0209464701318853E-3</v>
+        <f t="shared" si="11"/>
+        <v>9.3281613653995344E-4</v>
       </c>
       <c r="N26" s="6">
         <f t="shared" si="5"/>
@@ -1895,19 +1896,19 @@
       </c>
       <c r="O26" s="4">
         <f t="shared" si="6"/>
-        <v>3.4622294718195008E-3</v>
+        <v>2.7054497502765514E-3</v>
       </c>
       <c r="Q26" s="4">
         <f t="shared" si="7"/>
-        <v>9.2190433491187273E-4</v>
+        <v>8.423235351808782E-4</v>
       </c>
       <c r="R26" s="5">
         <f t="shared" si="8"/>
-        <v>3.1263581900799571E-3</v>
+        <v>2.4429937569048076E-3</v>
       </c>
       <c r="T26" s="3">
         <f t="shared" si="9"/>
-        <v>4.8299670600761721E-2</v>
+        <v>4.3716846980767839E-2</v>
       </c>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.2">
@@ -1916,56 +1917,56 @@
         <v>42</v>
       </c>
       <c r="D27" s="2">
-        <v>4.6871090600761722E-2</v>
-      </c>
-      <c r="E27" s="13">
-        <v>1.83673E-3</v>
+        <v>4.2867865780767837E-2</v>
+      </c>
+      <c r="E27" s="14">
+        <v>1.3234118999999999E-3</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="1"/>
-        <v>4.5034360600761721E-2</v>
+        <v>4.1544453880767836E-2</v>
       </c>
       <c r="G27" s="2">
         <v>0.90381140363070256</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="2"/>
-        <v>1.2281233078632187E-4</v>
+        <v>-5.1548661023083364E-4</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.2025012228672709E-2</v>
       </c>
       <c r="J27">
         <f t="shared" si="4"/>
-        <v>1.3588269664774333E-4</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0.02</v>
       </c>
       <c r="L27" s="9">
-        <f>K27*D27/G27</f>
-        <v>1.0371874134908184E-3</v>
+        <f t="shared" si="11"/>
+        <v>9.4860201162683393E-4</v>
       </c>
       <c r="N27" s="6">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>3.2025012228672711E-2</v>
       </c>
       <c r="O27" s="4">
         <f t="shared" si="6"/>
-        <v>1.1730701101385617E-3</v>
+        <v>9.4860201162683393E-4</v>
       </c>
       <c r="Q27" s="4">
         <f t="shared" si="7"/>
-        <v>9.3742181201523448E-4</v>
+        <v>1.3728439258461904E-3</v>
       </c>
       <c r="R27" s="5">
         <f t="shared" si="8"/>
-        <v>1.0602341428015563E-3</v>
+        <v>8.5735731561535676E-4</v>
       </c>
       <c r="T27" s="3">
         <f t="shared" si="9"/>
-        <v>4.6993902931548044E-2</v>
+        <v>4.2352379170537004E-2</v>
       </c>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.2">
@@ -1974,21 +1975,21 @@
         <v>43</v>
       </c>
       <c r="D28" s="2">
-        <v>4.6381662931548044E-2</v>
-      </c>
-      <c r="E28" s="13">
-        <v>1.22449E-3</v>
+        <v>4.1927888570537003E-2</v>
+      </c>
+      <c r="E28" s="14">
+        <v>8.989213E-4</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="1"/>
-        <v>4.5157172931548042E-2</v>
+        <v>4.1028967270537002E-2</v>
       </c>
       <c r="G28" s="2">
         <v>0.90556296275282966</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="2"/>
-        <v>9.0954024324601396E-4</v>
+        <v>1.4437591533220592E-3</v>
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
@@ -1996,14 +1997,14 @@
       </c>
       <c r="J28">
         <f t="shared" si="4"/>
-        <v>1.0043920529623845E-3</v>
+        <v>1.5943222202166503E-3</v>
       </c>
       <c r="K28">
         <v>0.02</v>
       </c>
       <c r="L28" s="9">
-        <f>K28*D28/G28</f>
-        <v>1.024371906522148E-3</v>
+        <f t="shared" si="11"/>
+        <v>9.2600714240962344E-4</v>
       </c>
       <c r="N28" s="6">
         <f t="shared" si="5"/>
@@ -2011,19 +2012,19 @@
       </c>
       <c r="O28" s="4">
         <f t="shared" si="6"/>
-        <v>2.0287639594845325E-3</v>
+        <v>2.5203293626262736E-3</v>
       </c>
       <c r="Q28" s="4">
         <f t="shared" si="7"/>
-        <v>9.2763325863096091E-4</v>
+        <v>8.3855777141074006E-4</v>
       </c>
       <c r="R28" s="5">
         <f t="shared" si="8"/>
-        <v>1.837173501876975E-3</v>
+        <v>2.282316924732799E-3</v>
       </c>
       <c r="T28" s="3">
         <f t="shared" si="9"/>
-        <v>4.7291203174794058E-2</v>
+        <v>4.3371647723859062E-2</v>
       </c>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.2">
@@ -2032,25 +2033,25 @@
         <v>44</v>
       </c>
       <c r="D29" s="2">
-        <v>4.7291203174794058E-2</v>
-      </c>
-      <c r="E29" s="13">
-        <v>1.22449E-3</v>
+        <v>4.302206722385906E-2</v>
+      </c>
+      <c r="E29" s="14">
+        <v>5.493408E-4</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="1"/>
-        <v>4.6066713174794056E-2</v>
+        <v>4.2472726423859061E-2</v>
       </c>
       <c r="G29" s="2">
         <v>0.90190006614154294</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="2"/>
-        <v>-8.4053736217330061E-4</v>
+        <v>-5.019228541272569E-4</v>
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
-        <v>1.7773651456203639E-2</v>
+        <v>1.1666637298379329E-2</v>
       </c>
       <c r="J29">
         <f t="shared" si="4"/>
@@ -2060,28 +2061,28 @@
         <v>0.02</v>
       </c>
       <c r="L29" s="9">
-        <f>K29*D29/G29</f>
-        <v>1.0487016233874462E-3</v>
+        <f t="shared" si="11"/>
+        <v>9.540318010600354E-4</v>
       </c>
       <c r="N29" s="6">
         <f t="shared" si="5"/>
-        <v>3.7773651456203636E-2</v>
+        <v>3.1666637298379333E-2</v>
       </c>
       <c r="O29" s="4">
         <f t="shared" si="6"/>
-        <v>1.0487016233874462E-3</v>
+        <v>9.540318010600354E-4</v>
       </c>
       <c r="Q29" s="4">
         <f t="shared" si="7"/>
-        <v>1.7863614256691815E-3</v>
+        <v>1.3623641986044383E-3</v>
       </c>
       <c r="R29" s="5">
         <f t="shared" si="8"/>
-        <v>9.4582406349588124E-4</v>
+        <v>8.6044134447718125E-4</v>
       </c>
       <c r="T29" s="3">
         <f t="shared" si="9"/>
-        <v>4.6450665812620757E-2</v>
+        <v>4.2520144369731804E-2</v>
       </c>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.2">
@@ -2090,56 +2091,56 @@
         <v>45</v>
       </c>
       <c r="D30" s="2">
-        <v>4.6042505812620753E-2</v>
-      </c>
-      <c r="E30" s="13">
-        <v>8.1632999999999999E-4</v>
+        <v>4.2145593869731802E-2</v>
+      </c>
+      <c r="E30" s="14">
+        <v>1.7479029999999999E-4</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="1"/>
-        <v>4.5226175812620756E-2</v>
+        <v>4.1970803569731804E-2</v>
       </c>
       <c r="G30" s="2">
         <v>0.89936797982774996</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" si="2"/>
-        <v>7.8118604453118745E-4</v>
+        <v>-4.4824624586867201E-4</v>
       </c>
       <c r="I30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.0635660924702126E-2</v>
       </c>
       <c r="J30">
         <f t="shared" si="4"/>
-        <v>8.6859445972359707E-4</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0.02</v>
       </c>
       <c r="L30" s="9">
-        <f>K30*D30/G30</f>
-        <v>1.0238858141567143E-3</v>
+        <f t="shared" si="11"/>
+        <v>9.3722691523448888E-4</v>
       </c>
       <c r="N30" s="6">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>3.0635660924702126E-2</v>
       </c>
       <c r="O30" s="4">
         <f t="shared" si="6"/>
-        <v>1.8924802738803114E-3</v>
+        <v>9.3722691523448888E-4</v>
       </c>
       <c r="Q30" s="4">
         <f t="shared" si="7"/>
-        <v>9.2085011625241511E-4</v>
+        <v>1.2911581232633081E-3</v>
       </c>
       <c r="R30" s="5">
         <f t="shared" si="8"/>
-        <v>1.7020361607836027E-3</v>
+        <v>8.4291187739463612E-4</v>
       </c>
       <c r="T30" s="3">
         <f t="shared" si="9"/>
-        <v>4.682369185715194E-2</v>
+        <v>4.169734762386313E-2</v>
       </c>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.2">
@@ -2148,56 +2149,56 @@
         <v>46</v>
       </c>
       <c r="D31" s="2">
-        <v>4.6619601857151943E-2</v>
-      </c>
-      <c r="E31" s="13">
-        <v>6.1224000000000001E-4</v>
+        <v>4.172231762386313E-2</v>
+      </c>
+      <c r="E31" s="14">
+        <v>1.9976029999999999E-4</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="1"/>
-        <v>4.6007361857151943E-2</v>
+        <v>4.1522557323863132E-2</v>
       </c>
       <c r="G31" s="2">
         <v>0.89798384532213948</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" si="2"/>
-        <v>4.5039101515184643E-4</v>
+        <v>-6.701797717058311E-5</v>
       </c>
       <c r="I31">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.6062860595321316E-3</v>
       </c>
       <c r="J31">
         <f t="shared" si="4"/>
-        <v>5.0155803748370856E-4</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0.02</v>
       </c>
       <c r="L31" s="9">
-        <f>K31*D31/G31</f>
-        <v>1.0383171612720447E-3</v>
+        <f t="shared" si="11"/>
+        <v>9.2924428075642762E-4</v>
       </c>
       <c r="N31" s="6">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>2.1606286059532132E-2</v>
       </c>
       <c r="O31" s="4">
         <f t="shared" si="6"/>
-        <v>1.5398751987557532E-3</v>
+        <v>9.2924428075642762E-4</v>
       </c>
       <c r="Q31" s="4">
         <f t="shared" si="7"/>
-        <v>9.3239203714303885E-4</v>
+        <v>9.0146432964784574E-4</v>
       </c>
       <c r="R31" s="5">
         <f t="shared" si="8"/>
-        <v>1.3827830522948851E-3</v>
+        <v>8.3444635247726263E-4</v>
       </c>
       <c r="T31" s="3">
         <f t="shared" si="9"/>
-        <v>4.706999287230379E-2</v>
+        <v>4.1655299646692547E-2</v>
       </c>
     </row>
     <row r="32" spans="3:20" x14ac:dyDescent="0.2">
@@ -2206,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D32" s="2">
-        <v>4.645775287230379E-2</v>
-      </c>
-      <c r="E32" s="13">
-        <v>0</v>
+        <v>4.1605359546692547E-2</v>
+      </c>
+      <c r="E32" s="14">
+        <v>1.4982020000000001E-4</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="1"/>
-        <v>4.645775287230379E-2</v>
+        <v>4.1455539346692549E-2</v>
       </c>
       <c r="G32" s="2">
         <v>0.89525091569357917</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="2"/>
-        <v>-4.0532086604025686E-3</v>
+        <v>-2.6960848951266825E-3</v>
       </c>
       <c r="I32">
         <f t="shared" si="3"/>
-        <v>8.7245043287897076E-2</v>
+        <v>6.480138435292071E-2</v>
       </c>
       <c r="J32">
         <f t="shared" si="4"/>
@@ -2234,28 +2235,28 @@
         <v>0.02</v>
       </c>
       <c r="L32" s="9">
-        <f>K32*D32/G32</f>
-        <v>1.037871105360702E-3</v>
+        <f t="shared" si="11"/>
+        <v>9.2946812602720573E-4</v>
       </c>
       <c r="N32" s="6">
         <f t="shared" si="5"/>
-        <v>0.10724504328789708</v>
+        <v>8.4801384352920714E-2</v>
       </c>
       <c r="O32" s="4">
         <f t="shared" si="6"/>
-        <v>1.037871105360702E-3</v>
+        <v>9.2946812602720573E-4</v>
       </c>
       <c r="Q32" s="4">
         <f t="shared" si="7"/>
-        <v>4.9823637178486452E-3</v>
+        <v>3.528192086060534E-3</v>
       </c>
       <c r="R32" s="5">
         <f t="shared" si="8"/>
-        <v>9.2915505744607565E-4</v>
+        <v>8.3210719093385099E-4</v>
       </c>
       <c r="T32" s="3">
         <f t="shared" si="9"/>
-        <v>4.2404544211901221E-2</v>
+        <v>3.8909274651565864E-2</v>
       </c>
     </row>
     <row r="33" spans="3:20" x14ac:dyDescent="0.2">
@@ -2264,21 +2265,21 @@
         <v>48</v>
       </c>
       <c r="D33" s="2">
-        <v>4.2404544211901221E-2</v>
-      </c>
-      <c r="E33" s="13">
+        <v>3.8759454451565867E-2</v>
+      </c>
+      <c r="E33" s="14">
         <v>0</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="1"/>
-        <v>4.2404544211901221E-2</v>
+        <v>3.8759454451565867E-2</v>
       </c>
       <c r="G33" s="2">
         <v>0.89575043285440903</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="2"/>
-        <v>3.5244126759597788E-3</v>
+        <v>2.8108473927085792E-3</v>
       </c>
       <c r="I33">
         <f t="shared" si="3"/>
@@ -2286,14 +2287,14 @@
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>3.9345922108335952E-3</v>
+        <v>3.1379805017246816E-3</v>
       </c>
       <c r="K33">
         <v>0.02</v>
       </c>
       <c r="L33" s="9">
-        <f>K33*D33/G33</f>
-        <v>9.4679371969208861E-4</v>
+        <f t="shared" si="11"/>
+        <v>8.6540744006239614E-4</v>
       </c>
       <c r="N33" s="6">
         <f t="shared" si="5"/>
@@ -2301,19 +2302,19 @@
       </c>
       <c r="O33" s="4">
         <f t="shared" si="6"/>
-        <v>4.8813859305256837E-3</v>
+        <v>4.0033879417870778E-3</v>
       </c>
       <c r="Q33" s="4">
         <f t="shared" si="7"/>
-        <v>8.480908842380244E-4</v>
+        <v>7.7518908903131739E-4</v>
       </c>
       <c r="R33" s="5">
         <f t="shared" si="8"/>
-        <v>4.3725035601978037E-3</v>
+        <v>3.5860364817398966E-3</v>
       </c>
       <c r="T33" s="3">
         <f t="shared" si="9"/>
-        <v>4.5928956887861E-2</v>
+        <v>4.1570301844274446E-2</v>
       </c>
     </row>
     <row r="34" spans="3:20" x14ac:dyDescent="0.2">
@@ -2322,25 +2323,25 @@
         <v>49</v>
       </c>
       <c r="D34" s="2">
-        <v>4.5928956887861E-2</v>
-      </c>
-      <c r="E34" s="13">
+        <v>4.1570301844274446E-2</v>
+      </c>
+      <c r="E34" s="14">
         <v>0</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" si="1"/>
-        <v>4.5928956887861E-2</v>
+        <v>4.1570301844274446E-2</v>
       </c>
       <c r="G34" s="2">
         <v>0.89236790606653615</v>
       </c>
       <c r="H34" s="3">
         <f t="shared" si="2"/>
-        <v>-1.4509863349595961E-3</v>
+        <v>-1.0875258824942086E-3</v>
       </c>
       <c r="I34">
         <f t="shared" si="3"/>
-        <v>3.1591972325918226E-2</v>
+        <v>2.6161125472895633E-2</v>
       </c>
       <c r="J34">
         <f t="shared" si="4"/>
@@ -2350,28 +2351,28 @@
         <v>0.02</v>
       </c>
       <c r="L34" s="9">
-        <f>K34*D34/G34</f>
-        <v>1.0293726741095164E-3</v>
+        <f t="shared" si="11"/>
+        <v>9.3168527379053703E-4</v>
       </c>
       <c r="N34" s="6">
         <f t="shared" si="5"/>
-        <v>5.1591972325918223E-2</v>
+        <v>4.6161125472895637E-2</v>
       </c>
       <c r="O34" s="4">
         <f t="shared" si="6"/>
-        <v>1.0293726741095164E-3</v>
+        <v>9.3168527379053703E-4</v>
       </c>
       <c r="Q34" s="4">
         <f t="shared" si="7"/>
-        <v>2.3695654727168159E-3</v>
+        <v>1.9189319193796976E-3</v>
       </c>
       <c r="R34" s="5">
         <f t="shared" si="8"/>
-        <v>9.1857913775722012E-4</v>
+        <v>8.3140603688548894E-4</v>
       </c>
       <c r="T34" s="3">
         <f t="shared" si="9"/>
-        <v>4.4477970552901404E-2</v>
+        <v>4.0482775961780237E-2</v>
       </c>
     </row>
     <row r="35" spans="3:20" x14ac:dyDescent="0.2">
@@ -2380,21 +2381,21 @@
         <v>50</v>
       </c>
       <c r="D35" s="2">
-        <v>4.4477970552901404E-2</v>
-      </c>
-      <c r="E35" s="13">
+        <v>4.0482775961780237E-2</v>
+      </c>
+      <c r="E35" s="14">
         <v>0</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="1"/>
-        <v>4.4477970552901404E-2</v>
+        <v>4.0482775961780237E-2</v>
       </c>
       <c r="G35" s="2">
         <v>0.8893917805157433</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="2"/>
-        <v>1.5366407217687547E-3</v>
+        <v>2.2333945757838231E-3</v>
       </c>
       <c r="I35">
         <f t="shared" si="3"/>
@@ -2402,14 +2403,14 @@
       </c>
       <c r="J35">
         <f t="shared" si="4"/>
-        <v>1.7277433358757629E-3</v>
+        <v>2.5111482079233013E-3</v>
       </c>
       <c r="K35">
         <v>0.02</v>
       </c>
       <c r="L35" s="9">
-        <f>K35*D35/G35</f>
-        <v>1.000188477728215E-3</v>
+        <f t="shared" si="11"/>
+        <v>9.1034742727900985E-4</v>
       </c>
       <c r="N35" s="6">
         <f t="shared" si="5"/>
@@ -2417,19 +2418,19 @@
       </c>
       <c r="O35" s="4">
         <f t="shared" si="6"/>
-        <v>2.7279318136039779E-3</v>
+        <v>3.421495635202311E-3</v>
       </c>
       <c r="Q35" s="4">
         <f t="shared" si="7"/>
-        <v>8.8955941105802805E-4</v>
+        <v>8.0965551923560476E-4</v>
       </c>
       <c r="R35" s="5">
         <f t="shared" si="8"/>
-        <v>2.4262001328267824E-3</v>
+        <v>3.0430500950194275E-3</v>
       </c>
       <c r="T35" s="3">
         <f t="shared" si="9"/>
-        <v>4.6014611274670159E-2</v>
+        <v>4.271617053756406E-2</v>
       </c>
     </row>
     <row r="36" spans="3:20" x14ac:dyDescent="0.2">
@@ -2438,25 +2439,25 @@
         <v>51</v>
       </c>
       <c r="D36" s="2">
-        <v>4.6014611274670159E-2</v>
-      </c>
-      <c r="E36" s="13">
+        <v>4.271617053756406E-2</v>
+      </c>
+      <c r="E36" s="14">
         <v>0</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="1"/>
-        <v>4.6014611274670159E-2</v>
+        <v>4.271617053756406E-2</v>
       </c>
       <c r="G36" s="2">
         <v>0.88398211754443357</v>
       </c>
       <c r="H36" s="3">
         <f t="shared" si="2"/>
-        <v>-1.3027062534306452E-3</v>
+        <v>-1.7347959596313717E-3</v>
       </c>
       <c r="I36">
         <f t="shared" si="3"/>
-        <v>2.8310708649792529E-2</v>
+        <v>4.061216016791145E-2</v>
       </c>
       <c r="J36">
         <f t="shared" si="4"/>
@@ -2466,28 +2467,28 @@
         <v>0.02</v>
       </c>
       <c r="L36" s="9">
-        <f>K36*D36/G36</f>
-        <v>1.0410756136672013E-3</v>
+        <f t="shared" si="11"/>
+        <v>9.6644874799555933E-4</v>
       </c>
       <c r="N36" s="6">
         <f t="shared" si="5"/>
-        <v>4.8310708649792533E-2</v>
+        <v>6.0612160167911447E-2</v>
       </c>
       <c r="O36" s="4">
         <f t="shared" si="6"/>
-        <v>1.0410756136672013E-3</v>
+        <v>9.6644874799555933E-4</v>
       </c>
       <c r="Q36" s="4">
         <f t="shared" si="7"/>
-        <v>2.2229984789240488E-3</v>
+        <v>2.5891193703826529E-3</v>
       </c>
       <c r="R36" s="5">
         <f t="shared" si="8"/>
-        <v>9.2029222549340321E-4</v>
+        <v>8.5432341075128123E-4</v>
       </c>
       <c r="T36" s="3">
         <f t="shared" si="9"/>
-        <v>4.4711905021239513E-2</v>
+        <v>4.0981374577932689E-2</v>
       </c>
     </row>
     <row r="37" spans="3:20" x14ac:dyDescent="0.2">
@@ -2496,21 +2497,21 @@
         <v>52</v>
       </c>
       <c r="D37" s="2">
-        <v>4.4711905021239513E-2</v>
-      </c>
-      <c r="E37" s="13">
+        <v>4.0981374577932689E-2</v>
+      </c>
+      <c r="E37" s="14">
         <v>0</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" si="1"/>
-        <v>4.4711905021239513E-2</v>
+        <v>4.0981374577932689E-2</v>
       </c>
       <c r="G37" s="2">
         <v>0.88152162073848161</v>
       </c>
       <c r="H37" s="3">
         <f t="shared" si="2"/>
-        <v>2.4093689681439073E-3</v>
+        <v>2.4377080408232651E-3</v>
       </c>
       <c r="I37">
         <f t="shared" si="3"/>
@@ -2518,14 +2519,14 @@
       </c>
       <c r="J37">
         <f t="shared" si="4"/>
-        <v>2.7331932779203921E-3</v>
+        <v>2.765341182194841E-3</v>
       </c>
       <c r="K37">
         <v>0.02</v>
       </c>
       <c r="L37" s="9">
-        <f>K37*D37/G37</f>
-        <v>1.014425601581565E-3</v>
+        <f t="shared" si="11"/>
+        <v>9.297871683192785E-4</v>
       </c>
       <c r="N37" s="6">
         <f t="shared" si="5"/>
@@ -2533,19 +2534,19 @@
       </c>
       <c r="O37" s="4">
         <f t="shared" si="6"/>
-        <v>3.7476188795019568E-3</v>
+        <v>3.6951283505141192E-3</v>
       </c>
       <c r="Q37" s="4">
         <f t="shared" si="7"/>
-        <v>8.9423810042479034E-4</v>
+        <v>8.1962749155865377E-4</v>
       </c>
       <c r="R37" s="5">
         <f t="shared" si="8"/>
-        <v>3.3036070685686972E-3</v>
+        <v>3.2573355323819186E-3</v>
       </c>
       <c r="T37" s="3">
         <f t="shared" si="9"/>
-        <v>4.7121273989383421E-2</v>
+        <v>4.3419082618755954E-2</v>
       </c>
     </row>
     <row r="38" spans="3:20" x14ac:dyDescent="0.2">
@@ -2554,25 +2555,25 @@
         <v>53</v>
       </c>
       <c r="D38" s="2">
-        <v>4.7121273989383421E-2</v>
-      </c>
-      <c r="E38" s="13">
+        <v>4.3419082618755954E-2</v>
+      </c>
+      <c r="E38" s="14">
         <v>0</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" si="1"/>
-        <v>4.7121273989383421E-2</v>
+        <v>4.3419082618755954E-2</v>
       </c>
       <c r="G38" s="2">
         <v>0.87390771743568796</v>
       </c>
       <c r="H38" s="3">
         <f t="shared" si="2"/>
-        <v>-2.9367211873708929E-3</v>
+        <v>-2.9812514353271674E-3</v>
       </c>
       <c r="I38">
         <f t="shared" si="3"/>
-        <v>6.232261861240309E-2</v>
+        <v>6.8662239170372105E-2</v>
       </c>
       <c r="J38">
         <f t="shared" si="4"/>
@@ -2582,28 +2583,28 @@
         <v>0.02</v>
       </c>
       <c r="L38" s="9">
-        <f>K38*D38/G38</f>
-        <v>1.078403887487151E-3</v>
+        <f t="shared" si="11"/>
+        <v>9.9367660343270114E-4</v>
       </c>
       <c r="N38" s="6">
         <f t="shared" si="5"/>
-        <v>8.2322618612403087E-2</v>
+        <v>8.8662239170372109E-2</v>
       </c>
       <c r="O38" s="4">
         <f t="shared" si="6"/>
-        <v>1.078403887487151E-3</v>
+        <v>9.9367660343270114E-4</v>
       </c>
       <c r="Q38" s="4">
         <f t="shared" si="7"/>
-        <v>3.879146667158561E-3</v>
+        <v>3.8496330877022871E-3</v>
       </c>
       <c r="R38" s="5">
         <f t="shared" si="8"/>
-        <v>9.4242547978766857E-4</v>
+        <v>8.683816523751192E-4</v>
       </c>
       <c r="T38" s="3">
         <f t="shared" si="9"/>
-        <v>4.4184552802012528E-2</v>
+        <v>4.0437831183428787E-2</v>
       </c>
     </row>
     <row r="39" spans="3:20" x14ac:dyDescent="0.2">
@@ -2612,21 +2613,21 @@
         <v>54</v>
       </c>
       <c r="D39" s="2">
-        <v>4.4184552802012528E-2</v>
-      </c>
-      <c r="E39" s="13">
+        <v>4.0437831183428787E-2</v>
+      </c>
+      <c r="E39" s="14">
         <v>0</v>
       </c>
       <c r="F39" s="3">
         <f t="shared" si="1"/>
-        <v>4.4184552802012528E-2</v>
+        <v>4.0437831183428787E-2</v>
       </c>
       <c r="G39" s="2">
         <v>0.87025638280790019</v>
       </c>
       <c r="H39" s="3">
         <f t="shared" si="2"/>
-        <v>1.849008350023211E-3</v>
+        <v>1.4471248041253992E-3</v>
       </c>
       <c r="I39">
         <f t="shared" si="3"/>
@@ -2634,14 +2635,14 @@
       </c>
       <c r="J39">
         <f t="shared" si="4"/>
-        <v>2.1246708286784951E-3</v>
+        <v>1.6628718073359269E-3</v>
       </c>
       <c r="K39">
         <v>0.02</v>
       </c>
       <c r="L39" s="9">
-        <f>K39*D39/G39</f>
-        <v>1.0154376037886711E-3</v>
+        <f t="shared" si="11"/>
+        <v>9.2933144719847479E-4</v>
       </c>
       <c r="N39" s="6">
         <f t="shared" si="5"/>
@@ -2649,19 +2650,19 @@
       </c>
       <c r="O39" s="4">
         <f t="shared" si="6"/>
-        <v>3.1401084324671662E-3</v>
+        <v>2.5922032545344018E-3</v>
       </c>
       <c r="Q39" s="4">
         <f t="shared" si="7"/>
-        <v>8.836910560402506E-4</v>
+        <v>8.0875662366857576E-4</v>
       </c>
       <c r="R39" s="5">
         <f t="shared" si="8"/>
-        <v>2.7326994060634614E-3</v>
+        <v>2.2558814277939751E-3</v>
       </c>
       <c r="T39" s="3">
         <f t="shared" si="9"/>
-        <v>4.6033561152035739E-2</v>
+        <v>4.1884955987554186E-2</v>
       </c>
     </row>
     <row r="40" spans="3:20" x14ac:dyDescent="0.2">
@@ -2670,21 +2671,21 @@
         <v>55</v>
       </c>
       <c r="D40" s="2">
-        <v>4.6033561152035739E-2</v>
-      </c>
-      <c r="E40" s="13">
+        <v>4.1884955987554186E-2</v>
+      </c>
+      <c r="E40" s="14">
         <v>0</v>
       </c>
       <c r="F40" s="3">
         <f t="shared" si="1"/>
-        <v>4.6033561152035739E-2</v>
+        <v>4.1884955987554186E-2</v>
       </c>
       <c r="G40" s="2">
         <v>0.86080897800707401</v>
       </c>
       <c r="H40" s="3">
         <f t="shared" si="2"/>
-        <v>1.2801210164182161E-3</v>
+        <v>1.0637965047667688E-3</v>
       </c>
       <c r="I40">
         <f t="shared" si="3"/>
@@ -2692,14 +2693,14 @@
       </c>
       <c r="J40">
         <f t="shared" si="4"/>
-        <v>1.4871139232096814E-3</v>
+        <v>1.2358101877952611E-3</v>
       </c>
       <c r="K40">
         <v>0.02</v>
       </c>
       <c r="L40" s="9">
-        <f>K40*D40/G40</f>
-        <v>1.0695418455930054E-3</v>
+        <f t="shared" si="11"/>
+        <v>9.7315332571287338E-4</v>
       </c>
       <c r="N40" s="6">
         <f t="shared" si="5"/>
@@ -2707,19 +2708,19 @@
       </c>
       <c r="O40" s="4">
         <f t="shared" si="6"/>
-        <v>2.556655768802687E-3</v>
+        <v>2.2089635135081344E-3</v>
       </c>
       <c r="Q40" s="4">
         <f t="shared" si="7"/>
-        <v>9.2067122304071477E-4</v>
+        <v>8.3769911975108374E-4</v>
       </c>
       <c r="R40" s="5">
         <f t="shared" si="8"/>
-        <v>2.200792239458931E-3</v>
+        <v>1.9014956245178526E-3</v>
       </c>
       <c r="T40" s="3">
         <f t="shared" si="9"/>
-        <v>4.7313682168453955E-2</v>
+        <v>4.2948752492320955E-2</v>
       </c>
     </row>
     <row r="41" spans="3:20" x14ac:dyDescent="0.2">
@@ -2728,21 +2729,21 @@
         <v>56</v>
       </c>
       <c r="D41" s="2">
-        <v>4.7313682168453955E-2</v>
-      </c>
-      <c r="E41" s="13">
+        <v>4.2948752492320955E-2</v>
+      </c>
+      <c r="E41" s="14">
         <v>0</v>
       </c>
       <c r="F41" s="3">
         <f t="shared" si="1"/>
-        <v>4.7313682168453955E-2</v>
+        <v>4.2948752492320955E-2</v>
       </c>
       <c r="G41" s="2">
         <v>0.84644608503529672</v>
       </c>
       <c r="H41" s="3">
         <f t="shared" si="2"/>
-        <v>6.4106822092222654E-4</v>
+        <v>1.2078723676402434E-3</v>
       </c>
       <c r="I41">
         <f t="shared" si="3"/>
@@ -2750,14 +2751,14 @@
       </c>
       <c r="J41">
         <f t="shared" si="4"/>
-        <v>7.5736450585094746E-4</v>
+        <v>1.4269926803310517E-3</v>
       </c>
       <c r="K41">
         <v>0.02</v>
       </c>
       <c r="L41" s="9">
-        <f>K41*D41/G41</f>
-        <v>1.1179372911029762E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.0148018462517905E-3</v>
       </c>
       <c r="N41" s="6">
         <f t="shared" si="5"/>
@@ -2765,19 +2766,19 @@
       </c>
       <c r="O41" s="4">
         <f t="shared" si="6"/>
-        <v>1.8753017969539237E-3</v>
+        <v>2.4417945265828422E-3</v>
       </c>
       <c r="Q41" s="4">
         <f t="shared" si="7"/>
-        <v>9.4627364336907912E-4</v>
+        <v>8.5897504984641909E-4</v>
       </c>
       <c r="R41" s="5">
         <f t="shared" si="8"/>
-        <v>1.5873418642913056E-3</v>
+        <v>2.0668474174866626E-3</v>
       </c>
       <c r="T41" s="3">
         <f t="shared" si="9"/>
-        <v>4.7954750389376181E-2</v>
+        <v>4.4156624859961198E-2</v>
       </c>
     </row>
     <row r="42" spans="3:20" x14ac:dyDescent="0.2">
@@ -2786,25 +2787,25 @@
         <v>57</v>
       </c>
       <c r="D42" s="2">
-        <v>4.7954750389376181E-2</v>
-      </c>
-      <c r="E42" s="13">
+        <v>4.4156624859961198E-2</v>
+      </c>
+      <c r="E42" s="14">
         <v>0</v>
       </c>
       <c r="F42" s="3">
         <f t="shared" si="1"/>
-        <v>4.7954750389376181E-2</v>
+        <v>4.4156624859961198E-2</v>
       </c>
       <c r="G42" s="2">
         <v>0.83411208569008388</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" si="2"/>
-        <v>-4.4663823362279392E-4</v>
+        <v>-2.2230197347427941E-3</v>
       </c>
       <c r="I42">
         <f t="shared" si="3"/>
-        <v>9.3137432683153207E-3</v>
+        <v>5.0343968584394827E-2</v>
       </c>
       <c r="J42">
         <f t="shared" si="4"/>
@@ -2814,28 +2815,28 @@
         <v>0.02</v>
       </c>
       <c r="L42" s="9">
-        <f>K42*D42/G42</f>
-        <v>1.1498394810980804E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.0587695734783464E-3</v>
       </c>
       <c r="N42" s="6">
         <f t="shared" si="5"/>
-        <v>2.9313743268315321E-2</v>
+        <v>7.0343968584394831E-2</v>
       </c>
       <c r="O42" s="4">
         <f t="shared" si="6"/>
-        <v>1.1498394810980804E-3</v>
+        <v>1.0587695734783464E-3</v>
       </c>
       <c r="Q42" s="4">
         <f t="shared" si="7"/>
-        <v>1.4057332414103175E-3</v>
+        <v>3.1061522319420182E-3</v>
       </c>
       <c r="R42" s="5">
         <f t="shared" si="8"/>
-        <v>9.5909500778752364E-4</v>
+        <v>8.8313249719922408E-4</v>
       </c>
       <c r="T42" s="3">
         <f t="shared" si="9"/>
-        <v>4.7508112155753388E-2</v>
+        <v>4.1933605125218404E-2</v>
       </c>
     </row>
     <row r="43" spans="3:20" x14ac:dyDescent="0.2">
@@ -2844,25 +2845,25 @@
         <v>58</v>
       </c>
       <c r="D43" s="2">
-        <v>4.7508112155753388E-2</v>
-      </c>
-      <c r="E43" s="13">
+        <v>4.1933605125218404E-2</v>
+      </c>
+      <c r="E43" s="14">
         <v>0</v>
       </c>
       <c r="F43" s="3">
         <f t="shared" si="1"/>
-        <v>4.7508112155753388E-2</v>
+        <v>4.1933605125218404E-2</v>
       </c>
       <c r="G43" s="2">
         <v>0.82497157278753086</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" si="2"/>
-        <v>-2.5171941733585293E-3</v>
+        <v>-1.0226088977487932E-3</v>
       </c>
       <c r="I43">
         <f t="shared" si="3"/>
-        <v>5.2984512731341797E-2</v>
+        <v>2.4386381631037193E-2</v>
       </c>
       <c r="J43">
         <f t="shared" si="4"/>
@@ -2872,28 +2873,28 @@
         <v>0.02</v>
       </c>
       <c r="L43" s="9">
-        <f>K43*D43/G43</f>
-        <v>1.1517514959994621E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.0166072749277213E-3</v>
       </c>
       <c r="N43" s="6">
         <f t="shared" si="5"/>
-        <v>7.2984512731341794E-2</v>
+        <v>4.4386381631037197E-2</v>
       </c>
       <c r="O43" s="4">
         <f t="shared" si="6"/>
-        <v>1.1517514959994621E-3</v>
+        <v>1.0166072749277213E-3</v>
       </c>
       <c r="Q43" s="4">
         <f t="shared" si="7"/>
-        <v>3.4673564164735969E-3</v>
+        <v>1.8612810002531614E-3</v>
       </c>
       <c r="R43" s="5">
         <f t="shared" si="8"/>
-        <v>9.5016224311506785E-4</v>
+        <v>8.38672102504368E-4</v>
       </c>
       <c r="T43" s="3">
         <f t="shared" si="9"/>
-        <v>4.4990917982394858E-2</v>
+        <v>4.0910996227469604E-2</v>
       </c>
     </row>
     <row r="44" spans="3:20" x14ac:dyDescent="0.2">
@@ -2902,25 +2903,25 @@
         <v>59</v>
       </c>
       <c r="D44" s="2">
-        <v>4.4990917982394858E-2</v>
-      </c>
-      <c r="E44" s="13">
+        <v>4.0910996227469611E-2</v>
+      </c>
+      <c r="E44" s="14">
         <v>0</v>
       </c>
       <c r="F44" s="3">
         <f t="shared" si="1"/>
-        <v>4.4990917982394858E-2</v>
+        <v>4.0910996227469611E-2</v>
       </c>
       <c r="G44" s="2">
         <v>0.80681849937124495</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" si="2"/>
-        <v>-1.4077348690611363E-3</v>
+        <v>-2.5031343911028001E-3</v>
       </c>
       <c r="I44">
         <f t="shared" si="3"/>
-        <v>3.1289311980964449E-2</v>
+        <v>6.1184879908206077E-2</v>
       </c>
       <c r="J44">
         <f t="shared" si="4"/>
@@ -2930,28 +2931,28 @@
         <v>0.02</v>
       </c>
       <c r="L44" s="9">
-        <f>K44*D44/G44</f>
-        <v>1.115267387087836E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.0141313383208645E-3</v>
       </c>
       <c r="N44" s="6">
         <f t="shared" si="5"/>
-        <v>5.1289311980964453E-2</v>
+        <v>8.1184879908206081E-2</v>
       </c>
       <c r="O44" s="4">
         <f t="shared" si="6"/>
-        <v>1.115267387087836E-3</v>
+        <v>1.0141313383208645E-3</v>
       </c>
       <c r="Q44" s="4">
         <f t="shared" si="7"/>
-        <v>2.3075532287090334E-3</v>
+        <v>3.3213543156521922E-3</v>
       </c>
       <c r="R44" s="5">
         <f t="shared" si="8"/>
-        <v>8.9981835964789722E-4</v>
+        <v>8.1821992454939225E-4</v>
       </c>
       <c r="T44" s="3">
         <f t="shared" si="9"/>
-        <v>4.3583183113333722E-2</v>
+        <v>3.8407861836366811E-2</v>
       </c>
     </row>
     <row r="45" spans="3:20" x14ac:dyDescent="0.2">
@@ -2960,25 +2961,25 @@
         <v>60</v>
       </c>
       <c r="D45" s="2">
-        <v>4.3583183113333722E-2</v>
-      </c>
-      <c r="E45" s="13">
+        <v>3.8407861836366811E-2</v>
+      </c>
+      <c r="E45" s="14">
         <v>0</v>
       </c>
       <c r="F45" s="3">
         <f t="shared" si="1"/>
-        <v>4.3583183113333722E-2</v>
+        <v>3.8407861836366811E-2</v>
       </c>
       <c r="G45" s="2">
         <v>0.77568761993370938</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" si="2"/>
-        <v>-4.2636382447725427E-3</v>
+        <v>-1.8908504580808366E-3</v>
       </c>
       <c r="I45">
         <f t="shared" si="3"/>
-        <v>9.7827600927756386E-2</v>
+        <v>4.923081805846502E-2</v>
       </c>
       <c r="J45">
         <f t="shared" si="4"/>
@@ -2988,28 +2989,28 @@
         <v>0.02</v>
       </c>
       <c r="L45" s="9">
-        <f>K45*D45/G45</f>
-        <v>1.1237302747479291E-3</v>
+        <f t="shared" si="11"/>
+        <v>9.9029198995464595E-4</v>
       </c>
       <c r="N45" s="6">
         <f t="shared" si="5"/>
-        <v>0.11782760092775639</v>
+        <v>6.9230818058465024E-2</v>
       </c>
       <c r="O45" s="4">
         <f t="shared" si="6"/>
-        <v>1.1237302747479291E-3</v>
+        <v>9.9029198995464595E-4</v>
       </c>
       <c r="Q45" s="4">
         <f t="shared" si="7"/>
-        <v>5.1353019070392173E-3</v>
+        <v>2.6590076948081729E-3</v>
       </c>
       <c r="R45" s="5">
         <f t="shared" si="8"/>
-        <v>8.716636622666745E-4</v>
+        <v>7.6815723672733619E-4</v>
       </c>
       <c r="T45" s="3">
         <f t="shared" si="9"/>
-        <v>3.9319544868561179E-2</v>
+        <v>3.6517011378285974E-2</v>
       </c>
     </row>
     <row r="46" spans="3:20" x14ac:dyDescent="0.2">
@@ -3018,25 +3019,25 @@
         <v>61</v>
       </c>
       <c r="D46" s="2">
-        <v>3.9319544868561179E-2</v>
-      </c>
-      <c r="E46" s="13">
+        <v>3.6517011378285974E-2</v>
+      </c>
+      <c r="E46" s="14">
         <v>0</v>
       </c>
       <c r="F46" s="3">
         <f t="shared" si="1"/>
-        <v>3.9319544868561179E-2</v>
+        <v>3.6517011378285974E-2</v>
       </c>
       <c r="G46" s="2">
         <v>0.74177456420604226</v>
       </c>
       <c r="H46" s="3">
         <f t="shared" si="2"/>
-        <v>-2.2988066541379457E-3</v>
+        <v>-5.1346471118246736E-3</v>
       </c>
       <c r="I46">
         <f t="shared" si="3"/>
-        <v>5.8464732026336549E-2</v>
+        <v>0.14060973004154104</v>
       </c>
       <c r="J46">
         <f t="shared" si="4"/>
@@ -3046,28 +3047,28 @@
         <v>0.02</v>
       </c>
       <c r="L46" s="9">
-        <f>K46*D46/G46</f>
-        <v>1.0601481033701073E-3</v>
+        <f t="shared" si="11"/>
+        <v>9.8458515943781176E-4</v>
       </c>
       <c r="N46" s="6">
         <f t="shared" si="5"/>
-        <v>7.8464732026336553E-2</v>
+        <v>0.16060973004154103</v>
       </c>
       <c r="O46" s="4">
         <f t="shared" si="6"/>
-        <v>1.0601481033701073E-3</v>
+        <v>9.8458515943781176E-4</v>
       </c>
       <c r="Q46" s="4">
         <f t="shared" si="7"/>
-        <v>3.0851975515091695E-3</v>
+        <v>5.864987339390392E-3</v>
       </c>
       <c r="R46" s="5">
         <f t="shared" si="8"/>
-        <v>7.8639089737122354E-4</v>
+        <v>7.3034022756571942E-4</v>
       </c>
       <c r="T46" s="3">
         <f t="shared" si="9"/>
-        <v>3.7020738214423234E-2</v>
+        <v>3.13823642664613E-2</v>
       </c>
     </row>
     <row r="47" spans="3:20" x14ac:dyDescent="0.2">
@@ -3076,25 +3077,25 @@
         <v>62</v>
       </c>
       <c r="D47" s="2">
-        <v>3.7020738214423234E-2</v>
-      </c>
-      <c r="E47" s="13">
+        <v>3.13823642664613E-2</v>
+      </c>
+      <c r="E47" s="14">
         <v>0</v>
       </c>
       <c r="F47" s="3">
         <f t="shared" si="1"/>
-        <v>3.7020738214423234E-2</v>
+        <v>3.13823642664613E-2</v>
       </c>
       <c r="G47" s="2">
         <v>0.66403542549095107</v>
       </c>
       <c r="H47" s="3">
         <f t="shared" si="2"/>
-        <v>-1.6099766763416446E-2</v>
+        <v>-1.5593480986411942E-2</v>
       </c>
       <c r="I47">
         <f t="shared" si="3"/>
-        <v>0.43488508171195778</v>
+        <v>0.49688674995965415</v>
       </c>
       <c r="J47">
         <f t="shared" si="4"/>
@@ -3104,28 +3105,28 @@
         <v>0.02</v>
       </c>
       <c r="L47" s="9">
-        <f>K47*D47/G47</f>
-        <v>1.1150229880296566E-3</v>
+        <f t="shared" si="11"/>
+        <v>9.4520150768338655E-4</v>
       </c>
       <c r="N47" s="6">
         <f t="shared" si="5"/>
-        <v>0.45488508171195779</v>
+        <v>0.51688674995965411</v>
       </c>
       <c r="O47" s="4">
         <f t="shared" si="6"/>
-        <v>1.1150229880296566E-3</v>
+        <v>9.4520150768338655E-4</v>
       </c>
       <c r="Q47" s="4">
         <f t="shared" si="7"/>
-        <v>1.684018152770491E-2</v>
+        <v>1.6221128271741166E-2</v>
       </c>
       <c r="R47" s="5">
         <f t="shared" si="8"/>
-        <v>7.4041476428846466E-4</v>
+        <v>6.2764728532922602E-4</v>
       </c>
       <c r="T47" s="3">
         <f t="shared" si="9"/>
-        <v>2.0920971451006791E-2</v>
+        <v>1.5788883280049362E-2</v>
       </c>
     </row>
     <row r="48" spans="3:20" x14ac:dyDescent="0.2">
@@ -3134,25 +3135,25 @@
         <v>63</v>
       </c>
       <c r="D48" s="2">
-        <v>2.0920971451006787E-2</v>
-      </c>
-      <c r="E48" s="13">
+        <v>1.5788883280049359E-2</v>
+      </c>
+      <c r="E48" s="14">
         <v>0</v>
       </c>
       <c r="F48" s="3">
         <f t="shared" si="1"/>
-        <v>2.0920971451006787E-2</v>
+        <v>1.5788883280049359E-2</v>
       </c>
       <c r="G48" s="2">
         <v>0.42843120758315106</v>
       </c>
       <c r="H48" s="3">
         <f t="shared" si="2"/>
-        <v>-1.2340472065942576E-2</v>
+        <v>-8.8386787781473478E-3</v>
       </c>
       <c r="I48">
         <f t="shared" si="3"/>
-        <v>0.58986133100185034</v>
+        <v>0.55980392161843362</v>
       </c>
       <c r="J48">
         <f t="shared" si="4"/>
@@ -3162,12 +3163,12 @@
         <v>0</v>
       </c>
       <c r="L48" s="9">
-        <f>K48*D48/G48</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N48" s="6">
         <f t="shared" si="5"/>
-        <v>0.58986133100185034</v>
+        <v>0.55980392161843362</v>
       </c>
       <c r="O48" s="4">
         <f t="shared" si="6"/>
@@ -3175,7 +3176,7 @@
       </c>
       <c r="Q48" s="4">
         <f t="shared" si="7"/>
-        <v>1.2340472065942576E-2</v>
+        <v>8.8386787781473478E-3</v>
       </c>
       <c r="R48" s="5">
         <f t="shared" si="8"/>
@@ -3183,7 +3184,7 @@
       </c>
       <c r="T48" s="3">
         <f t="shared" si="9"/>
-        <v>8.5804993850642115E-3</v>
+        <v>6.950204501902011E-3</v>
       </c>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.2">
@@ -3192,25 +3193,25 @@
         <v>64</v>
       </c>
       <c r="D49" s="2">
-        <v>8.5804993850642115E-3</v>
-      </c>
-      <c r="E49" s="13">
+        <v>6.950204501902011E-3</v>
+      </c>
+      <c r="E49" s="14">
         <v>0</v>
       </c>
       <c r="F49" s="3">
         <f t="shared" si="1"/>
-        <v>8.5804993850642115E-3</v>
+        <v>6.950204501902011E-3</v>
       </c>
       <c r="G49" s="2">
         <v>0.24171266767725882</v>
       </c>
       <c r="H49" s="3">
         <f t="shared" si="2"/>
-        <v>-1.367498602931597E-3</v>
+        <v>-1.6201155705269062E-3</v>
       </c>
       <c r="I49">
         <f t="shared" si="3"/>
-        <v>0.15937284551432473</v>
+        <v>0.23310329503017374</v>
       </c>
       <c r="J49">
         <f t="shared" si="4"/>
@@ -3220,12 +3221,12 @@
         <v>0</v>
       </c>
       <c r="L49" s="9">
-        <f>K49*D49/G49</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N49" s="6">
         <f t="shared" si="5"/>
-        <v>0.15937284551432473</v>
+        <v>0.23310329503017374</v>
       </c>
       <c r="O49" s="4">
         <f t="shared" si="6"/>
@@ -3233,7 +3234,7 @@
       </c>
       <c r="Q49" s="4">
         <f t="shared" si="7"/>
-        <v>1.367498602931597E-3</v>
+        <v>1.6201155705269062E-3</v>
       </c>
       <c r="R49" s="5">
         <f t="shared" si="8"/>
@@ -3241,7 +3242,7 @@
       </c>
       <c r="T49" s="3">
         <f t="shared" si="9"/>
-        <v>7.2130007821326145E-3</v>
+        <v>5.3300889313751048E-3</v>
       </c>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.2">
@@ -3250,25 +3251,25 @@
         <v>65</v>
       </c>
       <c r="D50" s="2">
-        <v>7.2130007821326145E-3</v>
-      </c>
-      <c r="E50" s="13">
+        <v>5.3300889313751048E-3</v>
+      </c>
+      <c r="E50" s="14">
         <v>0</v>
       </c>
       <c r="F50" s="3">
         <f t="shared" si="1"/>
-        <v>7.2130007821326145E-3</v>
+        <v>5.3300889313751048E-3</v>
       </c>
       <c r="G50" s="2">
         <v>0.14805480721879435</v>
       </c>
       <c r="H50" s="3">
         <f t="shared" si="2"/>
-        <v>-3.1605439801964405E-3</v>
+        <v>-1.3620583128126015E-3</v>
       </c>
       <c r="I50">
         <f t="shared" si="3"/>
-        <v>0.43817324795325835</v>
+        <v>0.25554138595980336</v>
       </c>
       <c r="J50">
         <f t="shared" si="4"/>
@@ -3278,12 +3279,12 @@
         <v>0</v>
       </c>
       <c r="L50" s="9">
-        <f>K50*D50/G50</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N50" s="6">
         <f t="shared" si="5"/>
-        <v>0.43817324795325835</v>
+        <v>0.25554138595980336</v>
       </c>
       <c r="O50" s="4">
         <f t="shared" si="6"/>
@@ -3291,7 +3292,7 @@
       </c>
       <c r="Q50" s="4">
         <f t="shared" si="7"/>
-        <v>3.1605439801964405E-3</v>
+        <v>1.3620583128126015E-3</v>
       </c>
       <c r="R50" s="5">
         <f t="shared" si="8"/>
@@ -3299,7 +3300,7 @@
       </c>
       <c r="T50" s="3">
         <f t="shared" si="9"/>
-        <v>4.052456801936174E-3</v>
+        <v>3.9680306185625033E-3</v>
       </c>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.2">
@@ -3308,56 +3309,56 @@
         <v>66</v>
       </c>
       <c r="D51" s="2">
-        <v>4.052456801936174E-3</v>
-      </c>
-      <c r="E51" s="13">
+        <v>3.9680306185625033E-3</v>
+      </c>
+      <c r="E51" s="14">
         <v>0</v>
       </c>
       <c r="F51" s="3">
         <f t="shared" si="1"/>
-        <v>4.052456801936174E-3</v>
+        <v>3.9680306185625033E-3</v>
       </c>
       <c r="G51" s="2">
         <v>0.11498846175493893</v>
       </c>
       <c r="H51" s="3">
         <f t="shared" si="2"/>
-        <v>2.9600801369479394E-4</v>
+        <v>-6.028858829953878E-5</v>
       </c>
       <c r="I51">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.5193579408764618E-2</v>
       </c>
       <c r="J51">
         <f t="shared" si="4"/>
-        <v>2.574241007986003E-3</v>
+        <v>0</v>
       </c>
       <c r="K51" s="9">
         <v>0</v>
       </c>
       <c r="L51" s="9">
-        <f>K51*D51/G51</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N51" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.5193579408764618E-2</v>
       </c>
       <c r="O51" s="4">
         <f t="shared" si="6"/>
-        <v>2.574241007986003E-3</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6.028858829953878E-5</v>
       </c>
       <c r="R51" s="5">
         <f t="shared" si="8"/>
-        <v>2.9600801369479394E-4</v>
+        <v>0</v>
       </c>
       <c r="T51" s="3">
         <f t="shared" si="9"/>
-        <v>4.3484648156309679E-3</v>
+        <v>3.9077420302629645E-3</v>
       </c>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.2">
@@ -3366,56 +3367,56 @@
         <v>67</v>
       </c>
       <c r="D52" s="2">
-        <v>4.3484648156309679E-3</v>
-      </c>
-      <c r="E52" s="13">
+        <v>3.9077420302629645E-3</v>
+      </c>
+      <c r="E52" s="14">
         <v>0</v>
       </c>
       <c r="F52" s="3">
         <f t="shared" si="1"/>
-        <v>4.3484648156309679E-3</v>
+        <v>3.9077420302629645E-3</v>
       </c>
       <c r="G52" s="2">
         <v>9.3521375055090353E-2</v>
       </c>
       <c r="H52" s="3">
         <f t="shared" si="2"/>
-        <v>3.3557782927262116E-4</v>
+        <v>-4.8810353490390257E-4</v>
       </c>
       <c r="I52">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.12490679556732574</v>
       </c>
       <c r="J52">
         <f t="shared" si="4"/>
-        <v>3.588247382750129E-3</v>
+        <v>0</v>
       </c>
       <c r="K52" s="9">
         <v>0</v>
       </c>
       <c r="L52" s="9">
-        <f>K52*D52/G52</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N52" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.12490679556732574</v>
       </c>
       <c r="O52" s="4">
         <f t="shared" si="6"/>
-        <v>3.588247382750129E-3</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4.8810353490390257E-4</v>
       </c>
       <c r="R52" s="5">
         <f t="shared" si="8"/>
-        <v>3.3557782927262116E-4</v>
+        <v>0</v>
       </c>
       <c r="T52" s="3">
         <f t="shared" si="9"/>
-        <v>4.6840426449035891E-3</v>
+        <v>3.4196384953590619E-3</v>
       </c>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.2">
@@ -3424,25 +3425,25 @@
         <v>68</v>
       </c>
       <c r="D53" s="2">
-        <v>4.6840426449035891E-3</v>
-      </c>
-      <c r="E53" s="13">
+        <v>3.4196384953590619E-3</v>
+      </c>
+      <c r="E53" s="14">
         <v>0</v>
       </c>
       <c r="F53" s="3">
         <f t="shared" si="1"/>
-        <v>4.6840426449035891E-3</v>
+        <v>3.4196384953590619E-3</v>
       </c>
       <c r="G53" s="2">
         <v>1.1552056093565907E-2</v>
       </c>
       <c r="H53" s="3">
         <f t="shared" si="2"/>
-        <v>-1.2083863675292636E-3</v>
+        <v>-2.2655589907208005E-4</v>
       </c>
       <c r="I53">
         <f t="shared" si="3"/>
-        <v>0.25797936934755122</v>
+        <v>6.625141791436398E-2</v>
       </c>
       <c r="J53">
         <f t="shared" si="4"/>
@@ -3452,12 +3453,12 @@
         <v>0</v>
       </c>
       <c r="L53" s="9">
-        <f>K53*D53/G53</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N53" s="6">
         <f t="shared" si="5"/>
-        <v>0.25797936934755122</v>
+        <v>6.625141791436398E-2</v>
       </c>
       <c r="O53" s="4">
         <f t="shared" si="6"/>
@@ -3465,7 +3466,7 @@
       </c>
       <c r="Q53" s="4">
         <f t="shared" si="7"/>
-        <v>1.2083863675292638E-3</v>
+        <v>2.2655589907208005E-4</v>
       </c>
       <c r="R53" s="5">
         <f t="shared" si="8"/>
@@ -3473,7 +3474,7 @@
       </c>
       <c r="T53" s="3">
         <f t="shared" si="9"/>
-        <v>3.4756562773743255E-3</v>
+        <v>3.1930825962869819E-3</v>
       </c>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.2">
@@ -3482,21 +3483,21 @@
         <v>69</v>
       </c>
       <c r="D54" s="2">
-        <v>3.4756562773743255E-3</v>
-      </c>
-      <c r="E54" s="13">
+        <v>3.1930825962869819E-3</v>
+      </c>
+      <c r="E54" s="14">
         <v>0</v>
       </c>
       <c r="F54" s="3">
         <f t="shared" si="1"/>
-        <v>3.4756562773743255E-3</v>
+        <v>3.1930825962869819E-3</v>
       </c>
       <c r="G54" s="2">
         <v>1.921501031393936E-3</v>
       </c>
       <c r="H54" s="3">
         <f t="shared" si="2"/>
-        <v>2.781186654723343E-4</v>
+        <v>1.6555814204950291E-4</v>
       </c>
       <c r="I54">
         <f t="shared" si="3"/>
@@ -3504,13 +3505,13 @@
       </c>
       <c r="J54">
         <f t="shared" si="4"/>
-        <v>0.14474031547647703</v>
+        <v>8.6160839543968512E-2</v>
       </c>
       <c r="K54" s="9">
         <v>0</v>
       </c>
       <c r="L54" s="9">
-        <f>K54*D54/G54</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N54" s="6">
@@ -3519,7 +3520,7 @@
       </c>
       <c r="O54" s="4">
         <f t="shared" si="6"/>
-        <v>0.14474031547647703</v>
+        <v>8.6160839543968512E-2</v>
       </c>
       <c r="Q54" s="4">
         <f t="shared" si="7"/>
@@ -3527,11 +3528,11 @@
       </c>
       <c r="R54" s="5">
         <f t="shared" si="8"/>
-        <v>2.781186654723343E-4</v>
+        <v>1.6555814204950291E-4</v>
       </c>
       <c r="T54" s="3">
         <f t="shared" si="9"/>
-        <v>3.7537749428466598E-3</v>
+        <v>3.3586407383364848E-3</v>
       </c>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.2">
@@ -3540,14 +3541,14 @@
         <v>70</v>
       </c>
       <c r="D55" s="2">
-        <v>3.7537749428466598E-3</v>
-      </c>
-      <c r="E55" s="13">
+        <v>3.3586407383364848E-3</v>
+      </c>
+      <c r="E55" s="14">
         <v>0</v>
       </c>
       <c r="F55" s="3">
         <f t="shared" si="1"/>
-        <v>3.7537749428466598E-3</v>
+        <v>3.3586407383364848E-3</v>
       </c>
       <c r="G55" s="2">
         <v>1.5240890745392454E-3</v>
@@ -4334,7 +4335,7 @@
   <dimension ref="B1:T310"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5:O54"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4421,25 +4422,25 @@
         <v>20</v>
       </c>
       <c r="D5" s="2">
-        <v>7.7039900593676658E-2</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0</v>
+        <v>7.3933452989092915E-2</v>
+      </c>
+      <c r="E5" s="14">
+        <v>5.5339927400000002E-3</v>
       </c>
       <c r="F5" s="3">
         <f>MAX(0,D5-E5)</f>
-        <v>7.7039900593676658E-2</v>
+        <v>6.8399460249092908E-2</v>
       </c>
       <c r="G5" s="2">
         <v>0.62663951401353035</v>
       </c>
       <c r="H5" s="3">
         <f>F6-F5</f>
-        <v>-3.5314692932327613E-2</v>
+        <v>-2.5981659946987923E-2</v>
       </c>
       <c r="I5">
         <f>IF(H5&lt;0,-H5/D5,0)</f>
-        <v>0.45839484033843886</v>
+        <v>0.35141953874142584</v>
       </c>
       <c r="J5">
         <f>IF(H5&gt;0,H5/G5,0)</f>
@@ -4450,27 +4451,27 @@
       </c>
       <c r="L5" s="8">
         <f t="shared" ref="L5:L14" si="0">K5*D5/G5</f>
-        <v>2.4588267694849904E-3</v>
+        <v>2.3596805287799502E-3</v>
       </c>
       <c r="N5">
         <f>I5+K5</f>
-        <v>0.47839484033843888</v>
+        <v>0.37141953874142586</v>
       </c>
       <c r="O5" s="4">
         <f>L5+J5</f>
-        <v>2.4588267694849904E-3</v>
+        <v>2.3596805287799502E-3</v>
       </c>
       <c r="Q5" s="6">
-        <f>N5*D5</f>
-        <v>3.6855490944201146E-2</v>
+        <f t="shared" ref="Q5:Q36" si="1">N5*D5</f>
+        <v>2.7460329006769785E-2</v>
       </c>
       <c r="R5" s="7">
         <f>O5*G5</f>
-        <v>1.5407980118735331E-3</v>
+        <v>1.4786690597818582E-3</v>
       </c>
       <c r="T5" s="3">
         <f>D5+R5-Q5</f>
-        <v>4.1725207661349052E-2</v>
+        <v>4.7951793042104993E-2</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
@@ -4479,28 +4480,28 @@
         <v>21</v>
       </c>
       <c r="D6" s="2">
-        <v>6.6095187661349045E-2</v>
-      </c>
-      <c r="E6">
-        <v>2.4369979999999999E-2</v>
+        <v>6.3877672602104987E-2</v>
+      </c>
+      <c r="E6" s="14">
+        <v>2.1459872299999998E-2</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" ref="F6:F55" si="1">MAX(0,D6-E6)</f>
-        <v>4.1725207661349045E-2</v>
+        <f t="shared" ref="F6:F55" si="2">MAX(0,D6-E6)</f>
+        <v>4.2417800302104985E-2</v>
       </c>
       <c r="G6" s="2">
         <v>0.62954259614748131</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" ref="H6:H54" si="2">F7-F6</f>
-        <v>-1.1264941395788874E-2</v>
+        <f t="shared" ref="H6:H54" si="3">F7-F6</f>
+        <v>-1.1859628932810382E-2</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I54" si="3">IF(H6&lt;0,-H6/D6,0)</f>
-        <v>0.17043512234970709</v>
+        <f t="shared" ref="I6:I54" si="4">IF(H6&lt;0,-H6/D6,0)</f>
+        <v>0.18566156921032789</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J54" si="4">IF(H6&gt;0,H6/G6,0)</f>
+        <f t="shared" ref="J6:J54" si="5">IF(H6&gt;0,H6/G6,0)</f>
         <v>0</v>
       </c>
       <c r="K6" s="9">
@@ -4508,57 +4509,57 @@
       </c>
       <c r="L6" s="8">
         <f t="shared" si="0"/>
-        <v>2.0997844487671523E-3</v>
+        <v>2.0293359970558855E-3</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6:N54" si="5">I6+K6</f>
-        <v>0.19043512234970708</v>
+        <f t="shared" ref="N6:N54" si="6">I6+K6</f>
+        <v>0.20566156921032788</v>
       </c>
       <c r="O6" s="4">
-        <f t="shared" ref="O6:O54" si="6">L6+J6</f>
-        <v>2.0997844487671523E-3</v>
+        <f t="shared" ref="O6:O54" si="7">L6+J6</f>
+        <v>2.0293359970558855E-3</v>
       </c>
       <c r="Q6" s="6">
-        <f>N6*D6</f>
-        <v>1.2586845149015854E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.313718238485248E-2</v>
       </c>
       <c r="R6" s="7">
-        <f t="shared" ref="R6:R54" si="7">O6*G6</f>
-        <v>1.3219037532269809E-3</v>
+        <f t="shared" ref="R6:R54" si="8">O6*G6</f>
+        <v>1.2775534520420996E-3</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" ref="T6:T54" si="8">D6+R6-Q6</f>
-        <v>5.483024626556017E-2</v>
+        <f t="shared" ref="T6:T54" si="9">D6+R6-Q6</f>
+        <v>5.2018043669294606E-2</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1">
-        <f t="shared" ref="C7:C55" si="9">1+C6</f>
+        <f t="shared" ref="C7:C55" si="10">1+C6</f>
         <v>22</v>
       </c>
       <c r="D7" s="2">
-        <v>6.8399896265560173E-2</v>
-      </c>
-      <c r="E7">
-        <v>3.7939630000000002E-2</v>
+        <v>6.6065871369294607E-2</v>
+      </c>
+      <c r="E7" s="14">
+        <v>3.5507700000000003E-2</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="1"/>
-        <v>3.0460266265560171E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.0558171369294604E-2</v>
       </c>
       <c r="G7" s="2">
         <v>0.64597380705394192</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="2"/>
-        <v>-6.8994305220910698E-3</v>
+        <f t="shared" si="3"/>
+        <v>-7.6151403652089319E-3</v>
       </c>
       <c r="I7">
-        <f t="shared" si="3"/>
-        <v>0.10086902025851437</v>
+        <f t="shared" si="4"/>
+        <v>0.11526587339841272</v>
       </c>
       <c r="J7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K7" s="9">
@@ -4566,57 +4567,57 @@
       </c>
       <c r="L7" s="8">
         <f t="shared" si="0"/>
-        <v>2.1177297134541075E-3</v>
+        <v>2.0454659507201283E-3</v>
       </c>
       <c r="N7">
-        <f t="shared" si="5"/>
-        <v>0.12086902025851437</v>
+        <f t="shared" si="6"/>
+        <v>0.13526587339841273</v>
       </c>
       <c r="O7" s="4">
-        <f t="shared" si="6"/>
-        <v>2.1177297134541075E-3</v>
+        <f t="shared" si="7"/>
+        <v>2.0454659507201283E-3</v>
       </c>
       <c r="Q7" s="6">
-        <f>N7*D7</f>
-        <v>8.2674284474022735E-3</v>
+        <f t="shared" si="1"/>
+        <v>8.9364577925948249E-3</v>
       </c>
       <c r="R7" s="7">
-        <f t="shared" si="7"/>
-        <v>1.3679979253112032E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.3213174273858921E-3</v>
       </c>
       <c r="T7" s="3">
-        <f t="shared" si="8"/>
-        <v>6.1500465743469096E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.8450731004085675E-2</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="D8" s="2">
-        <v>7.1746935743469104E-2</v>
-      </c>
-      <c r="E8">
-        <v>4.8186100000000003E-2</v>
+        <v>7.0044571004085676E-2</v>
+      </c>
+      <c r="E8" s="14">
+        <v>4.7101540000000004E-2</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="1"/>
-        <v>2.3560835743469101E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.2943031004085672E-2</v>
       </c>
       <c r="G8" s="2">
         <v>0.68066732697783827</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="2"/>
-        <v>-4.3896233877213781E-3</v>
+        <f t="shared" si="3"/>
+        <v>-5.7928719001793111E-3</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
-        <v>6.1182032963978554E-2</v>
+        <f t="shared" si="4"/>
+        <v>8.2702653712325755E-2</v>
       </c>
       <c r="J8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K8" s="9">
@@ -4624,57 +4625,57 @@
       </c>
       <c r="L8" s="8">
         <f t="shared" si="0"/>
-        <v>2.1081351461961712E-3</v>
+        <v>2.0581146832795234E-3</v>
       </c>
       <c r="N8">
-        <f t="shared" si="5"/>
-        <v>8.1182032963978551E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.10270265371232576</v>
       </c>
       <c r="O8" s="4">
-        <f t="shared" si="6"/>
-        <v>2.1081351461961712E-3</v>
+        <f t="shared" si="7"/>
+        <v>2.0581146832795234E-3</v>
       </c>
       <c r="Q8" s="6">
-        <f>N8*D8</f>
-        <v>5.8245621025907598E-3</v>
+        <f t="shared" si="1"/>
+        <v>7.1937633202610249E-3</v>
       </c>
       <c r="R8" s="7">
-        <f t="shared" si="7"/>
-        <v>1.4349387148693822E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.4008914200817134E-3</v>
       </c>
       <c r="T8" s="3">
-        <f t="shared" si="8"/>
-        <v>6.7357312355747725E-2</v>
+        <f t="shared" si="9"/>
+        <v>6.4251699103906351E-2</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="D9" s="2">
-        <v>7.4280602355747724E-2</v>
-      </c>
-      <c r="E9">
-        <v>5.5109390000000001E-2</v>
+        <v>7.2014313403906363E-2</v>
+      </c>
+      <c r="E9" s="14">
+        <v>5.4864154300000002E-2</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="1"/>
-        <v>1.9171212355747723E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7150159103906361E-2</v>
       </c>
       <c r="G9" s="2">
         <v>0.72610705233338302</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="2"/>
-        <v>-7.9843295543272769E-4</v>
+        <f t="shared" si="3"/>
+        <v>-2.5378484117307906E-3</v>
       </c>
       <c r="I9">
-        <f t="shared" si="3"/>
-        <v>1.0748875616393627E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.5240888814655098E-2</v>
       </c>
       <c r="J9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K9" s="9">
@@ -4682,57 +4683,57 @@
       </c>
       <c r="L9" s="8">
         <f t="shared" si="0"/>
-        <v>2.0459958932238192E-3</v>
+        <v>1.9835728952772073E-3</v>
       </c>
       <c r="N9">
-        <f t="shared" si="5"/>
-        <v>3.0748875616393626E-2</v>
+        <f t="shared" si="6"/>
+        <v>5.5240888814655095E-2</v>
       </c>
       <c r="O9" s="4">
-        <f t="shared" si="6"/>
-        <v>2.0459958932238192E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.9835728952772073E-3</v>
       </c>
       <c r="Q9" s="6">
-        <f>N9*D9</f>
-        <v>2.2840450025476823E-3</v>
+        <f t="shared" si="1"/>
+        <v>3.9781346798089178E-3</v>
       </c>
       <c r="R9" s="7">
-        <f t="shared" si="7"/>
-        <v>1.4856120471149544E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.4402862680781272E-3</v>
       </c>
       <c r="T9" s="3">
-        <f t="shared" si="8"/>
-        <v>7.3482169400314989E-2</v>
+        <f t="shared" si="9"/>
+        <v>6.9476464992175579E-2</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="D10" s="2">
-        <v>8.1513179400314995E-2</v>
-      </c>
-      <c r="E10">
-        <v>6.3140399999999999E-2</v>
+        <v>7.9016968292175568E-2</v>
+      </c>
+      <c r="E10" s="14">
+        <v>6.4404657599999998E-2</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="1"/>
-        <v>1.8372779400314995E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.461231069217557E-2</v>
       </c>
       <c r="G10" s="2">
         <v>0.75079492437074669</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="2"/>
-        <v>-1.3377934631664506E-2</v>
+        <f t="shared" si="3"/>
+        <v>-2.2908898075307271E-3</v>
       </c>
       <c r="I10">
-        <f t="shared" si="3"/>
-        <v>0.16411989729863008</v>
+        <f t="shared" si="4"/>
+        <v>2.8992377929002066E-2</v>
       </c>
       <c r="J10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K10" s="9">
@@ -4740,57 +4741,57 @@
       </c>
       <c r="L10" s="8">
         <f t="shared" si="0"/>
-        <v>2.1713833366317041E-3</v>
+        <v>2.1048881852364933E-3</v>
       </c>
       <c r="N10">
-        <f t="shared" si="5"/>
-        <v>0.18411989729863007</v>
+        <f t="shared" si="6"/>
+        <v>4.8992377929002066E-2</v>
       </c>
       <c r="O10" s="4">
-        <f t="shared" si="6"/>
-        <v>2.1713833366317041E-3</v>
+        <f t="shared" si="7"/>
+        <v>2.1048881852364933E-3</v>
       </c>
       <c r="Q10" s="6">
-        <f>N10*D10</f>
-        <v>1.5008198219670804E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.8712291733742385E-3</v>
       </c>
       <c r="R10" s="7">
-        <f t="shared" si="7"/>
-        <v>1.6302635880063E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.5803393658435111E-3</v>
       </c>
       <c r="T10" s="3">
-        <f t="shared" si="8"/>
-        <v>6.8135244768650488E-2</v>
+        <f t="shared" si="9"/>
+        <v>7.6726078484644841E-2</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="D11" s="2">
-        <v>8.9458984768650482E-2</v>
-      </c>
-      <c r="E11">
-        <v>8.4464139999999993E-2</v>
+        <v>8.7443494284644846E-2</v>
+      </c>
+      <c r="E11" s="14">
+        <v>7.5122073400000003E-2</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="1"/>
-        <v>4.9948447686504888E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.2321420884644843E-2</v>
       </c>
       <c r="G11" s="2">
         <v>0.76870807059975244</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="2"/>
-        <v>-4.9948447686504888E-3</v>
+        <f t="shared" si="3"/>
+        <v>-7.6173368253105306E-3</v>
       </c>
       <c r="I11">
-        <f t="shared" si="3"/>
-        <v>5.5833908484068273E-2</v>
+        <f t="shared" si="4"/>
+        <v>8.7111532854744822E-2</v>
       </c>
       <c r="J11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K11" s="9">
@@ -4798,115 +4799,115 @@
       </c>
       <c r="L11" s="8">
         <f t="shared" si="0"/>
-        <v>2.3275151696756308E-3</v>
+        <v>2.2750767847778859E-3</v>
       </c>
       <c r="N11">
-        <f t="shared" si="5"/>
-        <v>7.5833908484068277E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.10711153285474483</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" si="6"/>
-        <v>2.3275151696756308E-3</v>
+        <f t="shared" si="7"/>
+        <v>2.2750767847778859E-3</v>
       </c>
       <c r="Q11" s="6">
-        <f>N11*D11</f>
-        <v>6.7840244640234989E-3</v>
+        <f t="shared" si="1"/>
+        <v>9.3662067110034282E-3</v>
       </c>
       <c r="R11" s="7">
-        <f t="shared" si="7"/>
-        <v>1.7891796953730095E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.748869885692897E-3</v>
       </c>
       <c r="T11" s="3">
-        <f t="shared" si="8"/>
-        <v>8.4464139999999993E-2</v>
+        <f t="shared" si="9"/>
+        <v>7.9826157459334315E-2</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="D12" s="2">
-        <v>9.230101302460203E-2</v>
-      </c>
-      <c r="E12">
-        <v>9.8864579999999994E-2</v>
+        <v>8.9667149059334303E-2</v>
+      </c>
+      <c r="E12" s="14">
+        <v>8.496306499999999E-2</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4.7040840593343125E-3</v>
       </c>
       <c r="G12" s="2">
         <v>0.78955137481910276</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="2"/>
-        <v>9.534553177869276E-4</v>
+        <f t="shared" si="3"/>
+        <v>-3.550143452978563E-3</v>
       </c>
       <c r="I12">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3.9592464912979131E-2</v>
       </c>
       <c r="J12">
-        <f t="shared" si="4"/>
-        <v>1.2075912324329466E-3</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="K12" s="9">
         <v>0.02</v>
       </c>
       <c r="L12" s="8">
         <f t="shared" si="0"/>
-        <v>2.3380622456834928E-3</v>
+        <v>2.2713442574874448E-3</v>
       </c>
       <c r="N12">
-        <f t="shared" si="5"/>
-        <v>0.02</v>
+        <f t="shared" si="6"/>
+        <v>5.9592464912979135E-2</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" si="6"/>
-        <v>3.5456534781164394E-3</v>
+        <f t="shared" si="7"/>
+        <v>2.2713442574874448E-3</v>
       </c>
       <c r="Q12" s="6">
-        <f>N12*D12</f>
-        <v>1.8460202604920406E-3</v>
+        <f t="shared" si="1"/>
+        <v>5.3434864341652495E-3</v>
       </c>
       <c r="R12" s="7">
-        <f t="shared" si="7"/>
-        <v>2.7994755782789682E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.7933429811866862E-3</v>
       </c>
       <c r="T12" s="3">
-        <f t="shared" si="8"/>
-        <v>9.3254468342388958E-2</v>
+        <f t="shared" si="9"/>
+        <v>8.611700560635574E-2</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>9.7879515317786922E-2</v>
-      </c>
-      <c r="E13">
-        <v>9.6926059999999994E-2</v>
+        <v>9.5707590306355741E-2</v>
+      </c>
+      <c r="E13" s="14">
+        <v>9.4553649699999992E-2</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="1"/>
-        <v>9.534553177869276E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.1539406063557495E-3</v>
       </c>
       <c r="G13" s="2">
         <v>0.79538180155464111</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="2"/>
-        <v>-9.534553177869276E-4</v>
+        <f t="shared" si="3"/>
+        <v>-1.1539406063557495E-3</v>
       </c>
       <c r="I13">
-        <f t="shared" si="3"/>
-        <v>9.7411119649635537E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.2056939294595516E-2</v>
       </c>
       <c r="J13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K13" s="9">
@@ -4914,57 +4915,57 @@
       </c>
       <c r="L13" s="8">
         <f t="shared" si="0"/>
-        <v>2.461195745903995E-3</v>
+        <v>2.4065823512503595E-3</v>
       </c>
       <c r="N13">
-        <f t="shared" si="5"/>
-        <v>2.9741111964963554E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.2056939294595514E-2</v>
       </c>
       <c r="O13" s="4">
-        <f t="shared" si="6"/>
-        <v>2.461195745903995E-3</v>
+        <f t="shared" si="7"/>
+        <v>2.4065823512503595E-3</v>
       </c>
       <c r="Q13" s="6">
-        <f>N13*D13</f>
-        <v>2.9110456241426661E-3</v>
+        <f t="shared" si="1"/>
+        <v>3.068092412482864E-3</v>
       </c>
       <c r="R13" s="7">
-        <f t="shared" si="7"/>
-        <v>1.9575903063557385E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.9141518061271152E-3</v>
       </c>
       <c r="T13" s="3">
-        <f t="shared" si="8"/>
-        <v>9.6926059999999994E-2</v>
+        <f t="shared" si="9"/>
+        <v>9.4553649699999992E-2</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29</v>
       </c>
       <c r="D14" s="2">
-        <v>9.9291813598344644E-2</v>
-      </c>
-      <c r="E14">
-        <v>0.10938798</v>
+        <v>9.6872905312855181E-2</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0.104144234</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G14" s="2">
         <v>0.80435986360854494</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K14" s="9">
@@ -4972,57 +4973,57 @@
       </c>
       <c r="L14" s="8">
         <f t="shared" si="0"/>
-        <v>2.4688405797101448E-3</v>
+        <v>2.4086956521739127E-3</v>
       </c>
       <c r="N14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
       <c r="O14" s="4">
-        <f t="shared" si="6"/>
-        <v>2.4688405797101448E-3</v>
+        <f t="shared" si="7"/>
+        <v>2.4086956521739127E-3</v>
       </c>
       <c r="Q14" s="6">
-        <f>N14*D14</f>
-        <v>1.985836271966893E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.9374581062571036E-3</v>
       </c>
       <c r="R14" s="7">
-        <f t="shared" si="7"/>
-        <v>1.985836271966893E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.9374581062571036E-3</v>
       </c>
       <c r="T14" s="3">
-        <f t="shared" si="8"/>
-        <v>9.9291813598344644E-2</v>
+        <f t="shared" si="9"/>
+        <v>9.6872905312855181E-2</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="D15" s="2">
-        <v>0.10090996307817542</v>
-      </c>
-      <c r="E15">
-        <v>0.12406536</v>
+        <v>9.8322528127452971E-2</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0.104895455</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G15" s="2">
         <v>0.81280344216065348</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K15" s="9">
@@ -5030,2305 +5031,2305 @@
       </c>
       <c r="L15" s="8">
         <f>K15*D15/G15</f>
-        <v>2.4830102296301594E-3</v>
+        <v>2.4193433006652839E-3</v>
       </c>
       <c r="N15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
       <c r="O15" s="4">
-        <f t="shared" si="6"/>
-        <v>2.4830102296301594E-3</v>
+        <f t="shared" si="7"/>
+        <v>2.4193433006652839E-3</v>
       </c>
       <c r="Q15" s="6">
-        <f>N15*D15</f>
-        <v>2.0181992615635083E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.9664505625490596E-3</v>
       </c>
       <c r="R15" s="7">
-        <f t="shared" si="7"/>
-        <v>2.0181992615635083E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.9664505625490596E-3</v>
       </c>
       <c r="T15" s="3">
-        <f t="shared" si="8"/>
-        <v>0.10090996307817542</v>
+        <f t="shared" si="9"/>
+        <v>9.8322528127452971E-2</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C16" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="D16" s="2">
-        <v>9.796305358453633E-2</v>
-      </c>
-      <c r="E16">
-        <v>0.12129603999999999</v>
+        <v>9.6066797161732317E-2</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.10815074499999999</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G16" s="2">
         <v>0.81985563983361887</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K16" s="9">
         <v>0.02</v>
       </c>
       <c r="L16" s="9">
-        <f t="shared" ref="L16:L54" si="10">K16*D16/G16</f>
-        <v>2.3897634857867637E-3</v>
+        <f t="shared" ref="L16:L54" si="11">K16*D16/G16</f>
+        <v>2.3435051854062521E-3</v>
       </c>
       <c r="N16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
       <c r="O16" s="4">
-        <f t="shared" si="6"/>
-        <v>2.3897634857867637E-3</v>
+        <f t="shared" si="7"/>
+        <v>2.3435051854062521E-3</v>
       </c>
       <c r="Q16" s="6">
-        <f>N16*D16</f>
-        <v>1.9592610716907266E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.9213359432346463E-3</v>
       </c>
       <c r="R16" s="7">
-        <f t="shared" si="7"/>
-        <v>1.9592610716907266E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.9213359432346463E-3</v>
       </c>
       <c r="T16" s="3">
-        <f t="shared" si="8"/>
-        <v>9.796305358453633E-2</v>
+        <f t="shared" si="9"/>
+        <v>9.6066797161732304E-2</v>
       </c>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="D17" s="2">
-        <v>9.7949817325402339E-2</v>
-      </c>
-      <c r="E17">
-        <v>0.13597340999999999</v>
+        <v>9.523234397173827E-2</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0.10747464600000001</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G17" s="2">
         <v>0.82396811497931699</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K17" s="9">
         <v>0.02</v>
       </c>
       <c r="L17" s="9">
-        <f t="shared" si="10"/>
-        <v>2.377514749532779E-3</v>
+        <f t="shared" si="11"/>
+        <v>2.3115541060500567E-3</v>
       </c>
       <c r="N17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
       <c r="O17" s="4">
-        <f t="shared" si="6"/>
-        <v>2.377514749532779E-3</v>
+        <f t="shared" si="7"/>
+        <v>2.3115541060500567E-3</v>
       </c>
       <c r="Q17" s="6">
-        <f>N17*D17</f>
-        <v>1.9589963465080468E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.9046468794347655E-3</v>
       </c>
       <c r="R17" s="7">
-        <f t="shared" si="7"/>
-        <v>1.9589963465080468E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.9046468794347653E-3</v>
       </c>
       <c r="T17" s="3">
-        <f t="shared" si="8"/>
-        <v>9.7949817325402339E-2</v>
+        <f t="shared" si="9"/>
+        <v>9.523234397173827E-2</v>
       </c>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
       <c r="D18" s="2">
-        <v>9.3392611658720648E-2</v>
-      </c>
-      <c r="E18">
-        <v>0.11381889000000001</v>
+        <v>9.0058205855684581E-2</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0.104119194</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G18" s="2">
         <v>0.83158325777296793</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K18" s="9">
         <v>0.02</v>
       </c>
       <c r="L18" s="9">
-        <f t="shared" si="10"/>
-        <v>2.2461397770039749E-3</v>
+        <f t="shared" si="11"/>
+        <v>2.1659456227357461E-3</v>
       </c>
       <c r="N18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" si="6"/>
-        <v>2.2461397770039749E-3</v>
+        <f t="shared" si="7"/>
+        <v>2.1659456227357461E-3</v>
       </c>
       <c r="Q18" s="6">
-        <f>N18*D18</f>
-        <v>1.8678522331744131E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.8011641171136916E-3</v>
       </c>
       <c r="R18" s="7">
-        <f t="shared" si="7"/>
-        <v>1.8678522331744131E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.8011641171136914E-3</v>
       </c>
       <c r="T18" s="3">
-        <f t="shared" si="8"/>
-        <v>9.3392611658720648E-2</v>
+        <f t="shared" si="9"/>
+        <v>9.0058205855684581E-2</v>
       </c>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>34</v>
       </c>
       <c r="D19" s="2">
-        <v>8.7563632227056848E-2</v>
-      </c>
-      <c r="E19">
-        <v>0.10938798</v>
+        <v>8.463441685862981E-2</v>
+      </c>
+      <c r="E19" s="14">
+        <v>9.8885689200000015E-2</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G19" s="2">
         <v>0.83883627676819383</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K19" s="9">
         <v>0.02</v>
       </c>
       <c r="L19" s="9">
-        <f t="shared" si="10"/>
-        <v>2.0877407106048278E-3</v>
+        <f t="shared" si="11"/>
+        <v>2.0179007323026851E-3</v>
       </c>
       <c r="N19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
       <c r="O19" s="4">
-        <f t="shared" si="6"/>
-        <v>2.0877407106048278E-3</v>
+        <f t="shared" si="7"/>
+        <v>2.0179007323026851E-3</v>
       </c>
       <c r="Q19" s="6">
-        <f>N19*D19</f>
-        <v>1.7512726445411369E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.6926883371725962E-3</v>
       </c>
       <c r="R19" s="7">
-        <f t="shared" si="7"/>
-        <v>1.7512726445411369E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.6926883371725962E-3</v>
       </c>
       <c r="T19" s="3">
-        <f t="shared" si="8"/>
-        <v>8.7563632227056848E-2</v>
+        <f t="shared" si="9"/>
+        <v>8.463441685862981E-2</v>
       </c>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="D20" s="2">
-        <v>8.2216214709734961E-2</v>
-      </c>
-      <c r="E20">
-        <v>0.10108003</v>
+        <v>7.909478554109417E-2</v>
+      </c>
+      <c r="E20" s="14">
+        <v>8.674095409999999E-2</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G20" s="2">
         <v>0.84679914160697867</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K20" s="9">
         <v>0.02</v>
       </c>
       <c r="L20" s="9">
-        <f t="shared" si="10"/>
-        <v>1.9418114797261716E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.8680884676145339E-3</v>
       </c>
       <c r="N20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
       <c r="O20" s="4">
-        <f t="shared" si="6"/>
-        <v>1.9418114797261716E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.8680884676145339E-3</v>
       </c>
       <c r="Q20" s="6">
-        <f>N20*D20</f>
-        <v>1.6443242941946992E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.5818957108218834E-3</v>
       </c>
       <c r="R20" s="7">
-        <f t="shared" si="7"/>
-        <v>1.6443242941946992E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.5818957108218834E-3</v>
       </c>
       <c r="T20" s="3">
-        <f t="shared" si="8"/>
-        <v>8.2216214709734961E-2</v>
+        <f t="shared" si="9"/>
+        <v>7.909478554109417E-2</v>
       </c>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="D21" s="2">
-        <v>7.6450686606203619E-2</v>
-      </c>
-      <c r="E21">
-        <v>8.7510379999999999E-2</v>
+        <v>7.2242913598498854E-2</v>
+      </c>
+      <c r="E21" s="14">
+        <v>7.4070364299999997E-2</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G21" s="2">
         <v>0.85639553066272422</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>7.5170335877951522E-3</v>
       </c>
       <c r="I21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J21">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>8.7775254758488443E-3</v>
       </c>
       <c r="K21" s="9">
         <v>0.02</v>
       </c>
       <c r="L21" s="9">
-        <f t="shared" si="10"/>
-        <v>1.7854060155368169E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.6871389681960031E-3</v>
       </c>
       <c r="N21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
       <c r="O21" s="4">
-        <f t="shared" si="6"/>
-        <v>1.7854060155368169E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.0464664444044848E-2</v>
       </c>
       <c r="Q21" s="6">
-        <f>N21*D21</f>
-        <v>1.5290137321240724E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.4448582719699772E-3</v>
       </c>
       <c r="R21" s="7">
-        <f t="shared" si="7"/>
-        <v>1.5290137321240724E-3</v>
+        <f t="shared" si="8"/>
+        <v>8.9618918597651302E-3</v>
       </c>
       <c r="T21" s="3">
-        <f t="shared" si="8"/>
-        <v>7.6450686606203605E-2</v>
+        <f t="shared" si="9"/>
+        <v>7.9759947186294006E-2</v>
       </c>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
       <c r="D22" s="2">
-        <v>7.4179450327046606E-2</v>
-      </c>
-      <c r="E22">
-        <v>8.5017999999999996E-2</v>
+        <v>7.1070307687795153E-2</v>
+      </c>
+      <c r="E22" s="14">
+        <v>6.3553274100000001E-2</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>7.5170335877951522E-3</v>
       </c>
       <c r="G22" s="2">
         <v>0.86293374006394274</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="2"/>
-        <v>8.4508496608961536E-3</v>
+        <f t="shared" si="3"/>
+        <v>7.1860004206943176E-3</v>
       </c>
       <c r="I22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J22">
-        <f t="shared" si="4"/>
-        <v>9.7931617093450912E-3</v>
+        <f t="shared" si="5"/>
+        <v>8.3274069457080682E-3</v>
       </c>
       <c r="K22" s="9">
         <v>0.02</v>
       </c>
       <c r="L22" s="9">
-        <f t="shared" si="10"/>
-        <v>1.7192386131883071E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.6471787899388173E-3</v>
       </c>
       <c r="N22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
       <c r="O22" s="4">
-        <f t="shared" si="6"/>
-        <v>1.1512400322533398E-2</v>
+        <f t="shared" si="7"/>
+        <v>9.9745857356468848E-3</v>
       </c>
       <c r="Q22" s="6">
-        <f>N22*D22</f>
-        <v>1.4835890065409321E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.421406153755903E-3</v>
       </c>
       <c r="R22" s="7">
-        <f t="shared" si="7"/>
-        <v>9.9344386674370868E-3</v>
+        <f t="shared" si="8"/>
+        <v>8.6074065744502198E-3</v>
       </c>
       <c r="T22" s="3">
-        <f t="shared" si="8"/>
-        <v>8.263029998794276E-2</v>
+        <f t="shared" si="9"/>
+        <v>7.8256308108489478E-2</v>
       </c>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>38</v>
       </c>
       <c r="D23" s="2">
-        <v>7.0760459660896155E-2</v>
-      </c>
-      <c r="E23">
-        <v>6.2309610000000001E-2</v>
+        <v>6.7939543308489475E-2</v>
+      </c>
+      <c r="E23" s="14">
+        <v>5.3236509300000005E-2</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="1"/>
-        <v>8.4508496608961536E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.470303400848947E-2</v>
       </c>
       <c r="G23" s="2">
         <v>0.86821866555809613</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="2"/>
-        <v>5.7309336724371829E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.1826761010343342E-3</v>
       </c>
       <c r="I23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J23">
-        <f t="shared" si="4"/>
-        <v>6.6007952832404316E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.3621869097620737E-3</v>
       </c>
       <c r="K23" s="9">
         <v>0.02</v>
       </c>
       <c r="L23" s="9">
-        <f t="shared" si="10"/>
-        <v>1.630014706385307E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.5650330038647011E-3</v>
       </c>
       <c r="N23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
       <c r="O23" s="4">
-        <f t="shared" si="6"/>
-        <v>8.2308099896257376E-3</v>
+        <f t="shared" si="7"/>
+        <v>2.9272199136267749E-3</v>
       </c>
       <c r="Q23" s="6">
-        <f>N23*D23</f>
-        <v>1.4152091932179232E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.3587908661697894E-3</v>
       </c>
       <c r="R23" s="7">
-        <f t="shared" si="7"/>
-        <v>7.1461428656551052E-3</v>
+        <f t="shared" si="8"/>
+        <v>2.5414669672041241E-3</v>
       </c>
       <c r="T23" s="3">
-        <f t="shared" si="8"/>
-        <v>7.6491393333333338E-2</v>
+        <f t="shared" si="9"/>
+        <v>6.9122219409523816E-2</v>
       </c>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>39</v>
       </c>
       <c r="D24" s="2">
-        <v>6.458333333333334E-2</v>
-      </c>
-      <c r="E24">
-        <v>5.0401550000000003E-2</v>
+        <v>6.1309523809523807E-2</v>
+      </c>
+      <c r="E24" s="14">
+        <v>4.5423813700000003E-2</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="1"/>
-        <v>1.4181783333333337E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.5885710109523804E-2</v>
       </c>
       <c r="G24" s="2">
         <v>0.87755952380952384</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="2"/>
-        <v>5.7439043052151181E-3</v>
+        <f t="shared" si="3"/>
+        <v>6.8283135470673315E-3</v>
       </c>
       <c r="I24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J24">
-        <f t="shared" si="4"/>
-        <v>6.5453159009437687E-3</v>
+        <f t="shared" si="5"/>
+        <v>7.7810260863278276E-3</v>
       </c>
       <c r="K24" s="9">
         <v>0.02</v>
       </c>
       <c r="L24" s="9">
-        <f t="shared" si="10"/>
-        <v>1.4718849623550161E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.3972732822356373E-3</v>
       </c>
       <c r="N24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="6"/>
-        <v>8.0172008632987853E-3</v>
+        <f t="shared" si="7"/>
+        <v>9.1782993685634653E-3</v>
       </c>
       <c r="Q24" s="6">
-        <f>N24*D24</f>
-        <v>1.2916666666666669E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.2261904761904762E-3</v>
       </c>
       <c r="R24" s="7">
-        <f t="shared" si="7"/>
-        <v>7.0355709718817857E-3</v>
+        <f t="shared" si="8"/>
+        <v>8.0545040232578077E-3</v>
       </c>
       <c r="T24" s="3">
-        <f t="shared" si="8"/>
-        <v>7.0327237638548465E-2</v>
+        <f t="shared" si="9"/>
+        <v>6.8137837356591138E-2</v>
       </c>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="D25" s="2">
-        <v>6.1188497638548452E-2</v>
-      </c>
-      <c r="E25">
-        <v>4.1262809999999997E-2</v>
+        <v>5.6794404256591137E-2</v>
+      </c>
+      <c r="E25" s="14">
+        <v>3.4080380600000001E-2</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="1"/>
-        <v>1.9925687638548455E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.2714023656591135E-2</v>
       </c>
       <c r="G25" s="2">
         <v>0.88261493393914037</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="2"/>
-        <v>7.5102228012738532E-3</v>
+        <f t="shared" si="3"/>
+        <v>9.0645705253775133E-4</v>
       </c>
       <c r="I25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J25">
-        <f t="shared" si="4"/>
-        <v>8.5090592878997347E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.0270130468926044E-3</v>
       </c>
       <c r="K25" s="9">
         <v>0.02</v>
       </c>
       <c r="L25" s="9">
-        <f t="shared" si="10"/>
-        <v>1.3865275849222745E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.2869576997324482E-3</v>
       </c>
       <c r="N25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
       <c r="O25" s="4">
-        <f t="shared" si="6"/>
-        <v>9.8955868728220087E-3</v>
+        <f t="shared" si="7"/>
+        <v>2.3139707466250528E-3</v>
       </c>
       <c r="Q25" s="6">
-        <f>N25*D25</f>
-        <v>1.2237699527709691E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.1358880851318229E-3</v>
       </c>
       <c r="R25" s="7">
-        <f t="shared" si="7"/>
-        <v>8.7339927540448226E-3</v>
+        <f t="shared" si="8"/>
+        <v>2.0423451376695742E-3</v>
       </c>
       <c r="T25" s="3">
-        <f t="shared" si="8"/>
-        <v>6.8698720439822294E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.7700861309128888E-2</v>
       </c>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>41</v>
       </c>
       <c r="D26" s="2">
-        <v>5.3190550439822307E-2</v>
-      </c>
-      <c r="E26">
-        <v>2.5754639999999999E-2</v>
+        <v>4.8836456709128888E-2</v>
+      </c>
+      <c r="E26" s="14">
+        <v>2.5215976000000001E-2</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="1"/>
-        <v>2.7435910439822308E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.3620480709128887E-2</v>
       </c>
       <c r="G26" s="2">
         <v>0.89120649583713341</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="2"/>
-        <v>3.5263172562200601E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.5925583172945361E-3</v>
       </c>
       <c r="I26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J26">
-        <f t="shared" si="4"/>
-        <v>3.9567903428572955E-3</v>
+        <f t="shared" si="5"/>
+        <v>2.9090433355282927E-3</v>
       </c>
       <c r="K26" s="9">
         <v>0.02</v>
       </c>
       <c r="L26" s="9">
-        <f t="shared" si="10"/>
-        <v>1.1936751064602384E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.0959627636747764E-3</v>
       </c>
       <c r="N26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
       <c r="O26" s="4">
-        <f t="shared" si="6"/>
-        <v>5.1504654493175336E-3</v>
+        <f t="shared" si="7"/>
+        <v>4.0050060992030696E-3</v>
       </c>
       <c r="Q26" s="6">
-        <f>N26*D26</f>
-        <v>1.0638110087964462E-3</v>
+        <f t="shared" si="1"/>
+        <v>9.7672913418257777E-4</v>
       </c>
       <c r="R26" s="7">
-        <f t="shared" si="7"/>
-        <v>4.5901282650165059E-3</v>
+        <f t="shared" si="8"/>
+        <v>3.5692874514771144E-3</v>
       </c>
       <c r="T26" s="3">
-        <f t="shared" si="8"/>
-        <v>5.6716867696042367E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.1429015026423427E-2</v>
       </c>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
       <c r="D27" s="2">
-        <v>4.8962777696042369E-2</v>
-      </c>
-      <c r="E27">
-        <v>1.8000550000000001E-2</v>
+        <v>4.4843313226423424E-2</v>
+      </c>
+      <c r="E27" s="14">
+        <v>1.8630274200000001E-2</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="1"/>
-        <v>3.0962227696042368E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.6213039026423423E-2</v>
       </c>
       <c r="G27" s="2">
         <v>0.89660144181256429</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="2"/>
-        <v>2.7664358312413199E-3</v>
+        <f t="shared" si="3"/>
+        <v>6.7222980338418788E-3</v>
       </c>
       <c r="I27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J27">
-        <f t="shared" si="4"/>
-        <v>3.0854688630086399E-3</v>
+        <f t="shared" si="5"/>
+        <v>7.4975320363662584E-3</v>
       </c>
       <c r="K27" s="9">
         <v>0.02</v>
       </c>
       <c r="L27" s="9">
-        <f t="shared" si="10"/>
-        <v>1.0921860129303271E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.0002953628039778E-3</v>
       </c>
       <c r="N27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
       <c r="O27" s="4">
-        <f t="shared" si="6"/>
-        <v>4.1776548759389666E-3</v>
+        <f t="shared" si="7"/>
+        <v>8.4978273991702363E-3</v>
       </c>
       <c r="Q27" s="6">
-        <f>N27*D27</f>
-        <v>9.792555539208474E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.9686626452846854E-4</v>
       </c>
       <c r="R27" s="7">
-        <f t="shared" si="7"/>
-        <v>3.7456913851621667E-3</v>
+        <f t="shared" si="8"/>
+        <v>7.619164298370347E-3</v>
       </c>
       <c r="T27" s="3">
-        <f t="shared" si="8"/>
-        <v>5.1729213527283692E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.15656112602653E-2</v>
       </c>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43</v>
       </c>
       <c r="D28" s="2">
-        <v>4.8959903527283688E-2</v>
-      </c>
-      <c r="E28">
-        <v>1.523124E-2</v>
+        <v>4.4829665360265301E-2</v>
+      </c>
+      <c r="E28" s="14">
+        <v>1.1894328300000001E-2</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="1"/>
-        <v>3.3728663527283688E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.2935337060265302E-2</v>
       </c>
       <c r="G28" s="2">
         <v>0.89837202291227003</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="2"/>
-        <v>4.804292352201249E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.489173058898341E-3</v>
       </c>
       <c r="I28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J28">
-        <f t="shared" si="4"/>
-        <v>5.3477760100176328E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.6576351677458296E-3</v>
       </c>
       <c r="K28" s="9">
         <v>0.02</v>
       </c>
       <c r="L28" s="9">
-        <f t="shared" si="10"/>
-        <v>1.0899694620624854E-3</v>
+        <f t="shared" si="11"/>
+        <v>9.9802006778750983E-4</v>
       </c>
       <c r="N28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" si="6"/>
-        <v>6.437745472080118E-3</v>
+        <f t="shared" si="7"/>
+        <v>2.6556552355333392E-3</v>
       </c>
       <c r="Q28" s="6">
-        <f>N28*D28</f>
-        <v>9.7919807054567382E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.9659330720530601E-4</v>
       </c>
       <c r="R28" s="7">
-        <f t="shared" si="7"/>
-        <v>5.7834904227469222E-3</v>
+        <f t="shared" si="8"/>
+        <v>2.3857663661036466E-3</v>
       </c>
       <c r="T28" s="3">
-        <f t="shared" si="8"/>
-        <v>5.3764195879484937E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.6318838419163642E-2</v>
       </c>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
       <c r="D29" s="2">
-        <v>4.6287035879484933E-2</v>
-      </c>
-      <c r="E29">
-        <v>7.75408E-3</v>
+        <v>4.1786473309163644E-2</v>
+      </c>
+      <c r="E29" s="14">
+        <v>7.3619631900000001E-3</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="1"/>
-        <v>3.8532955879484937E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.4424510119163643E-2</v>
       </c>
       <c r="G29" s="2">
         <v>0.90039379922490315</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="2"/>
-        <v>2.0800828612173652E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.7073565858112755E-3</v>
       </c>
       <c r="I29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J29">
-        <f t="shared" si="4"/>
-        <v>2.3101923436256314E-3</v>
+        <f t="shared" si="5"/>
+        <v>3.0068583192619518E-3</v>
       </c>
       <c r="K29" s="9">
         <v>0.02</v>
       </c>
       <c r="L29" s="9">
-        <f t="shared" si="10"/>
-        <v>1.0281509250581414E-3</v>
+        <f t="shared" si="11"/>
+        <v>9.2818216529556732E-4</v>
       </c>
       <c r="N29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
       <c r="O29" s="4">
-        <f t="shared" si="6"/>
-        <v>3.3383432686837728E-3</v>
+        <f t="shared" si="7"/>
+        <v>3.935040484557519E-3</v>
       </c>
       <c r="Q29" s="6">
-        <f>N29*D29</f>
-        <v>9.2574071758969869E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.3572946618327287E-4</v>
       </c>
       <c r="R29" s="7">
-        <f t="shared" si="7"/>
-        <v>3.0058235788070638E-3</v>
+        <f t="shared" si="8"/>
+        <v>3.5430860519945484E-3</v>
       </c>
       <c r="T29" s="3">
-        <f t="shared" si="8"/>
-        <v>4.8367118740702299E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.4493829894974919E-2</v>
       </c>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="D30" s="2">
-        <v>4.53208787407023E-2</v>
-      </c>
-      <c r="E30">
-        <v>4.7078399999999996E-3</v>
+        <v>4.1238540044974917E-2</v>
+      </c>
+      <c r="E30" s="14">
+        <v>4.1066733400000003E-3</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="1"/>
-        <v>4.0613038740702302E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.7131866704974918E-2</v>
       </c>
       <c r="G30" s="2">
         <v>0.89967133713890335</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="2"/>
-        <v>-5.6682164996329359E-4</v>
+        <f t="shared" si="3"/>
+        <v>7.2208048076074366E-4</v>
       </c>
       <c r="I30">
-        <f t="shared" si="3"/>
-        <v>1.2506854803197711E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="J30">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>8.0260474125703877E-4</v>
       </c>
       <c r="K30" s="9">
         <v>0.02</v>
       </c>
       <c r="L30" s="9">
-        <f t="shared" si="10"/>
-        <v>1.0074985579696211E-3</v>
+        <f t="shared" si="11"/>
+        <v>9.1674677946548735E-4</v>
       </c>
       <c r="N30">
-        <f t="shared" si="5"/>
-        <v>3.2506854803197711E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.02</v>
       </c>
       <c r="O30" s="4">
-        <f t="shared" si="6"/>
-        <v>1.0074985579696211E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.7193515207225261E-3</v>
       </c>
       <c r="Q30" s="6">
-        <f>N30*D30</f>
-        <v>1.4732392247773396E-3</v>
+        <f t="shared" si="1"/>
+        <v>8.2477080089949837E-4</v>
       </c>
       <c r="R30" s="7">
-        <f t="shared" si="7"/>
-        <v>9.0641757481404594E-4</v>
+        <f t="shared" si="8"/>
+        <v>1.5468512816602419E-3</v>
       </c>
       <c r="T30" s="3">
-        <f t="shared" si="8"/>
-        <v>4.4754057090739006E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.196062052573566E-2</v>
       </c>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>46</v>
       </c>
       <c r="D31" s="2">
-        <v>4.4200187090739008E-2</v>
-      </c>
-      <c r="E31">
-        <v>4.1539699999999999E-3</v>
+        <v>4.0157690765735665E-2</v>
+      </c>
+      <c r="E31" s="14">
+        <v>2.3037435799999999E-3</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="1"/>
-        <v>4.0046217090739009E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.7853947185735662E-2</v>
       </c>
       <c r="G31" s="2">
         <v>0.8994721368435119</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="2"/>
-        <v>-2.7992170575421443E-4</v>
+        <f t="shared" si="3"/>
+        <v>-2.0042876144278354E-3</v>
       </c>
       <c r="I31">
-        <f t="shared" si="3"/>
-        <v>6.3330434592858247E-3</v>
+        <f t="shared" si="4"/>
+        <v>4.9910430012524105E-2</v>
       </c>
       <c r="J31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K31" s="9">
         <v>0.02</v>
       </c>
       <c r="L31" s="9">
-        <f t="shared" si="10"/>
-        <v>9.8280280800802297E-4</v>
+        <f t="shared" si="11"/>
+        <v>8.9291683690524834E-4</v>
       </c>
       <c r="N31">
-        <f t="shared" si="5"/>
-        <v>2.6333043459285825E-2</v>
+        <f t="shared" si="6"/>
+        <v>6.9910430012524102E-2</v>
       </c>
       <c r="O31" s="4">
-        <f t="shared" si="6"/>
-        <v>9.8280280800802297E-4</v>
+        <f t="shared" si="7"/>
+        <v>8.9291683690524834E-4</v>
       </c>
       <c r="Q31" s="6">
-        <f>N31*D31</f>
-        <v>1.1639254475689946E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.8074414297425488E-3</v>
       </c>
       <c r="R31" s="7">
-        <f t="shared" si="7"/>
-        <v>8.8400374181478024E-4</v>
+        <f t="shared" si="8"/>
+        <v>8.0315381531471334E-4</v>
       </c>
       <c r="T31" s="3">
-        <f t="shared" si="8"/>
-        <v>4.3920265384984794E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.815340315130783E-2</v>
       </c>
     </row>
     <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>47</v>
       </c>
       <c r="D32" s="2">
-        <v>4.1427885384984792E-2</v>
-      </c>
-      <c r="E32">
-        <v>1.6615899999999999E-3</v>
+        <v>3.7201856891307825E-2</v>
+      </c>
+      <c r="E32" s="14">
+        <v>1.3521973200000001E-3</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="1"/>
-        <v>3.9766295384984794E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.5849659571307826E-2</v>
       </c>
       <c r="G32" s="2">
         <v>0.90212902193052669</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="2"/>
-        <v>1.4783923714851363E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.6160599316282498E-3</v>
       </c>
       <c r="I32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J32">
-        <f t="shared" si="4"/>
-        <v>1.6387815218730298E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.791384483086393E-3</v>
       </c>
       <c r="K32" s="9">
         <v>0.02</v>
       </c>
       <c r="L32" s="9">
-        <f t="shared" si="10"/>
-        <v>9.1844701540208669E-4</v>
+        <f t="shared" si="11"/>
+        <v>8.2475690254808711E-4</v>
       </c>
       <c r="N32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
       <c r="O32" s="4">
-        <f t="shared" si="6"/>
-        <v>2.5572285372751167E-3</v>
+        <f t="shared" si="7"/>
+        <v>2.6161413856344799E-3</v>
       </c>
       <c r="Q32" s="6">
-        <f>N32*D32</f>
-        <v>8.2855770769969589E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.4403713782615654E-4</v>
       </c>
       <c r="R32" s="7">
-        <f t="shared" si="7"/>
-        <v>2.3069500791848326E-3</v>
+        <f t="shared" si="8"/>
+        <v>2.360097069454406E-3</v>
       </c>
       <c r="T32" s="3">
-        <f t="shared" si="8"/>
-        <v>4.2906277756469928E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.8817916822936074E-2</v>
       </c>
     </row>
     <row r="33" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
       <c r="D33" s="2">
-        <v>4.1798547756469934E-2</v>
-      </c>
-      <c r="E33">
-        <v>5.5385999999999999E-4</v>
+        <v>3.8292062309936079E-2</v>
+      </c>
+      <c r="E33" s="14">
+        <v>8.2634280700000012E-4</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="1"/>
-        <v>4.124468775646993E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.7465719502936076E-2</v>
       </c>
       <c r="G33" s="2">
         <v>0.9007012970893068</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="2"/>
-        <v>-1.5432635096040981E-4</v>
+        <f t="shared" si="3"/>
+        <v>2.5186226984834359E-4</v>
       </c>
       <c r="I33">
-        <f t="shared" si="3"/>
-        <v>3.6921462405717642E-3</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="J33">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2.7962907421390205E-4</v>
       </c>
       <c r="K33" s="9">
         <v>0.02</v>
       </c>
       <c r="L33" s="9">
-        <f t="shared" si="10"/>
-        <v>9.2813339764349207E-4</v>
+        <f t="shared" si="11"/>
+        <v>8.5027216977881905E-4</v>
       </c>
       <c r="N33">
-        <f t="shared" si="5"/>
-        <v>2.3692146240571765E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.02</v>
       </c>
       <c r="O33" s="4">
-        <f t="shared" si="6"/>
-        <v>9.2813339764349207E-4</v>
+        <f t="shared" si="7"/>
+        <v>1.129901243992721E-3</v>
       </c>
       <c r="Q33" s="6">
-        <f>N33*D33</f>
-        <v>9.9029730608980846E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.6584124619872164E-4</v>
       </c>
       <c r="R33" s="7">
-        <f t="shared" si="7"/>
-        <v>8.3597095512939865E-4</v>
+        <f t="shared" si="8"/>
+        <v>1.0177035160470651E-3</v>
       </c>
       <c r="T33" s="3">
-        <f t="shared" si="8"/>
-        <v>4.1644221405509524E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.8543924579784422E-2</v>
       </c>
     </row>
     <row r="34" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>49</v>
       </c>
       <c r="D34" s="2">
-        <v>4.1367291405509522E-2</v>
-      </c>
-      <c r="E34">
-        <v>2.7692999999999999E-4</v>
+        <v>3.7942947992784422E-2</v>
+      </c>
+      <c r="E34" s="14">
+        <v>2.2536622E-4</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="1"/>
-        <v>4.1090361405509521E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.771758177278442E-2</v>
       </c>
       <c r="G34" s="2">
         <v>0.89815635796618465</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="2"/>
-        <v>-1.2434009407227831E-3</v>
+        <f t="shared" si="3"/>
+        <v>-6.130648837643568E-4</v>
       </c>
       <c r="I34">
-        <f t="shared" si="3"/>
-        <v>3.0057586524922443E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.6157544845512344E-2</v>
       </c>
       <c r="J34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K34" s="9">
         <v>0.02</v>
       </c>
       <c r="L34" s="9">
-        <f t="shared" si="10"/>
-        <v>9.2116013071895418E-4</v>
+        <f t="shared" si="11"/>
+        <v>8.449074074074075E-4</v>
       </c>
       <c r="N34">
-        <f t="shared" si="5"/>
-        <v>5.005758652492244E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.615754484551234E-2</v>
       </c>
       <c r="O34" s="4">
-        <f t="shared" si="6"/>
-        <v>9.2116013071895418E-4</v>
+        <f t="shared" si="7"/>
+        <v>8.449074074074075E-4</v>
       </c>
       <c r="Q34" s="6">
-        <f>N34*D34</f>
-        <v>2.0707467688329735E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.3719238436200453E-3</v>
       </c>
       <c r="R34" s="7">
-        <f t="shared" si="7"/>
-        <v>8.273458281101905E-4</v>
+        <f t="shared" si="8"/>
+        <v>7.5885895985568848E-4</v>
       </c>
       <c r="T34" s="3">
-        <f t="shared" si="8"/>
-        <v>4.0123890464786739E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.7329883109020065E-2</v>
       </c>
     </row>
     <row r="35" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="D35" s="2">
-        <v>3.9846960464786738E-2</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
+        <v>3.7154598271220064E-2</v>
+      </c>
+      <c r="E35" s="14">
+        <v>5.0081382199999999E-5</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="1"/>
-        <v>3.9846960464786738E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.7104516889020063E-2</v>
       </c>
       <c r="G35" s="2">
         <v>0.89783193991781207</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="2"/>
-        <v>-6.997703569378913E-4</v>
+        <f t="shared" si="3"/>
+        <v>-1.8638169163922094E-3</v>
       </c>
       <c r="I35">
-        <f t="shared" si="3"/>
-        <v>1.7561448822584279E-2</v>
+        <f t="shared" si="4"/>
+        <v>5.0163829057894058E-2</v>
       </c>
       <c r="J35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K35" s="9">
         <v>0.02</v>
       </c>
       <c r="L35" s="9">
-        <f t="shared" si="10"/>
-        <v>8.8762626262626273E-4</v>
+        <f t="shared" si="11"/>
+        <v>8.2765151515151519E-4</v>
       </c>
       <c r="N35">
-        <f t="shared" si="5"/>
-        <v>3.7561448822584276E-2</v>
+        <f t="shared" si="6"/>
+        <v>7.0163829057894062E-2</v>
       </c>
       <c r="O35" s="4">
-        <f t="shared" si="6"/>
-        <v>8.8762626262626273E-4</v>
+        <f t="shared" si="7"/>
+        <v>8.2765151515151519E-4</v>
       </c>
       <c r="Q35" s="6">
-        <f>N35*D35</f>
-        <v>1.4967095662336259E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.6069088818166108E-3</v>
       </c>
       <c r="R35" s="7">
-        <f t="shared" si="7"/>
-        <v>7.969392092957348E-4</v>
+        <f t="shared" si="8"/>
+        <v>7.4309196542440132E-4</v>
       </c>
       <c r="T35" s="3">
-        <f t="shared" si="8"/>
-        <v>3.9147190107848846E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.5290781354827855E-2</v>
       </c>
     </row>
     <row r="36" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C36" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
       <c r="D36" s="2">
-        <v>3.9147190107848846E-2</v>
-      </c>
-      <c r="E36" s="13">
-        <v>0</v>
+        <v>3.5265740663727854E-2</v>
+      </c>
+      <c r="E36" s="14">
+        <v>2.5040691099999999E-5</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="1"/>
-        <v>3.9147190107848846E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.5240699972627854E-2</v>
       </c>
       <c r="G36" s="2">
         <v>0.89741883611965945</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="2"/>
-        <v>7.6246918650210715E-4</v>
+        <f t="shared" si="3"/>
+        <v>5.6756971719042898E-4</v>
       </c>
       <c r="I36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J36">
-        <f t="shared" si="4"/>
-        <v>8.4962467447077469E-4</v>
+        <f t="shared" si="5"/>
+        <v>6.3244685128800964E-4</v>
       </c>
       <c r="K36" s="9">
         <v>0.02</v>
       </c>
       <c r="L36" s="9">
-        <f t="shared" si="10"/>
-        <v>8.7243967994068408E-4</v>
+        <f t="shared" si="11"/>
+        <v>7.8593716209953985E-4</v>
       </c>
       <c r="N36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
       <c r="O36" s="4">
-        <f t="shared" si="6"/>
-        <v>1.7220643544114587E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.4183840133875495E-3</v>
       </c>
       <c r="Q36" s="6">
-        <f>N36*D36</f>
-        <v>7.8294380215697694E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.0531481327455714E-4</v>
       </c>
       <c r="R36" s="7">
-        <f t="shared" si="7"/>
-        <v>1.545412988659084E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.2728845304649861E-3</v>
       </c>
       <c r="T36" s="3">
-        <f t="shared" si="8"/>
-        <v>3.9909659294350953E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.5833310380918283E-2</v>
       </c>
     </row>
     <row r="37" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>52</v>
       </c>
       <c r="D37" s="2">
-        <v>3.9909659294350953E-2</v>
-      </c>
-      <c r="E37" s="13">
-        <v>0</v>
+        <v>3.5833310380918283E-2</v>
+      </c>
+      <c r="E37" s="14">
+        <v>2.5040691099999999E-5</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="1"/>
-        <v>3.9909659294350953E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.5808269689818283E-2</v>
       </c>
       <c r="G37" s="2">
         <v>0.89360178477979457</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="2"/>
-        <v>-1.8055203398684161E-4</v>
+        <f t="shared" si="3"/>
+        <v>-4.3867109363490697E-4</v>
       </c>
       <c r="I37">
-        <f t="shared" si="3"/>
-        <v>4.5240184250933454E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.2241991849809812E-2</v>
       </c>
       <c r="J37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K37" s="9">
         <v>0.02</v>
       </c>
       <c r="L37" s="9">
-        <f t="shared" si="10"/>
-        <v>8.932314141289607E-4</v>
+        <f t="shared" si="11"/>
+        <v>8.0199728763407719E-4</v>
       </c>
       <c r="N37">
-        <f t="shared" si="5"/>
-        <v>2.4524018425093344E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.224199184980981E-2</v>
       </c>
       <c r="O37" s="4">
-        <f t="shared" si="6"/>
-        <v>8.932314141289607E-4</v>
+        <f t="shared" si="7"/>
+        <v>8.0199728763407719E-4</v>
       </c>
       <c r="Q37" s="6">
-        <f>N37*D37</f>
-        <v>9.787452198738607E-4</v>
+        <f t="shared" ref="Q37:Q54" si="12">N37*D37</f>
+        <v>1.1553373012532725E-3</v>
       </c>
       <c r="R37" s="7">
-        <f t="shared" si="7"/>
-        <v>7.9819318588701909E-4</v>
+        <f t="shared" si="8"/>
+        <v>7.1666620761836567E-4</v>
       </c>
       <c r="T37" s="3">
-        <f t="shared" si="8"/>
-        <v>3.9729107260364112E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.5394639287283376E-2</v>
       </c>
     </row>
     <row r="38" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>53</v>
       </c>
       <c r="D38" s="2">
-        <v>3.9729107260364112E-2</v>
-      </c>
-      <c r="E38" s="13">
+        <v>3.5369598596183376E-2</v>
+      </c>
+      <c r="E38" s="14">
         <v>0</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="1"/>
-        <v>3.9729107260364112E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.5369598596183376E-2</v>
       </c>
       <c r="G38" s="2">
         <v>0.89142355779776261</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="2"/>
-        <v>1.4143965387413485E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.9209117233725884E-3</v>
       </c>
       <c r="I38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J38">
-        <f t="shared" si="4"/>
-        <v>1.5866717077071379E-3</v>
+        <f t="shared" si="5"/>
+        <v>2.1548810400727437E-3</v>
       </c>
       <c r="K38" s="9">
         <v>0.02</v>
       </c>
       <c r="L38" s="9">
-        <f t="shared" si="10"/>
-        <v>8.9136318897637789E-4</v>
+        <f t="shared" si="11"/>
+        <v>7.9355314960629936E-4</v>
       </c>
       <c r="N38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
       <c r="O38" s="4">
-        <f t="shared" si="6"/>
-        <v>2.4780348966835157E-3</v>
+        <f t="shared" si="7"/>
+        <v>2.9484341896790431E-3</v>
       </c>
       <c r="Q38" s="6">
-        <f>N38*D38</f>
-        <v>7.9458214520728224E-4</v>
+        <f t="shared" si="12"/>
+        <v>7.0739197192366756E-4</v>
       </c>
       <c r="R38" s="7">
-        <f t="shared" si="7"/>
-        <v>2.2089786839486307E-3</v>
+        <f t="shared" si="8"/>
+        <v>2.6283036952962557E-3</v>
       </c>
       <c r="T38" s="3">
-        <f t="shared" si="8"/>
-        <v>4.114350379910546E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.7290510319555964E-2</v>
       </c>
     </row>
     <row r="39" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54</v>
       </c>
       <c r="D39" s="2">
-        <v>4.114350379910546E-2</v>
-      </c>
-      <c r="E39" s="13">
+        <v>3.7290510319555964E-2</v>
+      </c>
+      <c r="E39" s="14">
         <v>0</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" si="1"/>
-        <v>4.114350379910546E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.7290510319555964E-2</v>
       </c>
       <c r="G39" s="2">
         <v>0.88613461227569112</v>
       </c>
       <c r="H39" s="3">
-        <f t="shared" si="2"/>
-        <v>1.2439095176761811E-4</v>
+        <f t="shared" si="3"/>
+        <v>9.1161705641375212E-4</v>
       </c>
       <c r="I39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J39">
-        <f t="shared" si="4"/>
-        <v>1.4037478058572667E-4</v>
+        <f t="shared" si="5"/>
+        <v>1.0287568545287033E-3</v>
       </c>
       <c r="K39" s="9">
         <v>0.02</v>
       </c>
       <c r="L39" s="9">
-        <f t="shared" si="10"/>
-        <v>9.2860617854536611E-4</v>
+        <f t="shared" si="11"/>
+        <v>8.4164436876672355E-4</v>
       </c>
       <c r="N39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
       <c r="O39" s="4">
-        <f t="shared" si="6"/>
-        <v>1.0689809591310929E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.8704012232954267E-3</v>
       </c>
       <c r="Q39" s="6">
-        <f>N39*D39</f>
-        <v>8.2287007598210924E-4</v>
+        <f t="shared" si="12"/>
+        <v>7.4581020639111933E-4</v>
       </c>
       <c r="R39" s="7">
-        <f t="shared" si="7"/>
-        <v>9.4726102774972745E-4</v>
+        <f t="shared" si="8"/>
+        <v>1.6574272628048713E-3</v>
       </c>
       <c r="T39" s="3">
-        <f t="shared" si="8"/>
-        <v>4.1267894750873078E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.8202127375969716E-2</v>
       </c>
     </row>
     <row r="40" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>55</v>
       </c>
       <c r="D40" s="2">
-        <v>4.1267894750873078E-2</v>
-      </c>
-      <c r="E40" s="13">
+        <v>3.8202127375969716E-2</v>
+      </c>
+      <c r="E40" s="14">
         <v>0</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" si="1"/>
-        <v>4.1267894750873078E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.8202127375969716E-2</v>
       </c>
       <c r="G40" s="2">
         <v>0.88374076937431689</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" si="2"/>
-        <v>6.7787015837497688E-4</v>
+        <f t="shared" si="3"/>
+        <v>-1.0683987897115721E-5</v>
       </c>
       <c r="I40">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2.7966997209260836E-4</v>
       </c>
       <c r="J40">
-        <f t="shared" si="4"/>
-        <v>7.6704638041640298E-4</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="K40" s="9">
         <v>0.02</v>
       </c>
       <c r="L40" s="9">
-        <f t="shared" si="10"/>
-        <v>9.3393665158371039E-4</v>
+        <f t="shared" si="11"/>
+        <v>8.6455505279034689E-4</v>
       </c>
       <c r="N40">
-        <f t="shared" si="5"/>
-        <v>0.02</v>
+        <f t="shared" si="6"/>
+        <v>2.0279669972092608E-2</v>
       </c>
       <c r="O40" s="4">
-        <f t="shared" si="6"/>
-        <v>1.7009830320001134E-3</v>
+        <f t="shared" si="7"/>
+        <v>8.6455505279034689E-4</v>
       </c>
       <c r="Q40" s="6">
-        <f>N40*D40</f>
-        <v>8.253578950174616E-4</v>
+        <f t="shared" si="12"/>
+        <v>7.7472653541651006E-4</v>
       </c>
       <c r="R40" s="7">
-        <f t="shared" si="7"/>
-        <v>1.5032280533924386E-3</v>
+        <f t="shared" si="8"/>
+        <v>7.6404254751939434E-4</v>
       </c>
       <c r="T40" s="3">
-        <f t="shared" si="8"/>
-        <v>4.1945764909248055E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.81914433880726E-2</v>
       </c>
     </row>
     <row r="41" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
       <c r="D41" s="2">
-        <v>4.1945764909248055E-2</v>
-      </c>
-      <c r="E41" s="13">
+        <v>3.81914433880726E-2</v>
+      </c>
+      <c r="E41" s="14">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" si="1"/>
-        <v>4.1945764909248055E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.81914433880726E-2</v>
       </c>
       <c r="G41" s="2">
         <v>0.87216400172860853</v>
       </c>
       <c r="H41" s="3">
-        <f t="shared" si="2"/>
-        <v>8.0359438319348164E-5</v>
+        <f t="shared" si="3"/>
+        <v>2.6489433537710966E-4</v>
       </c>
       <c r="I41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J41">
-        <f t="shared" si="4"/>
-        <v>9.2137990286319597E-5</v>
+        <f t="shared" si="5"/>
+        <v>3.0372078514143591E-4</v>
       </c>
       <c r="K41" s="9">
         <v>0.02</v>
       </c>
       <c r="L41" s="9">
-        <f t="shared" si="10"/>
-        <v>9.6187792264098345E-4</v>
+        <f t="shared" si="11"/>
+        <v>8.7578582267504876E-4</v>
       </c>
       <c r="N41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
       <c r="O41" s="4">
-        <f t="shared" si="6"/>
-        <v>1.0540159129273031E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.1795066078164847E-3</v>
       </c>
       <c r="Q41" s="6">
-        <f>N41*D41</f>
-        <v>8.3891529818496107E-4</v>
+        <f t="shared" si="12"/>
+        <v>7.6382886776145203E-4</v>
       </c>
       <c r="R41" s="7">
-        <f t="shared" si="7"/>
-        <v>9.1927473650430934E-4</v>
+        <f t="shared" si="8"/>
+        <v>1.0287232031385618E-3</v>
       </c>
       <c r="T41" s="3">
-        <f t="shared" si="8"/>
-        <v>4.2026124347567403E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.845633772344971E-2</v>
       </c>
     </row>
     <row r="42" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>57</v>
       </c>
       <c r="D42" s="2">
-        <v>4.2026124347567403E-2</v>
-      </c>
-      <c r="E42" s="13">
+        <v>3.845633772344971E-2</v>
+      </c>
+      <c r="E42" s="14">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="1"/>
-        <v>4.2026124347567403E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.845633772344971E-2</v>
       </c>
       <c r="G42" s="2">
         <v>0.86683614138518539</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="2"/>
-        <v>4.0090765546503537E-4</v>
+        <f t="shared" si="3"/>
+        <v>-9.0286395943822706E-4</v>
       </c>
       <c r="I42">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2.3477637572536795E-2</v>
       </c>
       <c r="J42">
-        <f t="shared" si="4"/>
-        <v>4.6249531638631683E-4</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="K42" s="9">
         <v>0.02</v>
       </c>
       <c r="L42" s="9">
-        <f t="shared" si="10"/>
-        <v>9.6964402708014843E-4</v>
+        <f t="shared" si="11"/>
+        <v>8.872804417683212E-4</v>
       </c>
       <c r="N42">
-        <f t="shared" si="5"/>
-        <v>0.02</v>
+        <f t="shared" si="6"/>
+        <v>4.3477637572536795E-2</v>
       </c>
       <c r="O42" s="4">
-        <f t="shared" si="6"/>
-        <v>1.4321393434664651E-3</v>
+        <f t="shared" si="7"/>
+        <v>8.872804417683212E-4</v>
       </c>
       <c r="Q42" s="6">
-        <f>N42*D42</f>
-        <v>8.4052248695134807E-4</v>
+        <f t="shared" si="12"/>
+        <v>1.6719907139072213E-3</v>
       </c>
       <c r="R42" s="7">
-        <f t="shared" si="7"/>
-        <v>1.2414301424163833E-3</v>
+        <f t="shared" si="8"/>
+        <v>7.6912675446899419E-4</v>
       </c>
       <c r="T42" s="3">
-        <f t="shared" si="8"/>
-        <v>4.2427032003032439E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.7553473764011483E-2</v>
       </c>
     </row>
     <row r="43" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>58</v>
       </c>
       <c r="D43" s="2">
-        <v>4.2427032003032439E-2</v>
-      </c>
-      <c r="E43" s="13">
+        <v>3.7553473764011483E-2</v>
+      </c>
+      <c r="E43" s="14">
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" si="1"/>
-        <v>4.2427032003032439E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.7553473764011483E-2</v>
       </c>
       <c r="G43" s="2">
         <v>0.85541777224237836</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="2"/>
-        <v>3.5094293622665862E-4</v>
+        <f t="shared" si="3"/>
+        <v>6.6552107642421643E-4</v>
       </c>
       <c r="I43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J43">
-        <f t="shared" si="4"/>
-        <v>4.1025911269846835E-4</v>
+        <f t="shared" si="5"/>
+        <v>7.7800707212293495E-4</v>
       </c>
       <c r="K43" s="9">
         <v>0.02</v>
       </c>
       <c r="L43" s="9">
-        <f t="shared" si="10"/>
-        <v>9.9196049882889145E-4</v>
+        <f t="shared" si="11"/>
+        <v>8.7801481293916573E-4</v>
       </c>
       <c r="N43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
       <c r="O43" s="4">
-        <f t="shared" si="6"/>
-        <v>1.4022196115273597E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.6560218850621006E-3</v>
       </c>
       <c r="Q43" s="6">
-        <f>N43*D43</f>
-        <v>8.4854064006064875E-4</v>
+        <f t="shared" si="12"/>
+        <v>7.5106947528022971E-4</v>
       </c>
       <c r="R43" s="7">
-        <f t="shared" si="7"/>
-        <v>1.1994835762873073E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.4165905517044459E-3</v>
       </c>
       <c r="T43" s="3">
-        <f t="shared" si="8"/>
-        <v>4.2777974939259097E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.8218994840435699E-2</v>
       </c>
     </row>
     <row r="44" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>59</v>
       </c>
       <c r="D44" s="2">
-        <v>4.2777974939259097E-2</v>
-      </c>
-      <c r="E44" s="13">
+        <v>3.8218994840435699E-2</v>
+      </c>
+      <c r="E44" s="14">
         <v>0</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" si="1"/>
-        <v>4.2777974939259097E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.8218994840435699E-2</v>
       </c>
       <c r="G44" s="2">
         <v>0.84103628074581638</v>
       </c>
       <c r="H44" s="3">
-        <f t="shared" si="2"/>
-        <v>1.1027147353747588E-3</v>
+        <f t="shared" si="3"/>
+        <v>7.4314412604907509E-5</v>
       </c>
       <c r="I44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J44">
-        <f t="shared" si="4"/>
-        <v>1.3111381287819004E-3</v>
+        <f t="shared" si="5"/>
+        <v>8.8360531294805474E-5</v>
       </c>
       <c r="K44" s="9">
         <v>0.02</v>
       </c>
       <c r="L44" s="9">
-        <f t="shared" si="10"/>
-        <v>1.017268242015061E-3</v>
+        <f t="shared" si="11"/>
+        <v>9.0885484289794866E-4</v>
       </c>
       <c r="N44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
       <c r="O44" s="4">
-        <f t="shared" si="6"/>
-        <v>2.3284063707969616E-3</v>
+        <f t="shared" si="7"/>
+        <v>9.9721537419275412E-4</v>
       </c>
       <c r="Q44" s="6">
-        <f>N44*D44</f>
-        <v>8.5555949878518198E-4</v>
+        <f t="shared" si="12"/>
+        <v>7.6437989680871402E-4</v>
       </c>
       <c r="R44" s="7">
-        <f t="shared" si="7"/>
-        <v>1.9582742341599409E-3</v>
+        <f t="shared" si="8"/>
+        <v>8.3869430941362153E-4</v>
       </c>
       <c r="T44" s="3">
-        <f t="shared" si="8"/>
-        <v>4.3880689674633856E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.8293309253040607E-2</v>
       </c>
     </row>
     <row r="45" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="D45" s="2">
-        <v>4.3880689674633856E-2</v>
-      </c>
-      <c r="E45" s="13">
+        <v>3.8293309253040607E-2</v>
+      </c>
+      <c r="E45" s="14">
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" si="1"/>
-        <v>4.3880689674633856E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.8293309253040607E-2</v>
       </c>
       <c r="G45" s="2">
         <v>0.81132714394559358</v>
       </c>
       <c r="H45" s="3">
-        <f t="shared" si="2"/>
-        <v>-3.1938966076633934E-3</v>
+        <f t="shared" si="3"/>
+        <v>-2.2990596531274055E-3</v>
       </c>
       <c r="I45">
-        <f t="shared" si="3"/>
-        <v>7.2785925457085329E-2</v>
+        <f t="shared" si="4"/>
+        <v>6.0038155436901892E-2</v>
       </c>
       <c r="J45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K45" s="9">
         <v>0.02</v>
       </c>
       <c r="L45" s="9">
-        <f t="shared" si="10"/>
-        <v>1.0817015060345728E-3</v>
+        <f t="shared" si="11"/>
+        <v>9.439671663594311E-4</v>
       </c>
       <c r="N45">
-        <f t="shared" si="5"/>
-        <v>9.2785925457085333E-2</v>
+        <f t="shared" si="6"/>
+        <v>8.0038155436901889E-2</v>
       </c>
       <c r="O45" s="4">
-        <f t="shared" si="6"/>
-        <v>1.0817015060345728E-3</v>
+        <f t="shared" si="7"/>
+        <v>9.439671663594311E-4</v>
       </c>
       <c r="Q45" s="6">
-        <f>N45*D45</f>
-        <v>4.0715104011560714E-3</v>
+        <f t="shared" si="12"/>
+        <v>3.0649258381882176E-3</v>
       </c>
       <c r="R45" s="7">
-        <f t="shared" si="7"/>
-        <v>8.7761379349267723E-4</v>
+        <f t="shared" si="8"/>
+        <v>7.6586618506081219E-4</v>
       </c>
       <c r="T45" s="3">
-        <f t="shared" si="8"/>
-        <v>4.0686793066970463E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.5994249599913201E-2</v>
       </c>
     </row>
     <row r="46" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>61</v>
       </c>
       <c r="D46" s="2">
-        <v>4.0686793066970463E-2</v>
-      </c>
-      <c r="E46" s="13">
+        <v>3.5994249599913201E-2</v>
+      </c>
+      <c r="E46" s="14">
         <v>0</v>
       </c>
       <c r="F46" s="3">
-        <f t="shared" si="1"/>
-        <v>4.0686793066970463E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.5994249599913201E-2</v>
       </c>
       <c r="G46" s="2">
         <v>0.78002007215124636</v>
       </c>
       <c r="H46" s="3">
-        <f t="shared" si="2"/>
-        <v>-1.4010787812561779E-3</v>
+        <f t="shared" si="3"/>
+        <v>-1.8672654729290777E-3</v>
       </c>
       <c r="I46">
-        <f t="shared" si="3"/>
-        <v>3.443571428571434E-2</v>
+        <f t="shared" si="4"/>
+        <v>5.1876771808949743E-2</v>
       </c>
       <c r="J46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K46" s="9">
         <v>0.02</v>
       </c>
       <c r="L46" s="9">
-        <f t="shared" si="10"/>
-        <v>1.0432242584414231E-3</v>
+        <f t="shared" si="11"/>
+        <v>9.2290572730117893E-4</v>
       </c>
       <c r="N46">
-        <f t="shared" si="5"/>
-        <v>5.4435714285714337E-2</v>
+        <f t="shared" si="6"/>
+        <v>7.1876771808949746E-2</v>
       </c>
       <c r="O46" s="4">
-        <f t="shared" si="6"/>
-        <v>1.0432242584414231E-3</v>
+        <f t="shared" si="7"/>
+        <v>9.2290572730117893E-4</v>
       </c>
       <c r="Q46" s="6">
-        <f>N46*D46</f>
-        <v>2.2148146425955873E-3</v>
+        <f t="shared" si="12"/>
+        <v>2.5871504649273417E-3</v>
       </c>
       <c r="R46" s="7">
-        <f t="shared" si="7"/>
-        <v>8.137358613394093E-4</v>
+        <f t="shared" si="8"/>
+        <v>7.1988499199826409E-4</v>
       </c>
       <c r="T46" s="3">
-        <f t="shared" si="8"/>
-        <v>3.9285714285714285E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.4126984126984124E-2</v>
       </c>
     </row>
     <row r="47" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>62</v>
       </c>
       <c r="D47" s="2">
-        <v>3.9285714285714285E-2</v>
-      </c>
-      <c r="E47" s="13">
+        <v>3.4126984126984124E-2</v>
+      </c>
+      <c r="E47" s="14">
         <v>0</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" si="1"/>
-        <v>3.9285714285714285E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.4126984126984124E-2</v>
       </c>
       <c r="G47" s="2">
         <v>0.70140211640211636</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" si="2"/>
-        <v>-1.6468068639748069E-2</v>
+        <f t="shared" si="3"/>
+        <v>-1.5605994561720321E-2</v>
       </c>
       <c r="I47">
-        <f t="shared" si="3"/>
-        <v>0.41918720173904178</v>
+        <f t="shared" si="4"/>
+        <v>0.45729193366901411</v>
       </c>
       <c r="J47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K47" s="9">
         <v>0.02</v>
       </c>
       <c r="L47" s="9">
-        <f t="shared" si="10"/>
-        <v>1.120205182363369E-3</v>
+        <f t="shared" si="11"/>
+        <v>9.731075321540376E-4</v>
       </c>
       <c r="N47">
-        <f t="shared" si="5"/>
-        <v>0.4391872017390418</v>
+        <f t="shared" si="6"/>
+        <v>0.47729193366901412</v>
       </c>
       <c r="O47" s="4">
-        <f t="shared" si="6"/>
-        <v>1.120205182363369E-3</v>
+        <f t="shared" si="7"/>
+        <v>9.731075321540376E-4</v>
       </c>
       <c r="Q47" s="6">
-        <f>N47*D47</f>
-        <v>1.7253782925462355E-2</v>
+        <f t="shared" si="12"/>
+        <v>1.6288534244260005E-2</v>
       </c>
       <c r="R47" s="7">
-        <f t="shared" si="7"/>
-        <v>7.8571428571428575E-4</v>
+        <f t="shared" si="8"/>
+        <v>6.8253968253968245E-4</v>
       </c>
       <c r="T47" s="3">
-        <f t="shared" si="8"/>
-        <v>2.2817645645966216E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.8520989565263799E-2</v>
       </c>
     </row>
     <row r="48" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>63</v>
       </c>
       <c r="D48" s="2">
-        <v>2.2817645645966216E-2</v>
-      </c>
-      <c r="E48" s="13">
+        <v>1.8520989565263803E-2</v>
+      </c>
+      <c r="E48" s="14">
         <v>0</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="1"/>
-        <v>2.2817645645966216E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.8520989565263803E-2</v>
       </c>
       <c r="G48" s="2">
         <v>0.45760721624723122</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="2"/>
-        <v>-1.0611270912898277E-2</v>
+        <f t="shared" si="3"/>
+        <v>-8.4237076586438867E-3</v>
       </c>
       <c r="I48">
-        <f t="shared" si="3"/>
-        <v>0.46504670453475005</v>
+        <f t="shared" si="4"/>
+        <v>0.45481952403032433</v>
       </c>
       <c r="J48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K48" s="9">
         <v>0</v>
       </c>
       <c r="L48" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N48">
-        <f t="shared" si="5"/>
-        <v>0.46504670453475005</v>
+        <f t="shared" si="6"/>
+        <v>0.45481952403032433</v>
       </c>
       <c r="O48" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q48" s="6">
-        <f>N48*D48</f>
-        <v>1.0611270912898277E-2</v>
+        <f t="shared" si="12"/>
+        <v>8.4237076586438867E-3</v>
       </c>
       <c r="R48" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T48" s="3">
-        <f t="shared" si="8"/>
-        <v>1.2206374733067939E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.0097281906619916E-2</v>
       </c>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>64</v>
       </c>
       <c r="D49" s="2">
-        <v>1.2206374733067939E-2</v>
-      </c>
-      <c r="E49" s="13">
+        <v>1.0097281906619916E-2</v>
+      </c>
+      <c r="E49" s="14">
         <v>0</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" si="1"/>
-        <v>1.2206374733067939E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.0097281906619916E-2</v>
       </c>
       <c r="G49" s="2">
         <v>0.25098204634731486</v>
       </c>
       <c r="H49" s="3">
-        <f t="shared" si="2"/>
-        <v>-4.7614670499232098E-3</v>
+        <f t="shared" si="3"/>
+        <v>-4.3308625011296347E-3</v>
       </c>
       <c r="I49">
-        <f t="shared" si="3"/>
-        <v>0.39008035997977814</v>
+        <f t="shared" si="4"/>
+        <v>0.42891369590169232</v>
       </c>
       <c r="J49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K49" s="9">
         <v>0</v>
       </c>
       <c r="L49" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N49">
-        <f t="shared" si="5"/>
-        <v>0.39008035997977814</v>
+        <f t="shared" si="6"/>
+        <v>0.42891369590169232</v>
       </c>
       <c r="O49" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q49" s="6">
-        <f>N49*D49</f>
-        <v>4.7614670499232098E-3</v>
+        <f t="shared" si="12"/>
+        <v>4.3308625011296347E-3</v>
       </c>
       <c r="R49" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T49" s="3">
-        <f t="shared" si="8"/>
-        <v>7.4449076831447289E-3</v>
+        <f t="shared" si="9"/>
+        <v>5.7664194054902812E-3</v>
       </c>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>65</v>
       </c>
       <c r="D50" s="2">
-        <v>7.4449076831447289E-3</v>
-      </c>
-      <c r="E50" s="13">
+        <v>5.7664194054902812E-3</v>
+      </c>
+      <c r="E50" s="14">
         <v>0</v>
       </c>
       <c r="F50" s="3">
-        <f t="shared" si="1"/>
-        <v>7.4449076831447289E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.7664194054902812E-3</v>
       </c>
       <c r="G50" s="2">
         <v>0.13579511614055986</v>
       </c>
       <c r="H50" s="3">
-        <f t="shared" si="2"/>
-        <v>-2.8614975206180584E-3</v>
+        <f t="shared" si="3"/>
+        <v>-1.6571551218456798E-3</v>
       </c>
       <c r="I50">
-        <f t="shared" si="3"/>
-        <v>0.38435634696941762</v>
+        <f t="shared" si="4"/>
+        <v>0.28738026239782027</v>
       </c>
       <c r="J50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K50" s="9">
         <v>0</v>
       </c>
       <c r="L50" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N50">
-        <f t="shared" si="5"/>
-        <v>0.38435634696941762</v>
+        <f t="shared" si="6"/>
+        <v>0.28738026239782027</v>
       </c>
       <c r="O50" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q50" s="6">
-        <f>N50*D50</f>
-        <v>2.8614975206180584E-3</v>
+        <f t="shared" si="12"/>
+        <v>1.6571551218456798E-3</v>
       </c>
       <c r="R50" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T50" s="3">
-        <f t="shared" si="8"/>
-        <v>4.5834101625266705E-3</v>
+        <f t="shared" si="9"/>
+        <v>4.1092642836446014E-3</v>
       </c>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>66</v>
       </c>
       <c r="D51" s="2">
-        <v>4.5834101625266705E-3</v>
-      </c>
-      <c r="E51" s="13">
+        <v>4.1092642836446014E-3</v>
+      </c>
+      <c r="E51" s="14">
         <v>0</v>
       </c>
       <c r="F51" s="3">
-        <f t="shared" si="1"/>
-        <v>4.5834101625266705E-3</v>
+        <f t="shared" si="2"/>
+        <v>4.1092642836446014E-3</v>
       </c>
       <c r="G51" s="2">
         <v>9.7568685298843605E-2</v>
       </c>
       <c r="H51" s="3">
-        <f t="shared" si="2"/>
-        <v>-7.7904746170284799E-4</v>
+        <f t="shared" si="3"/>
+        <v>-5.7859674115342792E-4</v>
       </c>
       <c r="I51">
-        <f t="shared" si="3"/>
-        <v>0.16997114246336334</v>
+        <f t="shared" si="4"/>
+        <v>0.14080300054107425</v>
       </c>
       <c r="J51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K51" s="9">
         <v>0</v>
       </c>
       <c r="L51" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N51">
-        <f t="shared" si="5"/>
-        <v>0.16997114246336334</v>
+        <f t="shared" si="6"/>
+        <v>0.14080300054107425</v>
       </c>
       <c r="O51" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q51" s="6">
-        <f>N51*D51</f>
-        <v>7.7904746170284799E-4</v>
+        <f t="shared" si="12"/>
+        <v>5.7859674115342792E-4</v>
       </c>
       <c r="R51" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T51" s="3">
-        <f t="shared" si="8"/>
-        <v>3.8043627008238225E-3</v>
+        <f t="shared" si="9"/>
+        <v>3.5306675424911734E-3</v>
       </c>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>67</v>
       </c>
       <c r="D52" s="2">
-        <v>3.8043627008238225E-3</v>
-      </c>
-      <c r="E52" s="13">
+        <v>3.5306675424911734E-3</v>
+      </c>
+      <c r="E52" s="14">
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" si="1"/>
-        <v>3.8043627008238225E-3</v>
+        <f t="shared" si="2"/>
+        <v>3.5306675424911734E-3</v>
       </c>
       <c r="G52" s="2">
         <v>7.9125270273968859E-2</v>
       </c>
       <c r="H52" s="3">
-        <f t="shared" si="2"/>
-        <v>-1.2038931024313309E-4</v>
+        <f t="shared" si="3"/>
+        <v>-1.912384258496852E-4</v>
       </c>
       <c r="I52">
-        <f t="shared" si="3"/>
-        <v>3.1645066391031325E-2</v>
+        <f t="shared" si="4"/>
+        <v>5.4164948567984095E-2</v>
       </c>
       <c r="J52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K52" s="9">
         <v>0</v>
       </c>
       <c r="L52" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N52">
-        <f t="shared" si="5"/>
-        <v>3.1645066391031325E-2</v>
+        <f t="shared" si="6"/>
+        <v>5.4164948567984095E-2</v>
       </c>
       <c r="O52" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q52" s="6">
-        <f>N52*D52</f>
-        <v>1.2038931024313311E-4</v>
+        <f t="shared" si="12"/>
+        <v>1.912384258496852E-4</v>
       </c>
       <c r="R52" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T52" s="3">
-        <f t="shared" si="8"/>
-        <v>3.6839733905806894E-3</v>
+        <f t="shared" si="9"/>
+        <v>3.3394291166414882E-3</v>
       </c>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
       <c r="D53" s="2">
-        <v>3.6839733905806894E-3</v>
-      </c>
-      <c r="E53" s="13">
+        <v>3.3394291166414882E-3</v>
+      </c>
+      <c r="E53" s="14">
         <v>0</v>
       </c>
       <c r="F53" s="3">
-        <f t="shared" si="1"/>
-        <v>3.6839733905806894E-3</v>
+        <f t="shared" si="2"/>
+        <v>3.3394291166414882E-3</v>
       </c>
       <c r="G53" s="2">
         <v>1.136996103999364E-2</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" si="2"/>
-        <v>2.1169493582987768E-4</v>
+        <f t="shared" si="3"/>
+        <v>5.0464095379013129E-4</v>
       </c>
       <c r="I53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" si="4"/>
-        <v>1.8618791663862738E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.4383701229499868E-2</v>
       </c>
       <c r="K53" s="9">
         <v>0</v>
       </c>
       <c r="L53" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O53" s="4">
-        <f t="shared" si="6"/>
-        <v>1.8618791663862738E-2</v>
+        <f t="shared" si="7"/>
+        <v>4.4383701229499868E-2</v>
       </c>
       <c r="Q53" s="6">
-        <f>N53*D53</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R53" s="7">
-        <f t="shared" si="7"/>
-        <v>2.1169493582987768E-4</v>
+        <f t="shared" si="8"/>
+        <v>5.0464095379013129E-4</v>
       </c>
       <c r="T53" s="3">
-        <f t="shared" si="8"/>
-        <v>3.8956683264105671E-3</v>
+        <f t="shared" si="9"/>
+        <v>3.8440700704316195E-3</v>
       </c>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>69</v>
       </c>
       <c r="D54" s="2">
-        <v>3.8956683264105671E-3</v>
-      </c>
-      <c r="E54" s="13">
+        <v>3.8440700704316195E-3</v>
+      </c>
+      <c r="E54" s="14">
         <v>0</v>
       </c>
       <c r="F54" s="3">
-        <f t="shared" si="1"/>
-        <v>3.8956683264105671E-3</v>
+        <f t="shared" si="2"/>
+        <v>3.8440700704316195E-3</v>
       </c>
       <c r="G54" s="2">
         <v>3.5860787905368798E-3</v>
       </c>
       <c r="H54" s="3">
-        <f t="shared" si="2"/>
-        <v>6.7544924948612171E-5</v>
+        <f t="shared" si="3"/>
+        <v>1.7522328328605907E-5</v>
       </c>
       <c r="I54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J54">
-        <f t="shared" si="4"/>
-        <v>1.8835315366425586E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.8862084053603854E-3</v>
       </c>
       <c r="K54" s="9">
         <v>0</v>
       </c>
       <c r="L54" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O54" s="4">
-        <f t="shared" si="6"/>
-        <v>1.8835315366425586E-2</v>
+        <f t="shared" si="7"/>
+        <v>4.8862084053603854E-3</v>
       </c>
       <c r="Q54" s="6">
-        <f>N54*D54</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R54" s="7">
-        <f t="shared" si="7"/>
-        <v>6.7544924948612171E-5</v>
+        <f t="shared" si="8"/>
+        <v>1.7522328328605907E-5</v>
       </c>
       <c r="T54" s="3">
-        <f t="shared" si="8"/>
-        <v>3.9632132513591793E-3</v>
+        <f t="shared" si="9"/>
+        <v>3.8615923987602254E-3</v>
       </c>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
       <c r="D55" s="2">
-        <v>3.9632132513591793E-3</v>
-      </c>
-      <c r="E55" s="13">
+        <v>3.8615923987602254E-3</v>
+      </c>
+      <c r="E55" s="14">
         <v>0</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="1"/>
-        <v>3.9632132513591793E-3</v>
+        <f t="shared" si="2"/>
+        <v>3.8615923987602254E-3</v>
       </c>
       <c r="G55" s="2">
         <v>2.2356587571769728E-3</v>

--- a/intensities/outsidermalli.xlsx
+++ b/intensities/outsidermalli.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antti/Documents/Github/econogym/intensities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB27688-F353-9C4F-8278-1D0E1A5A1DE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9304B37-A446-3148-8E51-4355248CF2B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3780" yWindow="460" windowWidth="21900" windowHeight="15520" activeTab="1" xr2:uid="{4432A973-DB75-B946-AAB0-63A29BD95705}"/>
   </bookViews>
@@ -162,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;???\ _€_-;_-@_-"/>
@@ -170,6 +170,7 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.000000"/>
     <numFmt numFmtId="169" formatCode="0.0000000"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -221,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -237,6 +238,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -4334,8 +4336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA1ABDA-1F2E-7544-B0E0-D32982AABCA5}">
   <dimension ref="B1:T310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4424,7 +4426,7 @@
       <c r="D5" s="2">
         <v>7.3933452989092915E-2</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="15">
         <v>5.5339927400000002E-3</v>
       </c>
       <c r="F5" s="3">
@@ -4482,7 +4484,7 @@
       <c r="D6" s="2">
         <v>6.3877672602104987E-2</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="15">
         <v>2.1459872299999998E-2</v>
       </c>
       <c r="F6" s="3">
@@ -4540,7 +4542,7 @@
       <c r="D7" s="2">
         <v>6.6065871369294607E-2</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="15">
         <v>3.5507700000000003E-2</v>
       </c>
       <c r="F7" s="3">
@@ -4598,7 +4600,7 @@
       <c r="D8" s="2">
         <v>7.0044571004085676E-2</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="15">
         <v>4.7101540000000004E-2</v>
       </c>
       <c r="F8" s="3">
@@ -4656,7 +4658,7 @@
       <c r="D9" s="2">
         <v>7.2014313403906363E-2</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="15">
         <v>5.4864154300000002E-2</v>
       </c>
       <c r="F9" s="3">
@@ -4714,7 +4716,7 @@
       <c r="D10" s="2">
         <v>7.9016968292175568E-2</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="15">
         <v>6.4404657599999998E-2</v>
       </c>
       <c r="F10" s="3">
@@ -4772,7 +4774,7 @@
       <c r="D11" s="2">
         <v>8.7443494284644846E-2</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="15">
         <v>7.5122073400000003E-2</v>
       </c>
       <c r="F11" s="3">
@@ -4830,7 +4832,7 @@
       <c r="D12" s="2">
         <v>8.9667149059334303E-2</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="15">
         <v>8.496306499999999E-2</v>
       </c>
       <c r="F12" s="3">
@@ -4888,7 +4890,7 @@
       <c r="D13" s="2">
         <v>9.5707590306355741E-2</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="15">
         <v>9.4553649699999992E-2</v>
       </c>
       <c r="F13" s="3">
@@ -4946,7 +4948,7 @@
       <c r="D14" s="2">
         <v>9.6872905312855181E-2</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="15">
         <v>0.104144234</v>
       </c>
       <c r="F14" s="3">
@@ -5004,7 +5006,7 @@
       <c r="D15" s="2">
         <v>9.8322528127452971E-2</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="15">
         <v>0.104895455</v>
       </c>
       <c r="F15" s="3">
@@ -5062,7 +5064,7 @@
       <c r="D16" s="2">
         <v>9.6066797161732317E-2</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="15">
         <v>0.10815074499999999</v>
       </c>
       <c r="F16" s="3">
@@ -5120,7 +5122,7 @@
       <c r="D17" s="2">
         <v>9.523234397173827E-2</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="15">
         <v>0.10747464600000001</v>
       </c>
       <c r="F17" s="3">
@@ -5178,7 +5180,7 @@
       <c r="D18" s="2">
         <v>9.0058205855684581E-2</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="15">
         <v>0.104119194</v>
       </c>
       <c r="F18" s="3">
@@ -5236,7 +5238,7 @@
       <c r="D19" s="2">
         <v>8.463441685862981E-2</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="15">
         <v>9.8885689200000015E-2</v>
       </c>
       <c r="F19" s="3">
@@ -5294,7 +5296,7 @@
       <c r="D20" s="2">
         <v>7.909478554109417E-2</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="15">
         <v>8.674095409999999E-2</v>
       </c>
       <c r="F20" s="3">
@@ -5352,7 +5354,7 @@
       <c r="D21" s="2">
         <v>7.2242913598498854E-2</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="15">
         <v>7.4070364299999997E-2</v>
       </c>
       <c r="F21" s="3">
@@ -5410,7 +5412,7 @@
       <c r="D22" s="2">
         <v>7.1070307687795153E-2</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="15">
         <v>6.3553274100000001E-2</v>
       </c>
       <c r="F22" s="3">
@@ -5468,7 +5470,7 @@
       <c r="D23" s="2">
         <v>6.7939543308489475E-2</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="15">
         <v>5.3236509300000005E-2</v>
       </c>
       <c r="F23" s="3">
@@ -5526,7 +5528,7 @@
       <c r="D24" s="2">
         <v>6.1309523809523807E-2</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="15">
         <v>4.5423813700000003E-2</v>
       </c>
       <c r="F24" s="3">
@@ -5584,7 +5586,7 @@
       <c r="D25" s="2">
         <v>5.6794404256591137E-2</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="15">
         <v>3.4080380600000001E-2</v>
       </c>
       <c r="F25" s="3">
@@ -5642,7 +5644,7 @@
       <c r="D26" s="2">
         <v>4.8836456709128888E-2</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="15">
         <v>2.5215976000000001E-2</v>
       </c>
       <c r="F26" s="3">
@@ -5700,7 +5702,7 @@
       <c r="D27" s="2">
         <v>4.4843313226423424E-2</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="15">
         <v>1.8630274200000001E-2</v>
       </c>
       <c r="F27" s="3">
@@ -5758,7 +5760,7 @@
       <c r="D28" s="2">
         <v>4.4829665360265301E-2</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="15">
         <v>1.1894328300000001E-2</v>
       </c>
       <c r="F28" s="3">
@@ -5816,7 +5818,7 @@
       <c r="D29" s="2">
         <v>4.1786473309163644E-2</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="15">
         <v>7.3619631900000001E-3</v>
       </c>
       <c r="F29" s="3">
@@ -5874,7 +5876,7 @@
       <c r="D30" s="2">
         <v>4.1238540044974917E-2</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="15">
         <v>4.1066733400000003E-3</v>
       </c>
       <c r="F30" s="3">
@@ -5932,7 +5934,7 @@
       <c r="D31" s="2">
         <v>4.0157690765735665E-2</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="15">
         <v>2.3037435799999999E-3</v>
       </c>
       <c r="F31" s="3">
@@ -5990,7 +5992,7 @@
       <c r="D32" s="2">
         <v>3.7201856891307825E-2</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="15">
         <v>1.3521973200000001E-3</v>
       </c>
       <c r="F32" s="3">
@@ -6048,7 +6050,7 @@
       <c r="D33" s="2">
         <v>3.8292062309936079E-2</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="15">
         <v>8.2634280700000012E-4</v>
       </c>
       <c r="F33" s="3">
@@ -6106,7 +6108,7 @@
       <c r="D34" s="2">
         <v>3.7942947992784422E-2</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="15">
         <v>2.2536622E-4</v>
       </c>
       <c r="F34" s="3">
@@ -6164,7 +6166,7 @@
       <c r="D35" s="2">
         <v>3.7154598271220064E-2</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="15">
         <v>5.0081382199999999E-5</v>
       </c>
       <c r="F35" s="3">
@@ -6222,7 +6224,7 @@
       <c r="D36" s="2">
         <v>3.5265740663727854E-2</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="15">
         <v>2.5040691099999999E-5</v>
       </c>
       <c r="F36" s="3">
@@ -6280,7 +6282,7 @@
       <c r="D37" s="2">
         <v>3.5833310380918283E-2</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="15">
         <v>2.5040691099999999E-5</v>
       </c>
       <c r="F37" s="3">
@@ -6338,7 +6340,7 @@
       <c r="D38" s="2">
         <v>3.5369598596183376E-2</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="15">
         <v>0</v>
       </c>
       <c r="F38" s="3">
@@ -6396,7 +6398,7 @@
       <c r="D39" s="2">
         <v>3.7290510319555964E-2</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="15">
         <v>0</v>
       </c>
       <c r="F39" s="3">
@@ -6454,7 +6456,7 @@
       <c r="D40" s="2">
         <v>3.8202127375969716E-2</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="15">
         <v>0</v>
       </c>
       <c r="F40" s="3">
@@ -6512,7 +6514,7 @@
       <c r="D41" s="2">
         <v>3.81914433880726E-2</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="15">
         <v>0</v>
       </c>
       <c r="F41" s="3">
@@ -6570,7 +6572,7 @@
       <c r="D42" s="2">
         <v>3.845633772344971E-2</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="15">
         <v>0</v>
       </c>
       <c r="F42" s="3">
@@ -6628,7 +6630,7 @@
       <c r="D43" s="2">
         <v>3.7553473764011483E-2</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="15">
         <v>0</v>
       </c>
       <c r="F43" s="3">
@@ -6686,7 +6688,7 @@
       <c r="D44" s="2">
         <v>3.8218994840435699E-2</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="15">
         <v>0</v>
       </c>
       <c r="F44" s="3">
@@ -6744,7 +6746,7 @@
       <c r="D45" s="2">
         <v>3.8293309253040607E-2</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="15">
         <v>0</v>
       </c>
       <c r="F45" s="3">
@@ -6802,7 +6804,7 @@
       <c r="D46" s="2">
         <v>3.5994249599913201E-2</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="15">
         <v>0</v>
       </c>
       <c r="F46" s="3">
@@ -6860,7 +6862,7 @@
       <c r="D47" s="2">
         <v>3.4126984126984124E-2</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="15">
         <v>0</v>
       </c>
       <c r="F47" s="3">
@@ -6918,7 +6920,7 @@
       <c r="D48" s="2">
         <v>1.8520989565263803E-2</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="15">
         <v>0</v>
       </c>
       <c r="F48" s="3">
@@ -6976,7 +6978,7 @@
       <c r="D49" s="2">
         <v>1.0097281906619916E-2</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="15">
         <v>0</v>
       </c>
       <c r="F49" s="3">
@@ -7034,7 +7036,7 @@
       <c r="D50" s="2">
         <v>5.7664194054902812E-3</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="15">
         <v>0</v>
       </c>
       <c r="F50" s="3">
@@ -7092,7 +7094,7 @@
       <c r="D51" s="2">
         <v>4.1092642836446014E-3</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="15">
         <v>0</v>
       </c>
       <c r="F51" s="3">
@@ -7150,7 +7152,7 @@
       <c r="D52" s="2">
         <v>3.5306675424911734E-3</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E52" s="15">
         <v>0</v>
       </c>
       <c r="F52" s="3">
@@ -7208,7 +7210,7 @@
       <c r="D53" s="2">
         <v>3.3394291166414882E-3</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="15">
         <v>0</v>
       </c>
       <c r="F53" s="3">
@@ -7266,7 +7268,7 @@
       <c r="D54" s="2">
         <v>3.8440700704316195E-3</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54" s="15">
         <v>0</v>
       </c>
       <c r="F54" s="3">
@@ -7324,7 +7326,7 @@
       <c r="D55" s="2">
         <v>3.8615923987602254E-3</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="15">
         <v>0</v>
       </c>
       <c r="F55" s="3">

--- a/intensities/outsidermalli.xlsx
+++ b/intensities/outsidermalli.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antti/Documents/Github/econogym/intensities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antti/Github/econogym/intensities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9304B37-A446-3148-8E51-4355248CF2B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA6FF45-E44A-0C44-9688-BFFE2E2EF8F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="460" windowWidth="21900" windowHeight="15520" activeTab="1" xr2:uid="{4432A973-DB75-B946-AAB0-63A29BD95705}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21900" windowHeight="15520" xr2:uid="{4432A973-DB75-B946-AAB0-63A29BD95705}"/>
   </bookViews>
   <sheets>
     <sheet name="miehet" sheetId="1" r:id="rId1"/>
     <sheet name="naiset" sheetId="2" r:id="rId2"/>
-    <sheet name="Taul1" sheetId="3" r:id="rId3"/>
-    <sheet name="Taul2" sheetId="4" r:id="rId4"/>
+    <sheet name="Taul3" sheetId="5" r:id="rId3"/>
+    <sheet name="Taul1" sheetId="3" r:id="rId4"/>
+    <sheet name="Taul2" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="80">
   <si>
     <t>Miehet</t>
   </si>
@@ -86,76 +87,196 @@
     <t>Orig outsider</t>
   </si>
   <si>
-    <t>0.00204082</t>
-  </si>
-  <si>
-    <t>0.0055102</t>
-  </si>
-  <si>
-    <t>0.00469388</t>
-  </si>
-  <si>
-    <t>0.00632653</t>
-  </si>
-  <si>
-    <t>0.00571429</t>
-  </si>
-  <si>
-    <t>0.00877551</t>
-  </si>
-  <si>
-    <t>0.00816327</t>
-  </si>
-  <si>
-    <t>0.01142857</t>
-  </si>
-  <si>
-    <t>0.01408163</t>
-  </si>
-  <si>
-    <t>0.01367347</t>
-  </si>
-  <si>
-    <t>0.01244898</t>
-  </si>
-  <si>
-    <t>0.01326531</t>
-  </si>
-  <si>
-    <t>0.01306122</t>
-  </si>
-  <si>
-    <t>0.01081633</t>
-  </si>
-  <si>
-    <t>0.00795918</t>
-  </si>
-  <si>
-    <t>0.00836735</t>
-  </si>
-  <si>
-    <t>0.00653061</t>
-  </si>
-  <si>
-    <t>0.00326531</t>
-  </si>
-  <si>
-    <t>0.00183673</t>
-  </si>
-  <si>
-    <t>0.00122449</t>
-  </si>
-  <si>
-    <t>0.00081633</t>
-  </si>
-  <si>
-    <t>0.00061224</t>
-  </si>
-  <si>
     <t>miehet</t>
   </si>
   <si>
     <t>naiset</t>
+  </si>
+  <si>
+    <t>0.0031</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0147</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0219</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0314</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0326</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0323</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0397</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0412</t>
+  </si>
+  <si>
+    <t>0.0457</t>
+  </si>
+  <si>
+    <t>0.051</t>
+  </si>
+  <si>
+    <t>0.048</t>
+  </si>
+  <si>
+    <t>0.0547</t>
+  </si>
+  <si>
+    <t>0.0513</t>
+  </si>
+  <si>
+    <t>0.0485</t>
+  </si>
+  <si>
+    <t>0.0445</t>
+  </si>
+  <si>
+    <t>0.0373</t>
+  </si>
+  <si>
+    <t>0.0346</t>
+  </si>
+  <si>
+    <t>0.0347</t>
+  </si>
+  <si>
+    <t>0.0239</t>
+  </si>
+  <si>
+    <t>0.022</t>
+  </si>
+  <si>
+    <t>0.0177</t>
+  </si>
+  <si>
+    <t>0.012</t>
+  </si>
+  <si>
+    <t>0.0086</t>
+  </si>
+  <si>
+    <t>0.0055</t>
+  </si>
+  <si>
+    <t>0.0036</t>
+  </si>
+  <si>
+    <t>0.0019</t>
+  </si>
+  <si>
+    <t>0.0017</t>
+  </si>
+  <si>
+    <t>0.0005</t>
+  </si>
+  <si>
+    <t>0.0006</t>
+  </si>
+  <si>
+    <t>0.</t>
+  </si>
+  <si>
+    <t>0,0031;"</t>
+  </si>
+  <si>
+    <t>0147";"</t>
+  </si>
+  <si>
+    <t>0219";"</t>
+  </si>
+  <si>
+    <t>0314";"</t>
+  </si>
+  <si>
+    <t>0326";"</t>
+  </si>
+  <si>
+    <t>0323";"</t>
+  </si>
+  <si>
+    <t>0397";"</t>
+  </si>
+  <si>
+    <t>0412";"0</t>
+  </si>
+  <si>
+    <t>0457";"0</t>
+  </si>
+  <si>
+    <t>051";"0</t>
+  </si>
+  <si>
+    <t>048";"0</t>
+  </si>
+  <si>
+    <t>0547";"0</t>
+  </si>
+  <si>
+    <t>0513";"0</t>
+  </si>
+  <si>
+    <t>0485";"0</t>
+  </si>
+  <si>
+    <t>0445";"0</t>
+  </si>
+  <si>
+    <t>0373";"0</t>
+  </si>
+  <si>
+    <t>0346";"0</t>
+  </si>
+  <si>
+    <t>0347";"0</t>
+  </si>
+  <si>
+    <t>0239";"0</t>
+  </si>
+  <si>
+    <t>022";"0</t>
+  </si>
+  <si>
+    <t>0177";"0</t>
+  </si>
+  <si>
+    <t>012";"0</t>
+  </si>
+  <si>
+    <t>0086";"0</t>
+  </si>
+  <si>
+    <t>0055";"0</t>
+  </si>
+  <si>
+    <t>0036";"0</t>
+  </si>
+  <si>
+    <t>0019";"0</t>
+  </si>
+  <si>
+    <t>0017";"0</t>
+  </si>
+  <si>
+    <t>0005";"0</t>
+  </si>
+  <si>
+    <t>0006";"0</t>
+  </si>
+  <si>
+    <t>;0</t>
+  </si>
+  <si>
+    <t>;0";"0";"0"</t>
+  </si>
+  <si>
+    <t>0.)</t>
   </si>
 </sst>
 </file>
@@ -170,7 +291,7 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.000000"/>
     <numFmt numFmtId="169" formatCode="0.0000000"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="175" formatCode="_-* #,##0.00000\ _€_-;\-* #,##0.00000\ _€_-;_-* &quot;-&quot;?????\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -237,8 +358,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -556,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92590640-645E-204B-9831-3012D0CA494E}">
   <dimension ref="B1:T310"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5:O54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,25 +764,25 @@
         <v>20</v>
       </c>
       <c r="D5" s="2">
-        <v>0.14634146341463414</v>
-      </c>
-      <c r="E5" s="14">
-        <v>2.5219735999999996E-3</v>
+        <v>0.15136298421807748</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5" s="3">
         <f>MAX(0,D5-E5)</f>
-        <v>0.14381948981463413</v>
+        <v>0.15136298421807748</v>
       </c>
       <c r="G5" s="2">
         <v>0.50665188470066513</v>
       </c>
       <c r="H5" s="3">
         <f>F6-F5</f>
-        <v>-7.6584666533826048E-2</v>
+        <v>-8.495694219787546E-2</v>
       </c>
       <c r="I5">
         <f>IF(H5&lt;0,-H5/D5,0)</f>
-        <v>0.52332855464781136</v>
+        <v>0.56127951385705399</v>
       </c>
       <c r="J5">
         <f>IF(H5&gt;0,H5/G5,0)</f>
@@ -672,27 +793,27 @@
       </c>
       <c r="L5" s="8">
         <f t="shared" ref="L5:L14" si="0">K5*D5/G5</f>
-        <v>5.7768052516411388E-3</v>
+        <v>5.9750289612562762E-3</v>
       </c>
       <c r="N5" s="6">
         <f>I5+K5</f>
-        <v>0.54332855464781138</v>
+        <v>0.58127951385705401</v>
       </c>
       <c r="O5" s="4">
         <f>L5+J5</f>
-        <v>5.7768052516411388E-3</v>
+        <v>5.9750289612562762E-3</v>
       </c>
       <c r="Q5" s="4">
         <f>N5*D5</f>
-        <v>7.9511495802118734E-2</v>
+        <v>8.7984201882237018E-2</v>
       </c>
       <c r="R5" s="5">
         <f>O5*G5</f>
-        <v>2.9268292682926829E-3</v>
+        <v>3.0272596843615497E-3</v>
       </c>
       <c r="T5" s="3">
         <f>D5+R5-Q5</f>
-        <v>6.9756796880808089E-2</v>
+        <v>6.6406042020202005E-2</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
@@ -701,25 +822,25 @@
         <v>21</v>
       </c>
       <c r="D6" s="2">
-        <v>7.0580808080808077E-2</v>
-      </c>
-      <c r="E6" s="14">
-        <v>3.3459847999999996E-3</v>
+        <v>7.3895202020202014E-2</v>
+      </c>
+      <c r="E6">
+        <v>7.4891599999999999E-3</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" ref="F6:F55" si="1">MAX(0,D6-E6)</f>
-        <v>6.7234823280808084E-2</v>
+        <v>6.6406042020202019E-2</v>
       </c>
       <c r="G6" s="2">
         <v>0.62556818181818186</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" ref="H6:H54" si="2">F7-F6</f>
-        <v>-1.1439524009452522E-2</v>
+        <v>-1.7595388425653474E-2</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I54" si="3">IF(H6&lt;0,-H6/D6,0)</f>
-        <v>0.16207697702122356</v>
+        <v>0.23811273187727558</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:J54" si="4">IF(H6&gt;0,H6/G6,0)</f>
@@ -730,27 +851,27 @@
       </c>
       <c r="L6" s="8">
         <f t="shared" si="0"/>
-        <v>2.256534463618932E-3</v>
+        <v>2.3624987385205366E-3</v>
       </c>
       <c r="N6" s="6">
         <f t="shared" ref="N6:N54" si="5">I6+K6</f>
-        <v>0.18207697702122355</v>
+        <v>0.25811273187727557</v>
       </c>
       <c r="O6" s="4">
         <f t="shared" ref="O6:O54" si="6">L6+J6</f>
-        <v>2.256534463618932E-3</v>
+        <v>2.3624987385205366E-3</v>
       </c>
       <c r="Q6" s="4">
         <f t="shared" ref="Q6:Q54" si="7">N6*D6</f>
-        <v>1.2851140171068682E-2</v>
+        <v>1.9073292466057514E-2</v>
       </c>
       <c r="R6" s="5">
         <f t="shared" ref="R6:R54" si="8">O6*G6</f>
-        <v>1.4116161616161615E-3</v>
+        <v>1.4779040404040403E-3</v>
       </c>
       <c r="T6" s="3">
         <f t="shared" ref="T6:T54" si="9">D6+R6-Q6</f>
-        <v>5.9141284071355549E-2</v>
+        <v>5.629981359454854E-2</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
@@ -759,56 +880,56 @@
         <v>22</v>
       </c>
       <c r="D7" s="2">
-        <v>5.9990265271355564E-2</v>
-      </c>
-      <c r="E7" s="14">
-        <v>4.1949659999999996E-3</v>
+        <v>6.2606473594548545E-2</v>
+      </c>
+      <c r="E7">
+        <v>1.379582E-2</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="1"/>
-        <v>5.5795299271355563E-2</v>
+        <v>4.8810653594548545E-2</v>
       </c>
       <c r="G7" s="2">
         <v>0.64063640788513021</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="2"/>
-        <v>-4.4706095413086164E-3</v>
+        <v>1.8946431660148283E-3</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>7.4522249919825978E-2</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.9574391069490209E-3</v>
       </c>
       <c r="K7">
         <v>0.02</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" si="0"/>
-        <v>1.8728334678759675E-3</v>
+        <v>1.9545087610997672E-3</v>
       </c>
       <c r="N7" s="6">
         <f t="shared" si="5"/>
-        <v>9.4522249919825982E-2</v>
+        <v>0.02</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="6"/>
-        <v>1.8728334678759675E-3</v>
+        <v>4.9119478680487881E-3</v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="7"/>
-        <v>5.6704148467357279E-3</v>
+        <v>1.252129471890971E-3</v>
       </c>
       <c r="R7" s="5">
         <f t="shared" si="8"/>
-        <v>1.1998053054271113E-3</v>
+        <v>3.1467726379057993E-3</v>
       </c>
       <c r="T7" s="3">
         <f t="shared" si="9"/>
-        <v>5.5519655730046948E-2</v>
+        <v>6.4501116760563373E-2</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
@@ -817,25 +938,25 @@
         <v>23</v>
       </c>
       <c r="D8" s="2">
-        <v>5.6543427230046947E-2</v>
-      </c>
-      <c r="E8" s="14">
-        <v>5.2187374999999999E-3</v>
+        <v>5.9771126760563377E-2</v>
+      </c>
+      <c r="E8">
+        <v>9.0658300000000004E-3</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="1"/>
-        <v>5.1324689730046946E-2</v>
+        <v>5.0705296760563373E-2</v>
       </c>
       <c r="G8" s="2">
         <v>0.66710680751173701</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="2"/>
-        <v>-2.6740538518004037E-3</v>
+        <v>-5.564872681470219E-3</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>4.7292036984617418E-2</v>
+        <v>9.3103024538294096E-2</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
@@ -846,27 +967,27 @@
       </c>
       <c r="L8" s="8">
         <f t="shared" si="0"/>
-        <v>1.6951836375632286E-3</v>
+        <v>1.7919507367495052E-3</v>
       </c>
       <c r="N8" s="6">
         <f t="shared" si="5"/>
-        <v>6.7292036984617415E-2</v>
+        <v>0.1131030245382941</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="6"/>
-        <v>1.6951836375632286E-3</v>
+        <v>1.7919507367495052E-3</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="7"/>
-        <v>3.8049223964013424E-3</v>
+        <v>6.7602952166814865E-3</v>
       </c>
       <c r="R8" s="5">
         <f t="shared" si="8"/>
-        <v>1.1308685446009389E-3</v>
+        <v>1.1954225352112675E-3</v>
       </c>
       <c r="T8" s="3">
         <f t="shared" si="9"/>
-        <v>5.3869373378246543E-2</v>
+        <v>5.4206254079093158E-2</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
@@ -875,25 +996,25 @@
         <v>24</v>
       </c>
       <c r="D9" s="2">
-        <v>5.451859427824654E-2</v>
-      </c>
-      <c r="E9" s="14">
-        <v>5.8679583999999996E-3</v>
+        <v>5.7359584079093154E-2</v>
+      </c>
+      <c r="E9">
+        <v>1.221916E-2</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="1"/>
-        <v>4.8650635878246543E-2</v>
+        <v>4.5140424079093154E-2</v>
       </c>
       <c r="G9" s="2">
         <v>0.71433847552487284</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="2"/>
-        <v>-1.705450838486007E-3</v>
+        <v>-4.9055686572022708E-3</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>3.1282003159910872E-2</v>
+        <v>8.5523086262933506E-2</v>
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
@@ -904,27 +1025,27 @@
       </c>
       <c r="L9" s="8">
         <f t="shared" si="0"/>
-        <v>1.5264078905504294E-3</v>
+        <v>1.6059497295577473E-3</v>
       </c>
       <c r="N9" s="6">
         <f t="shared" si="5"/>
-        <v>5.1282003159910869E-2</v>
+        <v>0.10552308626293351</v>
       </c>
       <c r="O9" s="4">
         <f t="shared" si="6"/>
-        <v>1.5264078905504294E-3</v>
+        <v>1.6059497295577473E-3</v>
       </c>
       <c r="Q9" s="4">
         <f t="shared" si="7"/>
-        <v>2.7958227240509376E-3</v>
+        <v>6.0527603387841343E-3</v>
       </c>
       <c r="R9" s="5">
         <f t="shared" si="8"/>
-        <v>1.0903718855649308E-3</v>
+        <v>1.1471916815818631E-3</v>
       </c>
       <c r="T9" s="3">
         <f t="shared" si="9"/>
-        <v>5.2813143439760533E-2</v>
+        <v>5.2454015421890883E-2</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
@@ -933,25 +1054,25 @@
         <v>25</v>
       </c>
       <c r="D10" s="2">
-        <v>5.4586016039760536E-2</v>
-      </c>
-      <c r="E10" s="14">
-        <v>7.6408309999999998E-3</v>
+        <v>5.7184005421890886E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.694915E-2</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="1"/>
-        <v>4.6945185039760536E-2</v>
+        <v>4.0234855421890883E-2</v>
       </c>
       <c r="G10" s="2">
         <v>0.76208629842991082</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="2"/>
-        <v>-8.9868440903284608E-4</v>
+        <v>-3.7475196233219682E-3</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>1.6463638020005764E-2</v>
+        <v>6.5534402420285201E-2</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
@@ -962,27 +1083,27 @@
       </c>
       <c r="L10" s="8">
         <f t="shared" si="0"/>
-        <v>1.4325415941008634E-3</v>
+        <v>1.5007225701263571E-3</v>
       </c>
       <c r="N10" s="6">
         <f t="shared" si="5"/>
-        <v>3.6463638020005767E-2</v>
+        <v>8.5534402420285205E-2</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="6"/>
-        <v>1.4325415941008634E-3</v>
+        <v>1.5007225701263571E-3</v>
       </c>
       <c r="Q10" s="4">
         <f t="shared" si="7"/>
-        <v>1.9904047298280568E-3</v>
+        <v>4.8911997317597862E-3</v>
       </c>
       <c r="R10" s="5">
         <f t="shared" si="8"/>
-        <v>1.0917203207952107E-3</v>
+        <v>1.1436801084378178E-3</v>
       </c>
       <c r="T10" s="3">
         <f t="shared" si="9"/>
-        <v>5.3687331630727683E-2</v>
+        <v>5.3436485798568918E-2</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
@@ -991,56 +1112,56 @@
         <v>26</v>
       </c>
       <c r="D11" s="2">
-        <v>5.4786013230727688E-2</v>
-      </c>
-      <c r="E11" s="14">
-        <v>8.7395126000000007E-3</v>
+        <v>5.7378155798568919E-2</v>
+      </c>
+      <c r="E11">
+        <v>2.0890820000000001E-2</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="1"/>
-        <v>4.6046500630727689E-2</v>
+        <v>3.6487335798568915E-2</v>
       </c>
       <c r="G11" s="2">
         <v>0.79859592277575264</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="2"/>
-        <v>-5.2170245299636153E-4</v>
+        <v>6.6599676609835762E-3</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>9.5225482241105223E-3</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8.3395963728877046E-3</v>
       </c>
       <c r="K11">
         <v>0.02</v>
       </c>
       <c r="L11" s="8">
         <f t="shared" si="0"/>
-        <v>1.3720584257506086E-3</v>
+        <v>1.4369759264268327E-3</v>
       </c>
       <c r="N11" s="6">
         <f t="shared" si="5"/>
-        <v>2.9522548224110524E-2</v>
+        <v>0.02</v>
       </c>
       <c r="O11" s="4">
         <f t="shared" si="6"/>
-        <v>1.3720584257506086E-3</v>
+        <v>9.7765722993145374E-3</v>
       </c>
       <c r="Q11" s="4">
         <f t="shared" si="7"/>
-        <v>1.6174227176109154E-3</v>
+        <v>1.1475631159713784E-3</v>
       </c>
       <c r="R11" s="5">
         <f t="shared" si="8"/>
-        <v>1.0957202646145537E-3</v>
+        <v>7.8075307769549544E-3</v>
       </c>
       <c r="T11" s="3">
         <f t="shared" si="9"/>
-        <v>5.4264310777731327E-2</v>
+        <v>6.4038123459552496E-2</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
@@ -1049,25 +1170,25 @@
         <v>27</v>
       </c>
       <c r="D12" s="2">
-        <v>5.4913531677731331E-2</v>
-      </c>
-      <c r="E12" s="14">
-        <v>9.3887335000000013E-3</v>
+        <v>5.8519793459552494E-2</v>
+      </c>
+      <c r="E12">
+        <v>1.5372490000000001E-2</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="1"/>
-        <v>4.5524798177731328E-2</v>
+        <v>4.3147303459552491E-2</v>
       </c>
       <c r="G12" s="2">
         <v>0.82179056361500424</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="2"/>
-        <v>-1.2067791991887122E-3</v>
+        <v>-2.1953828034621398E-3</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>2.1975989566121609E-2</v>
+        <v>3.7515217906220685E-2</v>
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
@@ -1078,27 +1199,27 @@
       </c>
       <c r="L12" s="8">
         <f t="shared" si="0"/>
-        <v>1.3364361702127658E-3</v>
+        <v>1.4242021276595744E-3</v>
       </c>
       <c r="N12" s="6">
         <f t="shared" si="5"/>
-        <v>4.1975989566121613E-2</v>
+        <v>5.7515217906220689E-2</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" si="6"/>
-        <v>1.3364361702127658E-3</v>
+        <v>1.4242021276595744E-3</v>
       </c>
       <c r="Q12" s="4">
         <f t="shared" si="7"/>
-        <v>2.3050498327433391E-3</v>
+        <v>3.3657786726531899E-3</v>
       </c>
       <c r="R12" s="5">
         <f t="shared" si="8"/>
-        <v>1.0982706335546267E-3</v>
+        <v>1.1703958691910499E-3</v>
       </c>
       <c r="T12" s="3">
         <f t="shared" si="9"/>
-        <v>5.3706752478542619E-2</v>
+        <v>5.6324410656090354E-2</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
@@ -1107,56 +1228,56 @@
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>5.4880344178542616E-2</v>
-      </c>
-      <c r="E13" s="14">
-        <v>1.05623252E-2</v>
+        <v>5.8295240656090347E-2</v>
+      </c>
+      <c r="E13">
+        <v>1.7343319999999999E-2</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="1"/>
-        <v>4.4318018978542616E-2</v>
+        <v>4.0951920656090351E-2</v>
       </c>
       <c r="G13" s="2">
         <v>0.84272653939230979</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="2"/>
-        <v>-2.7713606516165806E-4</v>
+        <v>1.4847090718942621E-3</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>5.0498237449103697E-3</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.7617922332965638E-3</v>
       </c>
       <c r="K13">
         <v>0.02</v>
       </c>
       <c r="L13" s="8">
         <f t="shared" si="0"/>
-        <v>1.3024472735394532E-3</v>
+        <v>1.3834912734118248E-3</v>
       </c>
       <c r="N13" s="6">
         <f t="shared" si="5"/>
-        <v>2.5049823744910368E-2</v>
+        <v>0.02</v>
       </c>
       <c r="O13" s="4">
         <f t="shared" si="6"/>
-        <v>1.3024472735394532E-3</v>
+        <v>3.1452835067083884E-3</v>
       </c>
       <c r="Q13" s="4">
         <f t="shared" si="7"/>
-        <v>1.3747429487325103E-3</v>
+        <v>1.165904813121807E-3</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" si="8"/>
-        <v>1.0976068835708524E-3</v>
+        <v>2.6506138850160691E-3</v>
       </c>
       <c r="T13" s="3">
         <f t="shared" si="9"/>
-        <v>5.4603208113380958E-2</v>
+        <v>5.9779949727984609E-2</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
@@ -1165,56 +1286,56 @@
         <v>29</v>
       </c>
       <c r="D14" s="2">
-        <v>5.5502129413380959E-2</v>
-      </c>
-      <c r="E14" s="14">
-        <v>1.1461246499999999E-2</v>
+        <v>5.8991619727984612E-2</v>
+      </c>
+      <c r="E14">
+        <v>1.6554989999999999E-2</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="1"/>
-        <v>4.4040882913380958E-2</v>
+        <v>4.2436629727984614E-2</v>
       </c>
       <c r="G14" s="2">
         <v>0.85764528094518477</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="2"/>
-        <v>-3.946001857159584E-4</v>
+        <v>3.2392040165703309E-3</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>7.1096404748179735E-3</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.7768575057050423E-3</v>
       </c>
       <c r="K14">
         <v>0.02</v>
       </c>
       <c r="L14" s="8">
         <f t="shared" si="0"/>
-        <v>1.2942910232587941E-3</v>
+        <v>1.3756647658102134E-3</v>
       </c>
       <c r="N14" s="6">
         <f t="shared" si="5"/>
-        <v>2.7109640474817974E-2</v>
+        <v>0.02</v>
       </c>
       <c r="O14" s="4">
         <f t="shared" si="6"/>
-        <v>1.2942910232587941E-3</v>
+        <v>5.1525222715152561E-3</v>
       </c>
       <c r="Q14" s="4">
         <f t="shared" si="7"/>
-        <v>1.5046427739835776E-3</v>
+        <v>1.1798323945596922E-3</v>
       </c>
       <c r="R14" s="5">
         <f t="shared" si="8"/>
-        <v>1.1100425882676192E-3</v>
+        <v>4.4190364111300236E-3</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="9"/>
-        <v>5.5107529227665E-2</v>
+        <v>6.2230823744554943E-2</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
@@ -1223,21 +1344,21 @@
         <v>30</v>
       </c>
       <c r="D15" s="2">
-        <v>5.5806690227664997E-2</v>
-      </c>
-      <c r="E15" s="14">
-        <v>1.21604075E-2</v>
+        <v>5.8683323744554941E-2</v>
+      </c>
+      <c r="E15">
+        <v>1.300749E-2</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="1"/>
-        <v>4.3646282727664999E-2</v>
+        <v>4.5675833744554944E-2</v>
       </c>
       <c r="G15" s="2">
         <v>0.86362017478973174</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="2"/>
-        <v>6.9651219090291483E-4</v>
+        <v>8.1548615355760135E-5</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
@@ -1245,14 +1366,14 @@
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
-        <v>8.0650291787416476E-4</v>
+        <v>9.4426482539751951E-5</v>
       </c>
       <c r="K15">
         <v>0.02</v>
       </c>
       <c r="L15" s="8">
         <f t="shared" ref="L15:L54" si="11">K15*D15/G15</f>
-        <v>1.2923896837229959E-3</v>
+        <v>1.3590077086571709E-3</v>
       </c>
       <c r="N15" s="6">
         <f t="shared" si="5"/>
@@ -1260,19 +1381,19 @@
       </c>
       <c r="O15" s="4">
         <f t="shared" si="6"/>
-        <v>2.0988926015971607E-3</v>
+        <v>1.4534341911969229E-3</v>
       </c>
       <c r="Q15" s="4">
         <f t="shared" si="7"/>
-        <v>1.1161338045532999E-3</v>
+        <v>1.1736664748910987E-3</v>
       </c>
       <c r="R15" s="5">
         <f t="shared" si="8"/>
-        <v>1.8126459954562147E-3</v>
+        <v>1.2552150902468589E-3</v>
       </c>
       <c r="T15" s="3">
         <f t="shared" si="9"/>
-        <v>5.6503202418567912E-2</v>
+        <v>5.8764872359910701E-2</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
@@ -1281,25 +1402,25 @@
         <v>31</v>
       </c>
       <c r="D16" s="2">
-        <v>5.7352183618567913E-2</v>
-      </c>
-      <c r="E16" s="14">
-        <v>1.3009388699999999E-2</v>
+        <v>6.1129872359910707E-2</v>
+      </c>
+      <c r="E16">
+        <v>1.5372490000000001E-2</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="1"/>
-        <v>4.4342794918567914E-2</v>
+        <v>4.5757382359910705E-2</v>
       </c>
       <c r="G16" s="2">
         <v>0.87118653769103094</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="2"/>
-        <v>-3.3633094664580615E-3</v>
+        <v>-4.7655917462890926E-3</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>5.8643093501485818E-2</v>
+        <v>7.795847696574601E-2</v>
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
@@ -1310,27 +1431,27 @@
       </c>
       <c r="L16" s="9">
         <f t="shared" si="11"/>
-        <v>1.3166453138858775E-3</v>
+        <v>1.4033704543214742E-3</v>
       </c>
       <c r="N16" s="6">
         <f t="shared" si="5"/>
-        <v>7.8643093501485822E-2</v>
+        <v>9.7958476965746014E-2</v>
       </c>
       <c r="O16" s="4">
         <f t="shared" si="6"/>
-        <v>1.3166453138858775E-3</v>
+        <v>1.4033704543214742E-3</v>
       </c>
       <c r="Q16" s="4">
         <f t="shared" si="7"/>
-        <v>4.5103531388294201E-3</v>
+        <v>5.9881891934873066E-3</v>
       </c>
       <c r="R16" s="5">
         <f t="shared" si="8"/>
-        <v>1.1470436723713584E-3</v>
+        <v>1.2225974471982142E-3</v>
       </c>
       <c r="T16" s="3">
         <f t="shared" si="9"/>
-        <v>5.3988874152109852E-2</v>
+        <v>5.6364280613621615E-2</v>
       </c>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.2">
@@ -1339,21 +1460,21 @@
         <v>32</v>
       </c>
       <c r="D17" s="2">
-        <v>5.2640492252109851E-2</v>
-      </c>
-      <c r="E17" s="14">
-        <v>1.16610068E-2</v>
+        <v>5.5575940613621609E-2</v>
+      </c>
+      <c r="E17">
+        <v>1.4584150000000001E-2</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="1"/>
-        <v>4.0979485452109853E-2</v>
+        <v>4.0991790613621612E-2</v>
       </c>
       <c r="G17" s="2">
         <v>0.88340060402495135</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="2"/>
-        <v>2.0207702997064592E-3</v>
+        <v>8.633369532049795E-4</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
@@ -1361,14 +1482,14 @@
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
-        <v>2.2874902852674335E-3</v>
+        <v>9.7728816266532108E-4</v>
       </c>
       <c r="K17">
         <v>0.02</v>
       </c>
       <c r="L17" s="9">
         <f t="shared" si="11"/>
-        <v>1.1917694421368777E-3</v>
+        <v>1.2582273627707841E-3</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" si="5"/>
@@ -1376,19 +1497,19 @@
       </c>
       <c r="O17" s="4">
         <f t="shared" si="6"/>
-        <v>3.4792597274043114E-3</v>
+        <v>2.2355155254361052E-3</v>
       </c>
       <c r="Q17" s="4">
         <f t="shared" si="7"/>
-        <v>1.0528098450421971E-3</v>
+        <v>1.1115188122724322E-3</v>
       </c>
       <c r="R17" s="5">
         <f t="shared" si="8"/>
-        <v>3.0735801447486564E-3</v>
+        <v>1.9748557654774117E-3</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" si="9"/>
-        <v>5.466126255181631E-2</v>
+        <v>5.6439277566826582E-2</v>
       </c>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.2">
@@ -1397,21 +1518,21 @@
         <v>33</v>
       </c>
       <c r="D18" s="2">
-        <v>5.4037011651816312E-2</v>
-      </c>
-      <c r="E18" s="14">
-        <v>1.1036755899999999E-2</v>
+        <v>5.6833447566826595E-2</v>
+      </c>
+      <c r="E18">
+        <v>1.497832E-2</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="1"/>
-        <v>4.3000255751816312E-2</v>
+        <v>4.1855127566826592E-2</v>
       </c>
       <c r="G18" s="2">
         <v>0.88411240575736805</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="2"/>
-        <v>2.0844267932683888E-3</v>
+        <v>2.6537223024544476E-3</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
@@ -1419,14 +1540,14 @@
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
-        <v>2.3576490723289656E-3</v>
+        <v>3.0015666392342465E-3</v>
       </c>
       <c r="K18">
         <v>0.02</v>
       </c>
       <c r="L18" s="9">
         <f t="shared" si="11"/>
-        <v>1.222401389233441E-3</v>
+        <v>1.2856611262713968E-3</v>
       </c>
       <c r="N18" s="6">
         <f t="shared" si="5"/>
@@ -1434,19 +1555,19 @@
       </c>
       <c r="O18" s="4">
         <f t="shared" si="6"/>
-        <v>3.5800504615624068E-3</v>
+        <v>4.2872277655056435E-3</v>
       </c>
       <c r="Q18" s="4">
         <f t="shared" si="7"/>
-        <v>1.0807402330363263E-3</v>
+        <v>1.1366689513365319E-3</v>
       </c>
       <c r="R18" s="5">
         <f t="shared" si="8"/>
-        <v>3.1651670263047153E-3</v>
+        <v>3.7903912537909797E-3</v>
       </c>
       <c r="T18" s="3">
         <f t="shared" si="9"/>
-        <v>5.6121438445084701E-2</v>
+        <v>5.9487169869281042E-2</v>
       </c>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.2">
@@ -1455,25 +1576,25 @@
         <v>34</v>
       </c>
       <c r="D19" s="2">
-        <v>5.4448446045084697E-2</v>
-      </c>
-      <c r="E19" s="14">
-        <v>9.3637635000000004E-3</v>
+        <v>5.7516339869281043E-2</v>
+      </c>
+      <c r="E19">
+        <v>1.300749E-2</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="1"/>
-        <v>4.5084682545084701E-2</v>
+        <v>4.4508849869281039E-2</v>
       </c>
       <c r="G19" s="2">
         <v>0.88547418967587033</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="2"/>
-        <v>-4.3400054848211217E-3</v>
+        <v>-5.6965691188952394E-4</v>
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>7.9708527975756865E-2</v>
+        <v>9.9042622180792236E-3</v>
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
@@ -1484,27 +1605,27 @@
       </c>
       <c r="L19" s="9">
         <f t="shared" si="11"/>
-        <v>1.2298144131115932E-3</v>
+        <v>1.2991082188479153E-3</v>
       </c>
       <c r="N19" s="6">
         <f t="shared" si="5"/>
-        <v>9.9708527975756869E-2</v>
+        <v>2.9904262218079222E-2</v>
       </c>
       <c r="O19" s="4">
         <f t="shared" si="6"/>
-        <v>1.2298144131115932E-3</v>
+        <v>1.2991082188479153E-3</v>
       </c>
       <c r="Q19" s="4">
         <f t="shared" si="7"/>
-        <v>5.4289744057228161E-3</v>
+        <v>1.7199837092751447E-3</v>
       </c>
       <c r="R19" s="5">
         <f t="shared" si="8"/>
-        <v>1.0889689209016939E-3</v>
+        <v>1.150326797385621E-3</v>
       </c>
       <c r="T19" s="3">
         <f t="shared" si="9"/>
-        <v>5.0108440560263576E-2</v>
+        <v>5.6946682957391519E-2</v>
       </c>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.2">
@@ -1513,21 +1634,21 @@
         <v>35</v>
       </c>
       <c r="D20" s="2">
-        <v>4.9434249560263578E-2</v>
-      </c>
-      <c r="E20" s="14">
-        <v>8.6895724999999993E-3</v>
+        <v>5.2610852957391513E-2</v>
+      </c>
+      <c r="E20">
+        <v>8.6716599999999994E-3</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="1"/>
-        <v>4.0744677060263579E-2</v>
+        <v>4.3939192957391515E-2</v>
       </c>
       <c r="G20" s="2">
         <v>0.89270431335486078</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="2"/>
-        <v>1.7983062894047358E-3</v>
+        <v>5.9084942336029567E-4</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
@@ -1535,14 +1656,14 @@
       </c>
       <c r="J20">
         <f t="shared" si="4"/>
-        <v>2.014447855243965E-3</v>
+        <v>6.6186464490110048E-4</v>
       </c>
       <c r="K20">
         <v>0.02</v>
       </c>
       <c r="L20" s="9">
         <f t="shared" si="11"/>
-        <v>1.1075167627337961E-3</v>
+        <v>1.1786848606046348E-3</v>
       </c>
       <c r="N20" s="6">
         <f t="shared" si="5"/>
@@ -1550,19 +1671,19 @@
       </c>
       <c r="O20" s="4">
         <f t="shared" si="6"/>
-        <v>3.1219646179777611E-3</v>
+        <v>1.8405495055057353E-3</v>
       </c>
       <c r="Q20" s="4">
         <f t="shared" si="7"/>
-        <v>9.886849912052716E-4</v>
+        <v>1.0522170591478303E-3</v>
       </c>
       <c r="R20" s="5">
         <f t="shared" si="8"/>
-        <v>2.7869912806100074E-3</v>
+        <v>1.643066482508126E-3</v>
       </c>
       <c r="T20" s="3">
         <f t="shared" si="9"/>
-        <v>5.1232555849668314E-2</v>
+        <v>5.3201702380751809E-2</v>
       </c>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.2">
@@ -1571,25 +1692,25 @@
         <v>36</v>
       </c>
       <c r="D21" s="2">
-        <v>4.9884173949668313E-2</v>
-      </c>
-      <c r="E21" s="14">
-        <v>7.3411906000000002E-3</v>
+        <v>5.3595872380751815E-2</v>
+      </c>
+      <c r="E21">
+        <v>9.0658300000000004E-3</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="1"/>
-        <v>4.2542983349668315E-2</v>
+        <v>4.4530042380751811E-2</v>
       </c>
       <c r="G21" s="2">
         <v>0.8937559229230283</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="2"/>
-        <v>-1.5317452817553007E-3</v>
+        <v>-1.6927708374255002E-3</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>3.0706036814417078E-2</v>
+        <v>3.1583977687681682E-2</v>
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
@@ -1600,27 +1721,27 @@
       </c>
       <c r="L21" s="9">
         <f t="shared" si="11"/>
-        <v>1.1162818096135721E-3</v>
+        <v>1.1993402450518379E-3</v>
       </c>
       <c r="N21" s="6">
         <f t="shared" si="5"/>
-        <v>5.0706036814417078E-2</v>
+        <v>5.1583977687681679E-2</v>
       </c>
       <c r="O21" s="4">
         <f t="shared" si="6"/>
-        <v>1.1162818096135721E-3</v>
+        <v>1.1993402450518379E-3</v>
       </c>
       <c r="Q21" s="4">
         <f t="shared" si="7"/>
-        <v>2.529428760748667E-3</v>
+        <v>2.7646882850405363E-3</v>
       </c>
       <c r="R21" s="5">
         <f t="shared" si="8"/>
-        <v>9.9768347899336631E-4</v>
+        <v>1.0719174476150363E-3</v>
       </c>
       <c r="T21" s="3">
         <f t="shared" si="9"/>
-        <v>4.8352428667913012E-2</v>
+        <v>5.1903101543326315E-2</v>
       </c>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.2">
@@ -1629,21 +1750,21 @@
         <v>37</v>
       </c>
       <c r="D22" s="2">
-        <v>4.8152668367913015E-2</v>
-      </c>
-      <c r="E22" s="14">
-        <v>7.1414303000000004E-3</v>
+        <v>5.1508931543326308E-2</v>
+      </c>
+      <c r="E22">
+        <v>8.6716599999999994E-3</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="1"/>
-        <v>4.1011238067913014E-2</v>
+        <v>4.2837271543326311E-2</v>
       </c>
       <c r="G22" s="2">
         <v>0.89495728392322205</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="2"/>
-        <v>2.3335156718798378E-3</v>
+        <v>6.1222824003199783E-3</v>
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
@@ -1651,14 +1772,14 @@
       </c>
       <c r="J22">
         <f t="shared" si="4"/>
-        <v>2.607404525108071E-3</v>
+        <v>6.8408654919056514E-3</v>
       </c>
       <c r="K22">
         <v>0.02</v>
       </c>
       <c r="L22" s="9">
         <f t="shared" si="11"/>
-        <v>1.0760886409421973E-3</v>
+        <v>1.1510925151092515E-3</v>
       </c>
       <c r="N22" s="6">
         <f t="shared" si="5"/>
@@ -1666,19 +1787,19 @@
       </c>
       <c r="O22" s="4">
         <f t="shared" si="6"/>
-        <v>3.6834931660502685E-3</v>
+        <v>7.9919580070149029E-3</v>
       </c>
       <c r="Q22" s="4">
         <f t="shared" si="7"/>
-        <v>9.630533673582603E-4</v>
+        <v>1.0301786308665262E-3</v>
       </c>
       <c r="R22" s="5">
         <f t="shared" si="8"/>
-        <v>3.2965690392380981E-3</v>
+        <v>7.1524610311865045E-3</v>
       </c>
       <c r="T22" s="3">
         <f t="shared" si="9"/>
-        <v>5.0486184039792853E-2</v>
+        <v>5.7631213943646287E-2</v>
       </c>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.2">
@@ -1687,25 +1808,25 @@
         <v>38</v>
       </c>
       <c r="D23" s="2">
-        <v>4.8613431339792852E-2</v>
-      </c>
-      <c r="E23" s="14">
-        <v>5.2686776000000005E-3</v>
+        <v>5.2901213943646289E-2</v>
+      </c>
+      <c r="E23">
+        <v>3.9416599999999996E-3</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="1"/>
-        <v>4.3344753739792852E-2</v>
+        <v>4.8959553943646289E-2</v>
       </c>
       <c r="G23" s="2">
         <v>0.89572892304265517</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="2"/>
-        <v>-6.009442295887707E-4</v>
+        <v>-7.2931584840819214E-4</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>1.2361691265698905E-2</v>
+        <v>1.3786372637594014E-2</v>
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
@@ -1716,27 +1837,27 @@
       </c>
       <c r="L23" s="9">
         <f t="shared" si="11"/>
-        <v>1.0854496285474496E-3</v>
+        <v>1.1811880264834787E-3</v>
       </c>
       <c r="N23" s="6">
         <f t="shared" si="5"/>
-        <v>3.2361691265698905E-2</v>
+        <v>3.3786372637594014E-2</v>
       </c>
       <c r="O23" s="4">
         <f t="shared" si="6"/>
-        <v>1.0854496285474496E-3</v>
+        <v>1.1811880264834787E-3</v>
       </c>
       <c r="Q23" s="4">
         <f t="shared" si="7"/>
-        <v>1.5732128563846278E-3</v>
+        <v>1.7873401272811178E-3</v>
       </c>
       <c r="R23" s="5">
         <f t="shared" si="8"/>
-        <v>9.7226862679585717E-4</v>
+        <v>1.0580242788729257E-3</v>
       </c>
       <c r="T23" s="3">
         <f t="shared" si="9"/>
-        <v>4.8012487110204081E-2</v>
+        <v>5.2171898095238096E-2</v>
       </c>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.2">
@@ -1745,56 +1866,56 @@
         <v>39</v>
       </c>
       <c r="D24" s="2">
-        <v>4.6938775510204082E-2</v>
-      </c>
-      <c r="E24" s="14">
-        <v>4.1949659999999996E-3</v>
+        <v>5.0595238095238096E-2</v>
+      </c>
+      <c r="E24">
+        <v>2.3649999999999999E-3</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>4.2743809510204081E-2</v>
+        <v>4.8230238095238097E-2</v>
       </c>
       <c r="G24" s="2">
         <v>0.90093537414965985</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="2"/>
-        <v>5.2018755166456654E-4</v>
+        <v>-1.4088504144695174E-3</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.7845514074221051E-2</v>
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
-        <v>5.773860884922419E-4</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0.02</v>
       </c>
       <c r="L24" s="9">
         <f t="shared" si="11"/>
-        <v>1.0420009438414347E-3</v>
+        <v>1.1231713072203872E-3</v>
       </c>
       <c r="N24" s="6">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>4.7845514074221052E-2</v>
       </c>
       <c r="O24" s="4">
         <f t="shared" si="6"/>
-        <v>1.6193870323336764E-3</v>
+        <v>1.1231713072203872E-3</v>
       </c>
       <c r="Q24" s="4">
         <f t="shared" si="7"/>
-        <v>9.3877551020408166E-4</v>
+        <v>2.4207551763742795E-3</v>
       </c>
       <c r="R24" s="5">
         <f t="shared" si="8"/>
-        <v>1.4589630618686482E-3</v>
+        <v>1.011904761904762E-3</v>
       </c>
       <c r="T24" s="3">
         <f t="shared" si="9"/>
-        <v>4.7458963061868649E-2</v>
+        <v>4.9186387680768578E-2</v>
       </c>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.2">
@@ -1803,25 +1924,25 @@
         <v>40</v>
       </c>
       <c r="D25" s="2">
-        <v>4.6210461261868646E-2</v>
-      </c>
-      <c r="E25" s="14">
-        <v>2.9464642000000003E-3</v>
+        <v>4.9974717680768582E-2</v>
+      </c>
+      <c r="E25">
+        <v>3.1533300000000002E-3</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="1"/>
-        <v>4.3263997061868648E-2</v>
+        <v>4.6821387680768579E-2</v>
       </c>
       <c r="G25" s="2">
         <v>0.89881454014270468</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="2"/>
-        <v>-3.3202134028247413E-3</v>
+        <v>-3.0911709351749417E-3</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>7.1849821710489439E-2</v>
+        <v>6.1854695306552882E-2</v>
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
@@ -1832,27 +1953,27 @@
       </c>
       <c r="L25" s="9">
         <f t="shared" si="11"/>
-        <v>1.0282535316914615E-3</v>
+        <v>1.1120140017502188E-3</v>
       </c>
       <c r="N25" s="6">
         <f t="shared" si="5"/>
-        <v>9.1849821710489443E-2</v>
+        <v>8.1854695306552885E-2</v>
       </c>
       <c r="O25" s="4">
         <f t="shared" si="6"/>
-        <v>1.0282535316914615E-3</v>
+        <v>1.1120140017502188E-3</v>
       </c>
       <c r="Q25" s="4">
         <f t="shared" si="7"/>
-        <v>4.2444226280621139E-3</v>
+        <v>4.090665288790314E-3</v>
       </c>
       <c r="R25" s="5">
         <f t="shared" si="8"/>
-        <v>9.2420922523737297E-4</v>
+        <v>9.9949435361537165E-4</v>
       </c>
       <c r="T25" s="3">
         <f t="shared" si="9"/>
-        <v>4.2890247859043905E-2</v>
+        <v>4.6883546745593641E-2</v>
       </c>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.2">
@@ -1861,21 +1982,21 @@
         <v>41</v>
       </c>
       <c r="D26" s="2">
-        <v>4.2116176759043909E-2</v>
-      </c>
-      <c r="E26" s="14">
-        <v>2.1723930999999999E-3</v>
+        <v>4.6095216745593637E-2</v>
+      </c>
+      <c r="E26">
+        <v>2.3649999999999999E-3</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="1"/>
-        <v>3.9943783659043906E-2</v>
+        <v>4.3730216745593638E-2</v>
       </c>
       <c r="G26" s="2">
         <v>0.90298988427158355</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="2"/>
-        <v>1.6006702217239294E-3</v>
+        <v>3.1408738551680845E-3</v>
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
@@ -1883,14 +2004,14 @@
       </c>
       <c r="J26">
         <f t="shared" si="4"/>
-        <v>1.7726336137365978E-3</v>
+        <v>3.4783045855510761E-3</v>
       </c>
       <c r="K26">
         <v>0.02</v>
       </c>
       <c r="L26" s="9">
         <f t="shared" si="11"/>
-        <v>9.3281613653995344E-4</v>
+        <v>1.0209464701318853E-3</v>
       </c>
       <c r="N26" s="6">
         <f t="shared" si="5"/>
@@ -1898,19 +2019,19 @@
       </c>
       <c r="O26" s="4">
         <f t="shared" si="6"/>
-        <v>2.7054497502765514E-3</v>
+        <v>4.499251055682961E-3</v>
       </c>
       <c r="Q26" s="4">
         <f t="shared" si="7"/>
-        <v>8.423235351808782E-4</v>
+        <v>9.2190433491187273E-4</v>
       </c>
       <c r="R26" s="5">
         <f t="shared" si="8"/>
-        <v>2.4429937569048076E-3</v>
+        <v>4.0627781900799574E-3</v>
       </c>
       <c r="T26" s="3">
         <f t="shared" si="9"/>
-        <v>4.3716846980767839E-2</v>
+        <v>4.9236090600761721E-2</v>
       </c>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.2">
@@ -1919,25 +2040,25 @@
         <v>42</v>
       </c>
       <c r="D27" s="2">
-        <v>4.2867865780767837E-2</v>
-      </c>
-      <c r="E27" s="14">
-        <v>1.3234118999999999E-3</v>
+        <v>4.6871090600761722E-2</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="1"/>
-        <v>4.1544453880767836E-2</v>
+        <v>4.6871090600761722E-2</v>
       </c>
       <c r="G27" s="2">
         <v>0.90381140363070256</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="2"/>
-        <v>-5.1548661023083364E-4</v>
+        <v>-1.277757669213675E-3</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>1.2025012228672709E-2</v>
+        <v>2.7261103866717144E-2</v>
       </c>
       <c r="J27">
         <f t="shared" si="4"/>
@@ -1948,27 +2069,27 @@
       </c>
       <c r="L27" s="9">
         <f t="shared" si="11"/>
-        <v>9.4860201162683393E-4</v>
+        <v>1.0371874134908184E-3</v>
       </c>
       <c r="N27" s="6">
         <f t="shared" si="5"/>
-        <v>3.2025012228672711E-2</v>
+        <v>4.7261103866717141E-2</v>
       </c>
       <c r="O27" s="4">
         <f t="shared" si="6"/>
-        <v>9.4860201162683393E-4</v>
+        <v>1.0371874134908184E-3</v>
       </c>
       <c r="Q27" s="4">
         <f t="shared" si="7"/>
-        <v>1.3728439258461904E-3</v>
+        <v>2.2151794812289094E-3</v>
       </c>
       <c r="R27" s="5">
         <f t="shared" si="8"/>
-        <v>8.5735731561535676E-4</v>
+        <v>9.3742181201523448E-4</v>
       </c>
       <c r="T27" s="3">
         <f t="shared" si="9"/>
-        <v>4.2352379170537004E-2</v>
+        <v>4.5593332931548047E-2</v>
       </c>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.2">
@@ -1977,21 +2098,21 @@
         <v>43</v>
       </c>
       <c r="D28" s="2">
-        <v>4.1927888570537003E-2</v>
-      </c>
-      <c r="E28" s="14">
-        <v>8.989213E-4</v>
+        <v>4.6381662931548044E-2</v>
+      </c>
+      <c r="E28">
+        <v>7.8832999999999996E-4</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="1"/>
-        <v>4.1028967270537002E-2</v>
+        <v>4.5593332931548047E-2</v>
       </c>
       <c r="G28" s="2">
         <v>0.90556296275282966</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="2"/>
-        <v>1.4437591533220592E-3</v>
+        <v>9.0954024324601396E-4</v>
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
@@ -1999,14 +2120,14 @@
       </c>
       <c r="J28">
         <f t="shared" si="4"/>
-        <v>1.5943222202166503E-3</v>
+        <v>1.0043920529623845E-3</v>
       </c>
       <c r="K28">
         <v>0.02</v>
       </c>
       <c r="L28" s="9">
         <f t="shared" si="11"/>
-        <v>9.2600714240962344E-4</v>
+        <v>1.024371906522148E-3</v>
       </c>
       <c r="N28" s="6">
         <f t="shared" si="5"/>
@@ -2014,19 +2135,19 @@
       </c>
       <c r="O28" s="4">
         <f t="shared" si="6"/>
-        <v>2.5203293626262736E-3</v>
+        <v>2.0287639594845325E-3</v>
       </c>
       <c r="Q28" s="4">
         <f t="shared" si="7"/>
-        <v>8.3855777141074006E-4</v>
+        <v>9.2763325863096091E-4</v>
       </c>
       <c r="R28" s="5">
         <f t="shared" si="8"/>
-        <v>2.282316924732799E-3</v>
+        <v>1.837173501876975E-3</v>
       </c>
       <c r="T28" s="3">
         <f t="shared" si="9"/>
-        <v>4.3371647723859062E-2</v>
+        <v>4.7291203174794058E-2</v>
       </c>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.2">
@@ -2035,25 +2156,25 @@
         <v>44</v>
       </c>
       <c r="D29" s="2">
-        <v>4.302206722385906E-2</v>
-      </c>
-      <c r="E29" s="14">
-        <v>5.493408E-4</v>
+        <v>4.7291203174794058E-2</v>
+      </c>
+      <c r="E29">
+        <v>7.8832999999999996E-4</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="1"/>
-        <v>4.2472726423859061E-2</v>
+        <v>4.6502873174794061E-2</v>
       </c>
       <c r="G29" s="2">
         <v>0.90190006614154294</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="2"/>
-        <v>-5.019228541272569E-4</v>
+        <v>-8.5453736217330767E-4</v>
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
-        <v>1.1666637298379329E-2</v>
+        <v>1.8069689599878296E-2</v>
       </c>
       <c r="J29">
         <f t="shared" si="4"/>
@@ -2064,27 +2185,27 @@
       </c>
       <c r="L29" s="9">
         <f t="shared" si="11"/>
-        <v>9.540318010600354E-4</v>
+        <v>1.0487016233874462E-3</v>
       </c>
       <c r="N29" s="6">
         <f t="shared" si="5"/>
-        <v>3.1666637298379333E-2</v>
+        <v>3.8069689599878297E-2</v>
       </c>
       <c r="O29" s="4">
         <f t="shared" si="6"/>
-        <v>9.540318010600354E-4</v>
+        <v>1.0487016233874462E-3</v>
       </c>
       <c r="Q29" s="4">
         <f t="shared" si="7"/>
-        <v>1.3623641986044383E-3</v>
+        <v>1.8003614256691888E-3</v>
       </c>
       <c r="R29" s="5">
         <f t="shared" si="8"/>
-        <v>8.6044134447718125E-4</v>
+        <v>9.4582406349588124E-4</v>
       </c>
       <c r="T29" s="3">
         <f t="shared" si="9"/>
-        <v>4.2520144369731804E-2</v>
+        <v>4.643666581262075E-2</v>
       </c>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.2">
@@ -2093,56 +2214,56 @@
         <v>45</v>
       </c>
       <c r="D30" s="2">
-        <v>4.2145593869731802E-2</v>
-      </c>
-      <c r="E30" s="14">
-        <v>1.7479029999999999E-4</v>
+        <v>4.6042505812620753E-2</v>
+      </c>
+      <c r="E30">
+        <v>3.9417E-4</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="1"/>
-        <v>4.1970803569731804E-2</v>
+        <v>4.5648335812620754E-2</v>
       </c>
       <c r="G30" s="2">
         <v>0.89936797982774996</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" si="2"/>
-        <v>-4.4824624586867201E-4</v>
+        <v>5.770960445311904E-4</v>
       </c>
       <c r="I30">
         <f t="shared" si="3"/>
-        <v>1.0635660924702126E-2</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.4166843547367315E-4</v>
       </c>
       <c r="K30">
         <v>0.02</v>
       </c>
       <c r="L30" s="9">
         <f t="shared" si="11"/>
-        <v>9.3722691523448888E-4</v>
+        <v>1.0238858141567143E-3</v>
       </c>
       <c r="N30" s="6">
         <f t="shared" si="5"/>
-        <v>3.0635660924702126E-2</v>
+        <v>0.02</v>
       </c>
       <c r="O30" s="4">
         <f t="shared" si="6"/>
-        <v>9.3722691523448888E-4</v>
+        <v>1.6655542496303874E-3</v>
       </c>
       <c r="Q30" s="4">
         <f t="shared" si="7"/>
-        <v>1.2911581232633081E-3</v>
+        <v>9.2085011625241511E-4</v>
       </c>
       <c r="R30" s="5">
         <f t="shared" si="8"/>
-        <v>8.4291187739463612E-4</v>
+        <v>1.4979461607836054E-3</v>
       </c>
       <c r="T30" s="3">
         <f t="shared" si="9"/>
-        <v>4.169734762386313E-2</v>
+        <v>4.6619601857151943E-2</v>
       </c>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.2">
@@ -2151,56 +2272,56 @@
         <v>46</v>
       </c>
       <c r="D31" s="2">
-        <v>4.172231762386313E-2</v>
-      </c>
-      <c r="E31" s="14">
-        <v>1.9976029999999999E-4</v>
+        <v>4.6619601857151943E-2</v>
+      </c>
+      <c r="E31">
+        <v>3.9417E-4</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="1"/>
-        <v>4.1522557323863132E-2</v>
+        <v>4.6225431857151944E-2</v>
       </c>
       <c r="G31" s="2">
         <v>0.89798384532213948</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" si="2"/>
-        <v>-6.701797717058311E-5</v>
+        <v>2.3232101515184567E-4</v>
       </c>
       <c r="I31">
         <f t="shared" si="3"/>
-        <v>1.6062860595321316E-3</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.5871402515988877E-4</v>
       </c>
       <c r="K31">
         <v>0.02</v>
       </c>
       <c r="L31" s="9">
         <f t="shared" si="11"/>
-        <v>9.2924428075642762E-4</v>
+        <v>1.0383171612720447E-3</v>
       </c>
       <c r="N31" s="6">
         <f t="shared" si="5"/>
-        <v>2.1606286059532132E-2</v>
+        <v>0.02</v>
       </c>
       <c r="O31" s="4">
         <f t="shared" si="6"/>
-        <v>9.2924428075642762E-4</v>
+        <v>1.2970311864319334E-3</v>
       </c>
       <c r="Q31" s="4">
         <f t="shared" si="7"/>
-        <v>9.0146432964784574E-4</v>
+        <v>9.3239203714303885E-4</v>
       </c>
       <c r="R31" s="5">
         <f t="shared" si="8"/>
-        <v>8.3444635247726263E-4</v>
+        <v>1.1647130522948843E-3</v>
       </c>
       <c r="T31" s="3">
         <f t="shared" si="9"/>
-        <v>4.1655299646692547E-2</v>
+        <v>4.6851922872303789E-2</v>
       </c>
     </row>
     <row r="32" spans="3:20" x14ac:dyDescent="0.2">
@@ -2209,25 +2330,25 @@
         <v>47</v>
       </c>
       <c r="D32" s="2">
-        <v>4.1605359546692547E-2</v>
-      </c>
-      <c r="E32" s="14">
-        <v>1.4982020000000001E-4</v>
+        <v>4.645775287230379E-2</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="1"/>
-        <v>4.1455539346692549E-2</v>
+        <v>4.645775287230379E-2</v>
       </c>
       <c r="G32" s="2">
         <v>0.89525091569357917</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="2"/>
-        <v>-2.6960848951266825E-3</v>
+        <v>-4.0532086604025686E-3</v>
       </c>
       <c r="I32">
         <f t="shared" si="3"/>
-        <v>6.480138435292071E-2</v>
+        <v>8.7245043287897076E-2</v>
       </c>
       <c r="J32">
         <f t="shared" si="4"/>
@@ -2238,27 +2359,27 @@
       </c>
       <c r="L32" s="9">
         <f t="shared" si="11"/>
-        <v>9.2946812602720573E-4</v>
+        <v>1.037871105360702E-3</v>
       </c>
       <c r="N32" s="6">
         <f t="shared" si="5"/>
-        <v>8.4801384352920714E-2</v>
+        <v>0.10724504328789708</v>
       </c>
       <c r="O32" s="4">
         <f t="shared" si="6"/>
-        <v>9.2946812602720573E-4</v>
+        <v>1.037871105360702E-3</v>
       </c>
       <c r="Q32" s="4">
         <f t="shared" si="7"/>
-        <v>3.528192086060534E-3</v>
+        <v>4.9823637178486452E-3</v>
       </c>
       <c r="R32" s="5">
         <f t="shared" si="8"/>
-        <v>8.3210719093385099E-4</v>
+        <v>9.2915505744607565E-4</v>
       </c>
       <c r="T32" s="3">
         <f t="shared" si="9"/>
-        <v>3.8909274651565864E-2</v>
+        <v>4.2404544211901221E-2</v>
       </c>
     </row>
     <row r="33" spans="3:20" x14ac:dyDescent="0.2">
@@ -2267,21 +2388,21 @@
         <v>48</v>
       </c>
       <c r="D33" s="2">
-        <v>3.8759454451565867E-2</v>
-      </c>
-      <c r="E33" s="14">
+        <v>4.2404544211901221E-2</v>
+      </c>
+      <c r="E33">
         <v>0</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="1"/>
-        <v>3.8759454451565867E-2</v>
+        <v>4.2404544211901221E-2</v>
       </c>
       <c r="G33" s="2">
         <v>0.89575043285440903</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="2"/>
-        <v>2.8108473927085792E-3</v>
+        <v>3.5244126759597788E-3</v>
       </c>
       <c r="I33">
         <f t="shared" si="3"/>
@@ -2289,14 +2410,14 @@
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>3.1379805017246816E-3</v>
+        <v>3.9345922108335952E-3</v>
       </c>
       <c r="K33">
         <v>0.02</v>
       </c>
       <c r="L33" s="9">
         <f t="shared" si="11"/>
-        <v>8.6540744006239614E-4</v>
+        <v>9.4679371969208861E-4</v>
       </c>
       <c r="N33" s="6">
         <f t="shared" si="5"/>
@@ -2304,19 +2425,19 @@
       </c>
       <c r="O33" s="4">
         <f t="shared" si="6"/>
-        <v>4.0033879417870778E-3</v>
+        <v>4.8813859305256837E-3</v>
       </c>
       <c r="Q33" s="4">
         <f t="shared" si="7"/>
-        <v>7.7518908903131739E-4</v>
+        <v>8.480908842380244E-4</v>
       </c>
       <c r="R33" s="5">
         <f t="shared" si="8"/>
-        <v>3.5860364817398966E-3</v>
+        <v>4.3725035601978037E-3</v>
       </c>
       <c r="T33" s="3">
         <f t="shared" si="9"/>
-        <v>4.1570301844274446E-2</v>
+        <v>4.5928956887861E-2</v>
       </c>
     </row>
     <row r="34" spans="3:20" x14ac:dyDescent="0.2">
@@ -2325,25 +2446,25 @@
         <v>49</v>
       </c>
       <c r="D34" s="2">
-        <v>4.1570301844274446E-2</v>
-      </c>
-      <c r="E34" s="14">
+        <v>4.5928956887861E-2</v>
+      </c>
+      <c r="E34">
         <v>0</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" si="1"/>
-        <v>4.1570301844274446E-2</v>
+        <v>4.5928956887861E-2</v>
       </c>
       <c r="G34" s="2">
         <v>0.89236790606653615</v>
       </c>
       <c r="H34" s="3">
         <f t="shared" si="2"/>
-        <v>-1.0875258824942086E-3</v>
+        <v>-1.4509863349595961E-3</v>
       </c>
       <c r="I34">
         <f t="shared" si="3"/>
-        <v>2.6161125472895633E-2</v>
+        <v>3.1591972325918226E-2</v>
       </c>
       <c r="J34">
         <f t="shared" si="4"/>
@@ -2354,27 +2475,27 @@
       </c>
       <c r="L34" s="9">
         <f t="shared" si="11"/>
-        <v>9.3168527379053703E-4</v>
+        <v>1.0293726741095164E-3</v>
       </c>
       <c r="N34" s="6">
         <f t="shared" si="5"/>
-        <v>4.6161125472895637E-2</v>
+        <v>5.1591972325918223E-2</v>
       </c>
       <c r="O34" s="4">
         <f t="shared" si="6"/>
-        <v>9.3168527379053703E-4</v>
+        <v>1.0293726741095164E-3</v>
       </c>
       <c r="Q34" s="4">
         <f t="shared" si="7"/>
-        <v>1.9189319193796976E-3</v>
+        <v>2.3695654727168159E-3</v>
       </c>
       <c r="R34" s="5">
         <f t="shared" si="8"/>
-        <v>8.3140603688548894E-4</v>
+        <v>9.1857913775722012E-4</v>
       </c>
       <c r="T34" s="3">
         <f t="shared" si="9"/>
-        <v>4.0482775961780237E-2</v>
+        <v>4.4477970552901404E-2</v>
       </c>
     </row>
     <row r="35" spans="3:20" x14ac:dyDescent="0.2">
@@ -2383,21 +2504,21 @@
         <v>50</v>
       </c>
       <c r="D35" s="2">
-        <v>4.0482775961780237E-2</v>
-      </c>
-      <c r="E35" s="14">
+        <v>4.4477970552901404E-2</v>
+      </c>
+      <c r="E35">
         <v>0</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="1"/>
-        <v>4.0482775961780237E-2</v>
+        <v>4.4477970552901404E-2</v>
       </c>
       <c r="G35" s="2">
         <v>0.8893917805157433</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="2"/>
-        <v>2.2333945757838231E-3</v>
+        <v>1.5366407217687547E-3</v>
       </c>
       <c r="I35">
         <f t="shared" si="3"/>
@@ -2405,14 +2526,14 @@
       </c>
       <c r="J35">
         <f t="shared" si="4"/>
-        <v>2.5111482079233013E-3</v>
+        <v>1.7277433358757629E-3</v>
       </c>
       <c r="K35">
         <v>0.02</v>
       </c>
       <c r="L35" s="9">
         <f t="shared" si="11"/>
-        <v>9.1034742727900985E-4</v>
+        <v>1.000188477728215E-3</v>
       </c>
       <c r="N35" s="6">
         <f t="shared" si="5"/>
@@ -2420,19 +2541,19 @@
       </c>
       <c r="O35" s="4">
         <f t="shared" si="6"/>
-        <v>3.421495635202311E-3</v>
+        <v>2.7279318136039779E-3</v>
       </c>
       <c r="Q35" s="4">
         <f t="shared" si="7"/>
-        <v>8.0965551923560476E-4</v>
+        <v>8.8955941105802805E-4</v>
       </c>
       <c r="R35" s="5">
         <f t="shared" si="8"/>
-        <v>3.0430500950194275E-3</v>
+        <v>2.4262001328267824E-3</v>
       </c>
       <c r="T35" s="3">
         <f t="shared" si="9"/>
-        <v>4.271617053756406E-2</v>
+        <v>4.6014611274670159E-2</v>
       </c>
     </row>
     <row r="36" spans="3:20" x14ac:dyDescent="0.2">
@@ -2441,25 +2562,25 @@
         <v>51</v>
       </c>
       <c r="D36" s="2">
-        <v>4.271617053756406E-2</v>
-      </c>
-      <c r="E36" s="14">
+        <v>4.6014611274670159E-2</v>
+      </c>
+      <c r="E36">
         <v>0</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="1"/>
-        <v>4.271617053756406E-2</v>
+        <v>4.6014611274670159E-2</v>
       </c>
       <c r="G36" s="2">
         <v>0.88398211754443357</v>
       </c>
       <c r="H36" s="3">
         <f t="shared" si="2"/>
-        <v>-1.7347959596313717E-3</v>
+        <v>-1.3027062534306452E-3</v>
       </c>
       <c r="I36">
         <f t="shared" si="3"/>
-        <v>4.061216016791145E-2</v>
+        <v>2.8310708649792529E-2</v>
       </c>
       <c r="J36">
         <f t="shared" si="4"/>
@@ -2470,27 +2591,27 @@
       </c>
       <c r="L36" s="9">
         <f t="shared" si="11"/>
-        <v>9.6644874799555933E-4</v>
+        <v>1.0410756136672013E-3</v>
       </c>
       <c r="N36" s="6">
         <f t="shared" si="5"/>
-        <v>6.0612160167911447E-2</v>
+        <v>4.8310708649792533E-2</v>
       </c>
       <c r="O36" s="4">
         <f t="shared" si="6"/>
-        <v>9.6644874799555933E-4</v>
+        <v>1.0410756136672013E-3</v>
       </c>
       <c r="Q36" s="4">
         <f t="shared" si="7"/>
-        <v>2.5891193703826529E-3</v>
+        <v>2.2229984789240488E-3</v>
       </c>
       <c r="R36" s="5">
         <f t="shared" si="8"/>
-        <v>8.5432341075128123E-4</v>
+        <v>9.2029222549340321E-4</v>
       </c>
       <c r="T36" s="3">
         <f t="shared" si="9"/>
-        <v>4.0981374577932689E-2</v>
+        <v>4.4711905021239513E-2</v>
       </c>
     </row>
     <row r="37" spans="3:20" x14ac:dyDescent="0.2">
@@ -2499,21 +2620,21 @@
         <v>52</v>
       </c>
       <c r="D37" s="2">
-        <v>4.0981374577932689E-2</v>
-      </c>
-      <c r="E37" s="14">
+        <v>4.4711905021239513E-2</v>
+      </c>
+      <c r="E37">
         <v>0</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" si="1"/>
-        <v>4.0981374577932689E-2</v>
+        <v>4.4711905021239513E-2</v>
       </c>
       <c r="G37" s="2">
         <v>0.88152162073848161</v>
       </c>
       <c r="H37" s="3">
         <f t="shared" si="2"/>
-        <v>2.4377080408232651E-3</v>
+        <v>2.4093689681439073E-3</v>
       </c>
       <c r="I37">
         <f t="shared" si="3"/>
@@ -2521,14 +2642,14 @@
       </c>
       <c r="J37">
         <f t="shared" si="4"/>
-        <v>2.765341182194841E-3</v>
+        <v>2.7331932779203921E-3</v>
       </c>
       <c r="K37">
         <v>0.02</v>
       </c>
       <c r="L37" s="9">
         <f t="shared" si="11"/>
-        <v>9.297871683192785E-4</v>
+        <v>1.014425601581565E-3</v>
       </c>
       <c r="N37" s="6">
         <f t="shared" si="5"/>
@@ -2536,19 +2657,19 @@
       </c>
       <c r="O37" s="4">
         <f t="shared" si="6"/>
-        <v>3.6951283505141192E-3</v>
+        <v>3.7476188795019568E-3</v>
       </c>
       <c r="Q37" s="4">
         <f t="shared" si="7"/>
-        <v>8.1962749155865377E-4</v>
+        <v>8.9423810042479034E-4</v>
       </c>
       <c r="R37" s="5">
         <f t="shared" si="8"/>
-        <v>3.2573355323819186E-3</v>
+        <v>3.3036070685686972E-3</v>
       </c>
       <c r="T37" s="3">
         <f t="shared" si="9"/>
-        <v>4.3419082618755954E-2</v>
+        <v>4.7121273989383421E-2</v>
       </c>
     </row>
     <row r="38" spans="3:20" x14ac:dyDescent="0.2">
@@ -2557,25 +2678,25 @@
         <v>53</v>
       </c>
       <c r="D38" s="2">
-        <v>4.3419082618755954E-2</v>
-      </c>
-      <c r="E38" s="14">
+        <v>4.7121273989383421E-2</v>
+      </c>
+      <c r="E38">
         <v>0</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" si="1"/>
-        <v>4.3419082618755954E-2</v>
+        <v>4.7121273989383421E-2</v>
       </c>
       <c r="G38" s="2">
         <v>0.87390771743568796</v>
       </c>
       <c r="H38" s="3">
         <f t="shared" si="2"/>
-        <v>-2.9812514353271674E-3</v>
+        <v>-2.9367211873708929E-3</v>
       </c>
       <c r="I38">
         <f t="shared" si="3"/>
-        <v>6.8662239170372105E-2</v>
+        <v>6.232261861240309E-2</v>
       </c>
       <c r="J38">
         <f t="shared" si="4"/>
@@ -2586,27 +2707,27 @@
       </c>
       <c r="L38" s="9">
         <f t="shared" si="11"/>
-        <v>9.9367660343270114E-4</v>
+        <v>1.078403887487151E-3</v>
       </c>
       <c r="N38" s="6">
         <f t="shared" si="5"/>
-        <v>8.8662239170372109E-2</v>
+        <v>8.2322618612403087E-2</v>
       </c>
       <c r="O38" s="4">
         <f t="shared" si="6"/>
-        <v>9.9367660343270114E-4</v>
+        <v>1.078403887487151E-3</v>
       </c>
       <c r="Q38" s="4">
         <f t="shared" si="7"/>
-        <v>3.8496330877022871E-3</v>
+        <v>3.879146667158561E-3</v>
       </c>
       <c r="R38" s="5">
         <f t="shared" si="8"/>
-        <v>8.683816523751192E-4</v>
+        <v>9.4242547978766857E-4</v>
       </c>
       <c r="T38" s="3">
         <f t="shared" si="9"/>
-        <v>4.0437831183428787E-2</v>
+        <v>4.4184552802012528E-2</v>
       </c>
     </row>
     <row r="39" spans="3:20" x14ac:dyDescent="0.2">
@@ -2615,21 +2736,21 @@
         <v>54</v>
       </c>
       <c r="D39" s="2">
-        <v>4.0437831183428787E-2</v>
-      </c>
-      <c r="E39" s="14">
+        <v>4.4184552802012528E-2</v>
+      </c>
+      <c r="E39">
         <v>0</v>
       </c>
       <c r="F39" s="3">
         <f t="shared" si="1"/>
-        <v>4.0437831183428787E-2</v>
+        <v>4.4184552802012528E-2</v>
       </c>
       <c r="G39" s="2">
         <v>0.87025638280790019</v>
       </c>
       <c r="H39" s="3">
         <f t="shared" si="2"/>
-        <v>1.4471248041253992E-3</v>
+        <v>1.849008350023211E-3</v>
       </c>
       <c r="I39">
         <f t="shared" si="3"/>
@@ -2637,14 +2758,14 @@
       </c>
       <c r="J39">
         <f t="shared" si="4"/>
-        <v>1.6628718073359269E-3</v>
+        <v>2.1246708286784951E-3</v>
       </c>
       <c r="K39">
         <v>0.02</v>
       </c>
       <c r="L39" s="9">
         <f t="shared" si="11"/>
-        <v>9.2933144719847479E-4</v>
+        <v>1.0154376037886711E-3</v>
       </c>
       <c r="N39" s="6">
         <f t="shared" si="5"/>
@@ -2652,19 +2773,19 @@
       </c>
       <c r="O39" s="4">
         <f t="shared" si="6"/>
-        <v>2.5922032545344018E-3</v>
+        <v>3.1401084324671662E-3</v>
       </c>
       <c r="Q39" s="4">
         <f t="shared" si="7"/>
-        <v>8.0875662366857576E-4</v>
+        <v>8.836910560402506E-4</v>
       </c>
       <c r="R39" s="5">
         <f t="shared" si="8"/>
-        <v>2.2558814277939751E-3</v>
+        <v>2.7326994060634614E-3</v>
       </c>
       <c r="T39" s="3">
         <f t="shared" si="9"/>
-        <v>4.1884955987554186E-2</v>
+        <v>4.6033561152035739E-2</v>
       </c>
     </row>
     <row r="40" spans="3:20" x14ac:dyDescent="0.2">
@@ -2673,21 +2794,21 @@
         <v>55</v>
       </c>
       <c r="D40" s="2">
-        <v>4.1884955987554186E-2</v>
-      </c>
-      <c r="E40" s="14">
+        <v>4.6033561152035739E-2</v>
+      </c>
+      <c r="E40">
         <v>0</v>
       </c>
       <c r="F40" s="3">
         <f t="shared" si="1"/>
-        <v>4.1884955987554186E-2</v>
+        <v>4.6033561152035739E-2</v>
       </c>
       <c r="G40" s="2">
         <v>0.86080897800707401</v>
       </c>
       <c r="H40" s="3">
         <f t="shared" si="2"/>
-        <v>1.0637965047667688E-3</v>
+        <v>1.2801210164182161E-3</v>
       </c>
       <c r="I40">
         <f t="shared" si="3"/>
@@ -2695,14 +2816,14 @@
       </c>
       <c r="J40">
         <f t="shared" si="4"/>
-        <v>1.2358101877952611E-3</v>
+        <v>1.4871139232096814E-3</v>
       </c>
       <c r="K40">
         <v>0.02</v>
       </c>
       <c r="L40" s="9">
         <f t="shared" si="11"/>
-        <v>9.7315332571287338E-4</v>
+        <v>1.0695418455930054E-3</v>
       </c>
       <c r="N40" s="6">
         <f t="shared" si="5"/>
@@ -2710,19 +2831,19 @@
       </c>
       <c r="O40" s="4">
         <f t="shared" si="6"/>
-        <v>2.2089635135081344E-3</v>
+        <v>2.556655768802687E-3</v>
       </c>
       <c r="Q40" s="4">
         <f t="shared" si="7"/>
-        <v>8.3769911975108374E-4</v>
+        <v>9.2067122304071477E-4</v>
       </c>
       <c r="R40" s="5">
         <f t="shared" si="8"/>
-        <v>1.9014956245178526E-3</v>
+        <v>2.200792239458931E-3</v>
       </c>
       <c r="T40" s="3">
         <f t="shared" si="9"/>
-        <v>4.2948752492320955E-2</v>
+        <v>4.7313682168453955E-2</v>
       </c>
     </row>
     <row r="41" spans="3:20" x14ac:dyDescent="0.2">
@@ -2731,21 +2852,21 @@
         <v>56</v>
       </c>
       <c r="D41" s="2">
-        <v>4.2948752492320955E-2</v>
-      </c>
-      <c r="E41" s="14">
+        <v>4.7313682168453955E-2</v>
+      </c>
+      <c r="E41">
         <v>0</v>
       </c>
       <c r="F41" s="3">
         <f t="shared" si="1"/>
-        <v>4.2948752492320955E-2</v>
+        <v>4.7313682168453955E-2</v>
       </c>
       <c r="G41" s="2">
         <v>0.84644608503529672</v>
       </c>
       <c r="H41" s="3">
         <f t="shared" si="2"/>
-        <v>1.2078723676402434E-3</v>
+        <v>6.4106822092222654E-4</v>
       </c>
       <c r="I41">
         <f t="shared" si="3"/>
@@ -2753,14 +2874,14 @@
       </c>
       <c r="J41">
         <f t="shared" si="4"/>
-        <v>1.4269926803310517E-3</v>
+        <v>7.5736450585094746E-4</v>
       </c>
       <c r="K41">
         <v>0.02</v>
       </c>
       <c r="L41" s="9">
         <f t="shared" si="11"/>
-        <v>1.0148018462517905E-3</v>
+        <v>1.1179372911029762E-3</v>
       </c>
       <c r="N41" s="6">
         <f t="shared" si="5"/>
@@ -2768,19 +2889,19 @@
       </c>
       <c r="O41" s="4">
         <f t="shared" si="6"/>
-        <v>2.4417945265828422E-3</v>
+        <v>1.8753017969539237E-3</v>
       </c>
       <c r="Q41" s="4">
         <f t="shared" si="7"/>
-        <v>8.5897504984641909E-4</v>
+        <v>9.4627364336907912E-4</v>
       </c>
       <c r="R41" s="5">
         <f t="shared" si="8"/>
-        <v>2.0668474174866626E-3</v>
+        <v>1.5873418642913056E-3</v>
       </c>
       <c r="T41" s="3">
         <f t="shared" si="9"/>
-        <v>4.4156624859961198E-2</v>
+        <v>4.7954750389376181E-2</v>
       </c>
     </row>
     <row r="42" spans="3:20" x14ac:dyDescent="0.2">
@@ -2789,25 +2910,25 @@
         <v>57</v>
       </c>
       <c r="D42" s="2">
-        <v>4.4156624859961198E-2</v>
-      </c>
-      <c r="E42" s="14">
+        <v>4.7954750389376181E-2</v>
+      </c>
+      <c r="E42">
         <v>0</v>
       </c>
       <c r="F42" s="3">
         <f t="shared" si="1"/>
-        <v>4.4156624859961198E-2</v>
+        <v>4.7954750389376181E-2</v>
       </c>
       <c r="G42" s="2">
         <v>0.83411208569008388</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" si="2"/>
-        <v>-2.2230197347427941E-3</v>
+        <v>-4.4663823362279392E-4</v>
       </c>
       <c r="I42">
         <f t="shared" si="3"/>
-        <v>5.0343968584394827E-2</v>
+        <v>9.3137432683153207E-3</v>
       </c>
       <c r="J42">
         <f t="shared" si="4"/>
@@ -2818,27 +2939,27 @@
       </c>
       <c r="L42" s="9">
         <f t="shared" si="11"/>
-        <v>1.0587695734783464E-3</v>
+        <v>1.1498394810980804E-3</v>
       </c>
       <c r="N42" s="6">
         <f t="shared" si="5"/>
-        <v>7.0343968584394831E-2</v>
+        <v>2.9313743268315321E-2</v>
       </c>
       <c r="O42" s="4">
         <f t="shared" si="6"/>
-        <v>1.0587695734783464E-3</v>
+        <v>1.1498394810980804E-3</v>
       </c>
       <c r="Q42" s="4">
         <f t="shared" si="7"/>
-        <v>3.1061522319420182E-3</v>
+        <v>1.4057332414103175E-3</v>
       </c>
       <c r="R42" s="5">
         <f t="shared" si="8"/>
-        <v>8.8313249719922408E-4</v>
+        <v>9.5909500778752364E-4</v>
       </c>
       <c r="T42" s="3">
         <f t="shared" si="9"/>
-        <v>4.1933605125218404E-2</v>
+        <v>4.7508112155753388E-2</v>
       </c>
     </row>
     <row r="43" spans="3:20" x14ac:dyDescent="0.2">
@@ -2847,25 +2968,25 @@
         <v>58</v>
       </c>
       <c r="D43" s="2">
-        <v>4.1933605125218404E-2</v>
-      </c>
-      <c r="E43" s="14">
+        <v>4.7508112155753388E-2</v>
+      </c>
+      <c r="E43">
         <v>0</v>
       </c>
       <c r="F43" s="3">
         <f t="shared" si="1"/>
-        <v>4.1933605125218404E-2</v>
+        <v>4.7508112155753388E-2</v>
       </c>
       <c r="G43" s="2">
         <v>0.82497157278753086</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" si="2"/>
-        <v>-1.0226088977487932E-3</v>
+        <v>-2.5171941733585293E-3</v>
       </c>
       <c r="I43">
         <f t="shared" si="3"/>
-        <v>2.4386381631037193E-2</v>
+        <v>5.2984512731341797E-2</v>
       </c>
       <c r="J43">
         <f t="shared" si="4"/>
@@ -2876,27 +2997,27 @@
       </c>
       <c r="L43" s="9">
         <f t="shared" si="11"/>
-        <v>1.0166072749277213E-3</v>
+        <v>1.1517514959994621E-3</v>
       </c>
       <c r="N43" s="6">
         <f t="shared" si="5"/>
-        <v>4.4386381631037197E-2</v>
+        <v>7.2984512731341794E-2</v>
       </c>
       <c r="O43" s="4">
         <f t="shared" si="6"/>
-        <v>1.0166072749277213E-3</v>
+        <v>1.1517514959994621E-3</v>
       </c>
       <c r="Q43" s="4">
         <f t="shared" si="7"/>
-        <v>1.8612810002531614E-3</v>
+        <v>3.4673564164735969E-3</v>
       </c>
       <c r="R43" s="5">
         <f t="shared" si="8"/>
-        <v>8.38672102504368E-4</v>
+        <v>9.5016224311506785E-4</v>
       </c>
       <c r="T43" s="3">
         <f t="shared" si="9"/>
-        <v>4.0910996227469604E-2</v>
+        <v>4.4990917982394858E-2</v>
       </c>
     </row>
     <row r="44" spans="3:20" x14ac:dyDescent="0.2">
@@ -2905,25 +3026,25 @@
         <v>59</v>
       </c>
       <c r="D44" s="2">
-        <v>4.0910996227469611E-2</v>
-      </c>
-      <c r="E44" s="14">
+        <v>4.4990917982394858E-2</v>
+      </c>
+      <c r="E44">
         <v>0</v>
       </c>
       <c r="F44" s="3">
         <f t="shared" si="1"/>
-        <v>4.0910996227469611E-2</v>
+        <v>4.4990917982394858E-2</v>
       </c>
       <c r="G44" s="2">
         <v>0.80681849937124495</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" si="2"/>
-        <v>-2.5031343911028001E-3</v>
+        <v>-1.4077348690611363E-3</v>
       </c>
       <c r="I44">
         <f t="shared" si="3"/>
-        <v>6.1184879908206077E-2</v>
+        <v>3.1289311980964449E-2</v>
       </c>
       <c r="J44">
         <f t="shared" si="4"/>
@@ -2934,27 +3055,27 @@
       </c>
       <c r="L44" s="9">
         <f t="shared" si="11"/>
-        <v>1.0141313383208645E-3</v>
+        <v>1.115267387087836E-3</v>
       </c>
       <c r="N44" s="6">
         <f t="shared" si="5"/>
-        <v>8.1184879908206081E-2</v>
+        <v>5.1289311980964453E-2</v>
       </c>
       <c r="O44" s="4">
         <f t="shared" si="6"/>
-        <v>1.0141313383208645E-3</v>
+        <v>1.115267387087836E-3</v>
       </c>
       <c r="Q44" s="4">
         <f t="shared" si="7"/>
-        <v>3.3213543156521922E-3</v>
+        <v>2.3075532287090334E-3</v>
       </c>
       <c r="R44" s="5">
         <f t="shared" si="8"/>
-        <v>8.1821992454939225E-4</v>
+        <v>8.9981835964789722E-4</v>
       </c>
       <c r="T44" s="3">
         <f t="shared" si="9"/>
-        <v>3.8407861836366811E-2</v>
+        <v>4.3583183113333722E-2</v>
       </c>
     </row>
     <row r="45" spans="3:20" x14ac:dyDescent="0.2">
@@ -2963,25 +3084,25 @@
         <v>60</v>
       </c>
       <c r="D45" s="2">
-        <v>3.8407861836366811E-2</v>
-      </c>
-      <c r="E45" s="14">
+        <v>4.3583183113333722E-2</v>
+      </c>
+      <c r="E45">
         <v>0</v>
       </c>
       <c r="F45" s="3">
         <f t="shared" si="1"/>
-        <v>3.8407861836366811E-2</v>
+        <v>4.3583183113333722E-2</v>
       </c>
       <c r="G45" s="2">
         <v>0.77568761993370938</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" si="2"/>
-        <v>-1.8908504580808366E-3</v>
+        <v>-4.2636382447725427E-3</v>
       </c>
       <c r="I45">
         <f t="shared" si="3"/>
-        <v>4.923081805846502E-2</v>
+        <v>9.7827600927756386E-2</v>
       </c>
       <c r="J45">
         <f t="shared" si="4"/>
@@ -2992,27 +3113,27 @@
       </c>
       <c r="L45" s="9">
         <f t="shared" si="11"/>
-        <v>9.9029198995464595E-4</v>
+        <v>1.1237302747479291E-3</v>
       </c>
       <c r="N45" s="6">
         <f t="shared" si="5"/>
-        <v>6.9230818058465024E-2</v>
+        <v>0.11782760092775639</v>
       </c>
       <c r="O45" s="4">
         <f t="shared" si="6"/>
-        <v>9.9029198995464595E-4</v>
+        <v>1.1237302747479291E-3</v>
       </c>
       <c r="Q45" s="4">
         <f t="shared" si="7"/>
-        <v>2.6590076948081729E-3</v>
+        <v>5.1353019070392173E-3</v>
       </c>
       <c r="R45" s="5">
         <f t="shared" si="8"/>
-        <v>7.6815723672733619E-4</v>
+        <v>8.716636622666745E-4</v>
       </c>
       <c r="T45" s="3">
         <f t="shared" si="9"/>
-        <v>3.6517011378285974E-2</v>
+        <v>3.9319544868561179E-2</v>
       </c>
     </row>
     <row r="46" spans="3:20" x14ac:dyDescent="0.2">
@@ -3021,25 +3142,25 @@
         <v>61</v>
       </c>
       <c r="D46" s="2">
-        <v>3.6517011378285974E-2</v>
-      </c>
-      <c r="E46" s="14">
+        <v>3.9319544868561179E-2</v>
+      </c>
+      <c r="E46">
         <v>0</v>
       </c>
       <c r="F46" s="3">
         <f t="shared" si="1"/>
-        <v>3.6517011378285974E-2</v>
+        <v>3.9319544868561179E-2</v>
       </c>
       <c r="G46" s="2">
         <v>0.74177456420604226</v>
       </c>
       <c r="H46" s="3">
         <f t="shared" si="2"/>
-        <v>-5.1346471118246736E-3</v>
+        <v>-2.2988066541379457E-3</v>
       </c>
       <c r="I46">
         <f t="shared" si="3"/>
-        <v>0.14060973004154104</v>
+        <v>5.8464732026336549E-2</v>
       </c>
       <c r="J46">
         <f t="shared" si="4"/>
@@ -3050,27 +3171,27 @@
       </c>
       <c r="L46" s="9">
         <f t="shared" si="11"/>
-        <v>9.8458515943781176E-4</v>
+        <v>1.0601481033701073E-3</v>
       </c>
       <c r="N46" s="6">
         <f t="shared" si="5"/>
-        <v>0.16060973004154103</v>
+        <v>7.8464732026336553E-2</v>
       </c>
       <c r="O46" s="4">
         <f t="shared" si="6"/>
-        <v>9.8458515943781176E-4</v>
+        <v>1.0601481033701073E-3</v>
       </c>
       <c r="Q46" s="4">
         <f t="shared" si="7"/>
-        <v>5.864987339390392E-3</v>
+        <v>3.0851975515091695E-3</v>
       </c>
       <c r="R46" s="5">
         <f t="shared" si="8"/>
-        <v>7.3034022756571942E-4</v>
+        <v>7.8639089737122354E-4</v>
       </c>
       <c r="T46" s="3">
         <f t="shared" si="9"/>
-        <v>3.13823642664613E-2</v>
+        <v>3.7020738214423234E-2</v>
       </c>
     </row>
     <row r="47" spans="3:20" x14ac:dyDescent="0.2">
@@ -3079,25 +3200,25 @@
         <v>62</v>
       </c>
       <c r="D47" s="2">
-        <v>3.13823642664613E-2</v>
-      </c>
-      <c r="E47" s="14">
+        <v>3.7020738214423234E-2</v>
+      </c>
+      <c r="E47">
         <v>0</v>
       </c>
       <c r="F47" s="3">
         <f t="shared" si="1"/>
-        <v>3.13823642664613E-2</v>
+        <v>3.7020738214423234E-2</v>
       </c>
       <c r="G47" s="2">
         <v>0.66403542549095107</v>
       </c>
       <c r="H47" s="3">
         <f t="shared" si="2"/>
-        <v>-1.5593480986411942E-2</v>
+        <v>-1.6099766763416446E-2</v>
       </c>
       <c r="I47">
         <f t="shared" si="3"/>
-        <v>0.49688674995965415</v>
+        <v>0.43488508171195778</v>
       </c>
       <c r="J47">
         <f t="shared" si="4"/>
@@ -3108,27 +3229,27 @@
       </c>
       <c r="L47" s="9">
         <f t="shared" si="11"/>
-        <v>9.4520150768338655E-4</v>
+        <v>1.1150229880296566E-3</v>
       </c>
       <c r="N47" s="6">
         <f t="shared" si="5"/>
-        <v>0.51688674995965411</v>
+        <v>0.45488508171195779</v>
       </c>
       <c r="O47" s="4">
         <f t="shared" si="6"/>
-        <v>9.4520150768338655E-4</v>
+        <v>1.1150229880296566E-3</v>
       </c>
       <c r="Q47" s="4">
         <f t="shared" si="7"/>
-        <v>1.6221128271741166E-2</v>
+        <v>1.684018152770491E-2</v>
       </c>
       <c r="R47" s="5">
         <f t="shared" si="8"/>
-        <v>6.2764728532922602E-4</v>
+        <v>7.4041476428846466E-4</v>
       </c>
       <c r="T47" s="3">
         <f t="shared" si="9"/>
-        <v>1.5788883280049362E-2</v>
+        <v>2.0920971451006791E-2</v>
       </c>
     </row>
     <row r="48" spans="3:20" x14ac:dyDescent="0.2">
@@ -3137,25 +3258,25 @@
         <v>63</v>
       </c>
       <c r="D48" s="2">
-        <v>1.5788883280049359E-2</v>
-      </c>
-      <c r="E48" s="14">
+        <v>2.0920971451006787E-2</v>
+      </c>
+      <c r="E48">
         <v>0</v>
       </c>
       <c r="F48" s="3">
         <f t="shared" si="1"/>
-        <v>1.5788883280049359E-2</v>
+        <v>2.0920971451006787E-2</v>
       </c>
       <c r="G48" s="2">
         <v>0.42843120758315106</v>
       </c>
       <c r="H48" s="3">
         <f t="shared" si="2"/>
-        <v>-8.8386787781473478E-3</v>
+        <v>-1.2340472065942576E-2</v>
       </c>
       <c r="I48">
         <f t="shared" si="3"/>
-        <v>0.55980392161843362</v>
+        <v>0.58986133100185034</v>
       </c>
       <c r="J48">
         <f t="shared" si="4"/>
@@ -3170,7 +3291,7 @@
       </c>
       <c r="N48" s="6">
         <f t="shared" si="5"/>
-        <v>0.55980392161843362</v>
+        <v>0.58986133100185034</v>
       </c>
       <c r="O48" s="4">
         <f t="shared" si="6"/>
@@ -3178,7 +3299,7 @@
       </c>
       <c r="Q48" s="4">
         <f t="shared" si="7"/>
-        <v>8.8386787781473478E-3</v>
+        <v>1.2340472065942576E-2</v>
       </c>
       <c r="R48" s="5">
         <f t="shared" si="8"/>
@@ -3186,7 +3307,7 @@
       </c>
       <c r="T48" s="3">
         <f t="shared" si="9"/>
-        <v>6.950204501902011E-3</v>
+        <v>8.5804993850642115E-3</v>
       </c>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.2">
@@ -3195,25 +3316,25 @@
         <v>64</v>
       </c>
       <c r="D49" s="2">
-        <v>6.950204501902011E-3</v>
-      </c>
-      <c r="E49" s="14">
+        <v>8.5804993850642115E-3</v>
+      </c>
+      <c r="E49">
         <v>0</v>
       </c>
       <c r="F49" s="3">
         <f t="shared" si="1"/>
-        <v>6.950204501902011E-3</v>
+        <v>8.5804993850642115E-3</v>
       </c>
       <c r="G49" s="2">
         <v>0.24171266767725882</v>
       </c>
       <c r="H49" s="3">
         <f t="shared" si="2"/>
-        <v>-1.6201155705269062E-3</v>
+        <v>-1.367498602931597E-3</v>
       </c>
       <c r="I49">
         <f t="shared" si="3"/>
-        <v>0.23310329503017374</v>
+        <v>0.15937284551432473</v>
       </c>
       <c r="J49">
         <f t="shared" si="4"/>
@@ -3228,7 +3349,7 @@
       </c>
       <c r="N49" s="6">
         <f t="shared" si="5"/>
-        <v>0.23310329503017374</v>
+        <v>0.15937284551432473</v>
       </c>
       <c r="O49" s="4">
         <f t="shared" si="6"/>
@@ -3236,7 +3357,7 @@
       </c>
       <c r="Q49" s="4">
         <f t="shared" si="7"/>
-        <v>1.6201155705269062E-3</v>
+        <v>1.367498602931597E-3</v>
       </c>
       <c r="R49" s="5">
         <f t="shared" si="8"/>
@@ -3244,7 +3365,7 @@
       </c>
       <c r="T49" s="3">
         <f t="shared" si="9"/>
-        <v>5.3300889313751048E-3</v>
+        <v>7.2130007821326145E-3</v>
       </c>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.2">
@@ -3253,25 +3374,25 @@
         <v>65</v>
       </c>
       <c r="D50" s="2">
-        <v>5.3300889313751048E-3</v>
-      </c>
-      <c r="E50" s="14">
+        <v>7.2130007821326145E-3</v>
+      </c>
+      <c r="E50">
         <v>0</v>
       </c>
       <c r="F50" s="3">
         <f t="shared" si="1"/>
-        <v>5.3300889313751048E-3</v>
+        <v>7.2130007821326145E-3</v>
       </c>
       <c r="G50" s="2">
         <v>0.14805480721879435</v>
       </c>
       <c r="H50" s="3">
         <f t="shared" si="2"/>
-        <v>-1.3620583128126015E-3</v>
+        <v>-3.1605439801964405E-3</v>
       </c>
       <c r="I50">
         <f t="shared" si="3"/>
-        <v>0.25554138595980336</v>
+        <v>0.43817324795325835</v>
       </c>
       <c r="J50">
         <f t="shared" si="4"/>
@@ -3286,7 +3407,7 @@
       </c>
       <c r="N50" s="6">
         <f t="shared" si="5"/>
-        <v>0.25554138595980336</v>
+        <v>0.43817324795325835</v>
       </c>
       <c r="O50" s="4">
         <f t="shared" si="6"/>
@@ -3294,7 +3415,7 @@
       </c>
       <c r="Q50" s="4">
         <f t="shared" si="7"/>
-        <v>1.3620583128126015E-3</v>
+        <v>3.1605439801964405E-3</v>
       </c>
       <c r="R50" s="5">
         <f t="shared" si="8"/>
@@ -3302,7 +3423,7 @@
       </c>
       <c r="T50" s="3">
         <f t="shared" si="9"/>
-        <v>3.9680306185625033E-3</v>
+        <v>4.052456801936174E-3</v>
       </c>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.2">
@@ -3311,29 +3432,29 @@
         <v>66</v>
       </c>
       <c r="D51" s="2">
-        <v>3.9680306185625033E-3</v>
-      </c>
-      <c r="E51" s="14">
+        <v>4.052456801936174E-3</v>
+      </c>
+      <c r="E51">
         <v>0</v>
       </c>
       <c r="F51" s="3">
         <f t="shared" si="1"/>
-        <v>3.9680306185625033E-3</v>
+        <v>4.052456801936174E-3</v>
       </c>
       <c r="G51" s="2">
         <v>0.11498846175493893</v>
       </c>
       <c r="H51" s="3">
         <f t="shared" si="2"/>
-        <v>-6.028858829953878E-5</v>
+        <v>2.9600801369479394E-4</v>
       </c>
       <c r="I51">
         <f t="shared" si="3"/>
-        <v>1.5193579408764618E-2</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.574241007986003E-3</v>
       </c>
       <c r="K51" s="9">
         <v>0</v>
@@ -3344,23 +3465,23 @@
       </c>
       <c r="N51" s="6">
         <f t="shared" si="5"/>
-        <v>1.5193579408764618E-2</v>
+        <v>0</v>
       </c>
       <c r="O51" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.574241007986003E-3</v>
       </c>
       <c r="Q51" s="4">
         <f t="shared" si="7"/>
-        <v>6.028858829953878E-5</v>
+        <v>0</v>
       </c>
       <c r="R51" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.9600801369479394E-4</v>
       </c>
       <c r="T51" s="3">
         <f t="shared" si="9"/>
-        <v>3.9077420302629645E-3</v>
+        <v>4.3484648156309679E-3</v>
       </c>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.2">
@@ -3369,29 +3490,29 @@
         <v>67</v>
       </c>
       <c r="D52" s="2">
-        <v>3.9077420302629645E-3</v>
-      </c>
-      <c r="E52" s="14">
+        <v>4.3484648156309679E-3</v>
+      </c>
+      <c r="E52">
         <v>0</v>
       </c>
       <c r="F52" s="3">
         <f t="shared" si="1"/>
-        <v>3.9077420302629645E-3</v>
+        <v>4.3484648156309679E-3</v>
       </c>
       <c r="G52" s="2">
         <v>9.3521375055090353E-2</v>
       </c>
       <c r="H52" s="3">
         <f t="shared" si="2"/>
-        <v>-4.8810353490390257E-4</v>
+        <v>3.3557782927262116E-4</v>
       </c>
       <c r="I52">
         <f t="shared" si="3"/>
-        <v>0.12490679556732574</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.588247382750129E-3</v>
       </c>
       <c r="K52" s="9">
         <v>0</v>
@@ -3402,23 +3523,23 @@
       </c>
       <c r="N52" s="6">
         <f t="shared" si="5"/>
-        <v>0.12490679556732574</v>
+        <v>0</v>
       </c>
       <c r="O52" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.588247382750129E-3</v>
       </c>
       <c r="Q52" s="4">
         <f t="shared" si="7"/>
-        <v>4.8810353490390257E-4</v>
+        <v>0</v>
       </c>
       <c r="R52" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3.3557782927262116E-4</v>
       </c>
       <c r="T52" s="3">
         <f t="shared" si="9"/>
-        <v>3.4196384953590619E-3</v>
+        <v>4.6840426449035891E-3</v>
       </c>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.2">
@@ -3427,25 +3548,25 @@
         <v>68</v>
       </c>
       <c r="D53" s="2">
-        <v>3.4196384953590619E-3</v>
-      </c>
-      <c r="E53" s="14">
+        <v>4.6840426449035891E-3</v>
+      </c>
+      <c r="E53">
         <v>0</v>
       </c>
       <c r="F53" s="3">
         <f t="shared" si="1"/>
-        <v>3.4196384953590619E-3</v>
+        <v>4.6840426449035891E-3</v>
       </c>
       <c r="G53" s="2">
         <v>1.1552056093565907E-2</v>
       </c>
       <c r="H53" s="3">
         <f t="shared" si="2"/>
-        <v>-2.2655589907208005E-4</v>
+        <v>-1.2083863675292636E-3</v>
       </c>
       <c r="I53">
         <f t="shared" si="3"/>
-        <v>6.625141791436398E-2</v>
+        <v>0.25797936934755122</v>
       </c>
       <c r="J53">
         <f t="shared" si="4"/>
@@ -3460,7 +3581,7 @@
       </c>
       <c r="N53" s="6">
         <f t="shared" si="5"/>
-        <v>6.625141791436398E-2</v>
+        <v>0.25797936934755122</v>
       </c>
       <c r="O53" s="4">
         <f t="shared" si="6"/>
@@ -3468,7 +3589,7 @@
       </c>
       <c r="Q53" s="4">
         <f t="shared" si="7"/>
-        <v>2.2655589907208005E-4</v>
+        <v>1.2083863675292638E-3</v>
       </c>
       <c r="R53" s="5">
         <f t="shared" si="8"/>
@@ -3476,7 +3597,7 @@
       </c>
       <c r="T53" s="3">
         <f t="shared" si="9"/>
-        <v>3.1930825962869819E-3</v>
+        <v>3.4756562773743255E-3</v>
       </c>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.2">
@@ -3485,21 +3606,21 @@
         <v>69</v>
       </c>
       <c r="D54" s="2">
-        <v>3.1930825962869819E-3</v>
-      </c>
-      <c r="E54" s="14">
+        <v>3.4756562773743255E-3</v>
+      </c>
+      <c r="E54">
         <v>0</v>
       </c>
       <c r="F54" s="3">
         <f t="shared" si="1"/>
-        <v>3.1930825962869819E-3</v>
+        <v>3.4756562773743255E-3</v>
       </c>
       <c r="G54" s="2">
         <v>1.921501031393936E-3</v>
       </c>
       <c r="H54" s="3">
         <f t="shared" si="2"/>
-        <v>1.6555814204950291E-4</v>
+        <v>2.781186654723343E-4</v>
       </c>
       <c r="I54">
         <f t="shared" si="3"/>
@@ -3507,7 +3628,7 @@
       </c>
       <c r="J54">
         <f t="shared" si="4"/>
-        <v>8.6160839543968512E-2</v>
+        <v>0.14474031547647703</v>
       </c>
       <c r="K54" s="9">
         <v>0</v>
@@ -3522,7 +3643,7 @@
       </c>
       <c r="O54" s="4">
         <f t="shared" si="6"/>
-        <v>8.6160839543968512E-2</v>
+        <v>0.14474031547647703</v>
       </c>
       <c r="Q54" s="4">
         <f t="shared" si="7"/>
@@ -3530,11 +3651,11 @@
       </c>
       <c r="R54" s="5">
         <f t="shared" si="8"/>
-        <v>1.6555814204950291E-4</v>
+        <v>2.781186654723343E-4</v>
       </c>
       <c r="T54" s="3">
         <f t="shared" si="9"/>
-        <v>3.3586407383364848E-3</v>
+        <v>3.7537749428466598E-3</v>
       </c>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.2">
@@ -3543,14 +3664,14 @@
         <v>70</v>
       </c>
       <c r="D55" s="2">
-        <v>3.3586407383364848E-3</v>
-      </c>
-      <c r="E55" s="14">
+        <v>3.7537749428466598E-3</v>
+      </c>
+      <c r="E55">
         <v>0</v>
       </c>
       <c r="F55" s="3">
         <f t="shared" si="1"/>
-        <v>3.3586407383364848E-3</v>
+        <v>3.7537749428466598E-3</v>
       </c>
       <c r="G55" s="2">
         <v>1.5240890745392454E-3</v>
@@ -4336,8 +4457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA1ABDA-1F2E-7544-B0E0-D32982AABCA5}">
   <dimension ref="B1:T310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4346,7 +4467,8 @@
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="7" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
     <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4424,25 +4546,25 @@
         <v>20</v>
       </c>
       <c r="D5" s="2">
-        <v>7.3933452989092915E-2</v>
-      </c>
-      <c r="E5" s="15">
-        <v>5.5339927400000002E-3</v>
+        <v>7.7039900593676658E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.84206E-3</v>
       </c>
       <c r="F5" s="3">
         <f>MAX(0,D5-E5)</f>
-        <v>6.8399460249092908E-2</v>
-      </c>
-      <c r="G5" s="2">
+        <v>7.4197840593676664E-2</v>
+      </c>
+      <c r="G5" s="15">
         <v>0.62663951401353035</v>
       </c>
       <c r="H5" s="3">
         <f>F6-F5</f>
-        <v>-2.5981659946987923E-2</v>
+        <v>-3.0027132932327616E-2</v>
       </c>
       <c r="I5">
         <f>IF(H5&lt;0,-H5/D5,0)</f>
-        <v>0.35141953874142584</v>
+        <v>0.38976079539220232</v>
       </c>
       <c r="J5">
         <f>IF(H5&gt;0,H5/G5,0)</f>
@@ -4453,27 +4575,27 @@
       </c>
       <c r="L5" s="8">
         <f t="shared" ref="L5:L14" si="0">K5*D5/G5</f>
-        <v>2.3596805287799502E-3</v>
+        <v>2.4588267694849904E-3</v>
       </c>
       <c r="N5">
         <f>I5+K5</f>
-        <v>0.37141953874142586</v>
+        <v>0.40976079539220234</v>
       </c>
       <c r="O5" s="4">
         <f>L5+J5</f>
-        <v>2.3596805287799502E-3</v>
+        <v>2.4588267694849904E-3</v>
       </c>
       <c r="Q5" s="6">
         <f t="shared" ref="Q5:Q36" si="1">N5*D5</f>
-        <v>2.7460329006769785E-2</v>
+        <v>3.1567930944201149E-2</v>
       </c>
       <c r="R5" s="7">
         <f>O5*G5</f>
-        <v>1.4786690597818582E-3</v>
+        <v>1.5407980118735331E-3</v>
       </c>
       <c r="T5" s="3">
         <f>D5+R5-Q5</f>
-        <v>4.7951793042104993E-2</v>
+        <v>4.7012767661349049E-2</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
@@ -4482,25 +4604,25 @@
         <v>21</v>
       </c>
       <c r="D6" s="2">
-        <v>6.3877672602104987E-2</v>
-      </c>
-      <c r="E6" s="15">
-        <v>2.1459872299999998E-2</v>
+        <v>6.6095187661349045E-2</v>
+      </c>
+      <c r="E6">
+        <v>2.192448E-2</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" ref="F6:F55" si="2">MAX(0,D6-E6)</f>
-        <v>4.2417800302104985E-2</v>
-      </c>
-      <c r="G6" s="2">
+        <v>4.4170707661349048E-2</v>
+      </c>
+      <c r="G6" s="15">
         <v>0.62954259614748131</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" ref="H6:H54" si="3">F7-F6</f>
-        <v>-1.1859628932810382E-2</v>
+        <v>-2.0837801395788877E-2</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I54" si="4">IF(H6&lt;0,-H6/D6,0)</f>
-        <v>0.18566156921032789</v>
+        <v>0.31526957004124445</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:J54" si="5">IF(H6&gt;0,H6/G6,0)</f>
@@ -4511,27 +4633,27 @@
       </c>
       <c r="L6" s="8">
         <f t="shared" si="0"/>
-        <v>2.0293359970558855E-3</v>
+        <v>2.0997844487671523E-3</v>
       </c>
       <c r="N6">
         <f t="shared" ref="N6:N54" si="6">I6+K6</f>
-        <v>0.20566156921032788</v>
+        <v>0.33526957004124447</v>
       </c>
       <c r="O6" s="4">
         <f t="shared" ref="O6:O54" si="7">L6+J6</f>
-        <v>2.0293359970558855E-3</v>
+        <v>2.0997844487671523E-3</v>
       </c>
       <c r="Q6" s="6">
         <f t="shared" si="1"/>
-        <v>1.313718238485248E-2</v>
+        <v>2.215970514901586E-2</v>
       </c>
       <c r="R6" s="7">
         <f t="shared" ref="R6:R54" si="8">O6*G6</f>
-        <v>1.2775534520420996E-3</v>
+        <v>1.3219037532269809E-3</v>
       </c>
       <c r="T6" s="3">
         <f t="shared" ref="T6:T54" si="9">D6+R6-Q6</f>
-        <v>5.2018043669294606E-2</v>
+        <v>4.5257386265560168E-2</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
@@ -4540,25 +4662,25 @@
         <v>22</v>
       </c>
       <c r="D7" s="2">
-        <v>6.6065871369294607E-2</v>
-      </c>
-      <c r="E7" s="15">
-        <v>3.5507700000000003E-2</v>
+        <v>6.8399896265560173E-2</v>
+      </c>
+      <c r="E7">
+        <v>4.5066990000000001E-2</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="2"/>
-        <v>3.0558171369294604E-2</v>
-      </c>
-      <c r="G7" s="2">
+        <v>2.3332906265560172E-2</v>
+      </c>
+      <c r="G7" s="15">
         <v>0.64597380705394192</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="3"/>
-        <v>-7.6151403652089319E-3</v>
+        <v>-6.3971805220910671E-3</v>
       </c>
       <c r="I7">
         <f t="shared" si="4"/>
-        <v>0.11526587339841272</v>
+        <v>9.3526172865149387E-2</v>
       </c>
       <c r="J7">
         <f t="shared" si="5"/>
@@ -4569,27 +4691,27 @@
       </c>
       <c r="L7" s="8">
         <f t="shared" si="0"/>
-        <v>2.0454659507201283E-3</v>
+        <v>2.1177297134541075E-3</v>
       </c>
       <c r="N7">
         <f t="shared" si="6"/>
-        <v>0.13526587339841273</v>
+        <v>0.11352617286514939</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="7"/>
-        <v>2.0454659507201283E-3</v>
+        <v>2.1177297134541075E-3</v>
       </c>
       <c r="Q7" s="6">
         <f t="shared" si="1"/>
-        <v>8.9364577925948249E-3</v>
+        <v>7.7651784474022708E-3</v>
       </c>
       <c r="R7" s="7">
         <f t="shared" si="8"/>
-        <v>1.3213174273858921E-3</v>
+        <v>1.3679979253112032E-3</v>
       </c>
       <c r="T7" s="3">
         <f t="shared" si="9"/>
-        <v>5.8450731004085675E-2</v>
+        <v>6.2002715743469099E-2</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
@@ -4598,25 +4720,25 @@
         <v>23</v>
       </c>
       <c r="D8" s="2">
-        <v>7.0044571004085676E-2</v>
-      </c>
-      <c r="E8" s="15">
-        <v>4.7101540000000004E-2</v>
+        <v>7.1746935743469104E-2</v>
+      </c>
+      <c r="E8">
+        <v>5.4811209999999999E-2</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="2"/>
-        <v>2.2943031004085672E-2</v>
-      </c>
-      <c r="G8" s="2">
+        <v>1.6935725743469104E-2</v>
+      </c>
+      <c r="G8" s="15">
         <v>0.68066732697783827</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="3"/>
-        <v>-5.7928719001793111E-3</v>
+        <v>-4.7744933877213805E-3</v>
       </c>
       <c r="I8">
         <f t="shared" si="4"/>
-        <v>8.2702653712325755E-2</v>
+        <v>6.6546303869932003E-2</v>
       </c>
       <c r="J8">
         <f t="shared" si="5"/>
@@ -4627,27 +4749,27 @@
       </c>
       <c r="L8" s="8">
         <f t="shared" si="0"/>
-        <v>2.0581146832795234E-3</v>
+        <v>2.1081351461961712E-3</v>
       </c>
       <c r="N8">
         <f t="shared" si="6"/>
-        <v>0.10270265371232576</v>
+        <v>8.6546303869932006E-2</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="7"/>
-        <v>2.0581146832795234E-3</v>
+        <v>2.1081351461961712E-3</v>
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="1"/>
-        <v>7.1937633202610249E-3</v>
+        <v>6.2094321025907631E-3</v>
       </c>
       <c r="R8" s="7">
         <f t="shared" si="8"/>
-        <v>1.4008914200817134E-3</v>
+        <v>1.4349387148693822E-3</v>
       </c>
       <c r="T8" s="3">
         <f t="shared" si="9"/>
-        <v>6.4251699103906351E-2</v>
+        <v>6.697244235574773E-2</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
@@ -4656,56 +4778,56 @@
         <v>24</v>
       </c>
       <c r="D9" s="2">
-        <v>7.2014313403906363E-2</v>
-      </c>
-      <c r="E9" s="15">
-        <v>5.4864154300000002E-2</v>
+        <v>7.4280602355747724E-2</v>
+      </c>
+      <c r="E9">
+        <v>6.211937E-2</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="2"/>
-        <v>1.7150159103906361E-2</v>
-      </c>
-      <c r="G9" s="2">
+        <v>1.2161232355747724E-2</v>
+      </c>
+      <c r="G9" s="15">
         <v>0.72610705233338302</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="3"/>
-        <v>-2.5378484117307906E-3</v>
+        <v>3.3042704456726774E-4</v>
       </c>
       <c r="I9">
         <f t="shared" si="4"/>
-        <v>3.5240888814655098E-2</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.5506656835989009E-4</v>
       </c>
       <c r="K9" s="9">
         <v>0.02</v>
       </c>
       <c r="L9" s="8">
         <f t="shared" si="0"/>
-        <v>1.9835728952772073E-3</v>
+        <v>2.0459958932238192E-3</v>
       </c>
       <c r="N9">
         <f t="shared" si="6"/>
-        <v>5.5240888814655095E-2</v>
+        <v>0.02</v>
       </c>
       <c r="O9" s="4">
         <f t="shared" si="7"/>
-        <v>1.9835728952772073E-3</v>
+        <v>2.5010624615837093E-3</v>
       </c>
       <c r="Q9" s="6">
         <f t="shared" si="1"/>
-        <v>3.9781346798089178E-3</v>
+        <v>1.4856120471149546E-3</v>
       </c>
       <c r="R9" s="7">
         <f t="shared" si="8"/>
-        <v>1.4402862680781272E-3</v>
+        <v>1.8160390916822221E-3</v>
       </c>
       <c r="T9" s="3">
         <f t="shared" si="9"/>
-        <v>6.9476464992175579E-2</v>
+        <v>7.4611029400314999E-2</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
@@ -4714,25 +4836,25 @@
         <v>25</v>
       </c>
       <c r="D10" s="2">
-        <v>7.9016968292175568E-2</v>
-      </c>
-      <c r="E10" s="15">
-        <v>6.4404657599999998E-2</v>
+        <v>8.1513179400314995E-2</v>
+      </c>
+      <c r="E10">
+        <v>6.9021520000000003E-2</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="2"/>
-        <v>1.461231069217557E-2</v>
-      </c>
-      <c r="G10" s="2">
+        <v>1.2491659400314992E-2</v>
+      </c>
+      <c r="G10" s="15">
         <v>0.75079492437074669</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="3"/>
-        <v>-2.2908898075307271E-3</v>
+        <v>-9.5125746316645082E-3</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>2.8992377929002066E-2</v>
+        <v>0.11669983555601253</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
@@ -4743,27 +4865,27 @@
       </c>
       <c r="L10" s="8">
         <f t="shared" si="0"/>
-        <v>2.1048881852364933E-3</v>
+        <v>2.1713833366317041E-3</v>
       </c>
       <c r="N10">
         <f t="shared" si="6"/>
-        <v>4.8992377929002066E-2</v>
+        <v>0.13669983555601253</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="7"/>
-        <v>2.1048881852364933E-3</v>
+        <v>2.1713833366317041E-3</v>
       </c>
       <c r="Q10" s="6">
         <f t="shared" si="1"/>
-        <v>3.8712291733742385E-3</v>
+        <v>1.1142838219670808E-2</v>
       </c>
       <c r="R10" s="7">
         <f t="shared" si="8"/>
-        <v>1.5803393658435111E-3</v>
+        <v>1.6302635880063E-3</v>
       </c>
       <c r="T10" s="3">
         <f t="shared" si="9"/>
-        <v>7.6726078484644841E-2</v>
+        <v>7.2000604768650486E-2</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
@@ -4772,25 +4894,25 @@
         <v>26</v>
       </c>
       <c r="D11" s="2">
-        <v>8.7443494284644846E-2</v>
-      </c>
-      <c r="E11" s="15">
-        <v>7.5122073400000003E-2</v>
+        <v>8.9458984768650482E-2</v>
+      </c>
+      <c r="E11">
+        <v>8.6479899999999998E-2</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="2"/>
-        <v>1.2321420884644843E-2</v>
-      </c>
-      <c r="G11" s="2">
+        <v>2.9790847686504834E-3</v>
+      </c>
+      <c r="G11" s="15">
         <v>0.76870807059975244</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="3"/>
-        <v>-7.6173368253105306E-3</v>
+        <v>-2.9790847686504834E-3</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>8.7111532854744822E-2</v>
+        <v>3.3301124267782409E-2</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
@@ -4801,27 +4923,27 @@
       </c>
       <c r="L11" s="8">
         <f t="shared" si="0"/>
-        <v>2.2750767847778859E-3</v>
+        <v>2.3275151696756308E-3</v>
       </c>
       <c r="N11">
         <f t="shared" si="6"/>
-        <v>0.10711153285474483</v>
+        <v>5.3301124267782413E-2</v>
       </c>
       <c r="O11" s="4">
         <f t="shared" si="7"/>
-        <v>2.2750767847778859E-3</v>
+        <v>2.3275151696756308E-3</v>
       </c>
       <c r="Q11" s="6">
         <f t="shared" si="1"/>
-        <v>9.3662067110034282E-3</v>
+        <v>4.7682644640234936E-3</v>
       </c>
       <c r="R11" s="7">
         <f t="shared" si="8"/>
-        <v>1.748869885692897E-3</v>
+        <v>1.7891796953730095E-3</v>
       </c>
       <c r="T11" s="3">
         <f t="shared" si="9"/>
-        <v>7.9826157459334315E-2</v>
+        <v>8.6479899999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
@@ -4830,25 +4952,25 @@
         <v>27</v>
       </c>
       <c r="D12" s="2">
-        <v>8.9667149059334303E-2</v>
-      </c>
-      <c r="E12" s="15">
-        <v>8.496306499999999E-2</v>
+        <v>9.230101302460203E-2</v>
+      </c>
+      <c r="E12">
+        <v>9.6630129999999995E-2</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="2"/>
-        <v>4.7040840593343125E-3</v>
-      </c>
-      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
         <v>0.78955137481910276</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="3"/>
-        <v>-3.550143452978563E-3</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>3.9592464912979131E-2</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
@@ -4859,27 +4981,27 @@
       </c>
       <c r="L12" s="8">
         <f t="shared" si="0"/>
-        <v>2.2713442574874448E-3</v>
+        <v>2.3380622456834928E-3</v>
       </c>
       <c r="N12">
         <f t="shared" si="6"/>
-        <v>5.9592464912979135E-2</v>
+        <v>0.02</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" si="7"/>
-        <v>2.2713442574874448E-3</v>
+        <v>2.3380622456834928E-3</v>
       </c>
       <c r="Q12" s="6">
         <f t="shared" si="1"/>
-        <v>5.3434864341652495E-3</v>
+        <v>1.8460202604920406E-3</v>
       </c>
       <c r="R12" s="7">
         <f t="shared" si="8"/>
-        <v>1.7933429811866862E-3</v>
+        <v>1.8460202604920406E-3</v>
       </c>
       <c r="T12" s="3">
         <f t="shared" si="9"/>
-        <v>8.611700560635574E-2</v>
+        <v>9.230101302460203E-2</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
@@ -4888,25 +5010,25 @@
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>9.5707590306355741E-2</v>
-      </c>
-      <c r="E13" s="15">
-        <v>9.4553649699999992E-2</v>
+        <v>9.7879515317786922E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.10272025999999999</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="2"/>
-        <v>1.1539406063557495E-3</v>
-      </c>
-      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="15">
         <v>0.79538180155464111</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="3"/>
-        <v>-1.1539406063557495E-3</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>1.2056939294595516E-2</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
@@ -4917,27 +5039,27 @@
       </c>
       <c r="L13" s="8">
         <f t="shared" si="0"/>
-        <v>2.4065823512503595E-3</v>
+        <v>2.461195745903995E-3</v>
       </c>
       <c r="N13">
         <f t="shared" si="6"/>
-        <v>3.2056939294595514E-2</v>
+        <v>0.02</v>
       </c>
       <c r="O13" s="4">
         <f t="shared" si="7"/>
-        <v>2.4065823512503595E-3</v>
+        <v>2.461195745903995E-3</v>
       </c>
       <c r="Q13" s="6">
         <f t="shared" si="1"/>
-        <v>3.068092412482864E-3</v>
+        <v>1.9575903063557385E-3</v>
       </c>
       <c r="R13" s="7">
         <f t="shared" si="8"/>
-        <v>1.9141518061271152E-3</v>
+        <v>1.9575903063557385E-3</v>
       </c>
       <c r="T13" s="3">
         <f t="shared" si="9"/>
-        <v>9.4553649699999992E-2</v>
+        <v>9.7879515317786922E-2</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
@@ -4946,16 +5068,16 @@
         <v>29</v>
       </c>
       <c r="D14" s="2">
-        <v>9.6872905312855181E-2</v>
-      </c>
-      <c r="E14" s="15">
-        <v>0.104144234</v>
+        <v>9.9291813598344644E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.10393829</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="15">
         <v>0.80435986360854494</v>
       </c>
       <c r="H14" s="3">
@@ -4975,7 +5097,7 @@
       </c>
       <c r="L14" s="8">
         <f t="shared" si="0"/>
-        <v>2.4086956521739127E-3</v>
+        <v>2.4688405797101448E-3</v>
       </c>
       <c r="N14">
         <f t="shared" si="6"/>
@@ -4983,19 +5105,19 @@
       </c>
       <c r="O14" s="4">
         <f t="shared" si="7"/>
-        <v>2.4086956521739127E-3</v>
+        <v>2.4688405797101448E-3</v>
       </c>
       <c r="Q14" s="6">
         <f t="shared" si="1"/>
-        <v>1.9374581062571036E-3</v>
+        <v>1.985836271966893E-3</v>
       </c>
       <c r="R14" s="7">
         <f t="shared" si="8"/>
-        <v>1.9374581062571036E-3</v>
+        <v>1.985836271966893E-3</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="9"/>
-        <v>9.6872905312855181E-2</v>
+        <v>9.9291813598344644E-2</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
@@ -5004,16 +5126,16 @@
         <v>30</v>
       </c>
       <c r="D15" s="2">
-        <v>9.8322528127452971E-2</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0.104895455</v>
+        <v>0.10090996307817542</v>
+      </c>
+      <c r="E15">
+        <v>0.11327648999999999</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="15">
         <v>0.81280344216065348</v>
       </c>
       <c r="H15" s="3">
@@ -5033,7 +5155,7 @@
       </c>
       <c r="L15" s="8">
         <f>K15*D15/G15</f>
-        <v>2.4193433006652839E-3</v>
+        <v>2.4830102296301594E-3</v>
       </c>
       <c r="N15">
         <f t="shared" si="6"/>
@@ -5041,19 +5163,19 @@
       </c>
       <c r="O15" s="4">
         <f t="shared" si="7"/>
-        <v>2.4193433006652839E-3</v>
+        <v>2.4830102296301594E-3</v>
       </c>
       <c r="Q15" s="6">
         <f t="shared" si="1"/>
-        <v>1.9664505625490596E-3</v>
+        <v>2.0181992615635083E-3</v>
       </c>
       <c r="R15" s="7">
         <f t="shared" si="8"/>
-        <v>1.9664505625490596E-3</v>
+        <v>2.0181992615635083E-3</v>
       </c>
       <c r="T15" s="3">
         <f t="shared" si="9"/>
-        <v>9.8322528127452971E-2</v>
+        <v>0.10090996307817542</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
@@ -5062,16 +5184,16 @@
         <v>31</v>
       </c>
       <c r="D16" s="2">
-        <v>9.6066797161732317E-2</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0.10815074499999999</v>
+        <v>9.796305358453633E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.12911084</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="15">
         <v>0.81985563983361887</v>
       </c>
       <c r="H16" s="3">
@@ -5091,7 +5213,7 @@
       </c>
       <c r="L16" s="9">
         <f t="shared" ref="L16:L54" si="11">K16*D16/G16</f>
-        <v>2.3435051854062521E-3</v>
+        <v>2.3897634857867637E-3</v>
       </c>
       <c r="N16">
         <f t="shared" si="6"/>
@@ -5099,19 +5221,19 @@
       </c>
       <c r="O16" s="4">
         <f t="shared" si="7"/>
-        <v>2.3435051854062521E-3</v>
+        <v>2.3897634857867637E-3</v>
       </c>
       <c r="Q16" s="6">
         <f t="shared" si="1"/>
-        <v>1.9213359432346463E-3</v>
+        <v>1.9592610716907266E-3</v>
       </c>
       <c r="R16" s="7">
         <f t="shared" si="8"/>
-        <v>1.9213359432346463E-3</v>
+        <v>1.9592610716907266E-3</v>
       </c>
       <c r="T16" s="3">
         <f t="shared" si="9"/>
-        <v>9.6066797161732304E-2</v>
+        <v>9.796305358453633E-2</v>
       </c>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.2">
@@ -5120,16 +5242,16 @@
         <v>32</v>
       </c>
       <c r="D17" s="2">
-        <v>9.523234397173827E-2</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0.10747464600000001</v>
+        <v>9.7949817325402339E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.13357694000000001</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="15">
         <v>0.82396811497931699</v>
       </c>
       <c r="H17" s="3">
@@ -5149,7 +5271,7 @@
       </c>
       <c r="L17" s="9">
         <f t="shared" si="11"/>
-        <v>2.3115541060500567E-3</v>
+        <v>2.377514749532779E-3</v>
       </c>
       <c r="N17">
         <f t="shared" si="6"/>
@@ -5157,19 +5279,19 @@
       </c>
       <c r="O17" s="4">
         <f t="shared" si="7"/>
-        <v>2.3115541060500567E-3</v>
+        <v>2.377514749532779E-3</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="1"/>
-        <v>1.9046468794347655E-3</v>
+        <v>1.9589963465080468E-3</v>
       </c>
       <c r="R17" s="7">
         <f t="shared" si="8"/>
-        <v>1.9046468794347653E-3</v>
+        <v>1.9589963465080468E-3</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" si="9"/>
-        <v>9.523234397173827E-2</v>
+        <v>9.7949817325402339E-2</v>
       </c>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.2">
@@ -5178,16 +5300,16 @@
         <v>33</v>
       </c>
       <c r="D18" s="2">
-        <v>9.0058205855684581E-2</v>
-      </c>
-      <c r="E18" s="15">
-        <v>0.104119194</v>
+        <v>9.3392611658720648E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.10353228</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="15">
         <v>0.83158325777296793</v>
       </c>
       <c r="H18" s="3">
@@ -5207,7 +5329,7 @@
       </c>
       <c r="L18" s="9">
         <f t="shared" si="11"/>
-        <v>2.1659456227357461E-3</v>
+        <v>2.2461397770039749E-3</v>
       </c>
       <c r="N18">
         <f t="shared" si="6"/>
@@ -5215,19 +5337,19 @@
       </c>
       <c r="O18" s="4">
         <f t="shared" si="7"/>
-        <v>2.1659456227357461E-3</v>
+        <v>2.2461397770039749E-3</v>
       </c>
       <c r="Q18" s="6">
         <f t="shared" si="1"/>
-        <v>1.8011641171136916E-3</v>
+        <v>1.8678522331744131E-3</v>
       </c>
       <c r="R18" s="7">
         <f t="shared" si="8"/>
-        <v>1.8011641171136914E-3</v>
+        <v>1.8678522331744131E-3</v>
       </c>
       <c r="T18" s="3">
         <f t="shared" si="9"/>
-        <v>9.0058205855684581E-2</v>
+        <v>9.3392611658720648E-2</v>
       </c>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.2">
@@ -5236,16 +5358,16 @@
         <v>34</v>
       </c>
       <c r="D19" s="2">
-        <v>8.463441685862981E-2</v>
-      </c>
-      <c r="E19" s="15">
-        <v>9.8885689200000015E-2</v>
+        <v>8.7563632227056848E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.10799838</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="15">
         <v>0.83883627676819383</v>
       </c>
       <c r="H19" s="3">
@@ -5265,7 +5387,7 @@
       </c>
       <c r="L19" s="9">
         <f t="shared" si="11"/>
-        <v>2.0179007323026851E-3</v>
+        <v>2.0877407106048278E-3</v>
       </c>
       <c r="N19">
         <f t="shared" si="6"/>
@@ -5273,19 +5395,19 @@
       </c>
       <c r="O19" s="4">
         <f t="shared" si="7"/>
-        <v>2.0179007323026851E-3</v>
+        <v>2.0877407106048278E-3</v>
       </c>
       <c r="Q19" s="6">
         <f t="shared" si="1"/>
-        <v>1.6926883371725962E-3</v>
+        <v>1.7512726445411369E-3</v>
       </c>
       <c r="R19" s="7">
         <f t="shared" si="8"/>
-        <v>1.6926883371725962E-3</v>
+        <v>1.7512726445411369E-3</v>
       </c>
       <c r="T19" s="3">
         <f t="shared" si="9"/>
-        <v>8.463441685862981E-2</v>
+        <v>8.7563632227056848E-2</v>
       </c>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.2">
@@ -5294,21 +5416,21 @@
         <v>35</v>
       </c>
       <c r="D20" s="2">
-        <v>7.909478554109417E-2</v>
-      </c>
-      <c r="E20" s="15">
-        <v>8.674095409999999E-2</v>
+        <v>8.2216214709734961E-2</v>
+      </c>
+      <c r="E20">
+        <v>8.607389E-2</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="15">
         <v>0.84679914160697867</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.775086606203612E-3</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
@@ -5316,14 +5438,14 @@
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.4580661702603936E-3</v>
       </c>
       <c r="K20" s="9">
         <v>0.02</v>
       </c>
       <c r="L20" s="9">
         <f t="shared" si="11"/>
-        <v>1.8680884676145339E-3</v>
+        <v>1.9418114797261716E-3</v>
       </c>
       <c r="N20">
         <f t="shared" si="6"/>
@@ -5331,19 +5453,19 @@
       </c>
       <c r="O20" s="4">
         <f t="shared" si="7"/>
-        <v>1.8680884676145339E-3</v>
+        <v>6.3998776499865654E-3</v>
       </c>
       <c r="Q20" s="6">
         <f t="shared" si="1"/>
-        <v>1.5818957108218834E-3</v>
+        <v>1.6443242941946992E-3</v>
       </c>
       <c r="R20" s="7">
         <f t="shared" si="8"/>
-        <v>1.5818957108218834E-3</v>
+        <v>5.4194109003983118E-3</v>
       </c>
       <c r="T20" s="3">
         <f t="shared" si="9"/>
-        <v>7.909478554109417E-2</v>
+        <v>8.5991301315938573E-2</v>
       </c>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.2">
@@ -5352,21 +5474,21 @@
         <v>36</v>
       </c>
       <c r="D21" s="2">
-        <v>7.2242913598498854E-2</v>
-      </c>
-      <c r="E21" s="15">
-        <v>7.4070364299999997E-2</v>
+        <v>7.6450686606203619E-2</v>
+      </c>
+      <c r="E21">
+        <v>7.2675600000000007E-2</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
+        <v>3.775086606203612E-3</v>
+      </c>
+      <c r="G21" s="15">
         <v>0.85639553066272422</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="3"/>
-        <v>7.5170335877951522E-3</v>
+        <v>6.6609637208429884E-3</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
@@ -5374,14 +5496,14 @@
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>8.7775254758488443E-3</v>
+        <v>7.7779057483968669E-3</v>
       </c>
       <c r="K21" s="9">
         <v>0.02</v>
       </c>
       <c r="L21" s="9">
         <f t="shared" si="11"/>
-        <v>1.6871389681960031E-3</v>
+        <v>1.7854060155368169E-3</v>
       </c>
       <c r="N21">
         <f t="shared" si="6"/>
@@ -5389,19 +5511,19 @@
       </c>
       <c r="O21" s="4">
         <f t="shared" si="7"/>
-        <v>1.0464664444044848E-2</v>
+        <v>9.5633117639336834E-3</v>
       </c>
       <c r="Q21" s="6">
         <f t="shared" si="1"/>
-        <v>1.4448582719699772E-3</v>
+        <v>1.5290137321240724E-3</v>
       </c>
       <c r="R21" s="7">
         <f t="shared" si="8"/>
-        <v>8.9618918597651302E-3</v>
+        <v>8.1899774529670608E-3</v>
       </c>
       <c r="T21" s="3">
         <f t="shared" si="9"/>
-        <v>7.9759947186294006E-2</v>
+        <v>8.3111650327046593E-2</v>
       </c>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.2">
@@ -5410,21 +5532,21 @@
         <v>37</v>
       </c>
       <c r="D22" s="2">
-        <v>7.1070307687795153E-2</v>
-      </c>
-      <c r="E22" s="15">
-        <v>6.3553274100000001E-2</v>
+        <v>7.4179450327046606E-2</v>
+      </c>
+      <c r="E22">
+        <v>6.3743400000000006E-2</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="2"/>
-        <v>7.5170335877951522E-3</v>
-      </c>
-      <c r="G22" s="2">
+        <v>1.04360503270466E-2</v>
+      </c>
+      <c r="G22" s="15">
         <v>0.86293374006394274</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="3"/>
-        <v>7.1860004206943176E-3</v>
+        <v>2.2651293338495568E-3</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
@@ -5432,14 +5554,14 @@
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>8.3274069457080682E-3</v>
+        <v>2.6249168721595153E-3</v>
       </c>
       <c r="K22" s="9">
         <v>0.02</v>
       </c>
       <c r="L22" s="9">
         <f t="shared" si="11"/>
-        <v>1.6471787899388173E-3</v>
+        <v>1.7192386131883071E-3</v>
       </c>
       <c r="N22">
         <f t="shared" si="6"/>
@@ -5447,19 +5569,19 @@
       </c>
       <c r="O22" s="4">
         <f t="shared" si="7"/>
-        <v>9.9745857356468848E-3</v>
+        <v>4.3441554853478224E-3</v>
       </c>
       <c r="Q22" s="6">
         <f t="shared" si="1"/>
-        <v>1.421406153755903E-3</v>
+        <v>1.4835890065409321E-3</v>
       </c>
       <c r="R22" s="7">
         <f t="shared" si="8"/>
-        <v>8.6074065744502198E-3</v>
+        <v>3.7487183403904886E-3</v>
       </c>
       <c r="T22" s="3">
         <f t="shared" si="9"/>
-        <v>7.8256308108489478E-2</v>
+        <v>7.644457966089617E-2</v>
       </c>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.2">
@@ -5468,21 +5590,21 @@
         <v>38</v>
       </c>
       <c r="D23" s="2">
-        <v>6.7939543308489475E-2</v>
-      </c>
-      <c r="E23" s="15">
-        <v>5.3236509300000005E-2</v>
+        <v>7.0760459660896155E-2</v>
+      </c>
+      <c r="E23">
+        <v>5.8059279999999998E-2</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="2"/>
-        <v>1.470303400848947E-2</v>
-      </c>
-      <c r="G23" s="2">
+        <v>1.2701179660896157E-2</v>
+      </c>
+      <c r="G23" s="15">
         <v>0.86821866555809613</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="3"/>
-        <v>1.1826761010343342E-3</v>
+        <v>1.8589423672437183E-2</v>
       </c>
       <c r="I23">
         <f t="shared" si="4"/>
@@ -5490,14 +5612,14 @@
       </c>
       <c r="J23">
         <f t="shared" si="5"/>
-        <v>1.3621869097620737E-3</v>
+        <v>2.1410992886783643E-2</v>
       </c>
       <c r="K23" s="9">
         <v>0.02</v>
       </c>
       <c r="L23" s="9">
         <f t="shared" si="11"/>
-        <v>1.5650330038647011E-3</v>
+        <v>1.630014706385307E-3</v>
       </c>
       <c r="N23">
         <f t="shared" si="6"/>
@@ -5505,19 +5627,19 @@
       </c>
       <c r="O23" s="4">
         <f t="shared" si="7"/>
-        <v>2.9272199136267749E-3</v>
+        <v>2.304100759316895E-2</v>
       </c>
       <c r="Q23" s="6">
         <f t="shared" si="1"/>
-        <v>1.3587908661697894E-3</v>
+        <v>1.4152091932179232E-3</v>
       </c>
       <c r="R23" s="7">
         <f t="shared" si="8"/>
-        <v>2.5414669672041241E-3</v>
+        <v>2.0004632865655105E-2</v>
       </c>
       <c r="T23" s="3">
         <f t="shared" si="9"/>
-        <v>6.9122219409523816E-2</v>
+        <v>8.9349883333333338E-2</v>
       </c>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.2">
@@ -5526,56 +5648,56 @@
         <v>39</v>
       </c>
       <c r="D24" s="2">
-        <v>6.1309523809523807E-2</v>
-      </c>
-      <c r="E24" s="15">
-        <v>4.5423813700000003E-2</v>
+        <v>6.458333333333334E-2</v>
+      </c>
+      <c r="E24">
+        <v>3.329273E-2</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="2"/>
-        <v>1.5885710109523804E-2</v>
-      </c>
-      <c r="G24" s="2">
+        <v>3.129060333333334E-2</v>
+      </c>
+      <c r="G24" s="15">
         <v>0.87755952380952384</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="3"/>
-        <v>6.8283135470673315E-3</v>
+        <v>-5.8308956947848919E-3</v>
       </c>
       <c r="I24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9.0284836564411219E-2</v>
       </c>
       <c r="J24">
         <f t="shared" si="5"/>
-        <v>7.7810260863278276E-3</v>
+        <v>0</v>
       </c>
       <c r="K24" s="9">
         <v>0.02</v>
       </c>
       <c r="L24" s="9">
         <f t="shared" si="11"/>
-        <v>1.3972732822356373E-3</v>
+        <v>1.4718849623550161E-3</v>
       </c>
       <c r="N24">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>0.11028483656441122</v>
       </c>
       <c r="O24" s="4">
         <f t="shared" si="7"/>
-        <v>9.1782993685634653E-3</v>
+        <v>1.4718849623550161E-3</v>
       </c>
       <c r="Q24" s="6">
         <f t="shared" si="1"/>
-        <v>1.2261904761904762E-3</v>
+        <v>7.1225623614515586E-3</v>
       </c>
       <c r="R24" s="7">
         <f t="shared" si="8"/>
-        <v>8.0545040232578077E-3</v>
+        <v>1.2916666666666669E-3</v>
       </c>
       <c r="T24" s="3">
         <f t="shared" si="9"/>
-        <v>6.8137837356591138E-2</v>
+        <v>5.8752437638548441E-2</v>
       </c>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.2">
@@ -5584,21 +5706,21 @@
         <v>40</v>
       </c>
       <c r="D25" s="2">
-        <v>5.6794404256591137E-2</v>
-      </c>
-      <c r="E25" s="15">
-        <v>3.4080380600000001E-2</v>
+        <v>6.1188497638548452E-2</v>
+      </c>
+      <c r="E25">
+        <v>3.5728790000000003E-2</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="2"/>
-        <v>2.2714023656591135E-2</v>
-      </c>
-      <c r="G25" s="2">
+        <v>2.5459707638548448E-2</v>
+      </c>
+      <c r="G25" s="15">
         <v>0.88261493393914037</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="3"/>
-        <v>9.0645705253775133E-4</v>
+        <v>9.3425280127385976E-4</v>
       </c>
       <c r="I25">
         <f t="shared" si="4"/>
@@ -5606,14 +5728,14 @@
       </c>
       <c r="J25">
         <f t="shared" si="5"/>
-        <v>1.0270130468926044E-3</v>
+        <v>1.0585055445462019E-3</v>
       </c>
       <c r="K25" s="9">
         <v>0.02</v>
       </c>
       <c r="L25" s="9">
         <f t="shared" si="11"/>
-        <v>1.2869576997324482E-3</v>
+        <v>1.3865275849222745E-3</v>
       </c>
       <c r="N25">
         <f t="shared" si="6"/>
@@ -5621,19 +5743,19 @@
       </c>
       <c r="O25" s="4">
         <f t="shared" si="7"/>
-        <v>2.3139707466250528E-3</v>
+        <v>2.4450331294684764E-3</v>
       </c>
       <c r="Q25" s="6">
         <f t="shared" si="1"/>
-        <v>1.1358880851318229E-3</v>
+        <v>1.2237699527709691E-3</v>
       </c>
       <c r="R25" s="7">
         <f t="shared" si="8"/>
-        <v>2.0423451376695742E-3</v>
+        <v>2.1580227540448291E-3</v>
       </c>
       <c r="T25" s="3">
         <f t="shared" si="9"/>
-        <v>5.7700861309128888E-2</v>
+        <v>6.2122750439822315E-2</v>
       </c>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.2">
@@ -5642,21 +5764,21 @@
         <v>41</v>
       </c>
       <c r="D26" s="2">
-        <v>4.8836456709128888E-2</v>
-      </c>
-      <c r="E26" s="15">
-        <v>2.5215976000000001E-2</v>
+        <v>5.3190550439822307E-2</v>
+      </c>
+      <c r="E26">
+        <v>2.6796589999999999E-2</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="2"/>
-        <v>2.3620480709128887E-2</v>
-      </c>
-      <c r="G26" s="2">
+        <v>2.6393960439822308E-2</v>
+      </c>
+      <c r="G26" s="15">
         <v>0.89120649583713341</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="3"/>
-        <v>2.5925583172945361E-3</v>
+        <v>1.0503472562200591E-3</v>
       </c>
       <c r="I26">
         <f t="shared" si="4"/>
@@ -5664,14 +5786,14 @@
       </c>
       <c r="J26">
         <f t="shared" si="5"/>
-        <v>2.9090433355282927E-3</v>
+        <v>1.1785677742770946E-3</v>
       </c>
       <c r="K26" s="9">
         <v>0.02</v>
       </c>
       <c r="L26" s="9">
         <f t="shared" si="11"/>
-        <v>1.0959627636747764E-3</v>
+        <v>1.1936751064602384E-3</v>
       </c>
       <c r="N26">
         <f t="shared" si="6"/>
@@ -5679,19 +5801,19 @@
       </c>
       <c r="O26" s="4">
         <f t="shared" si="7"/>
-        <v>4.0050060992030696E-3</v>
+        <v>2.372242880737333E-3</v>
       </c>
       <c r="Q26" s="6">
         <f t="shared" si="1"/>
-        <v>9.7672913418257777E-4</v>
+        <v>1.0638110087964462E-3</v>
       </c>
       <c r="R26" s="7">
         <f t="shared" si="8"/>
-        <v>3.5692874514771144E-3</v>
+        <v>2.1141582650165054E-3</v>
       </c>
       <c r="T26" s="3">
         <f t="shared" si="9"/>
-        <v>5.1429015026423427E-2</v>
+        <v>5.4240897696042366E-2</v>
       </c>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.2">
@@ -5700,21 +5822,21 @@
         <v>42</v>
       </c>
       <c r="D27" s="2">
-        <v>4.4843313226423424E-2</v>
-      </c>
-      <c r="E27" s="15">
-        <v>1.8630274200000001E-2</v>
+        <v>4.8962777696042369E-2</v>
+      </c>
+      <c r="E27">
+        <v>2.1518470000000001E-2</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="2"/>
-        <v>2.6213039026423423E-2</v>
-      </c>
-      <c r="G27" s="2">
+        <v>2.7444307696042367E-2</v>
+      </c>
+      <c r="G27" s="15">
         <v>0.89660144181256429</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="3"/>
-        <v>6.7222980338418788E-3</v>
+        <v>7.305285831241317E-3</v>
       </c>
       <c r="I27">
         <f t="shared" si="4"/>
@@ -5722,14 +5844,14 @@
       </c>
       <c r="J27">
         <f t="shared" si="5"/>
-        <v>7.4975320363662584E-3</v>
+        <v>8.1477515990527449E-3</v>
       </c>
       <c r="K27" s="9">
         <v>0.02</v>
       </c>
       <c r="L27" s="9">
         <f t="shared" si="11"/>
-        <v>1.0002953628039778E-3</v>
+        <v>1.0921860129303271E-3</v>
       </c>
       <c r="N27">
         <f t="shared" si="6"/>
@@ -5737,19 +5859,19 @@
       </c>
       <c r="O27" s="4">
         <f t="shared" si="7"/>
-        <v>8.4978273991702363E-3</v>
+        <v>9.239937611983072E-3</v>
       </c>
       <c r="Q27" s="6">
         <f t="shared" si="1"/>
-        <v>8.9686626452846854E-4</v>
+        <v>9.792555539208474E-4</v>
       </c>
       <c r="R27" s="7">
         <f t="shared" si="8"/>
-        <v>7.619164298370347E-3</v>
+        <v>8.2845413851621637E-3</v>
       </c>
       <c r="T27" s="3">
         <f t="shared" si="9"/>
-        <v>5.15656112602653E-2</v>
+        <v>5.6268063527283689E-2</v>
       </c>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.2">
@@ -5758,21 +5880,21 @@
         <v>43</v>
       </c>
       <c r="D28" s="2">
-        <v>4.4829665360265301E-2</v>
-      </c>
-      <c r="E28" s="15">
-        <v>1.1894328300000001E-2</v>
+        <v>4.8959903527283688E-2</v>
+      </c>
+      <c r="E28">
+        <v>1.421031E-2</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="2"/>
-        <v>3.2935337060265302E-2</v>
-      </c>
-      <c r="G28" s="2">
+        <v>3.4749593527283684E-2</v>
+      </c>
+      <c r="G28" s="15">
         <v>0.89837202291227003</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="3"/>
-        <v>1.489173058898341E-3</v>
+        <v>4.6352923522012465E-3</v>
       </c>
       <c r="I28">
         <f t="shared" si="4"/>
@@ -5780,14 +5902,14 @@
       </c>
       <c r="J28">
         <f t="shared" si="5"/>
-        <v>1.6576351677458296E-3</v>
+        <v>5.1596579523646886E-3</v>
       </c>
       <c r="K28" s="9">
         <v>0.02</v>
       </c>
       <c r="L28" s="9">
         <f t="shared" si="11"/>
-        <v>9.9802006778750983E-4</v>
+        <v>1.0899694620624854E-3</v>
       </c>
       <c r="N28">
         <f t="shared" si="6"/>
@@ -5795,19 +5917,19 @@
       </c>
       <c r="O28" s="4">
         <f t="shared" si="7"/>
-        <v>2.6556552355333392E-3</v>
+        <v>6.2496274144271738E-3</v>
       </c>
       <c r="Q28" s="6">
         <f t="shared" si="1"/>
-        <v>8.9659330720530601E-4</v>
+        <v>9.7919807054567382E-4</v>
       </c>
       <c r="R28" s="7">
         <f t="shared" si="8"/>
-        <v>2.3857663661036466E-3</v>
+        <v>5.6144904227469197E-3</v>
       </c>
       <c r="T28" s="3">
         <f t="shared" si="9"/>
-        <v>4.6318838419163642E-2</v>
+        <v>5.3595195879484935E-2</v>
       </c>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.2">
@@ -5816,21 +5938,21 @@
         <v>44</v>
       </c>
       <c r="D29" s="2">
-        <v>4.1786473309163644E-2</v>
-      </c>
-      <c r="E29" s="15">
-        <v>7.3619631900000001E-3</v>
+        <v>4.6287035879484933E-2</v>
+      </c>
+      <c r="E29">
+        <v>6.9021500000000001E-3</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="2"/>
-        <v>3.4424510119163643E-2</v>
-      </c>
-      <c r="G29" s="2">
+        <v>3.9384885879484931E-2</v>
+      </c>
+      <c r="G29" s="15">
         <v>0.90039379922490315</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="3"/>
-        <v>2.7073565858112755E-3</v>
+        <v>1.875902861217367E-3</v>
       </c>
       <c r="I29">
         <f t="shared" si="4"/>
@@ -5838,14 +5960,14 @@
       </c>
       <c r="J29">
         <f t="shared" si="5"/>
-        <v>3.0068583192619518E-3</v>
+        <v>2.083424900118396E-3</v>
       </c>
       <c r="K29" s="9">
         <v>0.02</v>
       </c>
       <c r="L29" s="9">
         <f t="shared" si="11"/>
-        <v>9.2818216529556732E-4</v>
+        <v>1.0281509250581414E-3</v>
       </c>
       <c r="N29">
         <f t="shared" si="6"/>
@@ -5853,19 +5975,19 @@
       </c>
       <c r="O29" s="4">
         <f t="shared" si="7"/>
-        <v>3.935040484557519E-3</v>
+        <v>3.1115758251765374E-3</v>
       </c>
       <c r="Q29" s="6">
         <f t="shared" si="1"/>
-        <v>8.3572946618327287E-4</v>
+        <v>9.2574071758969869E-4</v>
       </c>
       <c r="R29" s="7">
         <f t="shared" si="8"/>
-        <v>3.5430860519945484E-3</v>
+        <v>2.8016435788070656E-3</v>
       </c>
       <c r="T29" s="3">
         <f t="shared" si="9"/>
-        <v>4.4493829894974919E-2</v>
+        <v>4.81629387407023E-2</v>
       </c>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.2">
@@ -5874,21 +5996,21 @@
         <v>45</v>
       </c>
       <c r="D30" s="2">
-        <v>4.1238540044974917E-2</v>
-      </c>
-      <c r="E30" s="15">
-        <v>4.1066733400000003E-3</v>
+        <v>4.53208787407023E-2</v>
+      </c>
+      <c r="E30">
+        <v>4.0600899999999997E-3</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="2"/>
-        <v>3.7131866704974918E-2</v>
-      </c>
-      <c r="G30" s="2">
+        <v>4.1260788740702298E-2</v>
+      </c>
+      <c r="G30" s="15">
         <v>0.89967133713890335</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" si="3"/>
-        <v>7.2208048076074366E-4</v>
+        <v>5.0334835003670864E-4</v>
       </c>
       <c r="I30">
         <f t="shared" si="4"/>
@@ -5896,14 +6018,14 @@
       </c>
       <c r="J30">
         <f t="shared" si="5"/>
-        <v>8.0260474125703877E-4</v>
+        <v>5.5948025602042155E-4</v>
       </c>
       <c r="K30" s="9">
         <v>0.02</v>
       </c>
       <c r="L30" s="9">
         <f t="shared" si="11"/>
-        <v>9.1674677946548735E-4</v>
+        <v>1.0074985579696211E-3</v>
       </c>
       <c r="N30">
         <f t="shared" si="6"/>
@@ -5911,19 +6033,19 @@
       </c>
       <c r="O30" s="4">
         <f t="shared" si="7"/>
-        <v>1.7193515207225261E-3</v>
+        <v>1.5669788139900426E-3</v>
       </c>
       <c r="Q30" s="6">
         <f t="shared" si="1"/>
-        <v>8.2477080089949837E-4</v>
+        <v>9.0641757481404604E-4</v>
       </c>
       <c r="R30" s="7">
         <f t="shared" si="8"/>
-        <v>1.5468512816602419E-3</v>
+        <v>1.4097659248507545E-3</v>
       </c>
       <c r="T30" s="3">
         <f t="shared" si="9"/>
-        <v>4.196062052573566E-2</v>
+        <v>4.5824227090739009E-2</v>
       </c>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.2">
@@ -5932,25 +6054,25 @@
         <v>46</v>
       </c>
       <c r="D31" s="2">
-        <v>4.0157690765735665E-2</v>
-      </c>
-      <c r="E31" s="15">
-        <v>2.3037435799999999E-3</v>
+        <v>4.4200187090739008E-2</v>
+      </c>
+      <c r="E31">
+        <v>2.4360499999999999E-3</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="2"/>
-        <v>3.7853947185735662E-2</v>
-      </c>
-      <c r="G31" s="2">
+        <v>4.1764137090739006E-2</v>
+      </c>
+      <c r="G31" s="15">
         <v>0.8994721368435119</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" si="3"/>
-        <v>-2.0042876144278354E-3</v>
+        <v>-3.362517057542147E-4</v>
       </c>
       <c r="I31">
         <f t="shared" si="4"/>
-        <v>4.9910430012524105E-2</v>
+        <v>7.6074724539948258E-3</v>
       </c>
       <c r="J31">
         <f t="shared" si="5"/>
@@ -5961,27 +6083,27 @@
       </c>
       <c r="L31" s="9">
         <f t="shared" si="11"/>
-        <v>8.9291683690524834E-4</v>
+        <v>9.8280280800802297E-4</v>
       </c>
       <c r="N31">
         <f t="shared" si="6"/>
-        <v>6.9910430012524102E-2</v>
+        <v>2.7607472453994825E-2</v>
       </c>
       <c r="O31" s="4">
         <f t="shared" si="7"/>
-        <v>8.9291683690524834E-4</v>
+        <v>9.8280280800802297E-4</v>
       </c>
       <c r="Q31" s="6">
         <f t="shared" si="1"/>
-        <v>2.8074414297425488E-3</v>
+        <v>1.2202554475689948E-3</v>
       </c>
       <c r="R31" s="7">
         <f t="shared" si="8"/>
-        <v>8.0315381531471334E-4</v>
+        <v>8.8400374181478024E-4</v>
       </c>
       <c r="T31" s="3">
         <f t="shared" si="9"/>
-        <v>3.815340315130783E-2</v>
+        <v>4.3863935384984794E-2</v>
       </c>
     </row>
     <row r="32" spans="3:20" x14ac:dyDescent="0.2">
@@ -5990,56 +6112,56 @@
         <v>47</v>
       </c>
       <c r="D32" s="2">
-        <v>3.7201856891307825E-2</v>
-      </c>
-      <c r="E32" s="15">
-        <v>1.3521973200000001E-3</v>
+        <v>4.1427885384984792E-2</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="2"/>
-        <v>3.5849659571307826E-2</v>
-      </c>
-      <c r="G32" s="2">
+        <v>4.1427885384984792E-2</v>
+      </c>
+      <c r="G32" s="15">
         <v>0.90212902193052669</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="3"/>
-        <v>1.6160599316282498E-3</v>
+        <v>-3.5347628514856289E-5</v>
       </c>
       <c r="I32">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8.5323274857923971E-4</v>
       </c>
       <c r="J32">
         <f t="shared" si="5"/>
-        <v>1.791384483086393E-3</v>
+        <v>0</v>
       </c>
       <c r="K32" s="9">
         <v>0.02</v>
       </c>
       <c r="L32" s="9">
         <f t="shared" si="11"/>
-        <v>8.2475690254808711E-4</v>
+        <v>9.1844701540208669E-4</v>
       </c>
       <c r="N32">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>2.085323274857924E-2</v>
       </c>
       <c r="O32" s="4">
         <f t="shared" si="7"/>
-        <v>2.6161413856344799E-3</v>
+        <v>9.1844701540208669E-4</v>
       </c>
       <c r="Q32" s="6">
         <f t="shared" si="1"/>
-        <v>7.4403713782615654E-4</v>
+        <v>8.6390533621455207E-4</v>
       </c>
       <c r="R32" s="7">
         <f t="shared" si="8"/>
-        <v>2.360097069454406E-3</v>
+        <v>8.2855770769969589E-4</v>
       </c>
       <c r="T32" s="3">
         <f t="shared" si="9"/>
-        <v>3.8817916822936074E-2</v>
+        <v>4.1392537756469935E-2</v>
       </c>
     </row>
     <row r="33" spans="3:20" x14ac:dyDescent="0.2">
@@ -6048,56 +6170,56 @@
         <v>48</v>
       </c>
       <c r="D33" s="2">
-        <v>3.8292062309936079E-2</v>
-      </c>
-      <c r="E33" s="15">
-        <v>8.2634280700000012E-4</v>
+        <v>4.1798547756469934E-2</v>
+      </c>
+      <c r="E33">
+        <v>4.0601E-4</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="2"/>
-        <v>3.7465719502936076E-2</v>
-      </c>
-      <c r="G33" s="2">
+        <v>4.1392537756469935E-2</v>
+      </c>
+      <c r="G33" s="15">
         <v>0.9007012970893068</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="3"/>
-        <v>2.5186226984834359E-4</v>
+        <v>-4.3125635096041143E-4</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.0317496040126368E-2</v>
       </c>
       <c r="J33">
         <f t="shared" si="5"/>
-        <v>2.7962907421390205E-4</v>
+        <v>0</v>
       </c>
       <c r="K33" s="9">
         <v>0.02</v>
       </c>
       <c r="L33" s="9">
         <f t="shared" si="11"/>
-        <v>8.5027216977881905E-4</v>
+        <v>9.2813339764349207E-4</v>
       </c>
       <c r="N33">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>3.0317496040126367E-2</v>
       </c>
       <c r="O33" s="4">
         <f t="shared" si="7"/>
-        <v>1.129901243992721E-3</v>
+        <v>9.2813339764349207E-4</v>
       </c>
       <c r="Q33" s="6">
         <f t="shared" si="1"/>
-        <v>7.6584124619872164E-4</v>
+        <v>1.2672273060898101E-3</v>
       </c>
       <c r="R33" s="7">
         <f t="shared" si="8"/>
-        <v>1.0177035160470651E-3</v>
+        <v>8.3597095512939865E-4</v>
       </c>
       <c r="T33" s="3">
         <f t="shared" si="9"/>
-        <v>3.8543924579784422E-2</v>
+        <v>4.1367291405509522E-2</v>
       </c>
     </row>
     <row r="34" spans="3:20" x14ac:dyDescent="0.2">
@@ -6106,25 +6228,25 @@
         <v>49</v>
       </c>
       <c r="D34" s="2">
-        <v>3.7942947992784422E-2</v>
-      </c>
-      <c r="E34" s="15">
-        <v>2.2536622E-4</v>
+        <v>4.1367291405509522E-2</v>
+      </c>
+      <c r="E34">
+        <v>4.0601E-4</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" si="2"/>
-        <v>3.771758177278442E-2</v>
-      </c>
-      <c r="G34" s="2">
+        <v>4.0961281405509524E-2</v>
+      </c>
+      <c r="G34" s="15">
         <v>0.89815635796618465</v>
       </c>
       <c r="H34" s="3">
         <f t="shared" si="3"/>
-        <v>-6.130648837643568E-4</v>
+        <v>-1.1143209407227864E-3</v>
       </c>
       <c r="I34">
         <f t="shared" si="4"/>
-        <v>1.6157544845512344E-2</v>
+        <v>2.6937246864907741E-2</v>
       </c>
       <c r="J34">
         <f t="shared" si="5"/>
@@ -6135,27 +6257,27 @@
       </c>
       <c r="L34" s="9">
         <f t="shared" si="11"/>
-        <v>8.449074074074075E-4</v>
+        <v>9.2116013071895418E-4</v>
       </c>
       <c r="N34">
         <f t="shared" si="6"/>
-        <v>3.615754484551234E-2</v>
+        <v>4.6937246864907745E-2</v>
       </c>
       <c r="O34" s="4">
         <f t="shared" si="7"/>
-        <v>8.449074074074075E-4</v>
+        <v>9.2116013071895418E-4</v>
       </c>
       <c r="Q34" s="6">
         <f t="shared" si="1"/>
-        <v>1.3719238436200453E-3</v>
+        <v>1.941666768832977E-3</v>
       </c>
       <c r="R34" s="7">
         <f t="shared" si="8"/>
-        <v>7.5885895985568848E-4</v>
+        <v>8.273458281101905E-4</v>
       </c>
       <c r="T34" s="3">
         <f t="shared" si="9"/>
-        <v>3.7329883109020065E-2</v>
+        <v>4.0252970464786736E-2</v>
       </c>
     </row>
     <row r="35" spans="3:20" x14ac:dyDescent="0.2">
@@ -6164,25 +6286,25 @@
         <v>50</v>
       </c>
       <c r="D35" s="2">
-        <v>3.7154598271220064E-2</v>
-      </c>
-      <c r="E35" s="15">
-        <v>5.0081382199999999E-5</v>
+        <v>3.9846960464786738E-2</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="2"/>
-        <v>3.7104516889020063E-2</v>
-      </c>
-      <c r="G35" s="2">
+        <v>3.9846960464786738E-2</v>
+      </c>
+      <c r="G35" s="15">
         <v>0.89783193991781207</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="3"/>
-        <v>-1.8638169163922094E-3</v>
+        <v>-6.997703569378913E-4</v>
       </c>
       <c r="I35">
         <f t="shared" si="4"/>
-        <v>5.0163829057894058E-2</v>
+        <v>1.7561448822584279E-2</v>
       </c>
       <c r="J35">
         <f t="shared" si="5"/>
@@ -6193,27 +6315,27 @@
       </c>
       <c r="L35" s="9">
         <f t="shared" si="11"/>
-        <v>8.2765151515151519E-4</v>
+        <v>8.8762626262626273E-4</v>
       </c>
       <c r="N35">
         <f t="shared" si="6"/>
-        <v>7.0163829057894062E-2</v>
+        <v>3.7561448822584276E-2</v>
       </c>
       <c r="O35" s="4">
         <f t="shared" si="7"/>
-        <v>8.2765151515151519E-4</v>
+        <v>8.8762626262626273E-4</v>
       </c>
       <c r="Q35" s="6">
         <f t="shared" si="1"/>
-        <v>2.6069088818166108E-3</v>
+        <v>1.4967095662336259E-3</v>
       </c>
       <c r="R35" s="7">
         <f t="shared" si="8"/>
-        <v>7.4309196542440132E-4</v>
+        <v>7.969392092957348E-4</v>
       </c>
       <c r="T35" s="3">
         <f t="shared" si="9"/>
-        <v>3.5290781354827855E-2</v>
+        <v>3.9147190107848846E-2</v>
       </c>
     </row>
     <row r="36" spans="3:20" x14ac:dyDescent="0.2">
@@ -6222,21 +6344,21 @@
         <v>51</v>
       </c>
       <c r="D36" s="2">
-        <v>3.5265740663727854E-2</v>
-      </c>
-      <c r="E36" s="15">
-        <v>2.5040691099999999E-5</v>
+        <v>3.9147190107848846E-2</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="2"/>
-        <v>3.5240699972627854E-2</v>
-      </c>
-      <c r="G36" s="2">
+        <v>3.9147190107848846E-2</v>
+      </c>
+      <c r="G36" s="15">
         <v>0.89741883611965945</v>
       </c>
       <c r="H36" s="3">
         <f t="shared" si="3"/>
-        <v>5.6756971719042898E-4</v>
+        <v>7.6246918650210715E-4</v>
       </c>
       <c r="I36">
         <f t="shared" si="4"/>
@@ -6244,14 +6366,14 @@
       </c>
       <c r="J36">
         <f t="shared" si="5"/>
-        <v>6.3244685128800964E-4</v>
+        <v>8.4962467447077469E-4</v>
       </c>
       <c r="K36" s="9">
         <v>0.02</v>
       </c>
       <c r="L36" s="9">
         <f t="shared" si="11"/>
-        <v>7.8593716209953985E-4</v>
+        <v>8.7243967994068408E-4</v>
       </c>
       <c r="N36">
         <f t="shared" si="6"/>
@@ -6259,19 +6381,19 @@
       </c>
       <c r="O36" s="4">
         <f t="shared" si="7"/>
-        <v>1.4183840133875495E-3</v>
+        <v>1.7220643544114587E-3</v>
       </c>
       <c r="Q36" s="6">
         <f t="shared" si="1"/>
-        <v>7.0531481327455714E-4</v>
+        <v>7.8294380215697694E-4</v>
       </c>
       <c r="R36" s="7">
         <f t="shared" si="8"/>
-        <v>1.2728845304649861E-3</v>
+        <v>1.545412988659084E-3</v>
       </c>
       <c r="T36" s="3">
         <f t="shared" si="9"/>
-        <v>3.5833310380918283E-2</v>
+        <v>3.9909659294350953E-2</v>
       </c>
     </row>
     <row r="37" spans="3:20" x14ac:dyDescent="0.2">
@@ -6280,25 +6402,25 @@
         <v>52</v>
       </c>
       <c r="D37" s="2">
-        <v>3.5833310380918283E-2</v>
-      </c>
-      <c r="E37" s="15">
-        <v>2.5040691099999999E-5</v>
+        <v>3.9909659294350953E-2</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" si="2"/>
-        <v>3.5808269689818283E-2</v>
-      </c>
-      <c r="G37" s="2">
+        <v>3.9909659294350953E-2</v>
+      </c>
+      <c r="G37" s="15">
         <v>0.89360178477979457</v>
       </c>
       <c r="H37" s="3">
         <f t="shared" si="3"/>
-        <v>-4.3867109363490697E-4</v>
+        <v>-1.8055203398684161E-4</v>
       </c>
       <c r="I37">
         <f t="shared" si="4"/>
-        <v>1.2241991849809812E-2</v>
+        <v>4.5240184250933454E-3</v>
       </c>
       <c r="J37">
         <f t="shared" si="5"/>
@@ -6309,27 +6431,27 @@
       </c>
       <c r="L37" s="9">
         <f t="shared" si="11"/>
-        <v>8.0199728763407719E-4</v>
+        <v>8.932314141289607E-4</v>
       </c>
       <c r="N37">
         <f t="shared" si="6"/>
-        <v>3.224199184980981E-2</v>
+        <v>2.4524018425093344E-2</v>
       </c>
       <c r="O37" s="4">
         <f t="shared" si="7"/>
-        <v>8.0199728763407719E-4</v>
+        <v>8.932314141289607E-4</v>
       </c>
       <c r="Q37" s="6">
         <f t="shared" ref="Q37:Q54" si="12">N37*D37</f>
-        <v>1.1553373012532725E-3</v>
+        <v>9.787452198738607E-4</v>
       </c>
       <c r="R37" s="7">
         <f t="shared" si="8"/>
-        <v>7.1666620761836567E-4</v>
+        <v>7.9819318588701909E-4</v>
       </c>
       <c r="T37" s="3">
         <f t="shared" si="9"/>
-        <v>3.5394639287283376E-2</v>
+        <v>3.9729107260364112E-2</v>
       </c>
     </row>
     <row r="38" spans="3:20" x14ac:dyDescent="0.2">
@@ -6338,21 +6460,21 @@
         <v>53</v>
       </c>
       <c r="D38" s="2">
-        <v>3.5369598596183376E-2</v>
-      </c>
-      <c r="E38" s="15">
+        <v>3.9729107260364112E-2</v>
+      </c>
+      <c r="E38">
         <v>0</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" si="2"/>
-        <v>3.5369598596183376E-2</v>
-      </c>
-      <c r="G38" s="2">
+        <v>3.9729107260364112E-2</v>
+      </c>
+      <c r="G38" s="15">
         <v>0.89142355779776261</v>
       </c>
       <c r="H38" s="3">
         <f t="shared" si="3"/>
-        <v>1.9209117233725884E-3</v>
+        <v>1.4143965387413485E-3</v>
       </c>
       <c r="I38">
         <f t="shared" si="4"/>
@@ -6360,14 +6482,14 @@
       </c>
       <c r="J38">
         <f t="shared" si="5"/>
-        <v>2.1548810400727437E-3</v>
+        <v>1.5866717077071379E-3</v>
       </c>
       <c r="K38" s="9">
         <v>0.02</v>
       </c>
       <c r="L38" s="9">
         <f t="shared" si="11"/>
-        <v>7.9355314960629936E-4</v>
+        <v>8.9136318897637789E-4</v>
       </c>
       <c r="N38">
         <f t="shared" si="6"/>
@@ -6375,19 +6497,19 @@
       </c>
       <c r="O38" s="4">
         <f t="shared" si="7"/>
-        <v>2.9484341896790431E-3</v>
+        <v>2.4780348966835157E-3</v>
       </c>
       <c r="Q38" s="6">
         <f t="shared" si="12"/>
-        <v>7.0739197192366756E-4</v>
+        <v>7.9458214520728224E-4</v>
       </c>
       <c r="R38" s="7">
         <f t="shared" si="8"/>
-        <v>2.6283036952962557E-3</v>
+        <v>2.2089786839486307E-3</v>
       </c>
       <c r="T38" s="3">
         <f t="shared" si="9"/>
-        <v>3.7290510319555964E-2</v>
+        <v>4.114350379910546E-2</v>
       </c>
     </row>
     <row r="39" spans="3:20" x14ac:dyDescent="0.2">
@@ -6396,21 +6518,21 @@
         <v>54</v>
       </c>
       <c r="D39" s="2">
-        <v>3.7290510319555964E-2</v>
-      </c>
-      <c r="E39" s="15">
+        <v>4.114350379910546E-2</v>
+      </c>
+      <c r="E39">
         <v>0</v>
       </c>
       <c r="F39" s="3">
         <f t="shared" si="2"/>
-        <v>3.7290510319555964E-2</v>
-      </c>
-      <c r="G39" s="2">
+        <v>4.114350379910546E-2</v>
+      </c>
+      <c r="G39" s="15">
         <v>0.88613461227569112</v>
       </c>
       <c r="H39" s="3">
         <f t="shared" si="3"/>
-        <v>9.1161705641375212E-4</v>
+        <v>1.2439095176761811E-4</v>
       </c>
       <c r="I39">
         <f t="shared" si="4"/>
@@ -6418,14 +6540,14 @@
       </c>
       <c r="J39">
         <f t="shared" si="5"/>
-        <v>1.0287568545287033E-3</v>
+        <v>1.4037478058572667E-4</v>
       </c>
       <c r="K39" s="9">
         <v>0.02</v>
       </c>
       <c r="L39" s="9">
         <f t="shared" si="11"/>
-        <v>8.4164436876672355E-4</v>
+        <v>9.2860617854536611E-4</v>
       </c>
       <c r="N39">
         <f t="shared" si="6"/>
@@ -6433,19 +6555,19 @@
       </c>
       <c r="O39" s="4">
         <f t="shared" si="7"/>
-        <v>1.8704012232954267E-3</v>
+        <v>1.0689809591310929E-3</v>
       </c>
       <c r="Q39" s="6">
         <f t="shared" si="12"/>
-        <v>7.4581020639111933E-4</v>
+        <v>8.2287007598210924E-4</v>
       </c>
       <c r="R39" s="7">
         <f t="shared" si="8"/>
-        <v>1.6574272628048713E-3</v>
+        <v>9.4726102774972745E-4</v>
       </c>
       <c r="T39" s="3">
         <f t="shared" si="9"/>
-        <v>3.8202127375969716E-2</v>
+        <v>4.1267894750873078E-2</v>
       </c>
     </row>
     <row r="40" spans="3:20" x14ac:dyDescent="0.2">
@@ -6454,56 +6576,56 @@
         <v>55</v>
       </c>
       <c r="D40" s="2">
-        <v>3.8202127375969716E-2</v>
-      </c>
-      <c r="E40" s="15">
+        <v>4.1267894750873078E-2</v>
+      </c>
+      <c r="E40">
         <v>0</v>
       </c>
       <c r="F40" s="3">
         <f t="shared" si="2"/>
-        <v>3.8202127375969716E-2</v>
-      </c>
-      <c r="G40" s="2">
+        <v>4.1267894750873078E-2</v>
+      </c>
+      <c r="G40" s="15">
         <v>0.88374076937431689</v>
       </c>
       <c r="H40" s="3">
         <f t="shared" si="3"/>
-        <v>-1.0683987897115721E-5</v>
+        <v>6.7787015837497688E-4</v>
       </c>
       <c r="I40">
         <f t="shared" si="4"/>
-        <v>2.7966997209260836E-4</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7.6704638041640298E-4</v>
       </c>
       <c r="K40" s="9">
         <v>0.02</v>
       </c>
       <c r="L40" s="9">
         <f t="shared" si="11"/>
-        <v>8.6455505279034689E-4</v>
+        <v>9.3393665158371039E-4</v>
       </c>
       <c r="N40">
         <f t="shared" si="6"/>
-        <v>2.0279669972092608E-2</v>
+        <v>0.02</v>
       </c>
       <c r="O40" s="4">
         <f t="shared" si="7"/>
-        <v>8.6455505279034689E-4</v>
+        <v>1.7009830320001134E-3</v>
       </c>
       <c r="Q40" s="6">
         <f t="shared" si="12"/>
-        <v>7.7472653541651006E-4</v>
+        <v>8.253578950174616E-4</v>
       </c>
       <c r="R40" s="7">
         <f t="shared" si="8"/>
-        <v>7.6404254751939434E-4</v>
+        <v>1.5032280533924386E-3</v>
       </c>
       <c r="T40" s="3">
         <f t="shared" si="9"/>
-        <v>3.81914433880726E-2</v>
+        <v>4.1945764909248055E-2</v>
       </c>
     </row>
     <row r="41" spans="3:20" x14ac:dyDescent="0.2">
@@ -6512,21 +6634,21 @@
         <v>56</v>
       </c>
       <c r="D41" s="2">
-        <v>3.81914433880726E-2</v>
-      </c>
-      <c r="E41" s="15">
+        <v>4.1945764909248055E-2</v>
+      </c>
+      <c r="E41">
         <v>0</v>
       </c>
       <c r="F41" s="3">
         <f t="shared" si="2"/>
-        <v>3.81914433880726E-2</v>
-      </c>
-      <c r="G41" s="2">
+        <v>4.1945764909248055E-2</v>
+      </c>
+      <c r="G41" s="15">
         <v>0.87216400172860853</v>
       </c>
       <c r="H41" s="3">
         <f t="shared" si="3"/>
-        <v>2.6489433537710966E-4</v>
+        <v>8.0359438319348164E-5</v>
       </c>
       <c r="I41">
         <f t="shared" si="4"/>
@@ -6534,14 +6656,14 @@
       </c>
       <c r="J41">
         <f t="shared" si="5"/>
-        <v>3.0372078514143591E-4</v>
+        <v>9.2137990286319597E-5</v>
       </c>
       <c r="K41" s="9">
         <v>0.02</v>
       </c>
       <c r="L41" s="9">
         <f t="shared" si="11"/>
-        <v>8.7578582267504876E-4</v>
+        <v>9.6187792264098345E-4</v>
       </c>
       <c r="N41">
         <f t="shared" si="6"/>
@@ -6549,19 +6671,19 @@
       </c>
       <c r="O41" s="4">
         <f t="shared" si="7"/>
-        <v>1.1795066078164847E-3</v>
+        <v>1.0540159129273031E-3</v>
       </c>
       <c r="Q41" s="6">
         <f t="shared" si="12"/>
-        <v>7.6382886776145203E-4</v>
+        <v>8.3891529818496107E-4</v>
       </c>
       <c r="R41" s="7">
         <f t="shared" si="8"/>
-        <v>1.0287232031385618E-3</v>
+        <v>9.1927473650430934E-4</v>
       </c>
       <c r="T41" s="3">
         <f t="shared" si="9"/>
-        <v>3.845633772344971E-2</v>
+        <v>4.2026124347567403E-2</v>
       </c>
     </row>
     <row r="42" spans="3:20" x14ac:dyDescent="0.2">
@@ -6570,56 +6692,56 @@
         <v>57</v>
       </c>
       <c r="D42" s="2">
-        <v>3.845633772344971E-2</v>
-      </c>
-      <c r="E42" s="15">
+        <v>4.2026124347567403E-2</v>
+      </c>
+      <c r="E42">
         <v>0</v>
       </c>
       <c r="F42" s="3">
         <f t="shared" si="2"/>
-        <v>3.845633772344971E-2</v>
-      </c>
-      <c r="G42" s="2">
+        <v>4.2026124347567403E-2</v>
+      </c>
+      <c r="G42" s="15">
         <v>0.86683614138518539</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" si="3"/>
-        <v>-9.0286395943822706E-4</v>
+        <v>4.0090765546503537E-4</v>
       </c>
       <c r="I42">
         <f t="shared" si="4"/>
-        <v>2.3477637572536795E-2</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.6249531638631683E-4</v>
       </c>
       <c r="K42" s="9">
         <v>0.02</v>
       </c>
       <c r="L42" s="9">
         <f t="shared" si="11"/>
-        <v>8.872804417683212E-4</v>
+        <v>9.6964402708014843E-4</v>
       </c>
       <c r="N42">
         <f t="shared" si="6"/>
-        <v>4.3477637572536795E-2</v>
+        <v>0.02</v>
       </c>
       <c r="O42" s="4">
         <f t="shared" si="7"/>
-        <v>8.872804417683212E-4</v>
+        <v>1.4321393434664651E-3</v>
       </c>
       <c r="Q42" s="6">
         <f t="shared" si="12"/>
-        <v>1.6719907139072213E-3</v>
+        <v>8.4052248695134807E-4</v>
       </c>
       <c r="R42" s="7">
         <f t="shared" si="8"/>
-        <v>7.6912675446899419E-4</v>
+        <v>1.2414301424163833E-3</v>
       </c>
       <c r="T42" s="3">
         <f t="shared" si="9"/>
-        <v>3.7553473764011483E-2</v>
+        <v>4.2427032003032439E-2</v>
       </c>
     </row>
     <row r="43" spans="3:20" x14ac:dyDescent="0.2">
@@ -6628,21 +6750,21 @@
         <v>58</v>
       </c>
       <c r="D43" s="2">
-        <v>3.7553473764011483E-2</v>
-      </c>
-      <c r="E43" s="15">
+        <v>4.2427032003032439E-2</v>
+      </c>
+      <c r="E43">
         <v>0</v>
       </c>
       <c r="F43" s="3">
         <f t="shared" si="2"/>
-        <v>3.7553473764011483E-2</v>
-      </c>
-      <c r="G43" s="2">
+        <v>4.2427032003032439E-2</v>
+      </c>
+      <c r="G43" s="15">
         <v>0.85541777224237836</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" si="3"/>
-        <v>6.6552107642421643E-4</v>
+        <v>3.5094293622665862E-4</v>
       </c>
       <c r="I43">
         <f t="shared" si="4"/>
@@ -6650,14 +6772,14 @@
       </c>
       <c r="J43">
         <f t="shared" si="5"/>
-        <v>7.7800707212293495E-4</v>
+        <v>4.1025911269846835E-4</v>
       </c>
       <c r="K43" s="9">
         <v>0.02</v>
       </c>
       <c r="L43" s="9">
         <f t="shared" si="11"/>
-        <v>8.7801481293916573E-4</v>
+        <v>9.9196049882889145E-4</v>
       </c>
       <c r="N43">
         <f t="shared" si="6"/>
@@ -6665,19 +6787,19 @@
       </c>
       <c r="O43" s="4">
         <f t="shared" si="7"/>
-        <v>1.6560218850621006E-3</v>
+        <v>1.4022196115273597E-3</v>
       </c>
       <c r="Q43" s="6">
         <f t="shared" si="12"/>
-        <v>7.5106947528022971E-4</v>
+        <v>8.4854064006064875E-4</v>
       </c>
       <c r="R43" s="7">
         <f t="shared" si="8"/>
-        <v>1.4165905517044459E-3</v>
+        <v>1.1994835762873073E-3</v>
       </c>
       <c r="T43" s="3">
         <f t="shared" si="9"/>
-        <v>3.8218994840435699E-2</v>
+        <v>4.2777974939259097E-2</v>
       </c>
     </row>
     <row r="44" spans="3:20" x14ac:dyDescent="0.2">
@@ -6686,21 +6808,21 @@
         <v>59</v>
       </c>
       <c r="D44" s="2">
-        <v>3.8218994840435699E-2</v>
-      </c>
-      <c r="E44" s="15">
+        <v>4.2777974939259097E-2</v>
+      </c>
+      <c r="E44">
         <v>0</v>
       </c>
       <c r="F44" s="3">
         <f t="shared" si="2"/>
-        <v>3.8218994840435699E-2</v>
-      </c>
-      <c r="G44" s="2">
+        <v>4.2777974939259097E-2</v>
+      </c>
+      <c r="G44" s="15">
         <v>0.84103628074581638</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" si="3"/>
-        <v>7.4314412604907509E-5</v>
+        <v>1.1027147353747588E-3</v>
       </c>
       <c r="I44">
         <f t="shared" si="4"/>
@@ -6708,14 +6830,14 @@
       </c>
       <c r="J44">
         <f t="shared" si="5"/>
-        <v>8.8360531294805474E-5</v>
+        <v>1.3111381287819004E-3</v>
       </c>
       <c r="K44" s="9">
         <v>0.02</v>
       </c>
       <c r="L44" s="9">
         <f t="shared" si="11"/>
-        <v>9.0885484289794866E-4</v>
+        <v>1.017268242015061E-3</v>
       </c>
       <c r="N44">
         <f t="shared" si="6"/>
@@ -6723,19 +6845,19 @@
       </c>
       <c r="O44" s="4">
         <f t="shared" si="7"/>
-        <v>9.9721537419275412E-4</v>
+        <v>2.3284063707969616E-3</v>
       </c>
       <c r="Q44" s="6">
         <f t="shared" si="12"/>
-        <v>7.6437989680871402E-4</v>
+        <v>8.5555949878518198E-4</v>
       </c>
       <c r="R44" s="7">
         <f t="shared" si="8"/>
-        <v>8.3869430941362153E-4</v>
+        <v>1.9582742341599409E-3</v>
       </c>
       <c r="T44" s="3">
         <f t="shared" si="9"/>
-        <v>3.8293309253040607E-2</v>
+        <v>4.3880689674633856E-2</v>
       </c>
     </row>
     <row r="45" spans="3:20" x14ac:dyDescent="0.2">
@@ -6744,25 +6866,25 @@
         <v>60</v>
       </c>
       <c r="D45" s="2">
-        <v>3.8293309253040607E-2</v>
-      </c>
-      <c r="E45" s="15">
+        <v>4.3880689674633856E-2</v>
+      </c>
+      <c r="E45">
         <v>0</v>
       </c>
       <c r="F45" s="3">
         <f t="shared" si="2"/>
-        <v>3.8293309253040607E-2</v>
-      </c>
-      <c r="G45" s="2">
+        <v>4.3880689674633856E-2</v>
+      </c>
+      <c r="G45" s="15">
         <v>0.81132714394559358</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" si="3"/>
-        <v>-2.2990596531274055E-3</v>
+        <v>-3.1938966076633934E-3</v>
       </c>
       <c r="I45">
         <f t="shared" si="4"/>
-        <v>6.0038155436901892E-2</v>
+        <v>7.2785925457085329E-2</v>
       </c>
       <c r="J45">
         <f t="shared" si="5"/>
@@ -6773,27 +6895,27 @@
       </c>
       <c r="L45" s="9">
         <f t="shared" si="11"/>
-        <v>9.439671663594311E-4</v>
+        <v>1.0817015060345728E-3</v>
       </c>
       <c r="N45">
         <f t="shared" si="6"/>
-        <v>8.0038155436901889E-2</v>
+        <v>9.2785925457085333E-2</v>
       </c>
       <c r="O45" s="4">
         <f t="shared" si="7"/>
-        <v>9.439671663594311E-4</v>
+        <v>1.0817015060345728E-3</v>
       </c>
       <c r="Q45" s="6">
         <f t="shared" si="12"/>
-        <v>3.0649258381882176E-3</v>
+        <v>4.0715104011560714E-3</v>
       </c>
       <c r="R45" s="7">
         <f t="shared" si="8"/>
-        <v>7.6586618506081219E-4</v>
+        <v>8.7761379349267723E-4</v>
       </c>
       <c r="T45" s="3">
         <f t="shared" si="9"/>
-        <v>3.5994249599913201E-2</v>
+        <v>4.0686793066970463E-2</v>
       </c>
     </row>
     <row r="46" spans="3:20" x14ac:dyDescent="0.2">
@@ -6802,25 +6924,25 @@
         <v>61</v>
       </c>
       <c r="D46" s="2">
-        <v>3.5994249599913201E-2</v>
-      </c>
-      <c r="E46" s="15">
+        <v>4.0686793066970463E-2</v>
+      </c>
+      <c r="E46">
         <v>0</v>
       </c>
       <c r="F46" s="3">
         <f t="shared" si="2"/>
-        <v>3.5994249599913201E-2</v>
-      </c>
-      <c r="G46" s="2">
+        <v>4.0686793066970463E-2</v>
+      </c>
+      <c r="G46" s="15">
         <v>0.78002007215124636</v>
       </c>
       <c r="H46" s="3">
         <f t="shared" si="3"/>
-        <v>-1.8672654729290777E-3</v>
+        <v>-1.4010787812561779E-3</v>
       </c>
       <c r="I46">
         <f t="shared" si="4"/>
-        <v>5.1876771808949743E-2</v>
+        <v>3.443571428571434E-2</v>
       </c>
       <c r="J46">
         <f t="shared" si="5"/>
@@ -6831,27 +6953,27 @@
       </c>
       <c r="L46" s="9">
         <f t="shared" si="11"/>
-        <v>9.2290572730117893E-4</v>
+        <v>1.0432242584414231E-3</v>
       </c>
       <c r="N46">
         <f t="shared" si="6"/>
-        <v>7.1876771808949746E-2</v>
+        <v>5.4435714285714337E-2</v>
       </c>
       <c r="O46" s="4">
         <f t="shared" si="7"/>
-        <v>9.2290572730117893E-4</v>
+        <v>1.0432242584414231E-3</v>
       </c>
       <c r="Q46" s="6">
         <f t="shared" si="12"/>
-        <v>2.5871504649273417E-3</v>
+        <v>2.2148146425955873E-3</v>
       </c>
       <c r="R46" s="7">
         <f t="shared" si="8"/>
-        <v>7.1988499199826409E-4</v>
+        <v>8.137358613394093E-4</v>
       </c>
       <c r="T46" s="3">
         <f t="shared" si="9"/>
-        <v>3.4126984126984124E-2</v>
+        <v>3.9285714285714285E-2</v>
       </c>
     </row>
     <row r="47" spans="3:20" x14ac:dyDescent="0.2">
@@ -6860,25 +6982,25 @@
         <v>62</v>
       </c>
       <c r="D47" s="2">
-        <v>3.4126984126984124E-2</v>
-      </c>
-      <c r="E47" s="15">
+        <v>3.9285714285714285E-2</v>
+      </c>
+      <c r="E47">
         <v>0</v>
       </c>
       <c r="F47" s="3">
         <f t="shared" si="2"/>
-        <v>3.4126984126984124E-2</v>
-      </c>
-      <c r="G47" s="2">
+        <v>3.9285714285714285E-2</v>
+      </c>
+      <c r="G47" s="15">
         <v>0.70140211640211636</v>
       </c>
       <c r="H47" s="3">
         <f t="shared" si="3"/>
-        <v>-1.5605994561720321E-2</v>
+        <v>-1.6468068639748069E-2</v>
       </c>
       <c r="I47">
         <f t="shared" si="4"/>
-        <v>0.45729193366901411</v>
+        <v>0.41918720173904178</v>
       </c>
       <c r="J47">
         <f t="shared" si="5"/>
@@ -6889,27 +7011,27 @@
       </c>
       <c r="L47" s="9">
         <f t="shared" si="11"/>
-        <v>9.731075321540376E-4</v>
+        <v>1.120205182363369E-3</v>
       </c>
       <c r="N47">
         <f t="shared" si="6"/>
-        <v>0.47729193366901412</v>
+        <v>0.4391872017390418</v>
       </c>
       <c r="O47" s="4">
         <f t="shared" si="7"/>
-        <v>9.731075321540376E-4</v>
+        <v>1.120205182363369E-3</v>
       </c>
       <c r="Q47" s="6">
         <f t="shared" si="12"/>
-        <v>1.6288534244260005E-2</v>
+        <v>1.7253782925462355E-2</v>
       </c>
       <c r="R47" s="7">
         <f t="shared" si="8"/>
-        <v>6.8253968253968245E-4</v>
+        <v>7.8571428571428575E-4</v>
       </c>
       <c r="T47" s="3">
         <f t="shared" si="9"/>
-        <v>1.8520989565263799E-2</v>
+        <v>2.2817645645966216E-2</v>
       </c>
     </row>
     <row r="48" spans="3:20" x14ac:dyDescent="0.2">
@@ -6918,25 +7040,25 @@
         <v>63</v>
       </c>
       <c r="D48" s="2">
-        <v>1.8520989565263803E-2</v>
-      </c>
-      <c r="E48" s="15">
+        <v>2.2817645645966216E-2</v>
+      </c>
+      <c r="E48">
         <v>0</v>
       </c>
       <c r="F48" s="3">
         <f t="shared" si="2"/>
-        <v>1.8520989565263803E-2</v>
-      </c>
-      <c r="G48" s="2">
+        <v>2.2817645645966216E-2</v>
+      </c>
+      <c r="G48" s="15">
         <v>0.45760721624723122</v>
       </c>
       <c r="H48" s="3">
         <f t="shared" si="3"/>
-        <v>-8.4237076586438867E-3</v>
+        <v>-1.0611270912898277E-2</v>
       </c>
       <c r="I48">
         <f t="shared" si="4"/>
-        <v>0.45481952403032433</v>
+        <v>0.46504670453475005</v>
       </c>
       <c r="J48">
         <f t="shared" si="5"/>
@@ -6951,7 +7073,7 @@
       </c>
       <c r="N48">
         <f t="shared" si="6"/>
-        <v>0.45481952403032433</v>
+        <v>0.46504670453475005</v>
       </c>
       <c r="O48" s="4">
         <f t="shared" si="7"/>
@@ -6959,7 +7081,7 @@
       </c>
       <c r="Q48" s="6">
         <f t="shared" si="12"/>
-        <v>8.4237076586438867E-3</v>
+        <v>1.0611270912898277E-2</v>
       </c>
       <c r="R48" s="7">
         <f t="shared" si="8"/>
@@ -6967,7 +7089,7 @@
       </c>
       <c r="T48" s="3">
         <f t="shared" si="9"/>
-        <v>1.0097281906619916E-2</v>
+        <v>1.2206374733067939E-2</v>
       </c>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.2">
@@ -6976,25 +7098,25 @@
         <v>64</v>
       </c>
       <c r="D49" s="2">
-        <v>1.0097281906619916E-2</v>
-      </c>
-      <c r="E49" s="15">
+        <v>1.2206374733067939E-2</v>
+      </c>
+      <c r="E49">
         <v>0</v>
       </c>
       <c r="F49" s="3">
         <f t="shared" si="2"/>
-        <v>1.0097281906619916E-2</v>
-      </c>
-      <c r="G49" s="2">
+        <v>1.2206374733067939E-2</v>
+      </c>
+      <c r="G49" s="15">
         <v>0.25098204634731486</v>
       </c>
       <c r="H49" s="3">
         <f t="shared" si="3"/>
-        <v>-4.3308625011296347E-3</v>
+        <v>-4.7614670499232098E-3</v>
       </c>
       <c r="I49">
         <f t="shared" si="4"/>
-        <v>0.42891369590169232</v>
+        <v>0.39008035997977814</v>
       </c>
       <c r="J49">
         <f t="shared" si="5"/>
@@ -7009,7 +7131,7 @@
       </c>
       <c r="N49">
         <f t="shared" si="6"/>
-        <v>0.42891369590169232</v>
+        <v>0.39008035997977814</v>
       </c>
       <c r="O49" s="4">
         <f t="shared" si="7"/>
@@ -7017,7 +7139,7 @@
       </c>
       <c r="Q49" s="6">
         <f t="shared" si="12"/>
-        <v>4.3308625011296347E-3</v>
+        <v>4.7614670499232098E-3</v>
       </c>
       <c r="R49" s="7">
         <f t="shared" si="8"/>
@@ -7025,7 +7147,7 @@
       </c>
       <c r="T49" s="3">
         <f t="shared" si="9"/>
-        <v>5.7664194054902812E-3</v>
+        <v>7.4449076831447289E-3</v>
       </c>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.2">
@@ -7034,25 +7156,25 @@
         <v>65</v>
       </c>
       <c r="D50" s="2">
-        <v>5.7664194054902812E-3</v>
-      </c>
-      <c r="E50" s="15">
+        <v>7.4449076831447289E-3</v>
+      </c>
+      <c r="E50">
         <v>0</v>
       </c>
       <c r="F50" s="3">
         <f t="shared" si="2"/>
-        <v>5.7664194054902812E-3</v>
-      </c>
-      <c r="G50" s="2">
+        <v>7.4449076831447289E-3</v>
+      </c>
+      <c r="G50" s="15">
         <v>0.13579511614055986</v>
       </c>
       <c r="H50" s="3">
         <f t="shared" si="3"/>
-        <v>-1.6571551218456798E-3</v>
+        <v>-2.8614975206180584E-3</v>
       </c>
       <c r="I50">
         <f t="shared" si="4"/>
-        <v>0.28738026239782027</v>
+        <v>0.38435634696941762</v>
       </c>
       <c r="J50">
         <f t="shared" si="5"/>
@@ -7067,7 +7189,7 @@
       </c>
       <c r="N50">
         <f t="shared" si="6"/>
-        <v>0.28738026239782027</v>
+        <v>0.38435634696941762</v>
       </c>
       <c r="O50" s="4">
         <f t="shared" si="7"/>
@@ -7075,7 +7197,7 @@
       </c>
       <c r="Q50" s="6">
         <f t="shared" si="12"/>
-        <v>1.6571551218456798E-3</v>
+        <v>2.8614975206180584E-3</v>
       </c>
       <c r="R50" s="7">
         <f t="shared" si="8"/>
@@ -7083,7 +7205,7 @@
       </c>
       <c r="T50" s="3">
         <f t="shared" si="9"/>
-        <v>4.1092642836446014E-3</v>
+        <v>4.5834101625266705E-3</v>
       </c>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.2">
@@ -7092,25 +7214,25 @@
         <v>66</v>
       </c>
       <c r="D51" s="2">
-        <v>4.1092642836446014E-3</v>
-      </c>
-      <c r="E51" s="15">
+        <v>4.5834101625266705E-3</v>
+      </c>
+      <c r="E51">
         <v>0</v>
       </c>
       <c r="F51" s="3">
         <f t="shared" si="2"/>
-        <v>4.1092642836446014E-3</v>
-      </c>
-      <c r="G51" s="2">
+        <v>4.5834101625266705E-3</v>
+      </c>
+      <c r="G51" s="15">
         <v>9.7568685298843605E-2</v>
       </c>
       <c r="H51" s="3">
         <f t="shared" si="3"/>
-        <v>-5.7859674115342792E-4</v>
+        <v>-7.7904746170284799E-4</v>
       </c>
       <c r="I51">
         <f t="shared" si="4"/>
-        <v>0.14080300054107425</v>
+        <v>0.16997114246336334</v>
       </c>
       <c r="J51">
         <f t="shared" si="5"/>
@@ -7125,7 +7247,7 @@
       </c>
       <c r="N51">
         <f t="shared" si="6"/>
-        <v>0.14080300054107425</v>
+        <v>0.16997114246336334</v>
       </c>
       <c r="O51" s="4">
         <f t="shared" si="7"/>
@@ -7133,7 +7255,7 @@
       </c>
       <c r="Q51" s="6">
         <f t="shared" si="12"/>
-        <v>5.7859674115342792E-4</v>
+        <v>7.7904746170284799E-4</v>
       </c>
       <c r="R51" s="7">
         <f t="shared" si="8"/>
@@ -7141,7 +7263,7 @@
       </c>
       <c r="T51" s="3">
         <f t="shared" si="9"/>
-        <v>3.5306675424911734E-3</v>
+        <v>3.8043627008238225E-3</v>
       </c>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.2">
@@ -7150,25 +7272,25 @@
         <v>67</v>
       </c>
       <c r="D52" s="2">
-        <v>3.5306675424911734E-3</v>
-      </c>
-      <c r="E52" s="15">
+        <v>3.8043627008238225E-3</v>
+      </c>
+      <c r="E52">
         <v>0</v>
       </c>
       <c r="F52" s="3">
         <f t="shared" si="2"/>
-        <v>3.5306675424911734E-3</v>
-      </c>
-      <c r="G52" s="2">
+        <v>3.8043627008238225E-3</v>
+      </c>
+      <c r="G52" s="15">
         <v>7.9125270273968859E-2</v>
       </c>
       <c r="H52" s="3">
         <f t="shared" si="3"/>
-        <v>-1.912384258496852E-4</v>
+        <v>-1.2038931024313309E-4</v>
       </c>
       <c r="I52">
         <f t="shared" si="4"/>
-        <v>5.4164948567984095E-2</v>
+        <v>3.1645066391031325E-2</v>
       </c>
       <c r="J52">
         <f t="shared" si="5"/>
@@ -7183,7 +7305,7 @@
       </c>
       <c r="N52">
         <f t="shared" si="6"/>
-        <v>5.4164948567984095E-2</v>
+        <v>3.1645066391031325E-2</v>
       </c>
       <c r="O52" s="4">
         <f t="shared" si="7"/>
@@ -7191,7 +7313,7 @@
       </c>
       <c r="Q52" s="6">
         <f t="shared" si="12"/>
-        <v>1.912384258496852E-4</v>
+        <v>1.2038931024313311E-4</v>
       </c>
       <c r="R52" s="7">
         <f t="shared" si="8"/>
@@ -7199,7 +7321,7 @@
       </c>
       <c r="T52" s="3">
         <f t="shared" si="9"/>
-        <v>3.3394291166414882E-3</v>
+        <v>3.6839733905806894E-3</v>
       </c>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.2">
@@ -7208,21 +7330,21 @@
         <v>68</v>
       </c>
       <c r="D53" s="2">
-        <v>3.3394291166414882E-3</v>
-      </c>
-      <c r="E53" s="15">
+        <v>3.6839733905806894E-3</v>
+      </c>
+      <c r="E53">
         <v>0</v>
       </c>
       <c r="F53" s="3">
         <f t="shared" si="2"/>
-        <v>3.3394291166414882E-3</v>
-      </c>
-      <c r="G53" s="2">
+        <v>3.6839733905806894E-3</v>
+      </c>
+      <c r="G53" s="15">
         <v>1.136996103999364E-2</v>
       </c>
       <c r="H53" s="3">
         <f t="shared" si="3"/>
-        <v>5.0464095379013129E-4</v>
+        <v>2.1169493582987768E-4</v>
       </c>
       <c r="I53">
         <f t="shared" si="4"/>
@@ -7230,7 +7352,7 @@
       </c>
       <c r="J53">
         <f t="shared" si="5"/>
-        <v>4.4383701229499868E-2</v>
+        <v>1.8618791663862738E-2</v>
       </c>
       <c r="K53" s="9">
         <v>0</v>
@@ -7245,7 +7367,7 @@
       </c>
       <c r="O53" s="4">
         <f t="shared" si="7"/>
-        <v>4.4383701229499868E-2</v>
+        <v>1.8618791663862738E-2</v>
       </c>
       <c r="Q53" s="6">
         <f t="shared" si="12"/>
@@ -7253,11 +7375,11 @@
       </c>
       <c r="R53" s="7">
         <f t="shared" si="8"/>
-        <v>5.0464095379013129E-4</v>
+        <v>2.1169493582987768E-4</v>
       </c>
       <c r="T53" s="3">
         <f t="shared" si="9"/>
-        <v>3.8440700704316195E-3</v>
+        <v>3.8956683264105671E-3</v>
       </c>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.2">
@@ -7266,21 +7388,21 @@
         <v>69</v>
       </c>
       <c r="D54" s="2">
-        <v>3.8440700704316195E-3</v>
-      </c>
-      <c r="E54" s="15">
+        <v>3.8956683264105671E-3</v>
+      </c>
+      <c r="E54">
         <v>0</v>
       </c>
       <c r="F54" s="3">
         <f t="shared" si="2"/>
-        <v>3.8440700704316195E-3</v>
-      </c>
-      <c r="G54" s="2">
+        <v>3.8956683264105671E-3</v>
+      </c>
+      <c r="G54" s="15">
         <v>3.5860787905368798E-3</v>
       </c>
       <c r="H54" s="3">
         <f t="shared" si="3"/>
-        <v>1.7522328328605907E-5</v>
+        <v>6.7544924948612171E-5</v>
       </c>
       <c r="I54">
         <f t="shared" si="4"/>
@@ -7288,7 +7410,7 @@
       </c>
       <c r="J54">
         <f t="shared" si="5"/>
-        <v>4.8862084053603854E-3</v>
+        <v>1.8835315366425586E-2</v>
       </c>
       <c r="K54" s="9">
         <v>0</v>
@@ -7303,7 +7425,7 @@
       </c>
       <c r="O54" s="4">
         <f t="shared" si="7"/>
-        <v>4.8862084053603854E-3</v>
+        <v>1.8835315366425586E-2</v>
       </c>
       <c r="Q54" s="6">
         <f t="shared" si="12"/>
@@ -7311,11 +7433,11 @@
       </c>
       <c r="R54" s="7">
         <f t="shared" si="8"/>
-        <v>1.7522328328605907E-5</v>
+        <v>6.7544924948612171E-5</v>
       </c>
       <c r="T54" s="3">
         <f t="shared" si="9"/>
-        <v>3.8615923987602254E-3</v>
+        <v>3.9632132513591793E-3</v>
       </c>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.2">
@@ -7324,16 +7446,16 @@
         <v>70</v>
       </c>
       <c r="D55" s="2">
-        <v>3.8615923987602254E-3</v>
-      </c>
-      <c r="E55" s="15">
+        <v>3.9632132513591793E-3</v>
+      </c>
+      <c r="E55">
         <v>0</v>
       </c>
       <c r="F55" s="3">
         <f t="shared" si="2"/>
-        <v>3.8615923987602254E-3</v>
-      </c>
-      <c r="G55" s="2">
+        <v>3.9632132513591793E-3</v>
+      </c>
+      <c r="G55" s="15">
         <v>2.2356587571769728E-3</v>
       </c>
       <c r="H55" s="3"/>
@@ -8114,6 +8236,765 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F086B3-DB67-EC42-AB08-E4A981FD4AEA}">
+  <dimension ref="B2:BD60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:56" ht="19" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:56" ht="19" x14ac:dyDescent="0.25">
+      <c r="B3" s="14"/>
+    </row>
+    <row r="4" spans="2:56" ht="19" x14ac:dyDescent="0.25">
+      <c r="B4" s="14"/>
+    </row>
+    <row r="5" spans="2:56" ht="19" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U5" t="s">
+        <v>60</v>
+      </c>
+      <c r="V5" t="s">
+        <v>61</v>
+      </c>
+      <c r="W5" t="s">
+        <v>62</v>
+      </c>
+      <c r="X5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:56" ht="19" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" spans="2:56" ht="19" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="2:56" ht="19" x14ac:dyDescent="0.25">
+      <c r="B8" s="14">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="C8">
+        <v>1.47E-2</v>
+      </c>
+      <c r="D8">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="E8">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="F8">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="G8">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="H8">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="I8">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="J8">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="K8">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="L8">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="M8">
+        <v>5.4699999999999999E-2</v>
+      </c>
+      <c r="N8">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="O8">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="P8">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="Q8">
+        <v>3.73E-2</v>
+      </c>
+      <c r="R8">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="S8">
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="T8">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="U8">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="V8">
+        <v>1.77E-2</v>
+      </c>
+      <c r="W8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="X8">
+        <v>8.6E-3</v>
+      </c>
+      <c r="Y8">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="Z8">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="AA8">
+        <v>1.9E-3</v>
+      </c>
+      <c r="AB8">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="AC8">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AD8">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:56" ht="19" x14ac:dyDescent="0.25">
+      <c r="B10" s="14">
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>1.47E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>2.1899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>3.1399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>3.2599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>3.2300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>3.9699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>4.1200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>4.5699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>5.4699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>5.1299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>4.8500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>4.4499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>3.73E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>3.4599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>3.4700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>2.3900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>1.77E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>8.6E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>1.6999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBA7D07-8BCF-AB4B-B8CC-B67C12516F98}">
   <dimension ref="B2:E53"/>
   <sheetViews>
@@ -8128,10 +9009,10 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D2" s="11" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
@@ -8755,318 +9636,430 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6CD85F-1A18-B640-A9D7-1D540D594902}">
-  <dimension ref="B3:BP7"/>
+  <dimension ref="C2:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E3" sqref="E3:E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:68" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>2.4369979999999999E-2</v>
-      </c>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C3">
-        <v>3.7939630000000002E-2</v>
-      </c>
-      <c r="D3">
-        <v>4.8186100000000003E-2</v>
+        <v>2.84206E-3</v>
       </c>
       <c r="E3">
-        <v>5.5109390000000001E-2</v>
-      </c>
-      <c r="F3">
-        <v>6.3140399999999999E-2</v>
-      </c>
-      <c r="G3">
-        <v>8.4464139999999993E-2</v>
-      </c>
-      <c r="H3">
-        <v>9.8864579999999994E-2</v>
-      </c>
-      <c r="I3">
-        <v>9.6926059999999994E-2</v>
-      </c>
-      <c r="J3">
-        <v>0.10938798</v>
-      </c>
-      <c r="K3">
-        <v>0.12406536</v>
-      </c>
-      <c r="L3">
-        <v>0.12129603999999999</v>
-      </c>
-      <c r="M3">
-        <v>0.13597340999999999</v>
-      </c>
-      <c r="N3">
-        <v>0.11381889000000001</v>
-      </c>
-      <c r="O3">
-        <v>0.10938798</v>
-      </c>
-      <c r="P3">
-        <v>0.10108003</v>
-      </c>
-      <c r="Q3">
-        <v>8.7510379999999999E-2</v>
-      </c>
-      <c r="R3">
-        <v>8.5017999999999996E-2</v>
-      </c>
-      <c r="S3">
-        <v>6.2309610000000001E-2</v>
-      </c>
-      <c r="T3">
-        <v>5.0401550000000003E-2</v>
-      </c>
-      <c r="U3">
-        <v>4.1262809999999997E-2</v>
-      </c>
-      <c r="V3">
-        <v>2.5754639999999999E-2</v>
-      </c>
-      <c r="W3">
-        <v>1.8000550000000001E-2</v>
-      </c>
-      <c r="X3">
-        <v>1.523124E-2</v>
-      </c>
-      <c r="Y3">
-        <v>7.75408E-3</v>
-      </c>
-      <c r="Z3">
-        <v>4.7078399999999996E-3</v>
-      </c>
-      <c r="AA3">
-        <v>4.1539699999999999E-3</v>
-      </c>
-      <c r="AB3">
-        <v>1.6615899999999999E-3</v>
-      </c>
-      <c r="AC3">
-        <v>5.5385999999999999E-4</v>
-      </c>
-      <c r="AD3">
-        <v>2.7692999999999999E-4</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
-      <c r="BP3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:68" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R7" t="s">
-        <v>31</v>
-      </c>
-      <c r="S7" t="s">
-        <v>32</v>
-      </c>
-      <c r="T7" t="s">
-        <v>20</v>
-      </c>
-      <c r="U7" t="s">
-        <v>33</v>
-      </c>
-      <c r="V7" t="s">
-        <v>33</v>
-      </c>
-      <c r="W7" t="s">
-        <v>34</v>
-      </c>
-      <c r="X7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>2.192448E-2</v>
+      </c>
+      <c r="E4">
+        <v>7.4891599999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>4.5066990000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>1.379582E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>5.4811209999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>9.0658300000000004E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>6.211937E-2</v>
+      </c>
+      <c r="E7">
+        <v>1.221916E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>6.9021520000000003E-2</v>
+      </c>
+      <c r="E8">
+        <v>1.694915E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>8.6479899999999998E-2</v>
+      </c>
+      <c r="E9">
+        <v>2.0890820000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>9.6630129999999995E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.5372490000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>0.10272025999999999</v>
+      </c>
+      <c r="E11">
+        <v>1.7343319999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>0.10393829</v>
+      </c>
+      <c r="E12">
+        <v>1.6554989999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>0.11327648999999999</v>
+      </c>
+      <c r="E13">
+        <v>1.300749E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>0.12911084</v>
+      </c>
+      <c r="E14">
+        <v>1.5372490000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>0.13357694000000001</v>
+      </c>
+      <c r="E15">
+        <v>1.4584150000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>0.10353228</v>
+      </c>
+      <c r="E16">
+        <v>1.497832E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>0.10799838</v>
+      </c>
+      <c r="E17">
+        <v>1.300749E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>8.607389E-2</v>
+      </c>
+      <c r="E18">
+        <v>8.6716599999999994E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>7.2675600000000007E-2</v>
+      </c>
+      <c r="E19">
+        <v>9.0658300000000004E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>6.3743400000000006E-2</v>
+      </c>
+      <c r="E20">
+        <v>8.6716599999999994E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>5.8059279999999998E-2</v>
+      </c>
+      <c r="E21">
+        <v>3.9416599999999996E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>3.329273E-2</v>
+      </c>
+      <c r="E22">
+        <v>2.3649999999999999E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>3.5728790000000003E-2</v>
+      </c>
+      <c r="E23">
+        <v>3.1533300000000002E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>2.6796589999999999E-2</v>
+      </c>
+      <c r="E24">
+        <v>2.3649999999999999E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>2.1518470000000001E-2</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>1.421031E-2</v>
+      </c>
+      <c r="E26">
+        <v>7.8832999999999996E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>6.9021500000000001E-3</v>
+      </c>
+      <c r="E27">
+        <v>7.8832999999999996E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>4.0600899999999997E-3</v>
+      </c>
+      <c r="E28">
+        <v>3.9417E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>2.4360499999999999E-3</v>
+      </c>
+      <c r="E29">
+        <v>3.9417E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>4.0601E-4</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>4.0601E-4</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/intensities/outsidermalli.xlsx
+++ b/intensities/outsidermalli.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antti/Github/econogym/intensities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA6FF45-E44A-0C44-9688-BFFE2E2EF8F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DF6BB7-EA03-EC4A-91B3-0CF09DC56D8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21900" windowHeight="15520" xr2:uid="{4432A973-DB75-B946-AAB0-63A29BD95705}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27280" windowHeight="15520" activeTab="1" xr2:uid="{4432A973-DB75-B946-AAB0-63A29BD95705}"/>
   </bookViews>
   <sheets>
     <sheet name="miehet" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="81">
   <si>
     <t>Miehet</t>
   </si>
@@ -278,6 +278,9 @@
   <si>
     <t>0.)</t>
   </si>
+  <si>
+    <t>y+vanh</t>
+  </si>
 </sst>
 </file>
 
@@ -291,7 +294,7 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.000000"/>
     <numFmt numFmtId="169" formatCode="0.0000000"/>
-    <numFmt numFmtId="175" formatCode="_-* #,##0.00000\ _€_-;\-* #,##0.00000\ _€_-;_-* &quot;-&quot;?????\ _€_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00000\ _€_-;\-* #,##0.00000\ _€_-;_-* &quot;-&quot;?????\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -343,7 +346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -359,7 +362,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -677,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92590640-645E-204B-9831-3012D0CA494E}">
   <dimension ref="B1:T310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -778,11 +782,11 @@
       </c>
       <c r="H5" s="3">
         <f>F6-F5</f>
-        <v>-8.495694219787546E-2</v>
+        <v>-7.7467782197875465E-2</v>
       </c>
       <c r="I5">
         <f>IF(H5&lt;0,-H5/D5,0)</f>
-        <v>0.56127951385705399</v>
+        <v>0.51180136674804921</v>
       </c>
       <c r="J5">
         <f>IF(H5&gt;0,H5/G5,0)</f>
@@ -797,7 +801,7 @@
       </c>
       <c r="N5" s="6">
         <f>I5+K5</f>
-        <v>0.58127951385705401</v>
+        <v>0.53180136674804923</v>
       </c>
       <c r="O5" s="4">
         <f>L5+J5</f>
@@ -805,7 +809,7 @@
       </c>
       <c r="Q5" s="4">
         <f>N5*D5</f>
-        <v>8.7984201882237018E-2</v>
+        <v>8.0495041882237009E-2</v>
       </c>
       <c r="R5" s="5">
         <f>O5*G5</f>
@@ -813,7 +817,7 @@
       </c>
       <c r="T5" s="3">
         <f>D5+R5-Q5</f>
-        <v>6.6406042020202005E-2</v>
+        <v>7.3895202020202014E-2</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
@@ -825,22 +829,22 @@
         <v>7.3895202020202014E-2</v>
       </c>
       <c r="E6">
-        <v>7.4891599999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" ref="F6:F55" si="1">MAX(0,D6-E6)</f>
-        <v>6.6406042020202019E-2</v>
+        <v>7.3895202020202014E-2</v>
       </c>
       <c r="G6" s="2">
         <v>0.62556818181818186</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" ref="H6:H54" si="2">F7-F6</f>
-        <v>-1.7595388425653474E-2</v>
+        <v>-1.1288728425653469E-2</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I54" si="3">IF(H6&lt;0,-H6/D6,0)</f>
-        <v>0.23811273187727558</v>
+        <v>0.15276673068120544</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:J54" si="4">IF(H6&gt;0,H6/G6,0)</f>
@@ -855,7 +859,7 @@
       </c>
       <c r="N6" s="6">
         <f t="shared" ref="N6:N54" si="5">I6+K6</f>
-        <v>0.25811273187727557</v>
+        <v>0.17276673068120543</v>
       </c>
       <c r="O6" s="4">
         <f t="shared" ref="O6:O54" si="6">L6+J6</f>
@@ -863,46 +867,46 @@
       </c>
       <c r="Q6" s="4">
         <f t="shared" ref="Q6:Q54" si="7">N6*D6</f>
-        <v>1.9073292466057514E-2</v>
+        <v>1.2766632466057509E-2</v>
       </c>
       <c r="R6" s="5">
         <f t="shared" ref="R6:R54" si="8">O6*G6</f>
         <v>1.4779040404040403E-3</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" ref="T6:T54" si="9">D6+R6-Q6</f>
-        <v>5.629981359454854E-2</v>
+        <f>T5+R6-Q6</f>
+        <v>6.2606473594548545E-2</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1">
-        <f t="shared" ref="C7:C55" si="10">1+C6</f>
+        <f t="shared" ref="C7:C55" si="9">1+C6</f>
         <v>22</v>
       </c>
       <c r="D7" s="2">
         <v>6.2606473594548545E-2</v>
       </c>
       <c r="E7">
-        <v>1.379582E-2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="1"/>
-        <v>4.8810653594548545E-2</v>
+        <v>6.2606473594548545E-2</v>
       </c>
       <c r="G7" s="2">
         <v>0.64063640788513021</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="2"/>
-        <v>1.8946431660148283E-3</v>
+        <v>-2.8353468339851681E-3</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.5288397048960378E-2</v>
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
-        <v>2.9574391069490209E-3</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0.02</v>
@@ -913,50 +917,50 @@
       </c>
       <c r="N7" s="6">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>6.5288397048960375E-2</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="6"/>
-        <v>4.9119478680487881E-3</v>
+        <v>1.9545087610997672E-3</v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="7"/>
-        <v>1.252129471890971E-3</v>
+        <v>4.0874763058761391E-3</v>
       </c>
       <c r="R7" s="5">
         <f t="shared" si="8"/>
-        <v>3.1467726379057993E-3</v>
+        <v>1.252129471890971E-3</v>
       </c>
       <c r="T7" s="3">
-        <f t="shared" si="9"/>
-        <v>6.4501116760563373E-2</v>
+        <f t="shared" ref="T7:T54" si="10">T6+R7-Q7</f>
+        <v>5.9771126760563384E-2</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="D8" s="2">
         <v>5.9771126760563377E-2</v>
       </c>
       <c r="E8">
-        <v>9.0658300000000004E-3</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="1"/>
-        <v>5.0705296760563373E-2</v>
+        <v>5.9771126760563377E-2</v>
       </c>
       <c r="G8" s="2">
         <v>0.66710680751173701</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="2"/>
-        <v>-5.564872681470219E-3</v>
+        <v>-2.4115426814702232E-3</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>9.3103024538294096E-2</v>
+        <v>4.0346281092049685E-2</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
@@ -971,7 +975,7 @@
       </c>
       <c r="N8" s="6">
         <f t="shared" si="5"/>
-        <v>0.1131030245382941</v>
+        <v>6.0346281092049689E-2</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="6"/>
@@ -979,42 +983,42 @@
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="7"/>
-        <v>6.7602952166814865E-3</v>
+        <v>3.6069652166814911E-3</v>
       </c>
       <c r="R8" s="5">
         <f t="shared" si="8"/>
         <v>1.1954225352112675E-3</v>
       </c>
       <c r="T8" s="3">
-        <f t="shared" si="9"/>
-        <v>5.4206254079093158E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.7359584079093161E-2</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="D9" s="2">
         <v>5.7359584079093154E-2</v>
       </c>
       <c r="E9">
-        <v>1.221916E-2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="1"/>
-        <v>4.5140424079093154E-2</v>
+        <v>5.7359584079093154E-2</v>
       </c>
       <c r="G9" s="2">
         <v>0.71433847552487284</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="2"/>
-        <v>-4.9055686572022708E-3</v>
+        <v>-1.7557865720226745E-4</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>8.5523086262933506E-2</v>
+        <v>3.0610169167224429E-3</v>
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
@@ -1029,7 +1033,7 @@
       </c>
       <c r="N9" s="6">
         <f t="shared" si="5"/>
-        <v>0.10552308626293351</v>
+        <v>2.3061016916722445E-2</v>
       </c>
       <c r="O9" s="4">
         <f t="shared" si="6"/>
@@ -1037,46 +1041,46 @@
       </c>
       <c r="Q9" s="4">
         <f t="shared" si="7"/>
-        <v>6.0527603387841343E-3</v>
+        <v>1.3227703387841305E-3</v>
       </c>
       <c r="R9" s="5">
         <f t="shared" si="8"/>
         <v>1.1471916815818631E-3</v>
       </c>
       <c r="T9" s="3">
-        <f t="shared" si="9"/>
-        <v>5.2454015421890883E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.7184005421890893E-2</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="D10" s="2">
         <v>5.7184005421890886E-2</v>
       </c>
       <c r="E10">
-        <v>1.694915E-2</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="1"/>
-        <v>4.0234855421890883E-2</v>
+        <v>5.7184005421890886E-2</v>
       </c>
       <c r="G10" s="2">
         <v>0.76208629842991082</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="2"/>
-        <v>-3.7475196233219682E-3</v>
+        <v>1.9415037667803309E-4</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>6.5534402420285201E-2</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.5476166817069357E-4</v>
       </c>
       <c r="K10">
         <v>0.02</v>
@@ -1087,46 +1091,46 @@
       </c>
       <c r="N10" s="6">
         <f t="shared" si="5"/>
-        <v>8.5534402420285205E-2</v>
+        <v>0.02</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="6"/>
-        <v>1.5007225701263571E-3</v>
+        <v>1.7554842382970506E-3</v>
       </c>
       <c r="Q10" s="4">
         <f t="shared" si="7"/>
-        <v>4.8911997317597862E-3</v>
+        <v>1.1436801084378178E-3</v>
       </c>
       <c r="R10" s="5">
         <f t="shared" si="8"/>
-        <v>1.1436801084378178E-3</v>
+        <v>1.3378304851158508E-3</v>
       </c>
       <c r="T10" s="3">
-        <f t="shared" si="9"/>
-        <v>5.3436485798568918E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.7378155798568926E-2</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="D11" s="2">
         <v>5.7378155798568919E-2</v>
       </c>
       <c r="E11">
-        <v>2.0890820000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="1"/>
-        <v>3.6487335798568915E-2</v>
+        <v>5.7378155798568919E-2</v>
       </c>
       <c r="G11" s="2">
         <v>0.79859592277575264</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="2"/>
-        <v>6.6599676609835762E-3</v>
+        <v>1.1416376609835743E-3</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
@@ -1134,7 +1138,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
-        <v>8.3395963728877046E-3</v>
+        <v>1.4295560851544048E-3</v>
       </c>
       <c r="K11">
         <v>0.02</v>
@@ -1149,7 +1153,7 @@
       </c>
       <c r="O11" s="4">
         <f t="shared" si="6"/>
-        <v>9.7765722993145374E-3</v>
+        <v>2.8665320115812375E-3</v>
       </c>
       <c r="Q11" s="4">
         <f t="shared" si="7"/>
@@ -1157,38 +1161,38 @@
       </c>
       <c r="R11" s="5">
         <f t="shared" si="8"/>
-        <v>7.8075307769549544E-3</v>
+        <v>2.289200776954953E-3</v>
       </c>
       <c r="T11" s="3">
-        <f t="shared" si="9"/>
-        <v>6.4038123459552496E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.8519793459552501E-2</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>5.8519793459552494E-2</v>
       </c>
       <c r="E12">
-        <v>1.5372490000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="1"/>
-        <v>4.3147303459552491E-2</v>
+        <v>5.8519793459552494E-2</v>
       </c>
       <c r="G12" s="2">
         <v>0.82179056361500424</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="2"/>
-        <v>-2.1953828034621398E-3</v>
+        <v>-2.245528034621469E-4</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>3.7515217906220685E-2</v>
+        <v>3.8372111415149223E-3</v>
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
@@ -1203,7 +1207,7 @@
       </c>
       <c r="N12" s="6">
         <f t="shared" si="5"/>
-        <v>5.7515217906220689E-2</v>
+        <v>2.3837211141514922E-2</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" si="6"/>
@@ -1211,38 +1215,38 @@
       </c>
       <c r="Q12" s="4">
         <f t="shared" si="7"/>
-        <v>3.3657786726531899E-3</v>
+        <v>1.3949486726531968E-3</v>
       </c>
       <c r="R12" s="5">
         <f t="shared" si="8"/>
         <v>1.1703958691910499E-3</v>
       </c>
       <c r="T12" s="3">
-        <f t="shared" si="9"/>
-        <v>5.6324410656090354E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.8295240656090354E-2</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>5.8295240656090347E-2</v>
       </c>
       <c r="E13">
-        <v>1.7343319999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="1"/>
-        <v>4.0951920656090351E-2</v>
+        <v>5.8295240656090347E-2</v>
       </c>
       <c r="G13" s="2">
         <v>0.84272653939230979</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="2"/>
-        <v>1.4847090718942621E-3</v>
+        <v>6.9637907189426529E-4</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
@@ -1250,7 +1254,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
-        <v>1.7617922332965638E-3</v>
+        <v>8.263405023371215E-4</v>
       </c>
       <c r="K13">
         <v>0.02</v>
@@ -1265,7 +1269,7 @@
       </c>
       <c r="O13" s="4">
         <f t="shared" si="6"/>
-        <v>3.1452835067083884E-3</v>
+        <v>2.2098317757489462E-3</v>
       </c>
       <c r="Q13" s="4">
         <f t="shared" si="7"/>
@@ -1273,42 +1277,42 @@
       </c>
       <c r="R13" s="5">
         <f t="shared" si="8"/>
-        <v>2.6506138850160691E-3</v>
+        <v>1.8622838850160721E-3</v>
       </c>
       <c r="T13" s="3">
-        <f t="shared" si="9"/>
-        <v>5.9779949727984609E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.8991619727984619E-2</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>5.8991619727984612E-2</v>
       </c>
       <c r="E14">
-        <v>1.6554989999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="1"/>
-        <v>4.2436629727984614E-2</v>
+        <v>5.8991619727984612E-2</v>
       </c>
       <c r="G14" s="2">
         <v>0.85764528094518477</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="2"/>
-        <v>3.2392040165703309E-3</v>
+        <v>-3.0829598342967113E-4</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.2260979585108903E-3</v>
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>3.7768575057050423E-3</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0.02</v>
@@ -1319,46 +1323,46 @@
       </c>
       <c r="N14" s="6">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>2.5226097958510892E-2</v>
       </c>
       <c r="O14" s="4">
         <f t="shared" si="6"/>
-        <v>5.1525222715152561E-3</v>
+        <v>1.3756647658102134E-3</v>
       </c>
       <c r="Q14" s="4">
         <f t="shared" si="7"/>
-        <v>1.1798323945596922E-3</v>
+        <v>1.4881283779893636E-3</v>
       </c>
       <c r="R14" s="5">
         <f t="shared" si="8"/>
-        <v>4.4190364111300236E-3</v>
+        <v>1.1798323945596922E-3</v>
       </c>
       <c r="T14" s="3">
-        <f t="shared" si="9"/>
-        <v>6.2230823744554943E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.8683323744554948E-2</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="D15" s="2">
         <v>5.8683323744554941E-2</v>
       </c>
       <c r="E15">
-        <v>1.300749E-2</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="1"/>
-        <v>4.5675833744554944E-2</v>
+        <v>5.8683323744554941E-2</v>
       </c>
       <c r="G15" s="2">
         <v>0.86362017478973174</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="2"/>
-        <v>8.1548615355760135E-5</v>
+        <v>2.4465486153557661E-3</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
@@ -1366,7 +1370,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
-        <v>9.4426482539751951E-5</v>
+        <v>2.8328988677822804E-3</v>
       </c>
       <c r="K15">
         <v>0.02</v>
@@ -1381,7 +1385,7 @@
       </c>
       <c r="O15" s="4">
         <f t="shared" si="6"/>
-        <v>1.4534341911969229E-3</v>
+        <v>4.1919065764394513E-3</v>
       </c>
       <c r="Q15" s="4">
         <f t="shared" si="7"/>
@@ -1389,38 +1393,38 @@
       </c>
       <c r="R15" s="5">
         <f t="shared" si="8"/>
-        <v>1.2552150902468589E-3</v>
+        <v>3.6202150902468651E-3</v>
       </c>
       <c r="T15" s="3">
-        <f t="shared" si="9"/>
-        <v>5.8764872359910701E-2</v>
+        <f t="shared" si="10"/>
+        <v>6.1129872359910721E-2</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C16" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="D16" s="2">
         <v>6.1129872359910707E-2</v>
       </c>
       <c r="E16">
-        <v>1.5372490000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="1"/>
-        <v>4.5757382359910705E-2</v>
+        <v>6.1129872359910707E-2</v>
       </c>
       <c r="G16" s="2">
         <v>0.87118653769103094</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="2"/>
-        <v>-4.7655917462890926E-3</v>
+        <v>-5.553931746289098E-3</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>7.795847696574601E-2</v>
+        <v>9.0854626909566319E-2</v>
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
@@ -1435,7 +1439,7 @@
       </c>
       <c r="N16" s="6">
         <f t="shared" si="5"/>
-        <v>9.7958476965746014E-2</v>
+        <v>0.11085462690956632</v>
       </c>
       <c r="O16" s="4">
         <f t="shared" si="6"/>
@@ -1443,38 +1447,38 @@
       </c>
       <c r="Q16" s="4">
         <f t="shared" si="7"/>
-        <v>5.9881891934873066E-3</v>
+        <v>6.776529193487312E-3</v>
       </c>
       <c r="R16" s="5">
         <f t="shared" si="8"/>
         <v>1.2225974471982142E-3</v>
       </c>
       <c r="T16" s="3">
-        <f t="shared" si="9"/>
-        <v>5.6364280613621615E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.5575940613621623E-2</v>
       </c>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="D17" s="2">
         <v>5.5575940613621609E-2</v>
       </c>
       <c r="E17">
-        <v>1.4584150000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="1"/>
-        <v>4.0991790613621612E-2</v>
+        <v>5.5575940613621609E-2</v>
       </c>
       <c r="G17" s="2">
         <v>0.88340060402495135</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="2"/>
-        <v>8.633369532049795E-4</v>
+        <v>1.2575069532049857E-3</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
@@ -1482,7 +1486,7 @@
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
-        <v>9.7728816266532108E-4</v>
+        <v>1.4234843710492504E-3</v>
       </c>
       <c r="K17">
         <v>0.02</v>
@@ -1497,7 +1501,7 @@
       </c>
       <c r="O17" s="4">
         <f t="shared" si="6"/>
-        <v>2.2355155254361052E-3</v>
+        <v>2.6817117338200345E-3</v>
       </c>
       <c r="Q17" s="4">
         <f t="shared" si="7"/>
@@ -1505,34 +1509,34 @@
       </c>
       <c r="R17" s="5">
         <f t="shared" si="8"/>
-        <v>1.9748557654774117E-3</v>
+        <v>2.3690257654774179E-3</v>
       </c>
       <c r="T17" s="3">
-        <f t="shared" si="9"/>
-        <v>5.6439277566826582E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.6833447566826609E-2</v>
       </c>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="D18" s="2">
         <v>5.6833447566826595E-2</v>
       </c>
       <c r="E18">
-        <v>1.497832E-2</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="1"/>
-        <v>4.1855127566826592E-2</v>
+        <v>5.6833447566826595E-2</v>
       </c>
       <c r="G18" s="2">
         <v>0.88411240575736805</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="2"/>
-        <v>2.6537223024544476E-3</v>
+        <v>6.8289230245444782E-4</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
@@ -1540,7 +1544,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
-        <v>3.0015666392342465E-3</v>
+        <v>7.7240438886213051E-4</v>
       </c>
       <c r="K18">
         <v>0.02</v>
@@ -1555,7 +1559,7 @@
       </c>
       <c r="O18" s="4">
         <f t="shared" si="6"/>
-        <v>4.2872277655056435E-3</v>
+        <v>2.0580655151335274E-3</v>
       </c>
       <c r="Q18" s="4">
         <f t="shared" si="7"/>
@@ -1563,38 +1567,38 @@
       </c>
       <c r="R18" s="5">
         <f t="shared" si="8"/>
-        <v>3.7903912537909797E-3</v>
+        <v>1.8195612537909799E-3</v>
       </c>
       <c r="T18" s="3">
-        <f t="shared" si="9"/>
-        <v>5.9487169869281042E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.7516339869281057E-2</v>
       </c>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="D19" s="2">
         <v>5.7516339869281043E-2</v>
       </c>
       <c r="E19">
-        <v>1.300749E-2</v>
+        <v>0</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="1"/>
-        <v>4.4508849869281039E-2</v>
+        <v>5.7516339869281043E-2</v>
       </c>
       <c r="G19" s="2">
         <v>0.88547418967587033</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="2"/>
-        <v>-5.6965691188952394E-4</v>
+        <v>-4.9054869118895297E-3</v>
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>9.9042622180792236E-3</v>
+        <v>8.5288579263533879E-2</v>
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
@@ -1609,7 +1613,7 @@
       </c>
       <c r="N19" s="6">
         <f t="shared" si="5"/>
-        <v>2.9904262218079222E-2</v>
+        <v>0.10528857926353388</v>
       </c>
       <c r="O19" s="4">
         <f t="shared" si="6"/>
@@ -1617,38 +1621,38 @@
       </c>
       <c r="Q19" s="4">
         <f t="shared" si="7"/>
-        <v>1.7199837092751447E-3</v>
+        <v>6.0558137092751509E-3</v>
       </c>
       <c r="R19" s="5">
         <f t="shared" si="8"/>
         <v>1.150326797385621E-3</v>
       </c>
       <c r="T19" s="3">
-        <f t="shared" si="9"/>
-        <v>5.6946682957391519E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.2610852957391527E-2</v>
       </c>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="D20" s="2">
         <v>5.2610852957391513E-2</v>
       </c>
       <c r="E20">
-        <v>8.6716599999999994E-3</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="1"/>
-        <v>4.3939192957391515E-2</v>
+        <v>5.2610852957391513E-2</v>
       </c>
       <c r="G20" s="2">
         <v>0.89270431335486078</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="2"/>
-        <v>5.9084942336029567E-4</v>
+        <v>9.8501942336030185E-4</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
@@ -1656,7 +1660,7 @@
       </c>
       <c r="J20">
         <f t="shared" si="4"/>
-        <v>6.6186464490110048E-4</v>
+        <v>1.1034106239035777E-3</v>
       </c>
       <c r="K20">
         <v>0.02</v>
@@ -1671,7 +1675,7 @@
       </c>
       <c r="O20" s="4">
         <f t="shared" si="6"/>
-        <v>1.8405495055057353E-3</v>
+        <v>2.2820954845082127E-3</v>
       </c>
       <c r="Q20" s="4">
         <f t="shared" si="7"/>
@@ -1679,38 +1683,38 @@
       </c>
       <c r="R20" s="5">
         <f t="shared" si="8"/>
-        <v>1.643066482508126E-3</v>
+        <v>2.0372364825081324E-3</v>
       </c>
       <c r="T20" s="3">
-        <f t="shared" si="9"/>
-        <v>5.3201702380751809E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.3595872380751829E-2</v>
       </c>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="D21" s="2">
         <v>5.3595872380751815E-2</v>
       </c>
       <c r="E21">
-        <v>9.0658300000000004E-3</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="1"/>
-        <v>4.4530042380751811E-2</v>
+        <v>5.3595872380751815E-2</v>
       </c>
       <c r="G21" s="2">
         <v>0.8937559229230283</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="2"/>
-        <v>-1.6927708374255002E-3</v>
+        <v>-2.0869408374255063E-3</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>3.1583977687681682E-2</v>
+        <v>3.8938461950943096E-2</v>
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
@@ -1725,7 +1729,7 @@
       </c>
       <c r="N21" s="6">
         <f t="shared" si="5"/>
-        <v>5.1583977687681679E-2</v>
+        <v>5.89384619509431E-2</v>
       </c>
       <c r="O21" s="4">
         <f t="shared" si="6"/>
@@ -1733,38 +1737,38 @@
       </c>
       <c r="Q21" s="4">
         <f t="shared" si="7"/>
-        <v>2.7646882850405363E-3</v>
+        <v>3.1588582850405429E-3</v>
       </c>
       <c r="R21" s="5">
         <f t="shared" si="8"/>
         <v>1.0719174476150363E-3</v>
       </c>
       <c r="T21" s="3">
-        <f t="shared" si="9"/>
-        <v>5.1903101543326315E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.1508931543326322E-2</v>
       </c>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="D22" s="2">
         <v>5.1508931543326308E-2</v>
       </c>
       <c r="E22">
-        <v>8.6716599999999994E-3</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="1"/>
-        <v>4.2837271543326311E-2</v>
+        <v>5.1508931543326308E-2</v>
       </c>
       <c r="G22" s="2">
         <v>0.89495728392322205</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="2"/>
-        <v>6.1222824003199783E-3</v>
+        <v>1.3922824003199802E-3</v>
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
@@ -1772,7 +1776,7 @@
       </c>
       <c r="J22">
         <f t="shared" si="4"/>
-        <v>6.8408654919056514E-3</v>
+        <v>1.5556970431221423E-3</v>
       </c>
       <c r="K22">
         <v>0.02</v>
@@ -1787,7 +1791,7 @@
       </c>
       <c r="O22" s="4">
         <f t="shared" si="6"/>
-        <v>7.9919580070149029E-3</v>
+        <v>2.7067895582313936E-3</v>
       </c>
       <c r="Q22" s="4">
         <f t="shared" si="7"/>
@@ -1795,38 +1799,38 @@
       </c>
       <c r="R22" s="5">
         <f t="shared" si="8"/>
-        <v>7.1524610311865045E-3</v>
+        <v>2.422461031186506E-3</v>
       </c>
       <c r="T22" s="3">
-        <f t="shared" si="9"/>
-        <v>5.7631213943646287E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.2901213943646302E-2</v>
       </c>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="D23" s="2">
         <v>5.2901213943646289E-2</v>
       </c>
       <c r="E23">
-        <v>3.9416599999999996E-3</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="1"/>
-        <v>4.8959553943646289E-2</v>
+        <v>5.2901213943646289E-2</v>
       </c>
       <c r="G23" s="2">
         <v>0.89572892304265517</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="2"/>
-        <v>-7.2931584840819214E-4</v>
+        <v>-2.3059758484081927E-3</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>1.3786372637594014E-2</v>
+        <v>4.3590225563909811E-2</v>
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
@@ -1841,7 +1845,7 @@
       </c>
       <c r="N23" s="6">
         <f t="shared" si="5"/>
-        <v>3.3786372637594014E-2</v>
+        <v>6.3590225563909808E-2</v>
       </c>
       <c r="O23" s="4">
         <f t="shared" si="6"/>
@@ -1849,42 +1853,42 @@
       </c>
       <c r="Q23" s="4">
         <f t="shared" si="7"/>
-        <v>1.7873401272811178E-3</v>
+        <v>3.3640001272811182E-3</v>
       </c>
       <c r="R23" s="5">
         <f t="shared" si="8"/>
         <v>1.0580242788729257E-3</v>
       </c>
       <c r="T23" s="3">
-        <f t="shared" si="9"/>
-        <v>5.2171898095238096E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.059523809523811E-2</v>
       </c>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="D24" s="2">
         <v>5.0595238095238096E-2</v>
       </c>
       <c r="E24">
-        <v>2.3649999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>4.8230238095238097E-2</v>
+        <v>5.0595238095238096E-2</v>
       </c>
       <c r="G24" s="2">
         <v>0.90093537414965985</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="2"/>
-        <v>-1.4088504144695174E-3</v>
+        <v>-6.2052041446951367E-4</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>2.7845514074221051E-2</v>
+        <v>1.2264403485985682E-2</v>
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
@@ -1899,7 +1903,7 @@
       </c>
       <c r="N24" s="6">
         <f t="shared" si="5"/>
-        <v>4.7845514074221052E-2</v>
+        <v>3.2264403485985679E-2</v>
       </c>
       <c r="O24" s="4">
         <f t="shared" si="6"/>
@@ -1907,42 +1911,42 @@
       </c>
       <c r="Q24" s="4">
         <f t="shared" si="7"/>
-        <v>2.4207551763742795E-3</v>
+        <v>1.6324251763742755E-3</v>
       </c>
       <c r="R24" s="5">
         <f t="shared" si="8"/>
         <v>1.011904761904762E-3</v>
       </c>
       <c r="T24" s="3">
-        <f t="shared" si="9"/>
-        <v>4.9186387680768578E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.9974717680768596E-2</v>
       </c>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="D25" s="2">
         <v>4.9974717680768582E-2</v>
       </c>
       <c r="E25">
-        <v>3.1533300000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="1"/>
-        <v>4.6821387680768579E-2</v>
+        <v>4.9974717680768582E-2</v>
       </c>
       <c r="G25" s="2">
         <v>0.89881454014270468</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="2"/>
-        <v>-3.0911709351749417E-3</v>
+        <v>-3.8795009351749454E-3</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>6.1854695306552882E-2</v>
+        <v>7.762927166405717E-2</v>
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
@@ -1957,7 +1961,7 @@
       </c>
       <c r="N25" s="6">
         <f t="shared" si="5"/>
-        <v>8.1854695306552885E-2</v>
+        <v>9.7629271664057174E-2</v>
       </c>
       <c r="O25" s="4">
         <f t="shared" si="6"/>
@@ -1965,38 +1969,38 @@
       </c>
       <c r="Q25" s="4">
         <f t="shared" si="7"/>
-        <v>4.090665288790314E-3</v>
+        <v>4.8789952887903169E-3</v>
       </c>
       <c r="R25" s="5">
         <f t="shared" si="8"/>
         <v>9.9949435361537165E-4</v>
       </c>
       <c r="T25" s="3">
-        <f t="shared" si="9"/>
-        <v>4.6883546745593641E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.6095216745593651E-2</v>
       </c>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
       <c r="D26" s="2">
         <v>4.6095216745593637E-2</v>
       </c>
       <c r="E26">
-        <v>2.3649999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="1"/>
-        <v>4.3730216745593638E-2</v>
+        <v>4.6095216745593637E-2</v>
       </c>
       <c r="G26" s="2">
         <v>0.90298988427158355</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="2"/>
-        <v>3.1408738551680845E-3</v>
+        <v>7.7587385516808549E-4</v>
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
@@ -2004,7 +2008,7 @@
       </c>
       <c r="J26">
         <f t="shared" si="4"/>
-        <v>3.4783045855510761E-3</v>
+        <v>8.5922762666822236E-4</v>
       </c>
       <c r="K26">
         <v>0.02</v>
@@ -2019,7 +2023,7 @@
       </c>
       <c r="O26" s="4">
         <f t="shared" si="6"/>
-        <v>4.499251055682961E-3</v>
+        <v>1.8801740968001075E-3</v>
       </c>
       <c r="Q26" s="4">
         <f t="shared" si="7"/>
@@ -2027,16 +2031,16 @@
       </c>
       <c r="R26" s="5">
         <f t="shared" si="8"/>
-        <v>4.0627781900799574E-3</v>
+        <v>1.6977781900799581E-3</v>
       </c>
       <c r="T26" s="3">
-        <f t="shared" si="9"/>
-        <v>4.9236090600761721E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.6871090600761736E-2</v>
       </c>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="D27" s="2">
@@ -2054,11 +2058,11 @@
       </c>
       <c r="H27" s="3">
         <f t="shared" si="2"/>
-        <v>-1.277757669213675E-3</v>
+        <v>-4.8942766921367814E-4</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>2.7261103866717144E-2</v>
+        <v>1.0441994477630615E-2</v>
       </c>
       <c r="J27">
         <f t="shared" si="4"/>
@@ -2073,7 +2077,7 @@
       </c>
       <c r="N27" s="6">
         <f t="shared" si="5"/>
-        <v>4.7261103866717141E-2</v>
+        <v>3.0441994477630616E-2</v>
       </c>
       <c r="O27" s="4">
         <f t="shared" si="6"/>
@@ -2081,31 +2085,31 @@
       </c>
       <c r="Q27" s="4">
         <f t="shared" si="7"/>
-        <v>2.2151794812289094E-3</v>
+        <v>1.4268494812289126E-3</v>
       </c>
       <c r="R27" s="5">
         <f t="shared" si="8"/>
         <v>9.3742181201523448E-4</v>
       </c>
       <c r="T27" s="3">
-        <f t="shared" si="9"/>
-        <v>4.5593332931548047E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.6381662931548058E-2</v>
       </c>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="D28" s="2">
         <v>4.6381662931548044E-2</v>
       </c>
       <c r="E28">
-        <v>7.8832999999999996E-4</v>
+        <v>0</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="1"/>
-        <v>4.5593332931548047E-2</v>
+        <v>4.6381662931548044E-2</v>
       </c>
       <c r="G28" s="2">
         <v>0.90556296275282966</v>
@@ -2146,35 +2150,35 @@
         <v>1.837173501876975E-3</v>
       </c>
       <c r="T28" s="3">
-        <f t="shared" si="9"/>
-        <v>4.7291203174794058E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.7291203174794072E-2</v>
       </c>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="D29" s="2">
         <v>4.7291203174794058E-2</v>
       </c>
       <c r="E29">
-        <v>7.8832999999999996E-4</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="1"/>
-        <v>4.6502873174794061E-2</v>
+        <v>4.7291203174794058E-2</v>
       </c>
       <c r="G29" s="2">
         <v>0.90190006614154294</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="2"/>
-        <v>-8.5453736217330767E-4</v>
+        <v>-1.2486973621733052E-3</v>
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
-        <v>1.8069689599878296E-2</v>
+        <v>2.640443207921709E-2</v>
       </c>
       <c r="J29">
         <f t="shared" si="4"/>
@@ -2189,7 +2193,7 @@
       </c>
       <c r="N29" s="6">
         <f t="shared" si="5"/>
-        <v>3.8069689599878297E-2</v>
+        <v>4.6404432079217087E-2</v>
       </c>
       <c r="O29" s="4">
         <f t="shared" si="6"/>
@@ -2197,31 +2201,31 @@
       </c>
       <c r="Q29" s="4">
         <f t="shared" si="7"/>
-        <v>1.8003614256691888E-3</v>
+        <v>2.1945214256691862E-3</v>
       </c>
       <c r="R29" s="5">
         <f t="shared" si="8"/>
         <v>9.4582406349588124E-4</v>
       </c>
       <c r="T29" s="3">
-        <f t="shared" si="9"/>
-        <v>4.643666581262075E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.6042505812620767E-2</v>
       </c>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="D30" s="2">
         <v>4.6042505812620753E-2</v>
       </c>
       <c r="E30">
-        <v>3.9417E-4</v>
+        <v>0</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="1"/>
-        <v>4.5648335812620754E-2</v>
+        <v>4.6042505812620753E-2</v>
       </c>
       <c r="G30" s="2">
         <v>0.89936797982774996</v>
@@ -2262,39 +2266,39 @@
         <v>1.4979461607836054E-3</v>
       </c>
       <c r="T30" s="3">
-        <f t="shared" si="9"/>
-        <v>4.6619601857151943E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.6619601857151957E-2</v>
       </c>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="D31" s="2">
         <v>4.6619601857151943E-2</v>
       </c>
       <c r="E31">
-        <v>3.9417E-4</v>
+        <v>0</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="1"/>
-        <v>4.6225431857151944E-2</v>
+        <v>4.6619601857151943E-2</v>
       </c>
       <c r="G31" s="2">
         <v>0.89798384532213948</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" si="2"/>
-        <v>2.3232101515184567E-4</v>
+        <v>-1.6184898484815358E-4</v>
       </c>
       <c r="I31">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.4716938455218536E-3</v>
       </c>
       <c r="J31">
         <f t="shared" si="4"/>
-        <v>2.5871402515988877E-4</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0.02</v>
@@ -2305,28 +2309,28 @@
       </c>
       <c r="N31" s="6">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>2.3471693845521856E-2</v>
       </c>
       <c r="O31" s="4">
         <f t="shared" si="6"/>
-        <v>1.2970311864319334E-3</v>
+        <v>1.0383171612720447E-3</v>
       </c>
       <c r="Q31" s="4">
         <f t="shared" si="7"/>
-        <v>9.3239203714303885E-4</v>
+        <v>1.0942410219911926E-3</v>
       </c>
       <c r="R31" s="5">
         <f t="shared" si="8"/>
-        <v>1.1647130522948843E-3</v>
+        <v>9.3239203714303874E-4</v>
       </c>
       <c r="T31" s="3">
-        <f t="shared" si="9"/>
-        <v>4.6851922872303789E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.6457752872303804E-2</v>
       </c>
     </row>
     <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>47</v>
       </c>
       <c r="D32" s="2">
@@ -2378,13 +2382,13 @@
         <v>9.2915505744607565E-4</v>
       </c>
       <c r="T32" s="3">
-        <f t="shared" si="9"/>
-        <v>4.2404544211901221E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.2404544211901235E-2</v>
       </c>
     </row>
     <row r="33" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="D33" s="2">
@@ -2436,13 +2440,13 @@
         <v>4.3725035601978037E-3</v>
       </c>
       <c r="T33" s="3">
-        <f t="shared" si="9"/>
-        <v>4.5928956887861E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.5928956887861014E-2</v>
       </c>
     </row>
     <row r="34" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
       <c r="D34" s="2">
@@ -2494,13 +2498,13 @@
         <v>9.1857913775722012E-4</v>
       </c>
       <c r="T34" s="3">
-        <f t="shared" si="9"/>
-        <v>4.4477970552901404E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.4477970552901418E-2</v>
       </c>
     </row>
     <row r="35" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="D35" s="2">
@@ -2552,13 +2556,13 @@
         <v>2.4262001328267824E-3</v>
       </c>
       <c r="T35" s="3">
-        <f t="shared" si="9"/>
-        <v>4.6014611274670159E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.6014611274670172E-2</v>
       </c>
     </row>
     <row r="36" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C36" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="D36" s="2">
@@ -2610,13 +2614,13 @@
         <v>9.2029222549340321E-4</v>
       </c>
       <c r="T36" s="3">
-        <f t="shared" si="9"/>
-        <v>4.4711905021239513E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.4711905021239527E-2</v>
       </c>
     </row>
     <row r="37" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C37" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>52</v>
       </c>
       <c r="D37" s="2">
@@ -2668,13 +2672,13 @@
         <v>3.3036070685686972E-3</v>
       </c>
       <c r="T37" s="3">
-        <f t="shared" si="9"/>
-        <v>4.7121273989383421E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.7121273989383435E-2</v>
       </c>
     </row>
     <row r="38" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>53</v>
       </c>
       <c r="D38" s="2">
@@ -2726,13 +2730,13 @@
         <v>9.4242547978766857E-4</v>
       </c>
       <c r="T38" s="3">
-        <f t="shared" si="9"/>
-        <v>4.4184552802012528E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.4184552802012542E-2</v>
       </c>
     </row>
     <row r="39" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="D39" s="2">
@@ -2784,13 +2788,13 @@
         <v>2.7326994060634614E-3</v>
       </c>
       <c r="T39" s="3">
-        <f t="shared" si="9"/>
-        <v>4.6033561152035739E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.6033561152035753E-2</v>
       </c>
     </row>
     <row r="40" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>55</v>
       </c>
       <c r="D40" s="2">
@@ -2842,13 +2846,13 @@
         <v>2.200792239458931E-3</v>
       </c>
       <c r="T40" s="3">
-        <f t="shared" si="9"/>
-        <v>4.7313682168453955E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.7313682168453969E-2</v>
       </c>
     </row>
     <row r="41" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>56</v>
       </c>
       <c r="D41" s="2">
@@ -2900,13 +2904,13 @@
         <v>1.5873418642913056E-3</v>
       </c>
       <c r="T41" s="3">
-        <f t="shared" si="9"/>
-        <v>4.7954750389376181E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.7954750389376195E-2</v>
       </c>
     </row>
     <row r="42" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
       <c r="D42" s="2">
@@ -2958,13 +2962,13 @@
         <v>9.5909500778752364E-4</v>
       </c>
       <c r="T42" s="3">
-        <f t="shared" si="9"/>
-        <v>4.7508112155753388E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.7508112155753401E-2</v>
       </c>
     </row>
     <row r="43" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>58</v>
       </c>
       <c r="D43" s="2">
@@ -3016,13 +3020,13 @@
         <v>9.5016224311506785E-4</v>
       </c>
       <c r="T43" s="3">
-        <f t="shared" si="9"/>
-        <v>4.4990917982394858E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.4990917982394872E-2</v>
       </c>
     </row>
     <row r="44" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>59</v>
       </c>
       <c r="D44" s="2">
@@ -3074,13 +3078,13 @@
         <v>8.9981835964789722E-4</v>
       </c>
       <c r="T44" s="3">
-        <f t="shared" si="9"/>
-        <v>4.3583183113333722E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.3583183113333736E-2</v>
       </c>
     </row>
     <row r="45" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="D45" s="2">
@@ -3132,13 +3136,13 @@
         <v>8.716636622666745E-4</v>
       </c>
       <c r="T45" s="3">
-        <f t="shared" si="9"/>
-        <v>3.9319544868561179E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.9319544868561193E-2</v>
       </c>
     </row>
     <row r="46" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>61</v>
       </c>
       <c r="D46" s="2">
@@ -3190,13 +3194,13 @@
         <v>7.8639089737122354E-4</v>
       </c>
       <c r="T46" s="3">
-        <f t="shared" si="9"/>
-        <v>3.7020738214423234E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.7020738214423247E-2</v>
       </c>
     </row>
     <row r="47" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>62</v>
       </c>
       <c r="D47" s="2">
@@ -3248,13 +3252,13 @@
         <v>7.4041476428846466E-4</v>
       </c>
       <c r="T47" s="3">
-        <f t="shared" si="9"/>
-        <v>2.0920971451006791E-2</v>
+        <f t="shared" si="10"/>
+        <v>2.0920971451006805E-2</v>
       </c>
     </row>
     <row r="48" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>63</v>
       </c>
       <c r="D48" s="2">
@@ -3306,13 +3310,13 @@
         <v>0</v>
       </c>
       <c r="T48" s="3">
-        <f t="shared" si="9"/>
-        <v>8.5804993850642115E-3</v>
+        <f t="shared" si="10"/>
+        <v>8.5804993850642289E-3</v>
       </c>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
       <c r="D49" s="2">
@@ -3364,13 +3368,13 @@
         <v>0</v>
       </c>
       <c r="T49" s="3">
-        <f t="shared" si="9"/>
-        <v>7.2130007821326145E-3</v>
+        <f t="shared" si="10"/>
+        <v>7.2130007821326319E-3</v>
       </c>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
       <c r="D50" s="2">
@@ -3422,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="T50" s="3">
-        <f t="shared" si="9"/>
-        <v>4.052456801936174E-3</v>
+        <f t="shared" si="10"/>
+        <v>4.0524568019361914E-3</v>
       </c>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>66</v>
       </c>
       <c r="D51" s="2">
@@ -3480,13 +3484,13 @@
         <v>2.9600801369479394E-4</v>
       </c>
       <c r="T51" s="3">
-        <f t="shared" si="9"/>
-        <v>4.3484648156309679E-3</v>
+        <f t="shared" si="10"/>
+        <v>4.3484648156309853E-3</v>
       </c>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>67</v>
       </c>
       <c r="D52" s="2">
@@ -3538,13 +3542,13 @@
         <v>3.3557782927262116E-4</v>
       </c>
       <c r="T52" s="3">
-        <f t="shared" si="9"/>
-        <v>4.6840426449035891E-3</v>
+        <f t="shared" si="10"/>
+        <v>4.6840426449036065E-3</v>
       </c>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>68</v>
       </c>
       <c r="D53" s="2">
@@ -3596,13 +3600,13 @@
         <v>0</v>
       </c>
       <c r="T53" s="3">
-        <f t="shared" si="9"/>
-        <v>3.4756562773743255E-3</v>
+        <f t="shared" si="10"/>
+        <v>3.4756562773743428E-3</v>
       </c>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>69</v>
       </c>
       <c r="D54" s="2">
@@ -3654,13 +3658,13 @@
         <v>2.781186654723343E-4</v>
       </c>
       <c r="T54" s="3">
-        <f t="shared" si="9"/>
-        <v>3.7537749428466598E-3</v>
+        <f t="shared" si="10"/>
+        <v>3.7537749428466771E-3</v>
       </c>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
       <c r="D55" s="2">
@@ -4455,10 +4459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA1ABDA-1F2E-7544-B0E0-D32982AABCA5}">
-  <dimension ref="B1:T310"/>
+  <dimension ref="B1:U310"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4472,7 +4476,7 @@
     <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>11</v>
       </c>
@@ -4483,7 +4487,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="K3" t="s">
         <v>6</v>
       </c>
@@ -4496,8 +4500,11 @@
       <c r="T3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
@@ -4538,7 +4545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -4548,23 +4555,23 @@
       <c r="D5" s="2">
         <v>7.7039900593676658E-2</v>
       </c>
-      <c r="E5">
-        <v>2.84206E-3</v>
+      <c r="E5" s="16">
+        <v>0</v>
       </c>
       <c r="F5" s="3">
         <f>MAX(0,D5-E5)</f>
-        <v>7.4197840593676664E-2</v>
+        <v>7.7039900593676658E-2</v>
       </c>
       <c r="G5" s="15">
         <v>0.62663951401353035</v>
       </c>
       <c r="H5" s="3">
         <f>F6-F5</f>
-        <v>-3.0027132932327616E-2</v>
+        <v>-3.3256842432327613E-2</v>
       </c>
       <c r="I5">
         <f>IF(H5&lt;0,-H5/D5,0)</f>
-        <v>0.38976079539220232</v>
+        <v>0.43168335078377934</v>
       </c>
       <c r="J5">
         <f>IF(H5&gt;0,H5/G5,0)</f>
@@ -4579,7 +4586,7 @@
       </c>
       <c r="N5">
         <f>I5+K5</f>
-        <v>0.40976079539220234</v>
+        <v>0.45168335078377936</v>
       </c>
       <c r="O5" s="4">
         <f>L5+J5</f>
@@ -4587,18 +4594,22 @@
       </c>
       <c r="Q5" s="6">
         <f t="shared" ref="Q5:Q36" si="1">N5*D5</f>
-        <v>3.1567930944201149E-2</v>
+        <v>3.4797640444201146E-2</v>
       </c>
       <c r="R5" s="7">
         <f>O5*G5</f>
         <v>1.5407980118735331E-3</v>
       </c>
       <c r="T5" s="3">
-        <f>D5+R5-Q5</f>
-        <v>4.7012767661349049E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+        <f>F5+R5-Q5</f>
+        <v>4.3783058161349052E-2</v>
+      </c>
+      <c r="U5" s="3">
+        <f>T5+E6</f>
+        <v>6.6095187661349059E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C6" s="1">
         <f>1+C5</f>
         <v>21</v>
@@ -4606,23 +4617,23 @@
       <c r="D6" s="2">
         <v>6.6095187661349045E-2</v>
       </c>
-      <c r="E6">
-        <v>2.192448E-2</v>
+      <c r="E6" s="16">
+        <v>2.23121295E-2</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" ref="F6:F55" si="2">MAX(0,D6-E6)</f>
-        <v>4.4170707661349048E-2</v>
+        <v>4.3783058161349045E-2</v>
       </c>
       <c r="G6" s="15">
         <v>0.62954259614748131</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" ref="H6:H54" si="3">F7-F6</f>
-        <v>-2.0837801395788877E-2</v>
+        <v>-1.4880037395788873E-2</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I54" si="4">IF(H6&lt;0,-H6/D6,0)</f>
-        <v>0.31526957004124445</v>
+        <v>0.22513042056903604</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:J54" si="5">IF(H6&gt;0,H6/G6,0)</f>
@@ -4637,7 +4648,7 @@
       </c>
       <c r="N6">
         <f t="shared" ref="N6:N54" si="6">I6+K6</f>
-        <v>0.33526957004124447</v>
+        <v>0.24513042056903603</v>
       </c>
       <c r="O6" s="4">
         <f t="shared" ref="O6:O54" si="7">L6+J6</f>
@@ -4645,18 +4656,22 @@
       </c>
       <c r="Q6" s="6">
         <f t="shared" si="1"/>
-        <v>2.215970514901586E-2</v>
+        <v>1.6201941149015853E-2</v>
       </c>
       <c r="R6" s="7">
         <f t="shared" ref="R6:R54" si="8">O6*G6</f>
         <v>1.3219037532269809E-3</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" ref="T6:T54" si="9">D6+R6-Q6</f>
-        <v>4.5257386265560168E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+        <f>T5+R6-Q6</f>
+        <v>2.8903020765560179E-2</v>
+      </c>
+      <c r="U6" s="3">
+        <f t="shared" ref="U6:U54" si="9">T6+E7</f>
+        <v>6.8399896265560173E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1">
         <f t="shared" ref="C7:C55" si="10">1+C6</f>
         <v>22</v>
@@ -4664,23 +4679,23 @@
       <c r="D7" s="2">
         <v>6.8399896265560173E-2</v>
       </c>
-      <c r="E7">
-        <v>4.5066990000000001E-2</v>
+      <c r="E7" s="16">
+        <v>3.94968755E-2</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="2"/>
-        <v>2.3332906265560172E-2</v>
+        <v>2.8903020765560172E-2</v>
       </c>
       <c r="G7" s="15">
         <v>0.64597380705394192</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="3"/>
-        <v>-6.3971805220910671E-3</v>
+        <v>-1.219534152209107E-2</v>
       </c>
       <c r="I7">
         <f t="shared" si="4"/>
-        <v>9.3526172865149387E-2</v>
+        <v>0.17829473709642904</v>
       </c>
       <c r="J7">
         <f t="shared" si="5"/>
@@ -4695,7 +4710,7 @@
       </c>
       <c r="N7">
         <f t="shared" si="6"/>
-        <v>0.11352617286514939</v>
+        <v>0.19829473709642903</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="7"/>
@@ -4703,18 +4718,22 @@
       </c>
       <c r="Q7" s="6">
         <f t="shared" si="1"/>
-        <v>7.7651784474022708E-3</v>
+        <v>1.3563339447402272E-2</v>
       </c>
       <c r="R7" s="7">
         <f t="shared" si="8"/>
         <v>1.3679979253112032E-3</v>
       </c>
       <c r="T7" s="3">
+        <f t="shared" ref="T7:T54" si="11">T6+R7-Q7</f>
+        <v>1.6707679243469109E-2</v>
+      </c>
+      <c r="U7" s="3">
         <f t="shared" si="9"/>
-        <v>6.2002715743469099E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+        <v>7.1746935743469104E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1">
         <f t="shared" si="10"/>
         <v>23</v>
@@ -4722,23 +4741,23 @@
       <c r="D8" s="2">
         <v>7.1746935743469104E-2</v>
       </c>
-      <c r="E8">
-        <v>5.4811209999999999E-2</v>
+      <c r="E8" s="16">
+        <v>5.5039256500000001E-2</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="2"/>
-        <v>1.6935725743469104E-2</v>
+        <v>1.6707679243469102E-2</v>
       </c>
       <c r="G8" s="15">
         <v>0.68066732697783827</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="3"/>
-        <v>-4.7744933877213805E-3</v>
+        <v>-4.6366586877213747E-3</v>
       </c>
       <c r="I8">
         <f t="shared" si="4"/>
-        <v>6.6546303869932003E-2</v>
+        <v>6.4625180708758487E-2</v>
       </c>
       <c r="J8">
         <f t="shared" si="5"/>
@@ -4753,7 +4772,7 @@
       </c>
       <c r="N8">
         <f t="shared" si="6"/>
-        <v>8.6546303869932006E-2</v>
+        <v>8.4625180708758491E-2</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="7"/>
@@ -4761,18 +4780,22 @@
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="1"/>
-        <v>6.2094321025907631E-3</v>
+        <v>6.0715974025907565E-3</v>
       </c>
       <c r="R8" s="7">
         <f t="shared" si="8"/>
         <v>1.4349387148693822E-3</v>
       </c>
       <c r="T8" s="3">
+        <f t="shared" si="11"/>
+        <v>1.2071020555747734E-2</v>
+      </c>
+      <c r="U8" s="3">
         <f t="shared" si="9"/>
-        <v>6.697244235574773E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+        <v>7.4280602355747738E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1">
         <f t="shared" si="10"/>
         <v>24</v>
@@ -4780,19 +4803,19 @@
       <c r="D9" s="2">
         <v>7.4280602355747724E-2</v>
       </c>
-      <c r="E9">
-        <v>6.211937E-2</v>
+      <c r="E9" s="16">
+        <v>6.2209581799999997E-2</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="2"/>
-        <v>1.2161232355747724E-2</v>
+        <v>1.2071020555747727E-2</v>
       </c>
       <c r="G9" s="15">
         <v>0.72610705233338302</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="3"/>
-        <v>3.3042704456726774E-4</v>
+        <v>2.7861742445672716E-3</v>
       </c>
       <c r="I9">
         <f t="shared" si="4"/>
@@ -4800,7 +4823,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="5"/>
-        <v>4.5506656835989009E-4</v>
+        <v>3.8371397655672878E-3</v>
       </c>
       <c r="K9" s="9">
         <v>0.02</v>
@@ -4815,7 +4838,7 @@
       </c>
       <c r="O9" s="4">
         <f t="shared" si="7"/>
-        <v>2.5010624615837093E-3</v>
+        <v>5.883135658791107E-3</v>
       </c>
       <c r="Q9" s="6">
         <f t="shared" si="1"/>
@@ -4823,14 +4846,18 @@
       </c>
       <c r="R9" s="7">
         <f t="shared" si="8"/>
-        <v>1.8160390916822221E-3</v>
+        <v>4.2717862916822258E-3</v>
       </c>
       <c r="T9" s="3">
+        <f t="shared" si="11"/>
+        <v>1.4857194800315006E-2</v>
+      </c>
+      <c r="U9" s="3">
         <f t="shared" si="9"/>
-        <v>7.4611029400314999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+        <v>8.1513179400314995E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1">
         <f t="shared" si="10"/>
         <v>25</v>
@@ -4838,23 +4865,23 @@
       <c r="D10" s="2">
         <v>8.1513179400314995E-2</v>
       </c>
-      <c r="E10">
-        <v>6.9021520000000003E-2</v>
+      <c r="E10" s="16">
+        <v>6.6655984599999996E-2</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="2"/>
-        <v>1.2491659400314992E-2</v>
+        <v>1.4857194800314999E-2</v>
       </c>
       <c r="G10" s="15">
         <v>0.75079492437074669</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="3"/>
-        <v>-9.5125746316645082E-3</v>
+        <v>-2.6601963166451859E-4</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>0.11669983555601253</v>
+        <v>3.2635168155824702E-3</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
@@ -4869,7 +4896,7 @@
       </c>
       <c r="N10">
         <f t="shared" si="6"/>
-        <v>0.13669983555601253</v>
+        <v>2.3263516815582471E-2</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="7"/>
@@ -4877,18 +4904,22 @@
       </c>
       <c r="Q10" s="6">
         <f t="shared" si="1"/>
-        <v>1.1142838219670808E-2</v>
+        <v>1.8962832196708186E-3</v>
       </c>
       <c r="R10" s="7">
         <f t="shared" si="8"/>
         <v>1.6302635880063E-3</v>
       </c>
       <c r="T10" s="3">
+        <f t="shared" si="11"/>
+        <v>1.4591175168650487E-2</v>
+      </c>
+      <c r="U10" s="3">
         <f t="shared" si="9"/>
-        <v>7.2000604768650486E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+        <v>8.9458984768650496E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1">
         <f t="shared" si="10"/>
         <v>26</v>
@@ -4896,27 +4927,27 @@
       <c r="D11" s="2">
         <v>8.9458984768650482E-2</v>
       </c>
-      <c r="E11">
-        <v>8.6479899999999998E-2</v>
+      <c r="E11" s="16">
+        <v>7.4867809600000002E-2</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="2"/>
-        <v>2.9790847686504834E-3</v>
+        <v>1.459117516865048E-2</v>
       </c>
       <c r="G11" s="15">
         <v>0.76870807059975244</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="3"/>
-        <v>-2.9790847686504834E-3</v>
+        <v>1.279778555951544E-3</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>3.3301124267782409E-2</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.6648433975111647E-3</v>
       </c>
       <c r="K11" s="9">
         <v>0.02</v>
@@ -4927,26 +4958,30 @@
       </c>
       <c r="N11">
         <f t="shared" si="6"/>
-        <v>5.3301124267782413E-2</v>
+        <v>0.02</v>
       </c>
       <c r="O11" s="4">
         <f t="shared" si="7"/>
-        <v>2.3275151696756308E-3</v>
+        <v>3.9923585671867955E-3</v>
       </c>
       <c r="Q11" s="6">
         <f t="shared" si="1"/>
-        <v>4.7682644640234936E-3</v>
+        <v>1.7891796953730097E-3</v>
       </c>
       <c r="R11" s="7">
         <f t="shared" si="8"/>
-        <v>1.7891796953730095E-3</v>
+        <v>3.0689582513245537E-3</v>
       </c>
       <c r="T11" s="3">
+        <f t="shared" si="11"/>
+        <v>1.5870953724602031E-2</v>
+      </c>
+      <c r="U11" s="3">
         <f t="shared" si="9"/>
-        <v>8.6479899999999998E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+        <v>9.230101302460203E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1">
         <f t="shared" si="10"/>
         <v>27</v>
@@ -4954,19 +4989,19 @@
       <c r="D12" s="2">
         <v>9.230101302460203E-2</v>
       </c>
-      <c r="E12">
-        <v>9.6630129999999995E-2</v>
+      <c r="E12" s="16">
+        <v>7.6430059300000006E-2</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5870953724602024E-2</v>
       </c>
       <c r="G12" s="15">
         <v>0.78955137481910276</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.8145221931848985E-3</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
@@ -4974,7 +5009,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.5647106482839634E-3</v>
       </c>
       <c r="K12" s="9">
         <v>0.02</v>
@@ -4989,7 +5024,7 @@
       </c>
       <c r="O12" s="4">
         <f t="shared" si="7"/>
-        <v>2.3380622456834928E-3</v>
+        <v>5.9027728939674562E-3</v>
       </c>
       <c r="Q12" s="6">
         <f t="shared" si="1"/>
@@ -4997,14 +5032,18 @@
       </c>
       <c r="R12" s="7">
         <f t="shared" si="8"/>
-        <v>1.8460202604920406E-3</v>
+        <v>4.6605424536769391E-3</v>
       </c>
       <c r="T12" s="3">
+        <f t="shared" si="11"/>
+        <v>1.868547591778693E-2</v>
+      </c>
+      <c r="U12" s="3">
         <f t="shared" si="9"/>
-        <v>9.230101302460203E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+        <v>9.7879515317786936E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1">
         <f t="shared" si="10"/>
         <v>28</v>
@@ -5012,23 +5051,23 @@
       <c r="D13" s="2">
         <v>9.7879515317786922E-2</v>
       </c>
-      <c r="E13">
-        <v>0.10272025999999999</v>
+      <c r="E13" s="16">
+        <v>7.9194039399999999E-2</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.8685475917786923E-2</v>
       </c>
       <c r="G13" s="15">
         <v>0.79538180155464111</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3.6750275194422782E-3</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.7546441740240639E-2</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
@@ -5043,7 +5082,7 @@
       </c>
       <c r="N13">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>5.7546441740240636E-2</v>
       </c>
       <c r="O13" s="4">
         <f t="shared" si="7"/>
@@ -5051,18 +5090,22 @@
       </c>
       <c r="Q13" s="6">
         <f t="shared" si="1"/>
-        <v>1.9575903063557385E-3</v>
+        <v>5.6326178257980163E-3</v>
       </c>
       <c r="R13" s="7">
         <f t="shared" si="8"/>
         <v>1.9575903063557385E-3</v>
       </c>
       <c r="T13" s="3">
+        <f t="shared" si="11"/>
+        <v>1.5010448398344652E-2</v>
+      </c>
+      <c r="U13" s="3">
         <f t="shared" si="9"/>
-        <v>9.7879515317786922E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+        <v>9.9291813598344658E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1">
         <f t="shared" si="10"/>
         <v>29</v>
@@ -5070,19 +5113,19 @@
       <c r="D14" s="2">
         <v>9.9291813598344644E-2</v>
       </c>
-      <c r="E14">
-        <v>0.10393829</v>
+      <c r="E14" s="16">
+        <v>8.42813652E-2</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5010448398344645E-2</v>
       </c>
       <c r="G14" s="15">
         <v>0.80435986360854494</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.6239177798307755E-3</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
@@ -5090,7 +5133,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6.9917931441787458E-3</v>
       </c>
       <c r="K14" s="9">
         <v>0.02</v>
@@ -5105,7 +5148,7 @@
       </c>
       <c r="O14" s="4">
         <f t="shared" si="7"/>
-        <v>2.4688405797101448E-3</v>
+        <v>9.4606337238888911E-3</v>
       </c>
       <c r="Q14" s="6">
         <f t="shared" si="1"/>
@@ -5113,14 +5156,18 @@
       </c>
       <c r="R14" s="7">
         <f t="shared" si="8"/>
-        <v>1.985836271966893E-3</v>
+        <v>7.6097540517976693E-3</v>
       </c>
       <c r="T14" s="3">
+        <f t="shared" si="11"/>
+        <v>2.0634366178175427E-2</v>
+      </c>
+      <c r="U14" s="3">
         <f t="shared" si="9"/>
-        <v>9.9291813598344644E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0.10090996307817543</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1">
         <f t="shared" si="10"/>
         <v>30</v>
@@ -5128,23 +5175,23 @@
       <c r="D15" s="2">
         <v>0.10090996307817542</v>
       </c>
-      <c r="E15">
-        <v>0.11327648999999999</v>
+      <c r="E15" s="16">
+        <v>8.0275596899999996E-2</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.063436617817542E-2</v>
       </c>
       <c r="G15" s="15">
         <v>0.81280344216065348</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-6.4719855936390958E-3</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.4136239834169981E-2</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
@@ -5159,7 +5206,7 @@
       </c>
       <c r="N15">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>8.4136239834169985E-2</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" si="7"/>
@@ -5167,18 +5214,22 @@
       </c>
       <c r="Q15" s="6">
         <f t="shared" si="1"/>
-        <v>2.0181992615635083E-3</v>
+        <v>8.4901848552026045E-3</v>
       </c>
       <c r="R15" s="7">
         <f t="shared" si="8"/>
         <v>2.0181992615635083E-3</v>
       </c>
       <c r="T15" s="3">
+        <f t="shared" si="11"/>
+        <v>1.4162380584536331E-2</v>
+      </c>
+      <c r="U15" s="3">
         <f t="shared" si="9"/>
-        <v>0.10090996307817542</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+        <v>9.796305358453633E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C16" s="1">
         <f t="shared" si="10"/>
         <v>31</v>
@@ -5186,19 +5237,19 @@
       <c r="D16" s="2">
         <v>9.796305358453633E-2</v>
       </c>
-      <c r="E16">
-        <v>0.12911084</v>
+      <c r="E16" s="16">
+        <v>8.3800673000000006E-2</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.4162380584536324E-2</v>
       </c>
       <c r="G16" s="15">
         <v>0.81985563983361887</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.0809044086601065E-4</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
@@ -5206,13 +5257,13 @@
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.1076223627007043E-3</v>
       </c>
       <c r="K16" s="9">
         <v>0.02</v>
       </c>
       <c r="L16" s="9">
-        <f t="shared" ref="L16:L54" si="11">K16*D16/G16</f>
+        <f t="shared" ref="L16:L54" si="12">K16*D16/G16</f>
         <v>2.3897634857867637E-3</v>
       </c>
       <c r="N16">
@@ -5221,7 +5272,7 @@
       </c>
       <c r="O16" s="4">
         <f t="shared" si="7"/>
-        <v>2.3897634857867637E-3</v>
+        <v>3.4973858484874682E-3</v>
       </c>
       <c r="Q16" s="6">
         <f t="shared" si="1"/>
@@ -5229,14 +5280,18 @@
       </c>
       <c r="R16" s="7">
         <f t="shared" si="8"/>
-        <v>1.9592610716907266E-3</v>
+        <v>2.8673515125567373E-3</v>
       </c>
       <c r="T16" s="3">
+        <f t="shared" si="11"/>
+        <v>1.5070471025402342E-2</v>
+      </c>
+      <c r="U16" s="3">
         <f t="shared" si="9"/>
-        <v>9.796305358453633E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+        <v>9.7949817325402339E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1">
         <f t="shared" si="10"/>
         <v>32</v>
@@ -5244,19 +5299,19 @@
       <c r="D17" s="2">
         <v>9.7949817325402339E-2</v>
       </c>
-      <c r="E17">
-        <v>0.13357694000000001</v>
+      <c r="E17" s="16">
+        <v>8.2879346300000004E-2</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5070471025402335E-2</v>
       </c>
       <c r="G17" s="15">
         <v>0.82396811497931699</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.500047333183127E-4</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
@@ -5264,13 +5319,13 @@
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.4614338241669533E-4</v>
       </c>
       <c r="K17" s="9">
         <v>0.02</v>
       </c>
       <c r="L17" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.377514749532779E-3</v>
       </c>
       <c r="N17">
@@ -5279,7 +5334,7 @@
       </c>
       <c r="O17" s="4">
         <f t="shared" si="7"/>
-        <v>2.377514749532779E-3</v>
+        <v>2.9236581319494743E-3</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="1"/>
@@ -5287,14 +5342,18 @@
       </c>
       <c r="R17" s="7">
         <f t="shared" si="8"/>
-        <v>1.9589963465080468E-3</v>
+        <v>2.4090010798263595E-3</v>
       </c>
       <c r="T17" s="3">
+        <f t="shared" si="11"/>
+        <v>1.5520475758720653E-2</v>
+      </c>
+      <c r="U17" s="3">
         <f t="shared" si="9"/>
-        <v>9.7949817325402339E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+        <v>9.3392611658720648E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1">
         <f t="shared" si="10"/>
         <v>33</v>
@@ -5302,23 +5361,23 @@
       <c r="D18" s="2">
         <v>9.3392611658720648E-2</v>
       </c>
-      <c r="E18">
-        <v>0.10353228</v>
+      <c r="E18" s="16">
+        <v>7.78721359E-2</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5520475758720648E-2</v>
       </c>
       <c r="G18" s="15">
         <v>0.83158325777296793</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-8.6182673166379509E-4</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9.2279969085040676E-3</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
@@ -5328,12 +5387,12 @@
         <v>0.02</v>
       </c>
       <c r="L18" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.2461397770039749E-3</v>
       </c>
       <c r="N18">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>2.922799690850407E-2</v>
       </c>
       <c r="O18" s="4">
         <f t="shared" si="7"/>
@@ -5341,18 +5400,22 @@
       </c>
       <c r="Q18" s="6">
         <f t="shared" si="1"/>
-        <v>1.8678522331744131E-3</v>
+        <v>2.7296789648382082E-3</v>
       </c>
       <c r="R18" s="7">
         <f t="shared" si="8"/>
         <v>1.8678522331744131E-3</v>
       </c>
       <c r="T18" s="3">
+        <f t="shared" si="11"/>
+        <v>1.4658649027056856E-2</v>
+      </c>
+      <c r="U18" s="3">
         <f t="shared" si="9"/>
-        <v>9.3392611658720648E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+        <v>8.7563632227056848E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
         <f t="shared" si="10"/>
         <v>34</v>
@@ -5360,19 +5423,19 @@
       <c r="D19" s="2">
         <v>8.7563632227056848E-2</v>
       </c>
-      <c r="E19">
-        <v>0.10799838</v>
+      <c r="E19" s="16">
+        <v>7.2904983199999995E-2</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.4658649027056853E-2</v>
       </c>
       <c r="G19" s="15">
         <v>0.83883627676819383</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.9860226826781142E-3</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
@@ -5380,13 +5443,13 @@
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.7518482367443224E-3</v>
       </c>
       <c r="K19" s="9">
         <v>0.02</v>
       </c>
       <c r="L19" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0877407106048278E-3</v>
       </c>
       <c r="N19">
@@ -5395,7 +5458,7 @@
       </c>
       <c r="O19" s="4">
         <f t="shared" si="7"/>
-        <v>2.0877407106048278E-3</v>
+        <v>6.8395889473491503E-3</v>
       </c>
       <c r="Q19" s="6">
         <f t="shared" si="1"/>
@@ -5403,14 +5466,18 @@
       </c>
       <c r="R19" s="7">
         <f t="shared" si="8"/>
-        <v>1.7512726445411369E-3</v>
+        <v>5.7372953272192516E-3</v>
       </c>
       <c r="T19" s="3">
+        <f t="shared" si="11"/>
+        <v>1.864467170973497E-2</v>
+      </c>
+      <c r="U19" s="3">
         <f t="shared" si="9"/>
-        <v>8.7563632227056848E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+        <v>8.2216214709734961E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1">
         <f t="shared" si="10"/>
         <v>35</v>
@@ -5418,19 +5485,19 @@
       <c r="D20" s="2">
         <v>8.2216214709734961E-2</v>
       </c>
-      <c r="E20">
-        <v>8.607389E-2</v>
+      <c r="E20" s="16">
+        <v>6.3571542999999994E-2</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.8644671709734967E-2</v>
       </c>
       <c r="G20" s="15">
         <v>0.84679914160697867</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="3"/>
-        <v>3.775086606203612E-3</v>
+        <v>5.690969196468651E-3</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
@@ -5438,13 +5505,13 @@
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>4.4580661702603936E-3</v>
+        <v>6.7205656180388245E-3</v>
       </c>
       <c r="K20" s="9">
         <v>0.02</v>
       </c>
       <c r="L20" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.9418114797261716E-3</v>
       </c>
       <c r="N20">
@@ -5453,7 +5520,7 @@
       </c>
       <c r="O20" s="4">
         <f t="shared" si="7"/>
-        <v>6.3998776499865654E-3</v>
+        <v>8.6623770977649964E-3</v>
       </c>
       <c r="Q20" s="6">
         <f t="shared" si="1"/>
@@ -5461,14 +5528,18 @@
       </c>
       <c r="R20" s="7">
         <f t="shared" si="8"/>
-        <v>5.4194109003983118E-3</v>
+        <v>7.3352934906633499E-3</v>
       </c>
       <c r="T20" s="3">
+        <f t="shared" si="11"/>
+        <v>2.4335640906203621E-2</v>
+      </c>
+      <c r="U20" s="3">
         <f t="shared" si="9"/>
-        <v>8.5991301315938573E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+        <v>7.6450686606203619E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1">
         <f t="shared" si="10"/>
         <v>36</v>
@@ -5476,19 +5547,19 @@
       <c r="D21" s="2">
         <v>7.6450686606203619E-2</v>
       </c>
-      <c r="E21">
-        <v>7.2675600000000007E-2</v>
+      <c r="E21" s="16">
+        <v>5.2115045700000001E-2</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="2"/>
-        <v>3.775086606203612E-3</v>
+        <v>2.4335640906203618E-2</v>
       </c>
       <c r="G21" s="15">
         <v>0.85639553066272422</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="3"/>
-        <v>6.6609637208429884E-3</v>
+        <v>2.9362625208429888E-3</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
@@ -5496,13 +5567,13 @@
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>7.7779057483968669E-3</v>
+        <v>3.4286289637344945E-3</v>
       </c>
       <c r="K21" s="9">
         <v>0.02</v>
       </c>
       <c r="L21" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.7854060155368169E-3</v>
       </c>
       <c r="N21">
@@ -5511,7 +5582,7 @@
       </c>
       <c r="O21" s="4">
         <f t="shared" si="7"/>
-        <v>9.5633117639336834E-3</v>
+        <v>5.2140349792713109E-3</v>
       </c>
       <c r="Q21" s="6">
         <f t="shared" si="1"/>
@@ -5519,14 +5590,18 @@
       </c>
       <c r="R21" s="7">
         <f t="shared" si="8"/>
-        <v>8.1899774529670608E-3</v>
+        <v>4.4652762529670603E-3</v>
       </c>
       <c r="T21" s="3">
+        <f t="shared" si="11"/>
+        <v>2.727190342704661E-2</v>
+      </c>
+      <c r="U21" s="3">
         <f t="shared" si="9"/>
-        <v>8.3111650327046593E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+        <v>7.4179450327046606E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1">
         <f t="shared" si="10"/>
         <v>37</v>
@@ -5534,19 +5609,19 @@
       <c r="D22" s="2">
         <v>7.4179450327046606E-2</v>
       </c>
-      <c r="E22">
-        <v>6.3743400000000006E-2</v>
+      <c r="E22" s="16">
+        <v>4.6907546899999999E-2</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="2"/>
-        <v>1.04360503270466E-2</v>
+        <v>2.7271903427046607E-2</v>
       </c>
       <c r="G22" s="15">
         <v>0.86293374006394274</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="3"/>
-        <v>2.2651293338495568E-3</v>
+        <v>7.2363530338495491E-3</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
@@ -5554,13 +5629,13 @@
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>2.6249168721595153E-3</v>
+        <v>8.3857574433389755E-3</v>
       </c>
       <c r="K22" s="9">
         <v>0.02</v>
       </c>
       <c r="L22" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.7192386131883071E-3</v>
       </c>
       <c r="N22">
@@ -5569,7 +5644,7 @@
       </c>
       <c r="O22" s="4">
         <f t="shared" si="7"/>
-        <v>4.3441554853478224E-3</v>
+        <v>1.0104996056527283E-2</v>
       </c>
       <c r="Q22" s="6">
         <f t="shared" si="1"/>
@@ -5577,14 +5652,18 @@
       </c>
       <c r="R22" s="7">
         <f t="shared" si="8"/>
-        <v>3.7487183403904886E-3</v>
+        <v>8.7199420403904805E-3</v>
       </c>
       <c r="T22" s="3">
+        <f t="shared" si="11"/>
+        <v>3.4508256460896156E-2</v>
+      </c>
+      <c r="U22" s="3">
         <f t="shared" si="9"/>
-        <v>7.644457966089617E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+        <v>7.0760459660896155E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1">
         <f t="shared" si="10"/>
         <v>38</v>
@@ -5592,57 +5671,61 @@
       <c r="D23" s="2">
         <v>7.0760459660896155E-2</v>
       </c>
-      <c r="E23">
-        <v>5.8059279999999998E-2</v>
+      <c r="E23" s="16">
+        <v>3.6252203199999999E-2</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="2"/>
-        <v>1.2701179660896157E-2</v>
+        <v>3.4508256460896156E-2</v>
       </c>
       <c r="G23" s="15">
         <v>0.86821866555809613</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="3"/>
-        <v>1.8589423672437183E-2</v>
+        <v>-1.2099736275628173E-3</v>
       </c>
       <c r="I23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.7099572746719683E-2</v>
       </c>
       <c r="J23">
         <f t="shared" si="5"/>
-        <v>2.1410992886783643E-2</v>
+        <v>0</v>
       </c>
       <c r="K23" s="9">
         <v>0.02</v>
       </c>
       <c r="L23" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.630014706385307E-3</v>
       </c>
       <c r="N23">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>3.7099572746719683E-2</v>
       </c>
       <c r="O23" s="4">
         <f t="shared" si="7"/>
-        <v>2.304100759316895E-2</v>
+        <v>1.630014706385307E-3</v>
       </c>
       <c r="Q23" s="6">
         <f t="shared" si="1"/>
-        <v>1.4152091932179232E-3</v>
+        <v>2.6251828207807405E-3</v>
       </c>
       <c r="R23" s="7">
         <f t="shared" si="8"/>
-        <v>2.0004632865655105E-2</v>
+        <v>1.4152091932179232E-3</v>
       </c>
       <c r="T23" s="3">
+        <f t="shared" si="11"/>
+        <v>3.3298282833333338E-2</v>
+      </c>
+      <c r="U23" s="3">
         <f t="shared" si="9"/>
-        <v>8.9349883333333338E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+        <v>6.458333333333334E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
         <f t="shared" si="10"/>
         <v>39</v>
@@ -5650,57 +5733,61 @@
       <c r="D24" s="2">
         <v>6.458333333333334E-2</v>
       </c>
-      <c r="E24">
-        <v>3.329273E-2</v>
+      <c r="E24" s="16">
+        <v>3.1285050500000001E-2</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="2"/>
-        <v>3.129060333333334E-2</v>
+        <v>3.3298282833333338E-2</v>
       </c>
       <c r="G24" s="15">
         <v>0.87755952380952384</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="3"/>
-        <v>-5.8308956947848919E-3</v>
+        <v>3.8155473052151126E-3</v>
       </c>
       <c r="I24">
         <f t="shared" si="4"/>
-        <v>9.0284836564411219E-2</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.3479071238970287E-3</v>
       </c>
       <c r="K24" s="9">
         <v>0.02</v>
       </c>
       <c r="L24" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.4718849623550161E-3</v>
       </c>
       <c r="N24">
         <f t="shared" si="6"/>
-        <v>0.11028483656441122</v>
+        <v>0.02</v>
       </c>
       <c r="O24" s="4">
         <f t="shared" si="7"/>
-        <v>1.4718849623550161E-3</v>
+        <v>5.8197920862520444E-3</v>
       </c>
       <c r="Q24" s="6">
         <f t="shared" si="1"/>
-        <v>7.1225623614515586E-3</v>
+        <v>1.2916666666666669E-3</v>
       </c>
       <c r="R24" s="7">
         <f t="shared" si="8"/>
-        <v>1.2916666666666669E-3</v>
+        <v>5.1072139718817793E-3</v>
       </c>
       <c r="T24" s="3">
+        <f t="shared" si="11"/>
+        <v>3.7113830138548444E-2</v>
+      </c>
+      <c r="U24" s="3">
         <f t="shared" si="9"/>
-        <v>5.8752437638548441E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+        <v>6.1188497638548445E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1">
         <f t="shared" si="10"/>
         <v>40</v>
@@ -5708,57 +5795,61 @@
       <c r="D25" s="2">
         <v>6.1188497638548452E-2</v>
       </c>
-      <c r="E25">
-        <v>3.5728790000000003E-2</v>
+      <c r="E25" s="16">
+        <v>2.4074667500000001E-2</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="2"/>
-        <v>2.5459707638548448E-2</v>
+        <v>3.7113830138548451E-2</v>
       </c>
       <c r="G25" s="15">
         <v>0.88261493393914037</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="3"/>
-        <v>9.3425280127385976E-4</v>
+        <v>-2.1094677987261445E-3</v>
       </c>
       <c r="I25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.4474907542053956E-2</v>
       </c>
       <c r="J25">
         <f t="shared" si="5"/>
-        <v>1.0585055445462019E-3</v>
+        <v>0</v>
       </c>
       <c r="K25" s="9">
         <v>0.02</v>
       </c>
       <c r="L25" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.3865275849222745E-3</v>
       </c>
       <c r="N25">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>5.447490754205396E-2</v>
       </c>
       <c r="O25" s="4">
         <f t="shared" si="7"/>
-        <v>2.4450331294684764E-3</v>
+        <v>1.3865275849222745E-3</v>
       </c>
       <c r="Q25" s="6">
         <f t="shared" si="1"/>
-        <v>1.2237699527709691E-3</v>
+        <v>3.3332377514971138E-3</v>
       </c>
       <c r="R25" s="7">
         <f t="shared" si="8"/>
-        <v>2.1580227540448291E-3</v>
+        <v>1.2237699527709691E-3</v>
       </c>
       <c r="T25" s="3">
+        <f t="shared" si="11"/>
+        <v>3.5004362339822293E-2</v>
+      </c>
+      <c r="U25" s="3">
         <f t="shared" si="9"/>
-        <v>6.2122750439822315E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+        <v>5.3190550439822293E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1">
         <f t="shared" si="10"/>
         <v>41</v>
@@ -5766,19 +5857,19 @@
       <c r="D26" s="2">
         <v>5.3190550439822307E-2</v>
       </c>
-      <c r="E26">
-        <v>2.6796589999999999E-2</v>
+      <c r="E26" s="16">
+        <v>1.81861881E-2</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="2"/>
-        <v>2.6393960439822308E-2</v>
+        <v>3.5004362339822306E-2</v>
       </c>
       <c r="G26" s="15">
         <v>0.89120649583713341</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="3"/>
-        <v>1.0503472562200591E-3</v>
+        <v>1.6206489562200638E-3</v>
       </c>
       <c r="I26">
         <f t="shared" si="4"/>
@@ -5786,13 +5877,13 @@
       </c>
       <c r="J26">
         <f t="shared" si="5"/>
-        <v>1.1785677742770946E-3</v>
+        <v>1.8184887159038783E-3</v>
       </c>
       <c r="K26" s="9">
         <v>0.02</v>
       </c>
       <c r="L26" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1936751064602384E-3</v>
       </c>
       <c r="N26">
@@ -5801,7 +5892,7 @@
       </c>
       <c r="O26" s="4">
         <f t="shared" si="7"/>
-        <v>2.372242880737333E-3</v>
+        <v>3.0121638223641169E-3</v>
       </c>
       <c r="Q26" s="6">
         <f t="shared" si="1"/>
@@ -5809,14 +5900,18 @@
       </c>
       <c r="R26" s="7">
         <f t="shared" si="8"/>
-        <v>2.1141582650165054E-3</v>
+        <v>2.68445996501651E-3</v>
       </c>
       <c r="T26" s="3">
+        <f t="shared" si="11"/>
+        <v>3.6625011296042356E-2</v>
+      </c>
+      <c r="U26" s="3">
         <f t="shared" si="9"/>
-        <v>5.4240897696042366E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+        <v>4.8962777696042355E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1">
         <f t="shared" si="10"/>
         <v>42</v>
@@ -5824,19 +5919,19 @@
       <c r="D27" s="2">
         <v>4.8962777696042369E-2</v>
       </c>
-      <c r="E27">
-        <v>2.1518470000000001E-2</v>
+      <c r="E27" s="16">
+        <v>1.23377664E-2</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="2"/>
-        <v>2.7444307696042367E-2</v>
+        <v>3.662501129604237E-2</v>
       </c>
       <c r="G27" s="15">
         <v>0.89660144181256429</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="3"/>
-        <v>7.305285831241317E-3</v>
+        <v>4.2432402512413148E-3</v>
       </c>
       <c r="I27">
         <f t="shared" si="4"/>
@@ -5844,13 +5939,13 @@
       </c>
       <c r="J27">
         <f t="shared" si="5"/>
-        <v>8.1477515990527449E-3</v>
+        <v>4.7325824534290338E-3</v>
       </c>
       <c r="K27" s="9">
         <v>0.02</v>
       </c>
       <c r="L27" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0921860129303271E-3</v>
       </c>
       <c r="N27">
@@ -5859,7 +5954,7 @@
       </c>
       <c r="O27" s="4">
         <f t="shared" si="7"/>
-        <v>9.239937611983072E-3</v>
+        <v>5.824768466359361E-3</v>
       </c>
       <c r="Q27" s="6">
         <f t="shared" si="1"/>
@@ -5867,14 +5962,18 @@
       </c>
       <c r="R27" s="7">
         <f t="shared" si="8"/>
-        <v>8.2845413851621637E-3</v>
+        <v>5.2224958051621624E-3</v>
       </c>
       <c r="T27" s="3">
+        <f t="shared" si="11"/>
+        <v>4.0868251547283671E-2</v>
+      </c>
+      <c r="U27" s="3">
         <f t="shared" si="9"/>
-        <v>5.6268063527283689E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+        <v>4.8959903527283674E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1">
         <f t="shared" si="10"/>
         <v>43</v>
@@ -5882,19 +5981,19 @@
       <c r="D28" s="2">
         <v>4.8959903527283688E-2</v>
       </c>
-      <c r="E28">
-        <v>1.421031E-2</v>
+      <c r="E28" s="16">
+        <v>8.0916519799999996E-3</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="2"/>
-        <v>3.4749593527283684E-2</v>
+        <v>4.0868251547283685E-2</v>
       </c>
       <c r="G28" s="15">
         <v>0.89837202291227003</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="3"/>
-        <v>4.6352923522012465E-3</v>
+        <v>1.2928429722012524E-3</v>
       </c>
       <c r="I28">
         <f t="shared" si="4"/>
@@ -5902,13 +6001,13 @@
       </c>
       <c r="J28">
         <f t="shared" si="5"/>
-        <v>5.1596579523646886E-3</v>
+        <v>1.4390953182293214E-3</v>
       </c>
       <c r="K28" s="9">
         <v>0.02</v>
       </c>
       <c r="L28" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0899694620624854E-3</v>
       </c>
       <c r="N28">
@@ -5917,7 +6016,7 @@
       </c>
       <c r="O28" s="4">
         <f t="shared" si="7"/>
-        <v>6.2496274144271738E-3</v>
+        <v>2.529064780291807E-3</v>
       </c>
       <c r="Q28" s="6">
         <f t="shared" si="1"/>
@@ -5925,14 +6024,18 @@
       </c>
       <c r="R28" s="7">
         <f t="shared" si="8"/>
-        <v>5.6144904227469197E-3</v>
+        <v>2.2720410427469265E-3</v>
       </c>
       <c r="T28" s="3">
+        <f t="shared" si="11"/>
+        <v>4.2161094519484923E-2</v>
+      </c>
+      <c r="U28" s="3">
         <f t="shared" si="9"/>
-        <v>5.3595195879484935E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+        <v>4.628703587948492E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1">
         <f t="shared" si="10"/>
         <v>44</v>
@@ -5940,19 +6043,19 @@
       <c r="D29" s="2">
         <v>4.6287035879484933E-2</v>
       </c>
-      <c r="E29">
-        <v>6.9021500000000001E-3</v>
+      <c r="E29" s="16">
+        <v>4.1259413599999996E-3</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="2"/>
-        <v>3.9384885879484931E-2</v>
+        <v>4.2161094519484937E-2</v>
       </c>
       <c r="G29" s="15">
         <v>0.90039379922490315</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="3"/>
-        <v>1.875902861217367E-3</v>
+        <v>7.534262121736135E-5</v>
       </c>
       <c r="I29">
         <f t="shared" si="4"/>
@@ -5960,13 +6063,13 @@
       </c>
       <c r="J29">
         <f t="shared" si="5"/>
-        <v>2.083424900118396E-3</v>
+        <v>8.3677410131233071E-5</v>
       </c>
       <c r="K29" s="9">
         <v>0.02</v>
       </c>
       <c r="L29" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0281509250581414E-3</v>
       </c>
       <c r="N29">
@@ -5975,7 +6078,7 @@
       </c>
       <c r="O29" s="4">
         <f t="shared" si="7"/>
-        <v>3.1115758251765374E-3</v>
+        <v>1.1118283351893746E-3</v>
       </c>
       <c r="Q29" s="6">
         <f t="shared" si="1"/>
@@ -5983,14 +6086,18 @@
       </c>
       <c r="R29" s="7">
         <f t="shared" si="8"/>
-        <v>2.8016435788070656E-3</v>
+        <v>1.0010833388070599E-3</v>
       </c>
       <c r="T29" s="3">
+        <f t="shared" si="11"/>
+        <v>4.2236437140702285E-2</v>
+      </c>
+      <c r="U29" s="3">
         <f t="shared" si="9"/>
-        <v>4.81629387407023E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+        <v>4.5320878740702286E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1">
         <f t="shared" si="10"/>
         <v>45</v>
@@ -5998,19 +6105,19 @@
       <c r="D30" s="2">
         <v>4.53208787407023E-2</v>
       </c>
-      <c r="E30">
-        <v>4.0600899999999997E-3</v>
+      <c r="E30" s="16">
+        <v>3.0844416E-3</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="2"/>
-        <v>4.1260788740702298E-2</v>
+        <v>4.2236437140702299E-2</v>
       </c>
       <c r="G30" s="15">
         <v>0.89967133713890335</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" si="3"/>
-        <v>5.0334835003670864E-4</v>
+        <v>4.8161568003671218E-4</v>
       </c>
       <c r="I30">
         <f t="shared" si="4"/>
@@ -6018,13 +6125,13 @@
       </c>
       <c r="J30">
         <f t="shared" si="5"/>
-        <v>5.5948025602042155E-4</v>
+        <v>5.3532402351321535E-4</v>
       </c>
       <c r="K30" s="9">
         <v>0.02</v>
       </c>
       <c r="L30" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0074985579696211E-3</v>
       </c>
       <c r="N30">
@@ -6033,7 +6140,7 @@
       </c>
       <c r="O30" s="4">
         <f t="shared" si="7"/>
-        <v>1.5669788139900426E-3</v>
+        <v>1.5428225814828364E-3</v>
       </c>
       <c r="Q30" s="6">
         <f t="shared" si="1"/>
@@ -6041,14 +6148,18 @@
       </c>
       <c r="R30" s="7">
         <f t="shared" si="8"/>
-        <v>1.4097659248507545E-3</v>
+        <v>1.388033254850758E-3</v>
       </c>
       <c r="T30" s="3">
+        <f t="shared" si="11"/>
+        <v>4.2718052820738997E-2</v>
+      </c>
+      <c r="U30" s="3">
         <f t="shared" si="9"/>
-        <v>4.5824227090739009E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+        <v>4.4200187090738995E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
         <f t="shared" si="10"/>
         <v>46</v>
@@ -6056,23 +6167,23 @@
       <c r="D31" s="2">
         <v>4.4200187090739008E-2</v>
       </c>
-      <c r="E31">
-        <v>2.4360499999999999E-3</v>
+      <c r="E31" s="16">
+        <v>1.48213427E-3</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="2"/>
-        <v>4.1764137090739006E-2</v>
+        <v>4.2718052820739011E-2</v>
       </c>
       <c r="G31" s="15">
         <v>0.8994721368435119</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" si="3"/>
-        <v>-3.362517057542147E-4</v>
+        <v>-2.1313787797542158E-3</v>
       </c>
       <c r="I31">
         <f t="shared" si="4"/>
-        <v>7.6074724539948258E-3</v>
+        <v>4.8221035249889029E-2</v>
       </c>
       <c r="J31">
         <f t="shared" si="5"/>
@@ -6082,12 +6193,12 @@
         <v>0.02</v>
       </c>
       <c r="L31" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.8280280800802297E-4</v>
       </c>
       <c r="N31">
         <f t="shared" si="6"/>
-        <v>2.7607472453994825E-2</v>
+        <v>6.8221035249889025E-2</v>
       </c>
       <c r="O31" s="4">
         <f t="shared" si="7"/>
@@ -6095,18 +6206,22 @@
       </c>
       <c r="Q31" s="6">
         <f t="shared" si="1"/>
-        <v>1.2202554475689948E-3</v>
+        <v>3.0153825215689959E-3</v>
       </c>
       <c r="R31" s="7">
         <f t="shared" si="8"/>
         <v>8.8400374181478024E-4</v>
       </c>
       <c r="T31" s="3">
+        <f t="shared" si="11"/>
+        <v>4.0586674040984781E-2</v>
+      </c>
+      <c r="U31" s="3">
         <f t="shared" si="9"/>
-        <v>4.3863935384984794E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+        <v>4.1427885384984778E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1">
         <f t="shared" si="10"/>
         <v>47</v>
@@ -6114,57 +6229,61 @@
       <c r="D32" s="2">
         <v>4.1427885384984792E-2</v>
       </c>
-      <c r="E32">
-        <v>0</v>
+      <c r="E32" s="16">
+        <v>8.4121134399999995E-4</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="2"/>
-        <v>4.1427885384984792E-2</v>
+        <v>4.0586674040984795E-2</v>
       </c>
       <c r="G32" s="15">
         <v>0.90212902193052669</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="3"/>
-        <v>-3.5347628514856289E-5</v>
+        <v>8.1129688448514092E-4</v>
       </c>
       <c r="I32">
         <f t="shared" si="4"/>
-        <v>8.5323274857923971E-4</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8.9931358460122702E-4</v>
       </c>
       <c r="K32" s="9">
         <v>0.02</v>
       </c>
       <c r="L32" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.1844701540208669E-4</v>
       </c>
       <c r="N32">
         <f t="shared" si="6"/>
-        <v>2.085323274857924E-2</v>
+        <v>0.02</v>
       </c>
       <c r="O32" s="4">
         <f t="shared" si="7"/>
-        <v>9.1844701540208669E-4</v>
+        <v>1.8177606000033138E-3</v>
       </c>
       <c r="Q32" s="6">
         <f t="shared" si="1"/>
-        <v>8.6390533621455207E-4</v>
+        <v>8.2855770769969589E-4</v>
       </c>
       <c r="R32" s="7">
         <f t="shared" si="8"/>
-        <v>8.2855770769969589E-4</v>
+        <v>1.6398545921848368E-3</v>
       </c>
       <c r="T32" s="3">
+        <f t="shared" si="11"/>
+        <v>4.1397970925469922E-2</v>
+      </c>
+      <c r="U32" s="3">
         <f t="shared" si="9"/>
-        <v>4.1392537756469935E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.2">
+        <v>4.179854775646992E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1">
         <f t="shared" si="10"/>
         <v>48</v>
@@ -6172,23 +6291,23 @@
       <c r="D33" s="2">
         <v>4.1798547756469934E-2</v>
       </c>
-      <c r="E33">
-        <v>4.0601E-4</v>
+      <c r="E33" s="16">
+        <v>4.0057683100000002E-4</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="2"/>
-        <v>4.1392537756469935E-2</v>
+        <v>4.1397970925469936E-2</v>
       </c>
       <c r="G33" s="15">
         <v>0.9007012970893068</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="3"/>
-        <v>-4.3125635096041143E-4</v>
+        <v>-7.0737203060416975E-5</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>1.0317496040126368E-2</v>
+        <v>1.6923363814587953E-3</v>
       </c>
       <c r="J33">
         <f t="shared" si="5"/>
@@ -6198,12 +6317,12 @@
         <v>0.02</v>
       </c>
       <c r="L33" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.2813339764349207E-4</v>
       </c>
       <c r="N33">
         <f t="shared" si="6"/>
-        <v>3.0317496040126367E-2</v>
+        <v>2.1692336381458795E-2</v>
       </c>
       <c r="O33" s="4">
         <f t="shared" si="7"/>
@@ -6211,18 +6330,22 @@
       </c>
       <c r="Q33" s="6">
         <f t="shared" si="1"/>
-        <v>1.2672273060898101E-3</v>
+        <v>9.0670815818981562E-4</v>
       </c>
       <c r="R33" s="7">
         <f t="shared" si="8"/>
         <v>8.3597095512939865E-4</v>
       </c>
       <c r="T33" s="3">
+        <f t="shared" si="11"/>
+        <v>4.1327233722409505E-2</v>
+      </c>
+      <c r="U33" s="3">
         <f t="shared" si="9"/>
-        <v>4.1367291405509522E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.2">
+        <v>4.1367291405509508E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1">
         <f t="shared" si="10"/>
         <v>49</v>
@@ -6230,23 +6353,23 @@
       <c r="D34" s="2">
         <v>4.1367291405509522E-2</v>
       </c>
-      <c r="E34">
-        <v>4.0601E-4</v>
+      <c r="E34" s="16">
+        <v>4.0057683099999999E-5</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" si="2"/>
-        <v>4.0961281405509524E-2</v>
+        <v>4.1327233722409519E-2</v>
       </c>
       <c r="G34" s="15">
         <v>0.89815635796618465</v>
       </c>
       <c r="H34" s="3">
         <f t="shared" si="3"/>
-        <v>-1.1143209407227864E-3</v>
+        <v>-1.5203309407227847E-3</v>
       </c>
       <c r="I34">
         <f t="shared" si="4"/>
-        <v>2.6937246864907741E-2</v>
+        <v>3.6752005970598758E-2</v>
       </c>
       <c r="J34">
         <f t="shared" si="5"/>
@@ -6256,12 +6379,12 @@
         <v>0.02</v>
       </c>
       <c r="L34" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.2116013071895418E-4</v>
       </c>
       <c r="N34">
         <f t="shared" si="6"/>
-        <v>4.6937246864907745E-2</v>
+        <v>5.6752005970598762E-2</v>
       </c>
       <c r="O34" s="4">
         <f t="shared" si="7"/>
@@ -6269,18 +6392,22 @@
       </c>
       <c r="Q34" s="6">
         <f t="shared" si="1"/>
-        <v>1.941666768832977E-3</v>
+        <v>2.3476767688329751E-3</v>
       </c>
       <c r="R34" s="7">
         <f t="shared" si="8"/>
         <v>8.273458281101905E-4</v>
       </c>
       <c r="T34" s="3">
+        <f t="shared" si="11"/>
+        <v>3.980690278168672E-2</v>
+      </c>
+      <c r="U34" s="3">
         <f t="shared" si="9"/>
-        <v>4.0252970464786736E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.2">
+        <v>3.9846960464786724E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1">
         <f t="shared" si="10"/>
         <v>50</v>
@@ -6288,23 +6415,23 @@
       <c r="D35" s="2">
         <v>3.9846960464786738E-2</v>
       </c>
-      <c r="E35">
-        <v>0</v>
+      <c r="E35" s="16">
+        <v>4.0057683099999999E-5</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="2"/>
-        <v>3.9846960464786738E-2</v>
+        <v>3.9806902781686734E-2</v>
       </c>
       <c r="G35" s="15">
         <v>0.89783193991781207</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="3"/>
-        <v>-6.997703569378913E-4</v>
+        <v>-6.5971267383788806E-4</v>
       </c>
       <c r="I35">
         <f t="shared" si="4"/>
-        <v>1.7561448822584279E-2</v>
+        <v>1.6556160523733911E-2</v>
       </c>
       <c r="J35">
         <f t="shared" si="5"/>
@@ -6314,12 +6441,12 @@
         <v>0.02</v>
       </c>
       <c r="L35" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.8762626262626273E-4</v>
       </c>
       <c r="N35">
         <f t="shared" si="6"/>
-        <v>3.7561448822584276E-2</v>
+        <v>3.6556160523733908E-2</v>
       </c>
       <c r="O35" s="4">
         <f t="shared" si="7"/>
@@ -6327,18 +6454,22 @@
       </c>
       <c r="Q35" s="6">
         <f t="shared" si="1"/>
-        <v>1.4967095662336259E-3</v>
+        <v>1.4566518831336227E-3</v>
       </c>
       <c r="R35" s="7">
         <f t="shared" si="8"/>
         <v>7.969392092957348E-4</v>
       </c>
       <c r="T35" s="3">
+        <f t="shared" si="11"/>
+        <v>3.9147190107848832E-2</v>
+      </c>
+      <c r="U35" s="3">
         <f t="shared" si="9"/>
-        <v>3.9147190107848846E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.2">
+        <v>3.9147190107848832E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C36" s="1">
         <f t="shared" si="10"/>
         <v>51</v>
@@ -6346,7 +6477,7 @@
       <c r="D36" s="2">
         <v>3.9147190107848846E-2</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="16">
         <v>0</v>
       </c>
       <c r="F36" s="3">
@@ -6372,7 +6503,7 @@
         <v>0.02</v>
       </c>
       <c r="L36" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.7243967994068408E-4</v>
       </c>
       <c r="N36">
@@ -6392,11 +6523,15 @@
         <v>1.545412988659084E-3</v>
       </c>
       <c r="T36" s="3">
+        <f t="shared" si="11"/>
+        <v>3.990965929435094E-2</v>
+      </c>
+      <c r="U36" s="3">
         <f t="shared" si="9"/>
-        <v>3.9909659294350953E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.2">
+        <v>3.990965929435094E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C37" s="1">
         <f t="shared" si="10"/>
         <v>52</v>
@@ -6404,7 +6539,7 @@
       <c r="D37" s="2">
         <v>3.9909659294350953E-2</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="16">
         <v>0</v>
       </c>
       <c r="F37" s="3">
@@ -6430,7 +6565,7 @@
         <v>0.02</v>
       </c>
       <c r="L37" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.932314141289607E-4</v>
       </c>
       <c r="N37">
@@ -6442,7 +6577,7 @@
         <v>8.932314141289607E-4</v>
       </c>
       <c r="Q37" s="6">
-        <f t="shared" ref="Q37:Q54" si="12">N37*D37</f>
+        <f t="shared" ref="Q37:Q54" si="13">N37*D37</f>
         <v>9.787452198738607E-4</v>
       </c>
       <c r="R37" s="7">
@@ -6450,11 +6585,15 @@
         <v>7.9819318588701909E-4</v>
       </c>
       <c r="T37" s="3">
+        <f t="shared" si="11"/>
+        <v>3.9729107260364098E-2</v>
+      </c>
+      <c r="U37" s="3">
         <f t="shared" si="9"/>
-        <v>3.9729107260364112E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.2">
+        <v>3.9729107260364098E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1">
         <f t="shared" si="10"/>
         <v>53</v>
@@ -6462,7 +6601,7 @@
       <c r="D38" s="2">
         <v>3.9729107260364112E-2</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="16">
         <v>0</v>
       </c>
       <c r="F38" s="3">
@@ -6488,7 +6627,7 @@
         <v>0.02</v>
       </c>
       <c r="L38" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.9136318897637789E-4</v>
       </c>
       <c r="N38">
@@ -6500,7 +6639,7 @@
         <v>2.4780348966835157E-3</v>
       </c>
       <c r="Q38" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.9458214520728224E-4</v>
       </c>
       <c r="R38" s="7">
@@ -6508,11 +6647,15 @@
         <v>2.2089786839486307E-3</v>
       </c>
       <c r="T38" s="3">
+        <f t="shared" si="11"/>
+        <v>4.1143503799105446E-2</v>
+      </c>
+      <c r="U38" s="3">
         <f t="shared" si="9"/>
-        <v>4.114350379910546E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.2">
+        <v>4.1143503799105446E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1">
         <f t="shared" si="10"/>
         <v>54</v>
@@ -6520,7 +6663,7 @@
       <c r="D39" s="2">
         <v>4.114350379910546E-2</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="16">
         <v>0</v>
       </c>
       <c r="F39" s="3">
@@ -6546,7 +6689,7 @@
         <v>0.02</v>
       </c>
       <c r="L39" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.2860617854536611E-4</v>
       </c>
       <c r="N39">
@@ -6558,7 +6701,7 @@
         <v>1.0689809591310929E-3</v>
       </c>
       <c r="Q39" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.2287007598210924E-4</v>
       </c>
       <c r="R39" s="7">
@@ -6566,11 +6709,15 @@
         <v>9.4726102774972745E-4</v>
       </c>
       <c r="T39" s="3">
+        <f t="shared" si="11"/>
+        <v>4.1267894750873065E-2</v>
+      </c>
+      <c r="U39" s="3">
         <f t="shared" si="9"/>
-        <v>4.1267894750873078E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.2">
+        <v>4.1267894750873065E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1">
         <f t="shared" si="10"/>
         <v>55</v>
@@ -6578,7 +6725,7 @@
       <c r="D40" s="2">
         <v>4.1267894750873078E-2</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="16">
         <v>0</v>
       </c>
       <c r="F40" s="3">
@@ -6604,7 +6751,7 @@
         <v>0.02</v>
       </c>
       <c r="L40" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.3393665158371039E-4</v>
       </c>
       <c r="N40">
@@ -6616,7 +6763,7 @@
         <v>1.7009830320001134E-3</v>
       </c>
       <c r="Q40" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.253578950174616E-4</v>
       </c>
       <c r="R40" s="7">
@@ -6624,11 +6771,15 @@
         <v>1.5032280533924386E-3</v>
       </c>
       <c r="T40" s="3">
+        <f t="shared" si="11"/>
+        <v>4.1945764909248041E-2</v>
+      </c>
+      <c r="U40" s="3">
         <f t="shared" si="9"/>
-        <v>4.1945764909248055E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.2">
+        <v>4.1945764909248041E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1">
         <f t="shared" si="10"/>
         <v>56</v>
@@ -6636,7 +6787,7 @@
       <c r="D41" s="2">
         <v>4.1945764909248055E-2</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="16">
         <v>0</v>
       </c>
       <c r="F41" s="3">
@@ -6662,7 +6813,7 @@
         <v>0.02</v>
       </c>
       <c r="L41" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.6187792264098345E-4</v>
       </c>
       <c r="N41">
@@ -6674,7 +6825,7 @@
         <v>1.0540159129273031E-3</v>
       </c>
       <c r="Q41" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.3891529818496107E-4</v>
       </c>
       <c r="R41" s="7">
@@ -6682,11 +6833,15 @@
         <v>9.1927473650430934E-4</v>
       </c>
       <c r="T41" s="3">
+        <f t="shared" si="11"/>
+        <v>4.202612434756739E-2</v>
+      </c>
+      <c r="U41" s="3">
         <f t="shared" si="9"/>
-        <v>4.2026124347567403E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.2">
+        <v>4.202612434756739E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1">
         <f t="shared" si="10"/>
         <v>57</v>
@@ -6694,7 +6849,7 @@
       <c r="D42" s="2">
         <v>4.2026124347567403E-2</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="16">
         <v>0</v>
       </c>
       <c r="F42" s="3">
@@ -6720,7 +6875,7 @@
         <v>0.02</v>
       </c>
       <c r="L42" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.6964402708014843E-4</v>
       </c>
       <c r="N42">
@@ -6732,7 +6887,7 @@
         <v>1.4321393434664651E-3</v>
       </c>
       <c r="Q42" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.4052248695134807E-4</v>
       </c>
       <c r="R42" s="7">
@@ -6740,11 +6895,15 @@
         <v>1.2414301424163833E-3</v>
       </c>
       <c r="T42" s="3">
+        <f t="shared" si="11"/>
+        <v>4.2427032003032425E-2</v>
+      </c>
+      <c r="U42" s="3">
         <f t="shared" si="9"/>
-        <v>4.2427032003032439E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="3:20" x14ac:dyDescent="0.2">
+        <v>4.2427032003032425E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1">
         <f t="shared" si="10"/>
         <v>58</v>
@@ -6752,7 +6911,7 @@
       <c r="D43" s="2">
         <v>4.2427032003032439E-2</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="16">
         <v>0</v>
       </c>
       <c r="F43" s="3">
@@ -6778,7 +6937,7 @@
         <v>0.02</v>
       </c>
       <c r="L43" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.9196049882889145E-4</v>
       </c>
       <c r="N43">
@@ -6790,7 +6949,7 @@
         <v>1.4022196115273597E-3</v>
       </c>
       <c r="Q43" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.4854064006064875E-4</v>
       </c>
       <c r="R43" s="7">
@@ -6798,11 +6957,15 @@
         <v>1.1994835762873073E-3</v>
       </c>
       <c r="T43" s="3">
+        <f t="shared" si="11"/>
+        <v>4.2777974939259084E-2</v>
+      </c>
+      <c r="U43" s="3">
         <f t="shared" si="9"/>
-        <v>4.2777974939259097E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="3:20" x14ac:dyDescent="0.2">
+        <v>4.2777974939259084E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1">
         <f t="shared" si="10"/>
         <v>59</v>
@@ -6810,7 +6973,7 @@
       <c r="D44" s="2">
         <v>4.2777974939259097E-2</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="16">
         <v>0</v>
       </c>
       <c r="F44" s="3">
@@ -6836,7 +6999,7 @@
         <v>0.02</v>
       </c>
       <c r="L44" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.017268242015061E-3</v>
       </c>
       <c r="N44">
@@ -6848,7 +7011,7 @@
         <v>2.3284063707969616E-3</v>
       </c>
       <c r="Q44" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.5555949878518198E-4</v>
       </c>
       <c r="R44" s="7">
@@ -6856,11 +7019,15 @@
         <v>1.9582742341599409E-3</v>
       </c>
       <c r="T44" s="3">
+        <f t="shared" si="11"/>
+        <v>4.3880689674633842E-2</v>
+      </c>
+      <c r="U44" s="3">
         <f t="shared" si="9"/>
-        <v>4.3880689674633856E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="3:20" x14ac:dyDescent="0.2">
+        <v>4.3880689674633842E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1">
         <f t="shared" si="10"/>
         <v>60</v>
@@ -6868,7 +7035,7 @@
       <c r="D45" s="2">
         <v>4.3880689674633856E-2</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="16">
         <v>0</v>
       </c>
       <c r="F45" s="3">
@@ -6894,7 +7061,7 @@
         <v>0.02</v>
       </c>
       <c r="L45" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0817015060345728E-3</v>
       </c>
       <c r="N45">
@@ -6906,7 +7073,7 @@
         <v>1.0817015060345728E-3</v>
       </c>
       <c r="Q45" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.0715104011560714E-3</v>
       </c>
       <c r="R45" s="7">
@@ -6914,11 +7081,15 @@
         <v>8.7761379349267723E-4</v>
       </c>
       <c r="T45" s="3">
+        <f t="shared" si="11"/>
+        <v>4.0686793066970449E-2</v>
+      </c>
+      <c r="U45" s="3">
         <f t="shared" si="9"/>
-        <v>4.0686793066970463E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="3:20" x14ac:dyDescent="0.2">
+        <v>4.0686793066970449E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1">
         <f t="shared" si="10"/>
         <v>61</v>
@@ -6926,7 +7097,7 @@
       <c r="D46" s="2">
         <v>4.0686793066970463E-2</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="16">
         <v>0</v>
       </c>
       <c r="F46" s="3">
@@ -6952,7 +7123,7 @@
         <v>0.02</v>
       </c>
       <c r="L46" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0432242584414231E-3</v>
       </c>
       <c r="N46">
@@ -6964,7 +7135,7 @@
         <v>1.0432242584414231E-3</v>
       </c>
       <c r="Q46" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.2148146425955873E-3</v>
       </c>
       <c r="R46" s="7">
@@ -6972,11 +7143,15 @@
         <v>8.137358613394093E-4</v>
       </c>
       <c r="T46" s="3">
+        <f t="shared" si="11"/>
+        <v>3.9285714285714271E-2</v>
+      </c>
+      <c r="U46" s="3">
         <f t="shared" si="9"/>
-        <v>3.9285714285714285E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.2">
+        <v>3.9285714285714271E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1">
         <f t="shared" si="10"/>
         <v>62</v>
@@ -6984,7 +7159,7 @@
       <c r="D47" s="2">
         <v>3.9285714285714285E-2</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="16">
         <v>0</v>
       </c>
       <c r="F47" s="3">
@@ -7010,7 +7185,7 @@
         <v>0.02</v>
       </c>
       <c r="L47" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.120205182363369E-3</v>
       </c>
       <c r="N47">
@@ -7022,7 +7197,7 @@
         <v>1.120205182363369E-3</v>
       </c>
       <c r="Q47" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.7253782925462355E-2</v>
       </c>
       <c r="R47" s="7">
@@ -7030,11 +7205,15 @@
         <v>7.8571428571428575E-4</v>
       </c>
       <c r="T47" s="3">
+        <f t="shared" si="11"/>
+        <v>2.2817645645966202E-2</v>
+      </c>
+      <c r="U47" s="3">
         <f t="shared" si="9"/>
-        <v>2.2817645645966216E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="3:20" x14ac:dyDescent="0.2">
+        <v>2.2817645645966202E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1">
         <f t="shared" si="10"/>
         <v>63</v>
@@ -7042,7 +7221,7 @@
       <c r="D48" s="2">
         <v>2.2817645645966216E-2</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="16">
         <v>0</v>
       </c>
       <c r="F48" s="3">
@@ -7068,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N48">
@@ -7080,7 +7259,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0611270912898277E-2</v>
       </c>
       <c r="R48" s="7">
@@ -7088,11 +7267,15 @@
         <v>0</v>
       </c>
       <c r="T48" s="3">
+        <f t="shared" si="11"/>
+        <v>1.2206374733067925E-2</v>
+      </c>
+      <c r="U48" s="3">
         <f t="shared" si="9"/>
-        <v>1.2206374733067939E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
+        <v>1.2206374733067925E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1">
         <f t="shared" si="10"/>
         <v>64</v>
@@ -7100,7 +7283,7 @@
       <c r="D49" s="2">
         <v>1.2206374733067939E-2</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="16">
         <v>0</v>
       </c>
       <c r="F49" s="3">
@@ -7126,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N49">
@@ -7138,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.7614670499232098E-3</v>
       </c>
       <c r="R49" s="7">
@@ -7146,11 +7329,15 @@
         <v>0</v>
       </c>
       <c r="T49" s="3">
+        <f t="shared" si="11"/>
+        <v>7.444907683144715E-3</v>
+      </c>
+      <c r="U49" s="3">
         <f t="shared" si="9"/>
-        <v>7.4449076831447289E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
+        <v>7.444907683144715E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1">
         <f t="shared" si="10"/>
         <v>65</v>
@@ -7158,7 +7345,7 @@
       <c r="D50" s="2">
         <v>7.4449076831447289E-3</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="16">
         <v>0</v>
       </c>
       <c r="F50" s="3">
@@ -7184,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N50">
@@ -7196,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.8614975206180584E-3</v>
       </c>
       <c r="R50" s="7">
@@ -7204,11 +7391,15 @@
         <v>0</v>
       </c>
       <c r="T50" s="3">
+        <f t="shared" si="11"/>
+        <v>4.5834101625266566E-3</v>
+      </c>
+      <c r="U50" s="3">
         <f t="shared" si="9"/>
-        <v>4.5834101625266705E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
+        <v>4.5834101625266566E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1">
         <f t="shared" si="10"/>
         <v>66</v>
@@ -7216,7 +7407,7 @@
       <c r="D51" s="2">
         <v>4.5834101625266705E-3</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="16">
         <v>0</v>
       </c>
       <c r="F51" s="3">
@@ -7242,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N51">
@@ -7254,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.7904746170284799E-4</v>
       </c>
       <c r="R51" s="7">
@@ -7262,11 +7453,15 @@
         <v>0</v>
       </c>
       <c r="T51" s="3">
+        <f t="shared" si="11"/>
+        <v>3.8043627008238086E-3</v>
+      </c>
+      <c r="U51" s="3">
         <f t="shared" si="9"/>
-        <v>3.8043627008238225E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
+        <v>3.8043627008238086E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1">
         <f t="shared" si="10"/>
         <v>67</v>
@@ -7274,7 +7469,7 @@
       <c r="D52" s="2">
         <v>3.8043627008238225E-3</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="16">
         <v>0</v>
       </c>
       <c r="F52" s="3">
@@ -7300,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N52">
@@ -7312,7 +7507,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2038931024313311E-4</v>
       </c>
       <c r="R52" s="7">
@@ -7320,11 +7515,15 @@
         <v>0</v>
       </c>
       <c r="T52" s="3">
+        <f t="shared" si="11"/>
+        <v>3.6839733905806755E-3</v>
+      </c>
+      <c r="U52" s="3">
         <f t="shared" si="9"/>
-        <v>3.6839733905806894E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
+        <v>3.6839733905806755E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1">
         <f t="shared" si="10"/>
         <v>68</v>
@@ -7332,7 +7531,7 @@
       <c r="D53" s="2">
         <v>3.6839733905806894E-3</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="16">
         <v>0</v>
       </c>
       <c r="F53" s="3">
@@ -7358,7 +7557,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N53">
@@ -7370,7 +7569,7 @@
         <v>1.8618791663862738E-2</v>
       </c>
       <c r="Q53" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R53" s="7">
@@ -7378,11 +7577,15 @@
         <v>2.1169493582987768E-4</v>
       </c>
       <c r="T53" s="3">
+        <f t="shared" si="11"/>
+        <v>3.8956683264105532E-3</v>
+      </c>
+      <c r="U53" s="3">
         <f t="shared" si="9"/>
-        <v>3.8956683264105671E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
+        <v>3.8956683264105532E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1">
         <f t="shared" si="10"/>
         <v>69</v>
@@ -7390,7 +7593,7 @@
       <c r="D54" s="2">
         <v>3.8956683264105671E-3</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="16">
         <v>0</v>
       </c>
       <c r="F54" s="3">
@@ -7416,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N54">
@@ -7428,7 +7631,7 @@
         <v>1.8835315366425586E-2</v>
       </c>
       <c r="Q54" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R54" s="7">
@@ -7436,11 +7639,15 @@
         <v>6.7544924948612171E-5</v>
       </c>
       <c r="T54" s="3">
+        <f t="shared" si="11"/>
+        <v>3.9632132513591654E-3</v>
+      </c>
+      <c r="U54" s="3">
         <f t="shared" si="9"/>
-        <v>3.9632132513591793E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
+        <v>3.9632132513591654E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1">
         <f t="shared" si="10"/>
         <v>70</v>
@@ -7448,7 +7655,7 @@
       <c r="D55" s="2">
         <v>3.9632132513591793E-3</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="16">
         <v>0</v>
       </c>
       <c r="F55" s="3">
@@ -7460,32 +7667,32 @@
       </c>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1"/>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.2">
@@ -9641,7 +9848,7 @@
   <dimension ref="C2:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E53"/>
+      <selection activeCell="C3" sqref="C3:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9655,255 +9862,255 @@
       </c>
     </row>
     <row r="3" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C3">
-        <v>2.84206E-3</v>
+      <c r="C3" s="16">
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C4">
-        <v>2.192448E-2</v>
+      <c r="C4" s="16">
+        <v>2.23121295E-2</v>
       </c>
       <c r="E4">
         <v>7.4891599999999999E-3</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C5">
-        <v>4.5066990000000001E-2</v>
+      <c r="C5" s="16">
+        <v>3.94968755E-2</v>
       </c>
       <c r="E5">
         <v>1.379582E-2</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C6">
-        <v>5.4811209999999999E-2</v>
+      <c r="C6" s="16">
+        <v>5.5039256500000001E-2</v>
       </c>
       <c r="E6">
         <v>9.0658300000000004E-3</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C7">
-        <v>6.211937E-2</v>
+      <c r="C7" s="16">
+        <v>6.2209581799999997E-2</v>
       </c>
       <c r="E7">
         <v>1.221916E-2</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C8">
-        <v>6.9021520000000003E-2</v>
+      <c r="C8" s="16">
+        <v>6.6655984599999996E-2</v>
       </c>
       <c r="E8">
         <v>1.694915E-2</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C9">
-        <v>8.6479899999999998E-2</v>
+      <c r="C9" s="16">
+        <v>7.4867809600000002E-2</v>
       </c>
       <c r="E9">
         <v>2.0890820000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C10">
-        <v>9.6630129999999995E-2</v>
+      <c r="C10" s="16">
+        <v>7.6430059300000006E-2</v>
       </c>
       <c r="E10">
         <v>1.5372490000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C11">
-        <v>0.10272025999999999</v>
+      <c r="C11" s="16">
+        <v>7.9194039399999999E-2</v>
       </c>
       <c r="E11">
         <v>1.7343319999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C12">
-        <v>0.10393829</v>
+      <c r="C12" s="16">
+        <v>8.42813652E-2</v>
       </c>
       <c r="E12">
         <v>1.6554989999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C13">
-        <v>0.11327648999999999</v>
+      <c r="C13" s="16">
+        <v>8.0275596899999996E-2</v>
       </c>
       <c r="E13">
         <v>1.300749E-2</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C14">
-        <v>0.12911084</v>
+      <c r="C14" s="16">
+        <v>8.3800673000000006E-2</v>
       </c>
       <c r="E14">
         <v>1.5372490000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C15">
-        <v>0.13357694000000001</v>
+      <c r="C15" s="16">
+        <v>8.2879346300000004E-2</v>
       </c>
       <c r="E15">
         <v>1.4584150000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C16">
-        <v>0.10353228</v>
+      <c r="C16" s="16">
+        <v>7.78721359E-2</v>
       </c>
       <c r="E16">
         <v>1.497832E-2</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C17">
-        <v>0.10799838</v>
+      <c r="C17" s="16">
+        <v>7.2904983199999995E-2</v>
       </c>
       <c r="E17">
         <v>1.300749E-2</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C18">
-        <v>8.607389E-2</v>
+      <c r="C18" s="16">
+        <v>6.3571542999999994E-2</v>
       </c>
       <c r="E18">
         <v>8.6716599999999994E-3</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C19">
-        <v>7.2675600000000007E-2</v>
+      <c r="C19" s="16">
+        <v>5.2115045700000001E-2</v>
       </c>
       <c r="E19">
         <v>9.0658300000000004E-3</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C20">
-        <v>6.3743400000000006E-2</v>
+      <c r="C20" s="16">
+        <v>4.6907546899999999E-2</v>
       </c>
       <c r="E20">
         <v>8.6716599999999994E-3</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C21">
-        <v>5.8059279999999998E-2</v>
+      <c r="C21" s="16">
+        <v>3.6252203199999999E-2</v>
       </c>
       <c r="E21">
         <v>3.9416599999999996E-3</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C22">
-        <v>3.329273E-2</v>
+      <c r="C22" s="16">
+        <v>3.1285050500000001E-2</v>
       </c>
       <c r="E22">
         <v>2.3649999999999999E-3</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C23">
-        <v>3.5728790000000003E-2</v>
+      <c r="C23" s="16">
+        <v>2.4074667500000001E-2</v>
       </c>
       <c r="E23">
         <v>3.1533300000000002E-3</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C24">
-        <v>2.6796589999999999E-2</v>
+      <c r="C24" s="16">
+        <v>1.81861881E-2</v>
       </c>
       <c r="E24">
         <v>2.3649999999999999E-3</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C25">
-        <v>2.1518470000000001E-2</v>
+      <c r="C25" s="16">
+        <v>1.23377664E-2</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C26">
-        <v>1.421031E-2</v>
+      <c r="C26" s="16">
+        <v>8.0916519799999996E-3</v>
       </c>
       <c r="E26">
         <v>7.8832999999999996E-4</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C27">
-        <v>6.9021500000000001E-3</v>
+      <c r="C27" s="16">
+        <v>4.1259413599999996E-3</v>
       </c>
       <c r="E27">
         <v>7.8832999999999996E-4</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C28">
-        <v>4.0600899999999997E-3</v>
+      <c r="C28" s="16">
+        <v>3.0844416E-3</v>
       </c>
       <c r="E28">
         <v>3.9417E-4</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C29">
-        <v>2.4360499999999999E-3</v>
+      <c r="C29" s="16">
+        <v>1.48213427E-3</v>
       </c>
       <c r="E29">
         <v>3.9417E-4</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C30">
-        <v>0</v>
+      <c r="C30" s="16">
+        <v>8.4121134399999995E-4</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C31">
-        <v>4.0601E-4</v>
+      <c r="C31" s="16">
+        <v>4.0057683100000002E-4</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C32">
-        <v>4.0601E-4</v>
+      <c r="C32" s="16">
+        <v>4.0057683099999999E-5</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C33">
-        <v>0</v>
+      <c r="C33" s="16">
+        <v>4.0057683099999999E-5</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C34">
+      <c r="C34" s="16">
         <v>0</v>
       </c>
       <c r="E34">
@@ -9911,7 +10118,7 @@
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C35">
+      <c r="C35" s="16">
         <v>0</v>
       </c>
       <c r="E35">
@@ -9919,7 +10126,7 @@
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C36">
+      <c r="C36" s="16">
         <v>0</v>
       </c>
       <c r="E36">
@@ -9927,7 +10134,7 @@
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C37">
+      <c r="C37" s="16">
         <v>0</v>
       </c>
       <c r="E37">
@@ -9935,7 +10142,7 @@
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C38">
+      <c r="C38" s="16">
         <v>0</v>
       </c>
       <c r="E38">
@@ -9943,7 +10150,7 @@
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C39">
+      <c r="C39" s="16">
         <v>0</v>
       </c>
       <c r="E39">
@@ -9951,7 +10158,7 @@
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C40">
+      <c r="C40" s="16">
         <v>0</v>
       </c>
       <c r="E40">
@@ -9959,7 +10166,7 @@
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C41">
+      <c r="C41" s="16">
         <v>0</v>
       </c>
       <c r="E41">
@@ -9967,7 +10174,7 @@
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C42">
+      <c r="C42" s="16">
         <v>0</v>
       </c>
       <c r="E42">
@@ -9975,7 +10182,7 @@
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C43">
+      <c r="C43" s="16">
         <v>0</v>
       </c>
       <c r="E43">
@@ -9983,7 +10190,7 @@
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C44">
+      <c r="C44" s="16">
         <v>0</v>
       </c>
       <c r="E44">
@@ -9991,7 +10198,7 @@
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C45">
+      <c r="C45" s="16">
         <v>0</v>
       </c>
       <c r="E45">
@@ -9999,7 +10206,7 @@
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C46">
+      <c r="C46" s="16">
         <v>0</v>
       </c>
       <c r="E46">
@@ -10007,7 +10214,7 @@
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C47">
+      <c r="C47" s="16">
         <v>0</v>
       </c>
       <c r="E47">
@@ -10015,7 +10222,7 @@
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C48">
+      <c r="C48" s="16">
         <v>0</v>
       </c>
       <c r="E48">
@@ -10023,7 +10230,7 @@
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C49">
+      <c r="C49" s="16">
         <v>0</v>
       </c>
       <c r="E49">
@@ -10031,7 +10238,7 @@
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C50">
+      <c r="C50" s="16">
         <v>0</v>
       </c>
       <c r="E50">
@@ -10039,7 +10246,7 @@
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C51">
+      <c r="C51" s="16">
         <v>0</v>
       </c>
       <c r="E51">
@@ -10047,7 +10254,7 @@
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C52">
+      <c r="C52" s="16">
         <v>0</v>
       </c>
       <c r="E52">
@@ -10055,7 +10262,7 @@
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C53">
+      <c r="C53" s="16">
         <v>0</v>
       </c>
       <c r="E53" t="s">

--- a/intensities/outsidermalli.xlsx
+++ b/intensities/outsidermalli.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antti/Github/econogym/intensities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DF6BB7-EA03-EC4A-91B3-0CF09DC56D8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83062C8D-81FC-734F-A32D-70CEB3255630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27280" windowHeight="15520" activeTab="1" xr2:uid="{4432A973-DB75-B946-AAB0-63A29BD95705}"/>
+    <workbookView xWindow="860" yWindow="600" windowWidth="27280" windowHeight="15520" activeTab="1" xr2:uid="{4432A973-DB75-B946-AAB0-63A29BD95705}"/>
   </bookViews>
   <sheets>
     <sheet name="miehet" sheetId="1" r:id="rId1"/>
@@ -793,31 +793,31 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L5" s="8">
         <f t="shared" ref="L5:L14" si="0">K5*D5/G5</f>
-        <v>5.9750289612562762E-3</v>
+        <v>5.9750289612562756E-2</v>
       </c>
       <c r="N5" s="6">
         <f>I5+K5</f>
-        <v>0.53180136674804923</v>
+        <v>0.71180136674804917</v>
       </c>
       <c r="O5" s="4">
         <f>L5+J5</f>
-        <v>5.9750289612562762E-3</v>
+        <v>5.9750289612562756E-2</v>
       </c>
       <c r="Q5" s="4">
         <f>N5*D5</f>
-        <v>8.0495041882237009E-2</v>
+        <v>0.10774037904149095</v>
       </c>
       <c r="R5" s="5">
         <f>O5*G5</f>
-        <v>3.0272596843615497E-3</v>
+        <v>3.0272596843615496E-2</v>
       </c>
       <c r="T5" s="3">
         <f>D5+R5-Q5</f>
-        <v>7.3895202020202014E-2</v>
+        <v>7.3895202020202028E-2</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
@@ -851,31 +851,31 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" si="0"/>
-        <v>2.3624987385205366E-3</v>
+        <v>2.3624987385205368E-2</v>
       </c>
       <c r="N6" s="6">
         <f t="shared" ref="N6:N54" si="5">I6+K6</f>
-        <v>0.17276673068120543</v>
+        <v>0.35276673068120545</v>
       </c>
       <c r="O6" s="4">
         <f t="shared" ref="O6:O54" si="6">L6+J6</f>
-        <v>2.3624987385205366E-3</v>
+        <v>2.3624987385205368E-2</v>
       </c>
       <c r="Q6" s="4">
         <f t="shared" ref="Q6:Q54" si="7">N6*D6</f>
-        <v>1.2766632466057509E-2</v>
+        <v>2.6067768829693874E-2</v>
       </c>
       <c r="R6" s="5">
         <f t="shared" ref="R6:R54" si="8">O6*G6</f>
-        <v>1.4779040404040403E-3</v>
+        <v>1.4779040404040404E-2</v>
       </c>
       <c r="T6" s="3">
         <f>T5+R6-Q6</f>
-        <v>6.2606473594548545E-2</v>
+        <v>6.2606473594548559E-2</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
@@ -909,31 +909,31 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" si="0"/>
-        <v>1.9545087610997672E-3</v>
+        <v>1.9545087610997672E-2</v>
       </c>
       <c r="N7" s="6">
         <f t="shared" si="5"/>
-        <v>6.5288397048960375E-2</v>
+        <v>0.24528839704896038</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="6"/>
-        <v>1.9545087610997672E-3</v>
+        <v>1.9545087610997672E-2</v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="7"/>
-        <v>4.0874763058761391E-3</v>
+        <v>1.5356641552894878E-2</v>
       </c>
       <c r="R7" s="5">
         <f t="shared" si="8"/>
-        <v>1.252129471890971E-3</v>
+        <v>1.252129471890971E-2</v>
       </c>
       <c r="T7" s="3">
         <f t="shared" ref="T7:T54" si="10">T6+R7-Q7</f>
-        <v>5.9771126760563384E-2</v>
+        <v>5.9771126760563391E-2</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
@@ -967,31 +967,31 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L8" s="8">
         <f t="shared" si="0"/>
-        <v>1.7919507367495052E-3</v>
+        <v>1.7919507367495053E-2</v>
       </c>
       <c r="N8" s="6">
         <f t="shared" si="5"/>
-        <v>6.0346281092049689E-2</v>
+        <v>0.2403462810920497</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="6"/>
-        <v>1.7919507367495052E-3</v>
+        <v>1.7919507367495053E-2</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="7"/>
-        <v>3.6069652166814911E-3</v>
+        <v>1.43657680335829E-2</v>
       </c>
       <c r="R8" s="5">
         <f t="shared" si="8"/>
-        <v>1.1954225352112675E-3</v>
+        <v>1.1954225352112675E-2</v>
       </c>
       <c r="T8" s="3">
         <f t="shared" si="10"/>
-        <v>5.7359584079093161E-2</v>
+        <v>5.7359584079093168E-2</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
@@ -1025,31 +1025,31 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L9" s="8">
         <f t="shared" si="0"/>
-        <v>1.6059497295577473E-3</v>
+        <v>1.6059497295577475E-2</v>
       </c>
       <c r="N9" s="6">
         <f t="shared" si="5"/>
-        <v>2.3061016916722445E-2</v>
+        <v>0.20306101691672246</v>
       </c>
       <c r="O9" s="4">
         <f t="shared" si="6"/>
-        <v>1.6059497295577473E-3</v>
+        <v>1.6059497295577475E-2</v>
       </c>
       <c r="Q9" s="4">
         <f t="shared" si="7"/>
-        <v>1.3227703387841305E-3</v>
+        <v>1.1647495473020899E-2</v>
       </c>
       <c r="R9" s="5">
         <f t="shared" si="8"/>
-        <v>1.1471916815818631E-3</v>
+        <v>1.1471916815818632E-2</v>
       </c>
       <c r="T9" s="3">
         <f t="shared" si="10"/>
-        <v>5.7184005421890893E-2</v>
+        <v>5.71840054218909E-2</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
@@ -1083,31 +1083,31 @@
         <v>2.5476166817069357E-4</v>
       </c>
       <c r="K10">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L10" s="8">
         <f t="shared" si="0"/>
-        <v>1.5007225701263571E-3</v>
+        <v>1.5007225701263572E-2</v>
       </c>
       <c r="N10" s="6">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="6"/>
-        <v>1.7554842382970506E-3</v>
+        <v>1.5261987369434266E-2</v>
       </c>
       <c r="Q10" s="4">
         <f t="shared" si="7"/>
-        <v>1.1436801084378178E-3</v>
+        <v>1.1436801084378178E-2</v>
       </c>
       <c r="R10" s="5">
         <f t="shared" si="8"/>
-        <v>1.3378304851158508E-3</v>
+        <v>1.1630951461056211E-2</v>
       </c>
       <c r="T10" s="3">
         <f t="shared" si="10"/>
-        <v>5.7378155798568926E-2</v>
+        <v>5.7378155798568933E-2</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
@@ -1141,31 +1141,31 @@
         <v>1.4295560851544048E-3</v>
       </c>
       <c r="K11">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L11" s="8">
         <f t="shared" si="0"/>
-        <v>1.4369759264268327E-3</v>
+        <v>1.4369759264268325E-2</v>
       </c>
       <c r="N11" s="6">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O11" s="4">
         <f t="shared" si="6"/>
-        <v>2.8665320115812375E-3</v>
+        <v>1.5799315349422732E-2</v>
       </c>
       <c r="Q11" s="4">
         <f t="shared" si="7"/>
-        <v>1.1475631159713784E-3</v>
+        <v>1.1475631159713784E-2</v>
       </c>
       <c r="R11" s="5">
         <f t="shared" si="8"/>
-        <v>2.289200776954953E-3</v>
+        <v>1.261726882069736E-2</v>
       </c>
       <c r="T11" s="3">
         <f t="shared" si="10"/>
-        <v>5.8519793459552501E-2</v>
+        <v>5.8519793459552508E-2</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
@@ -1199,31 +1199,31 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L12" s="8">
         <f t="shared" si="0"/>
-        <v>1.4242021276595744E-3</v>
+        <v>1.4242021276595745E-2</v>
       </c>
       <c r="N12" s="6">
         <f t="shared" si="5"/>
-        <v>2.3837211141514922E-2</v>
+        <v>0.20383721114151493</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" si="6"/>
-        <v>1.4242021276595744E-3</v>
+        <v>1.4242021276595745E-2</v>
       </c>
       <c r="Q12" s="4">
         <f t="shared" si="7"/>
-        <v>1.3949486726531968E-3</v>
+        <v>1.1928511495372647E-2</v>
       </c>
       <c r="R12" s="5">
         <f t="shared" si="8"/>
-        <v>1.1703958691910499E-3</v>
+        <v>1.17039586919105E-2</v>
       </c>
       <c r="T12" s="3">
         <f t="shared" si="10"/>
-        <v>5.8295240656090354E-2</v>
+        <v>5.8295240656090361E-2</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
@@ -1257,31 +1257,31 @@
         <v>8.263405023371215E-4</v>
       </c>
       <c r="K13">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L13" s="8">
         <f t="shared" si="0"/>
-        <v>1.3834912734118248E-3</v>
+        <v>1.3834912734118247E-2</v>
       </c>
       <c r="N13" s="6">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O13" s="4">
         <f t="shared" si="6"/>
-        <v>2.2098317757489462E-3</v>
+        <v>1.4661253236455368E-2</v>
       </c>
       <c r="Q13" s="4">
         <f t="shared" si="7"/>
-        <v>1.165904813121807E-3</v>
+        <v>1.1659048131218069E-2</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" si="8"/>
-        <v>1.8622838850160721E-3</v>
+        <v>1.2355427203112335E-2</v>
       </c>
       <c r="T13" s="3">
         <f t="shared" si="10"/>
-        <v>5.8991619727984619E-2</v>
+        <v>5.8991619727984626E-2</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
@@ -1315,31 +1315,31 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L14" s="8">
         <f t="shared" si="0"/>
-        <v>1.3756647658102134E-3</v>
+        <v>1.3756647658102134E-2</v>
       </c>
       <c r="N14" s="6">
         <f t="shared" si="5"/>
-        <v>2.5226097958510892E-2</v>
+        <v>0.20522609795851091</v>
       </c>
       <c r="O14" s="4">
         <f t="shared" si="6"/>
-        <v>1.3756647658102134E-3</v>
+        <v>1.3756647658102134E-2</v>
       </c>
       <c r="Q14" s="4">
         <f t="shared" si="7"/>
-        <v>1.4881283779893636E-3</v>
+        <v>1.2106619929026594E-2</v>
       </c>
       <c r="R14" s="5">
         <f t="shared" si="8"/>
-        <v>1.1798323945596922E-3</v>
+        <v>1.1798323945596923E-2</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="10"/>
-        <v>5.8683323744554948E-2</v>
+        <v>5.8683323744554955E-2</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
@@ -1373,27 +1373,27 @@
         <v>2.8328988677822804E-3</v>
       </c>
       <c r="K15">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L15" s="8">
         <f t="shared" ref="L15:L54" si="11">K15*D15/G15</f>
-        <v>1.3590077086571709E-3</v>
+        <v>1.3590077086571711E-2</v>
       </c>
       <c r="N15" s="6">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" si="6"/>
-        <v>4.1919065764394513E-3</v>
+        <v>1.6422975954353991E-2</v>
       </c>
       <c r="Q15" s="4">
         <f t="shared" si="7"/>
-        <v>1.1736664748910987E-3</v>
+        <v>1.173666474891099E-2</v>
       </c>
       <c r="R15" s="5">
         <f t="shared" si="8"/>
-        <v>3.6202150902468651E-3</v>
+        <v>1.4183213364266756E-2</v>
       </c>
       <c r="T15" s="3">
         <f t="shared" si="10"/>
@@ -1431,27 +1431,27 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L16" s="9">
         <f t="shared" si="11"/>
-        <v>1.4033704543214742E-3</v>
+        <v>1.4033704543214742E-2</v>
       </c>
       <c r="N16" s="6">
         <f t="shared" si="5"/>
-        <v>0.11085462690956632</v>
+        <v>0.29085462690956632</v>
       </c>
       <c r="O16" s="4">
         <f t="shared" si="6"/>
-        <v>1.4033704543214742E-3</v>
+        <v>1.4033704543214742E-2</v>
       </c>
       <c r="Q16" s="4">
         <f t="shared" si="7"/>
-        <v>6.776529193487312E-3</v>
+        <v>1.7779906218271239E-2</v>
       </c>
       <c r="R16" s="5">
         <f t="shared" si="8"/>
-        <v>1.2225974471982142E-3</v>
+        <v>1.2225974471982141E-2</v>
       </c>
       <c r="T16" s="3">
         <f t="shared" si="10"/>
@@ -1489,31 +1489,31 @@
         <v>1.4234843710492504E-3</v>
       </c>
       <c r="K17">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L17" s="9">
         <f t="shared" si="11"/>
-        <v>1.2582273627707841E-3</v>
+        <v>1.258227362770784E-2</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O17" s="4">
         <f t="shared" si="6"/>
-        <v>2.6817117338200345E-3</v>
+        <v>1.4005757998757092E-2</v>
       </c>
       <c r="Q17" s="4">
         <f t="shared" si="7"/>
-        <v>1.1115188122724322E-3</v>
+        <v>1.1115188122724322E-2</v>
       </c>
       <c r="R17" s="5">
         <f t="shared" si="8"/>
-        <v>2.3690257654774179E-3</v>
+        <v>1.2372695075929309E-2</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" si="10"/>
-        <v>5.6833447566826609E-2</v>
+        <v>5.6833447566826616E-2</v>
       </c>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.2">
@@ -1547,31 +1547,31 @@
         <v>7.7240438886213051E-4</v>
       </c>
       <c r="K18">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L18" s="9">
         <f t="shared" si="11"/>
-        <v>1.2856611262713968E-3</v>
+        <v>1.2856611262713969E-2</v>
       </c>
       <c r="N18" s="6">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O18" s="4">
         <f t="shared" si="6"/>
-        <v>2.0580655151335274E-3</v>
+        <v>1.36290156515761E-2</v>
       </c>
       <c r="Q18" s="4">
         <f t="shared" si="7"/>
-        <v>1.1366689513365319E-3</v>
+        <v>1.136668951336532E-2</v>
       </c>
       <c r="R18" s="5">
         <f t="shared" si="8"/>
-        <v>1.8195612537909799E-3</v>
+        <v>1.204958181581977E-2</v>
       </c>
       <c r="T18" s="3">
         <f t="shared" si="10"/>
-        <v>5.7516339869281057E-2</v>
+        <v>5.7516339869281063E-2</v>
       </c>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.2">
@@ -1605,27 +1605,27 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L19" s="9">
         <f t="shared" si="11"/>
-        <v>1.2991082188479153E-3</v>
+        <v>1.2991082188479152E-2</v>
       </c>
       <c r="N19" s="6">
         <f t="shared" si="5"/>
-        <v>0.10528857926353388</v>
+        <v>0.2852885792635339</v>
       </c>
       <c r="O19" s="4">
         <f t="shared" si="6"/>
-        <v>1.2991082188479153E-3</v>
+        <v>1.2991082188479152E-2</v>
       </c>
       <c r="Q19" s="4">
         <f t="shared" si="7"/>
-        <v>6.0558137092751509E-3</v>
+        <v>1.6408754885745738E-2</v>
       </c>
       <c r="R19" s="5">
         <f t="shared" si="8"/>
-        <v>1.150326797385621E-3</v>
+        <v>1.1503267973856209E-2</v>
       </c>
       <c r="T19" s="3">
         <f t="shared" si="10"/>
@@ -1663,27 +1663,27 @@
         <v>1.1034106239035777E-3</v>
       </c>
       <c r="K20">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L20" s="9">
         <f t="shared" si="11"/>
-        <v>1.1786848606046348E-3</v>
+        <v>1.1786848606046348E-2</v>
       </c>
       <c r="N20" s="6">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O20" s="4">
         <f t="shared" si="6"/>
-        <v>2.2820954845082127E-3</v>
+        <v>1.2890259229949925E-2</v>
       </c>
       <c r="Q20" s="4">
         <f t="shared" si="7"/>
-        <v>1.0522170591478303E-3</v>
+        <v>1.0522170591478303E-2</v>
       </c>
       <c r="R20" s="5">
         <f t="shared" si="8"/>
-        <v>2.0372364825081324E-3</v>
+        <v>1.1507190014838605E-2</v>
       </c>
       <c r="T20" s="3">
         <f t="shared" si="10"/>
@@ -1721,27 +1721,27 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L21" s="9">
         <f t="shared" si="11"/>
-        <v>1.1993402450518379E-3</v>
+        <v>1.199340245051838E-2</v>
       </c>
       <c r="N21" s="6">
         <f t="shared" si="5"/>
-        <v>5.89384619509431E-2</v>
+        <v>0.23893846195094309</v>
       </c>
       <c r="O21" s="4">
         <f t="shared" si="6"/>
-        <v>1.1993402450518379E-3</v>
+        <v>1.199340245051838E-2</v>
       </c>
       <c r="Q21" s="4">
         <f t="shared" si="7"/>
-        <v>3.1588582850405429E-3</v>
+        <v>1.280611531357587E-2</v>
       </c>
       <c r="R21" s="5">
         <f t="shared" si="8"/>
-        <v>1.0719174476150363E-3</v>
+        <v>1.0719174476150364E-2</v>
       </c>
       <c r="T21" s="3">
         <f t="shared" si="10"/>
@@ -1779,31 +1779,31 @@
         <v>1.5556970431221423E-3</v>
       </c>
       <c r="K22">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L22" s="9">
         <f t="shared" si="11"/>
-        <v>1.1510925151092515E-3</v>
+        <v>1.1510925151092515E-2</v>
       </c>
       <c r="N22" s="6">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O22" s="4">
         <f t="shared" si="6"/>
-        <v>2.7067895582313936E-3</v>
+        <v>1.3066622194214658E-2</v>
       </c>
       <c r="Q22" s="4">
         <f t="shared" si="7"/>
-        <v>1.0301786308665262E-3</v>
+        <v>1.0301786308665262E-2</v>
       </c>
       <c r="R22" s="5">
         <f t="shared" si="8"/>
-        <v>2.422461031186506E-3</v>
+        <v>1.1694068708985242E-2</v>
       </c>
       <c r="T22" s="3">
         <f t="shared" si="10"/>
-        <v>5.2901213943646302E-2</v>
+        <v>5.2901213943646309E-2</v>
       </c>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.2">
@@ -1837,31 +1837,31 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L23" s="9">
         <f t="shared" si="11"/>
-        <v>1.1811880264834787E-3</v>
+        <v>1.181188026483479E-2</v>
       </c>
       <c r="N23" s="6">
         <f t="shared" si="5"/>
-        <v>6.3590225563909808E-2</v>
+        <v>0.24359022556390983</v>
       </c>
       <c r="O23" s="4">
         <f t="shared" si="6"/>
-        <v>1.1811880264834787E-3</v>
+        <v>1.181188026483479E-2</v>
       </c>
       <c r="Q23" s="4">
         <f t="shared" si="7"/>
-        <v>3.3640001272811182E-3</v>
+        <v>1.2886218637137452E-2</v>
       </c>
       <c r="R23" s="5">
         <f t="shared" si="8"/>
-        <v>1.0580242788729257E-3</v>
+        <v>1.0580242788729259E-2</v>
       </c>
       <c r="T23" s="3">
         <f t="shared" si="10"/>
-        <v>5.059523809523811E-2</v>
+        <v>5.0595238095238117E-2</v>
       </c>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.2">
@@ -1895,31 +1895,31 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L24" s="9">
         <f t="shared" si="11"/>
-        <v>1.1231713072203872E-3</v>
+        <v>1.123171307220387E-2</v>
       </c>
       <c r="N24" s="6">
         <f t="shared" si="5"/>
-        <v>3.2264403485985679E-2</v>
+        <v>0.21226440348598569</v>
       </c>
       <c r="O24" s="4">
         <f t="shared" si="6"/>
-        <v>1.1231713072203872E-3</v>
+        <v>1.123171307220387E-2</v>
       </c>
       <c r="Q24" s="4">
         <f t="shared" si="7"/>
-        <v>1.6324251763742755E-3</v>
+        <v>1.0739568033517133E-2</v>
       </c>
       <c r="R24" s="5">
         <f t="shared" si="8"/>
-        <v>1.011904761904762E-3</v>
+        <v>1.011904761904762E-2</v>
       </c>
       <c r="T24" s="3">
         <f t="shared" si="10"/>
-        <v>4.9974717680768596E-2</v>
+        <v>4.9974717680768603E-2</v>
       </c>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.2">
@@ -1953,31 +1953,31 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L25" s="9">
         <f t="shared" si="11"/>
-        <v>1.1120140017502188E-3</v>
+        <v>1.112014001750219E-2</v>
       </c>
       <c r="N25" s="6">
         <f t="shared" si="5"/>
-        <v>9.7629271664057174E-2</v>
+        <v>0.27762927166405715</v>
       </c>
       <c r="O25" s="4">
         <f t="shared" si="6"/>
-        <v>1.1120140017502188E-3</v>
+        <v>1.112014001750219E-2</v>
       </c>
       <c r="Q25" s="4">
         <f t="shared" si="7"/>
-        <v>4.8789952887903169E-3</v>
+        <v>1.3874444471328662E-2</v>
       </c>
       <c r="R25" s="5">
         <f t="shared" si="8"/>
-        <v>9.9949435361537165E-4</v>
+        <v>9.9949435361537178E-3</v>
       </c>
       <c r="T25" s="3">
         <f t="shared" si="10"/>
-        <v>4.6095216745593651E-2</v>
+        <v>4.6095216745593658E-2</v>
       </c>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.2">
@@ -2011,31 +2011,31 @@
         <v>8.5922762666822236E-4</v>
       </c>
       <c r="K26">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L26" s="9">
         <f t="shared" si="11"/>
-        <v>1.0209464701318853E-3</v>
+        <v>1.0209464701318853E-2</v>
       </c>
       <c r="N26" s="6">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O26" s="4">
         <f t="shared" si="6"/>
-        <v>1.8801740968001075E-3</v>
+        <v>1.1068692327987077E-2</v>
       </c>
       <c r="Q26" s="4">
         <f t="shared" si="7"/>
-        <v>9.2190433491187273E-4</v>
+        <v>9.2190433491187284E-3</v>
       </c>
       <c r="R26" s="5">
         <f t="shared" si="8"/>
-        <v>1.6977781900799581E-3</v>
+        <v>9.9949172042868156E-3</v>
       </c>
       <c r="T26" s="3">
         <f t="shared" si="10"/>
-        <v>4.6871090600761736E-2</v>
+        <v>4.6871090600761743E-2</v>
       </c>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.2">
@@ -2069,31 +2069,31 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L27" s="9">
         <f t="shared" si="11"/>
-        <v>1.0371874134908184E-3</v>
+        <v>1.0371874134908185E-2</v>
       </c>
       <c r="N27" s="6">
         <f t="shared" si="5"/>
-        <v>3.0441994477630616E-2</v>
+        <v>0.21044199447763062</v>
       </c>
       <c r="O27" s="4">
         <f t="shared" si="6"/>
-        <v>1.0371874134908184E-3</v>
+        <v>1.0371874134908185E-2</v>
       </c>
       <c r="Q27" s="4">
         <f t="shared" si="7"/>
-        <v>1.4268494812289126E-3</v>
+        <v>9.8636457893660229E-3</v>
       </c>
       <c r="R27" s="5">
         <f t="shared" si="8"/>
-        <v>9.3742181201523448E-4</v>
+        <v>9.3742181201523448E-3</v>
       </c>
       <c r="T27" s="3">
         <f t="shared" si="10"/>
-        <v>4.6381662931548058E-2</v>
+        <v>4.6381662931548065E-2</v>
       </c>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.2">
@@ -2127,31 +2127,31 @@
         <v>1.0043920529623845E-3</v>
       </c>
       <c r="K28">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L28" s="9">
         <f t="shared" si="11"/>
-        <v>1.024371906522148E-3</v>
+        <v>1.0243719065221478E-2</v>
       </c>
       <c r="N28" s="6">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O28" s="4">
         <f t="shared" si="6"/>
-        <v>2.0287639594845325E-3</v>
+        <v>1.1248111118183862E-2</v>
       </c>
       <c r="Q28" s="4">
         <f t="shared" si="7"/>
-        <v>9.2763325863096091E-4</v>
+        <v>9.2763325863096085E-3</v>
       </c>
       <c r="R28" s="5">
         <f t="shared" si="8"/>
-        <v>1.837173501876975E-3</v>
+        <v>1.0185872829555622E-2</v>
       </c>
       <c r="T28" s="3">
         <f t="shared" si="10"/>
-        <v>4.7291203174794072E-2</v>
+        <v>4.7291203174794079E-2</v>
       </c>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.2">
@@ -2185,31 +2185,31 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L29" s="9">
         <f t="shared" si="11"/>
-        <v>1.0487016233874462E-3</v>
+        <v>1.0487016233874463E-2</v>
       </c>
       <c r="N29" s="6">
         <f t="shared" si="5"/>
-        <v>4.6404432079217087E-2</v>
+        <v>0.22640443207921709</v>
       </c>
       <c r="O29" s="4">
         <f t="shared" si="6"/>
-        <v>1.0487016233874462E-3</v>
+        <v>1.0487016233874463E-2</v>
       </c>
       <c r="Q29" s="4">
         <f t="shared" si="7"/>
-        <v>2.1945214256691862E-3</v>
+        <v>1.0706937997132118E-2</v>
       </c>
       <c r="R29" s="5">
         <f t="shared" si="8"/>
-        <v>9.4582406349588124E-4</v>
+        <v>9.4582406349588127E-3</v>
       </c>
       <c r="T29" s="3">
         <f t="shared" si="10"/>
-        <v>4.6042505812620767E-2</v>
+        <v>4.6042505812620774E-2</v>
       </c>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.2">
@@ -2243,27 +2243,27 @@
         <v>6.4166843547367315E-4</v>
       </c>
       <c r="K30">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L30" s="9">
         <f t="shared" si="11"/>
-        <v>1.0238858141567143E-3</v>
+        <v>1.0238858141567142E-2</v>
       </c>
       <c r="N30" s="6">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O30" s="4">
         <f t="shared" si="6"/>
-        <v>1.6655542496303874E-3</v>
+        <v>1.0880526577040814E-2</v>
       </c>
       <c r="Q30" s="4">
         <f t="shared" si="7"/>
-        <v>9.2085011625241511E-4</v>
+        <v>9.2085011625241513E-3</v>
       </c>
       <c r="R30" s="5">
         <f t="shared" si="8"/>
-        <v>1.4979461607836054E-3</v>
+        <v>9.7855972070553399E-3</v>
       </c>
       <c r="T30" s="3">
         <f t="shared" si="10"/>
@@ -2301,27 +2301,27 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L31" s="9">
         <f t="shared" si="11"/>
-        <v>1.0383171612720447E-3</v>
+        <v>1.0383171612720449E-2</v>
       </c>
       <c r="N31" s="6">
         <f t="shared" si="5"/>
-        <v>2.3471693845521856E-2</v>
+        <v>0.20347169384552186</v>
       </c>
       <c r="O31" s="4">
         <f t="shared" si="6"/>
-        <v>1.0383171612720447E-3</v>
+        <v>1.0383171612720449E-2</v>
       </c>
       <c r="Q31" s="4">
         <f t="shared" si="7"/>
-        <v>1.0942410219911926E-3</v>
+        <v>9.4857693562785429E-3</v>
       </c>
       <c r="R31" s="5">
         <f t="shared" si="8"/>
-        <v>9.3239203714303874E-4</v>
+        <v>9.3239203714303893E-3</v>
       </c>
       <c r="T31" s="3">
         <f t="shared" si="10"/>
@@ -2359,27 +2359,27 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L32" s="9">
         <f t="shared" si="11"/>
-        <v>1.037871105360702E-3</v>
+        <v>1.037871105360702E-2</v>
       </c>
       <c r="N32" s="6">
         <f t="shared" si="5"/>
-        <v>0.10724504328789708</v>
+        <v>0.28724504328789707</v>
       </c>
       <c r="O32" s="4">
         <f t="shared" si="6"/>
-        <v>1.037871105360702E-3</v>
+        <v>1.037871105360702E-2</v>
       </c>
       <c r="Q32" s="4">
         <f t="shared" si="7"/>
-        <v>4.9823637178486452E-3</v>
+        <v>1.3344759234863326E-2</v>
       </c>
       <c r="R32" s="5">
         <f t="shared" si="8"/>
-        <v>9.2915505744607565E-4</v>
+        <v>9.2915505744607576E-3</v>
       </c>
       <c r="T32" s="3">
         <f t="shared" si="10"/>
@@ -2417,27 +2417,27 @@
         <v>3.9345922108335952E-3</v>
       </c>
       <c r="K33">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L33" s="9">
         <f t="shared" si="11"/>
-        <v>9.4679371969208861E-4</v>
+        <v>9.4679371969208868E-3</v>
       </c>
       <c r="N33" s="6">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O33" s="4">
         <f t="shared" si="6"/>
-        <v>4.8813859305256837E-3</v>
+        <v>1.3402529407754483E-2</v>
       </c>
       <c r="Q33" s="4">
         <f t="shared" si="7"/>
-        <v>8.480908842380244E-4</v>
+        <v>8.4809088423802442E-3</v>
       </c>
       <c r="R33" s="5">
         <f t="shared" si="8"/>
-        <v>4.3725035601978037E-3</v>
+        <v>1.2005321518340025E-2</v>
       </c>
       <c r="T33" s="3">
         <f t="shared" si="10"/>
@@ -2475,27 +2475,27 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L34" s="9">
         <f t="shared" si="11"/>
-        <v>1.0293726741095164E-3</v>
+        <v>1.0293726741095162E-2</v>
       </c>
       <c r="N34" s="6">
         <f t="shared" si="5"/>
-        <v>5.1591972325918223E-2</v>
+        <v>0.23159197232591824</v>
       </c>
       <c r="O34" s="4">
         <f t="shared" si="6"/>
-        <v>1.0293726741095164E-3</v>
+        <v>1.0293726741095162E-2</v>
       </c>
       <c r="Q34" s="4">
         <f t="shared" si="7"/>
-        <v>2.3695654727168159E-3</v>
+        <v>1.0636777712531797E-2</v>
       </c>
       <c r="R34" s="5">
         <f t="shared" si="8"/>
-        <v>9.1857913775722012E-4</v>
+        <v>9.1857913775721996E-3</v>
       </c>
       <c r="T34" s="3">
         <f t="shared" si="10"/>
@@ -2533,27 +2533,27 @@
         <v>1.7277433358757629E-3</v>
       </c>
       <c r="K35">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L35" s="9">
         <f t="shared" si="11"/>
-        <v>1.000188477728215E-3</v>
+        <v>1.0001884777282151E-2</v>
       </c>
       <c r="N35" s="6">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O35" s="4">
         <f t="shared" si="6"/>
-        <v>2.7279318136039779E-3</v>
+        <v>1.1729628113157914E-2</v>
       </c>
       <c r="Q35" s="4">
         <f t="shared" si="7"/>
-        <v>8.8955941105802805E-4</v>
+        <v>8.8955941105802808E-3</v>
       </c>
       <c r="R35" s="5">
         <f t="shared" si="8"/>
-        <v>2.4262001328267824E-3</v>
+        <v>1.0432234832349035E-2</v>
       </c>
       <c r="T35" s="3">
         <f t="shared" si="10"/>
@@ -2591,31 +2591,31 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L36" s="9">
         <f t="shared" si="11"/>
-        <v>1.0410756136672013E-3</v>
+        <v>1.0410756136672014E-2</v>
       </c>
       <c r="N36" s="6">
         <f t="shared" si="5"/>
-        <v>4.8310708649792533E-2</v>
+        <v>0.22831070864979253</v>
       </c>
       <c r="O36" s="4">
         <f t="shared" si="6"/>
-        <v>1.0410756136672013E-3</v>
+        <v>1.0410756136672014E-2</v>
       </c>
       <c r="Q36" s="4">
         <f t="shared" si="7"/>
-        <v>2.2229984789240488E-3</v>
+        <v>1.0505628508364676E-2</v>
       </c>
       <c r="R36" s="5">
         <f t="shared" si="8"/>
-        <v>9.2029222549340321E-4</v>
+        <v>9.2029222549340328E-3</v>
       </c>
       <c r="T36" s="3">
         <f t="shared" si="10"/>
-        <v>4.4711905021239527E-2</v>
+        <v>4.4711905021239534E-2</v>
       </c>
     </row>
     <row r="37" spans="3:20" x14ac:dyDescent="0.2">
@@ -2649,31 +2649,31 @@
         <v>2.7331932779203921E-3</v>
       </c>
       <c r="K37">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L37" s="9">
         <f t="shared" si="11"/>
-        <v>1.014425601581565E-3</v>
+        <v>1.014425601581565E-2</v>
       </c>
       <c r="N37" s="6">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O37" s="4">
         <f t="shared" si="6"/>
-        <v>3.7476188795019568E-3</v>
+        <v>1.2877449293736042E-2</v>
       </c>
       <c r="Q37" s="4">
         <f t="shared" si="7"/>
-        <v>8.9423810042479034E-4</v>
+        <v>8.9423810042479034E-3</v>
       </c>
       <c r="R37" s="5">
         <f t="shared" si="8"/>
-        <v>3.3036070685686972E-3</v>
+        <v>1.1351749972391811E-2</v>
       </c>
       <c r="T37" s="3">
         <f t="shared" si="10"/>
-        <v>4.7121273989383435E-2</v>
+        <v>4.7121273989383441E-2</v>
       </c>
     </row>
     <row r="38" spans="3:20" x14ac:dyDescent="0.2">
@@ -2707,31 +2707,31 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L38" s="9">
         <f t="shared" si="11"/>
-        <v>1.078403887487151E-3</v>
+        <v>1.078403887487151E-2</v>
       </c>
       <c r="N38" s="6">
         <f t="shared" si="5"/>
-        <v>8.2322618612403087E-2</v>
+        <v>0.26232261861240308</v>
       </c>
       <c r="O38" s="4">
         <f t="shared" si="6"/>
-        <v>1.078403887487151E-3</v>
+        <v>1.078403887487151E-2</v>
       </c>
       <c r="Q38" s="4">
         <f t="shared" si="7"/>
-        <v>3.879146667158561E-3</v>
+        <v>1.2360975985247576E-2</v>
       </c>
       <c r="R38" s="5">
         <f t="shared" si="8"/>
-        <v>9.4242547978766857E-4</v>
+        <v>9.4242547978766848E-3</v>
       </c>
       <c r="T38" s="3">
         <f t="shared" si="10"/>
-        <v>4.4184552802012542E-2</v>
+        <v>4.4184552802012556E-2</v>
       </c>
     </row>
     <row r="39" spans="3:20" x14ac:dyDescent="0.2">
@@ -2765,31 +2765,31 @@
         <v>2.1246708286784951E-3</v>
       </c>
       <c r="K39">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L39" s="9">
         <f t="shared" si="11"/>
-        <v>1.0154376037886711E-3</v>
+        <v>1.0154376037886711E-2</v>
       </c>
       <c r="N39" s="6">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O39" s="4">
         <f t="shared" si="6"/>
-        <v>3.1401084324671662E-3</v>
+        <v>1.2279046866565207E-2</v>
       </c>
       <c r="Q39" s="4">
         <f t="shared" si="7"/>
-        <v>8.836910560402506E-4</v>
+        <v>8.8369105604025056E-3</v>
       </c>
       <c r="R39" s="5">
         <f t="shared" si="8"/>
-        <v>2.7326994060634614E-3</v>
+        <v>1.0685918910425718E-2</v>
       </c>
       <c r="T39" s="3">
         <f t="shared" si="10"/>
-        <v>4.6033561152035753E-2</v>
+        <v>4.6033561152035767E-2</v>
       </c>
     </row>
     <row r="40" spans="3:20" x14ac:dyDescent="0.2">
@@ -2823,31 +2823,31 @@
         <v>1.4871139232096814E-3</v>
       </c>
       <c r="K40">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L40" s="9">
         <f t="shared" si="11"/>
-        <v>1.0695418455930054E-3</v>
+        <v>1.0695418455930056E-2</v>
       </c>
       <c r="N40" s="6">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O40" s="4">
         <f t="shared" si="6"/>
-        <v>2.556655768802687E-3</v>
+        <v>1.2182532379139736E-2</v>
       </c>
       <c r="Q40" s="4">
         <f t="shared" si="7"/>
-        <v>9.2067122304071477E-4</v>
+        <v>9.2067122304071488E-3</v>
       </c>
       <c r="R40" s="5">
         <f t="shared" si="8"/>
-        <v>2.200792239458931E-3</v>
+        <v>1.0486833246825365E-2</v>
       </c>
       <c r="T40" s="3">
         <f t="shared" si="10"/>
-        <v>4.7313682168453969E-2</v>
+        <v>4.7313682168453983E-2</v>
       </c>
     </row>
     <row r="41" spans="3:20" x14ac:dyDescent="0.2">
@@ -2881,31 +2881,31 @@
         <v>7.5736450585094746E-4</v>
       </c>
       <c r="K41">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L41" s="9">
         <f t="shared" si="11"/>
-        <v>1.1179372911029762E-3</v>
+        <v>1.1179372911029762E-2</v>
       </c>
       <c r="N41" s="6">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O41" s="4">
         <f t="shared" si="6"/>
-        <v>1.8753017969539237E-3</v>
+        <v>1.193673741688071E-2</v>
       </c>
       <c r="Q41" s="4">
         <f t="shared" si="7"/>
-        <v>9.4627364336907912E-4</v>
+        <v>9.462736433690791E-3</v>
       </c>
       <c r="R41" s="5">
         <f t="shared" si="8"/>
-        <v>1.5873418642913056E-3</v>
+        <v>1.0103804654613018E-2</v>
       </c>
       <c r="T41" s="3">
         <f t="shared" si="10"/>
-        <v>4.7954750389376195E-2</v>
+        <v>4.7954750389376209E-2</v>
       </c>
     </row>
     <row r="42" spans="3:20" x14ac:dyDescent="0.2">
@@ -2939,31 +2939,31 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L42" s="9">
         <f t="shared" si="11"/>
-        <v>1.1498394810980804E-3</v>
+        <v>1.1498394810980804E-2</v>
       </c>
       <c r="N42" s="6">
         <f t="shared" si="5"/>
-        <v>2.9313743268315321E-2</v>
+        <v>0.20931374326831534</v>
       </c>
       <c r="O42" s="4">
         <f t="shared" si="6"/>
-        <v>1.1498394810980804E-3</v>
+        <v>1.1498394810980804E-2</v>
       </c>
       <c r="Q42" s="4">
         <f t="shared" si="7"/>
-        <v>1.4057332414103175E-3</v>
+        <v>1.0037588311498031E-2</v>
       </c>
       <c r="R42" s="5">
         <f t="shared" si="8"/>
-        <v>9.5909500778752364E-4</v>
+        <v>9.5909500778752366E-3</v>
       </c>
       <c r="T42" s="3">
         <f t="shared" si="10"/>
-        <v>4.7508112155753401E-2</v>
+        <v>4.7508112155753415E-2</v>
       </c>
     </row>
     <row r="43" spans="3:20" x14ac:dyDescent="0.2">
@@ -2997,31 +2997,31 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L43" s="9">
         <f t="shared" si="11"/>
-        <v>1.1517514959994621E-3</v>
+        <v>1.1517514959994622E-2</v>
       </c>
       <c r="N43" s="6">
         <f t="shared" si="5"/>
-        <v>7.2984512731341794E-2</v>
+        <v>0.25298451273134182</v>
       </c>
       <c r="O43" s="4">
         <f t="shared" si="6"/>
-        <v>1.1517514959994621E-3</v>
+        <v>1.1517514959994622E-2</v>
       </c>
       <c r="Q43" s="4">
         <f t="shared" si="7"/>
-        <v>3.4673564164735969E-3</v>
+        <v>1.2018816604509208E-2</v>
       </c>
       <c r="R43" s="5">
         <f t="shared" si="8"/>
-        <v>9.5016224311506785E-4</v>
+        <v>9.5016224311506789E-3</v>
       </c>
       <c r="T43" s="3">
         <f t="shared" si="10"/>
-        <v>4.4990917982394872E-2</v>
+        <v>4.4990917982394886E-2</v>
       </c>
     </row>
     <row r="44" spans="3:20" x14ac:dyDescent="0.2">
@@ -3055,31 +3055,31 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L44" s="9">
         <f t="shared" si="11"/>
-        <v>1.115267387087836E-3</v>
+        <v>1.1152673870878359E-2</v>
       </c>
       <c r="N44" s="6">
         <f t="shared" si="5"/>
-        <v>5.1289311980964453E-2</v>
+        <v>0.23128931198096447</v>
       </c>
       <c r="O44" s="4">
         <f t="shared" si="6"/>
-        <v>1.115267387087836E-3</v>
+        <v>1.1152673870878359E-2</v>
       </c>
       <c r="Q44" s="4">
         <f t="shared" si="7"/>
-        <v>2.3075532287090334E-3</v>
+        <v>1.0405918465540108E-2</v>
       </c>
       <c r="R44" s="5">
         <f t="shared" si="8"/>
-        <v>8.9981835964789722E-4</v>
+        <v>8.998183596478972E-3</v>
       </c>
       <c r="T44" s="3">
         <f t="shared" si="10"/>
-        <v>4.3583183113333736E-2</v>
+        <v>4.358318311333375E-2</v>
       </c>
     </row>
     <row r="45" spans="3:20" x14ac:dyDescent="0.2">
@@ -3113,31 +3113,31 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L45" s="9">
         <f t="shared" si="11"/>
-        <v>1.1237302747479291E-3</v>
+        <v>1.1237302747479291E-2</v>
       </c>
       <c r="N45" s="6">
         <f t="shared" si="5"/>
-        <v>0.11782760092775639</v>
+        <v>0.2978276009277564</v>
       </c>
       <c r="O45" s="4">
         <f t="shared" si="6"/>
-        <v>1.1237302747479291E-3</v>
+        <v>1.1237302747479291E-2</v>
       </c>
       <c r="Q45" s="4">
         <f t="shared" si="7"/>
-        <v>5.1353019070392173E-3</v>
+        <v>1.2980274867439287E-2</v>
       </c>
       <c r="R45" s="5">
         <f t="shared" si="8"/>
-        <v>8.716636622666745E-4</v>
+        <v>8.7166366226667444E-3</v>
       </c>
       <c r="T45" s="3">
         <f t="shared" si="10"/>
-        <v>3.9319544868561193E-2</v>
+        <v>3.9319544868561207E-2</v>
       </c>
     </row>
     <row r="46" spans="3:20" x14ac:dyDescent="0.2">
@@ -3171,31 +3171,31 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L46" s="9">
         <f t="shared" si="11"/>
-        <v>1.0601481033701073E-3</v>
+        <v>1.0601481033701074E-2</v>
       </c>
       <c r="N46" s="6">
         <f t="shared" si="5"/>
-        <v>7.8464732026336553E-2</v>
+        <v>0.25846473202633657</v>
       </c>
       <c r="O46" s="4">
         <f t="shared" si="6"/>
-        <v>1.0601481033701073E-3</v>
+        <v>1.0601481033701074E-2</v>
       </c>
       <c r="Q46" s="4">
         <f t="shared" si="7"/>
-        <v>3.0851975515091695E-3</v>
+        <v>1.0162715627850183E-2</v>
       </c>
       <c r="R46" s="5">
         <f t="shared" si="8"/>
-        <v>7.8639089737122354E-4</v>
+        <v>7.8639089737122369E-3</v>
       </c>
       <c r="T46" s="3">
         <f t="shared" si="10"/>
-        <v>3.7020738214423247E-2</v>
+        <v>3.7020738214423261E-2</v>
       </c>
     </row>
     <row r="47" spans="3:20" x14ac:dyDescent="0.2">
@@ -3229,31 +3229,31 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L47" s="9">
         <f t="shared" si="11"/>
-        <v>1.1150229880296566E-3</v>
+        <v>1.1150229880296568E-2</v>
       </c>
       <c r="N47" s="6">
         <f t="shared" si="5"/>
-        <v>0.45488508171195779</v>
+        <v>0.63488508171195779</v>
       </c>
       <c r="O47" s="4">
         <f t="shared" si="6"/>
-        <v>1.1150229880296566E-3</v>
+        <v>1.1150229880296568E-2</v>
       </c>
       <c r="Q47" s="4">
         <f t="shared" si="7"/>
-        <v>1.684018152770491E-2</v>
+        <v>2.3503914406301094E-2</v>
       </c>
       <c r="R47" s="5">
         <f t="shared" si="8"/>
-        <v>7.4041476428846466E-4</v>
+        <v>7.4041476428846481E-3</v>
       </c>
       <c r="T47" s="3">
         <f t="shared" si="10"/>
-        <v>2.0920971451006805E-2</v>
+        <v>2.0920971451006815E-2</v>
       </c>
     </row>
     <row r="48" spans="3:20" x14ac:dyDescent="0.2">
@@ -3286,32 +3286,32 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K48" s="9">
-        <v>0</v>
+      <c r="K48">
+        <v>0.2</v>
       </c>
       <c r="L48" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>9.7663153760555073E-3</v>
       </c>
       <c r="N48" s="6">
         <f t="shared" si="5"/>
-        <v>0.58986133100185034</v>
+        <v>0.7898613310018503</v>
       </c>
       <c r="O48" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9.7663153760555073E-3</v>
       </c>
       <c r="Q48" s="4">
         <f t="shared" si="7"/>
-        <v>1.2340472065942576E-2</v>
+        <v>1.6524666356143934E-2</v>
       </c>
       <c r="R48" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.1841942902013573E-3</v>
       </c>
       <c r="T48" s="3">
         <f t="shared" si="10"/>
-        <v>8.5804993850642289E-3</v>
+        <v>8.5804993850642393E-3</v>
       </c>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.2">
@@ -3344,32 +3344,32 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K49" s="9">
-        <v>0</v>
+      <c r="K49">
+        <v>0.2</v>
       </c>
       <c r="L49" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>7.099751508697196E-3</v>
       </c>
       <c r="N49" s="6">
         <f t="shared" si="5"/>
-        <v>0.15937284551432473</v>
+        <v>0.35937284551432475</v>
       </c>
       <c r="O49" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7.099751508697196E-3</v>
       </c>
       <c r="Q49" s="4">
         <f t="shared" si="7"/>
-        <v>1.367498602931597E-3</v>
+        <v>3.0835984799444396E-3</v>
       </c>
       <c r="R49" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.7160998770128423E-3</v>
       </c>
       <c r="T49" s="3">
         <f t="shared" si="10"/>
-        <v>7.2130007821326319E-3</v>
+        <v>7.2130007821326423E-3</v>
       </c>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.2">
@@ -3403,23 +3403,22 @@
         <v>0</v>
       </c>
       <c r="K50" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4.8718450401095674E-2</v>
       </c>
       <c r="N50" s="6">
         <f t="shared" si="5"/>
-        <v>0.43817324795325835</v>
+        <v>1.4381732479532583</v>
       </c>
       <c r="O50" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q50" s="4">
         <f t="shared" si="7"/>
-        <v>3.1605439801964405E-3</v>
+        <v>1.0373544762329054E-2</v>
       </c>
       <c r="R50" s="5">
         <f t="shared" si="8"/>
@@ -3427,7 +3426,7 @@
       </c>
       <c r="T50" s="3">
         <f t="shared" si="10"/>
-        <v>4.0524568019361914E-3</v>
+        <v>-3.1605439801964119E-3</v>
       </c>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.2">
@@ -3472,8 +3471,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="4">
-        <f t="shared" si="6"/>
-        <v>2.574241007986003E-3</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="4">
         <f t="shared" si="7"/>
@@ -3481,11 +3479,11 @@
       </c>
       <c r="R51" s="5">
         <f t="shared" si="8"/>
-        <v>2.9600801369479394E-4</v>
+        <v>0</v>
       </c>
       <c r="T51" s="3">
         <f t="shared" si="10"/>
-        <v>4.3484648156309853E-3</v>
+        <v>-3.1605439801964119E-3</v>
       </c>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.2">
@@ -3530,8 +3528,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="4">
-        <f t="shared" si="6"/>
-        <v>3.588247382750129E-3</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="4">
         <f t="shared" si="7"/>
@@ -3539,11 +3536,11 @@
       </c>
       <c r="R52" s="5">
         <f t="shared" si="8"/>
-        <v>3.3557782927262116E-4</v>
+        <v>0</v>
       </c>
       <c r="T52" s="3">
         <f t="shared" si="10"/>
-        <v>4.6840426449036065E-3</v>
+        <v>-3.1605439801964119E-3</v>
       </c>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.2">
@@ -3584,16 +3581,14 @@
         <v>0</v>
       </c>
       <c r="N53" s="6">
-        <f t="shared" si="5"/>
-        <v>0.25797936934755122</v>
+        <v>0</v>
       </c>
       <c r="O53" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q53" s="4">
         <f t="shared" si="7"/>
-        <v>1.2083863675292638E-3</v>
+        <v>0</v>
       </c>
       <c r="R53" s="5">
         <f t="shared" si="8"/>
@@ -3601,7 +3596,7 @@
       </c>
       <c r="T53" s="3">
         <f t="shared" si="10"/>
-        <v>3.4756562773743428E-3</v>
+        <v>-3.1605439801964119E-3</v>
       </c>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.2">
@@ -3646,8 +3641,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="4">
-        <f t="shared" si="6"/>
-        <v>0.14474031547647703</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="4">
         <f t="shared" si="7"/>
@@ -3655,11 +3649,11 @@
       </c>
       <c r="R54" s="5">
         <f t="shared" si="8"/>
-        <v>2.781186654723343E-4</v>
+        <v>0</v>
       </c>
       <c r="T54" s="3">
         <f t="shared" si="10"/>
-        <v>3.7537749428466771E-3</v>
+        <v>-3.1605439801964119E-3</v>
       </c>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.2">
@@ -4462,7 +4456,7 @@
   <dimension ref="B1:U310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4578,35 +4572,35 @@
         <v>0</v>
       </c>
       <c r="K5" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L5" s="8">
         <f t="shared" ref="L5:L14" si="0">K5*D5/G5</f>
-        <v>2.4588267694849904E-3</v>
+        <v>2.4588267694849904E-2</v>
       </c>
       <c r="N5">
         <f>I5+K5</f>
-        <v>0.45168335078377936</v>
+        <v>0.63168335078377935</v>
       </c>
       <c r="O5" s="4">
         <f>L5+J5</f>
-        <v>2.4588267694849904E-3</v>
+        <v>2.4588267694849904E-2</v>
       </c>
       <c r="Q5" s="6">
         <f t="shared" ref="Q5:Q36" si="1">N5*D5</f>
-        <v>3.4797640444201146E-2</v>
+        <v>4.8664822551062942E-2</v>
       </c>
       <c r="R5" s="7">
         <f>O5*G5</f>
-        <v>1.5407980118735331E-3</v>
+        <v>1.5407980118735332E-2</v>
       </c>
       <c r="T5" s="3">
         <f>F5+R5-Q5</f>
-        <v>4.3783058161349052E-2</v>
+        <v>4.3783058161349045E-2</v>
       </c>
       <c r="U5" s="3">
         <f>T5+E6</f>
-        <v>6.6095187661349059E-2</v>
+        <v>6.6095187661349045E-2</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
@@ -4640,27 +4634,27 @@
         <v>0</v>
       </c>
       <c r="K6" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" si="0"/>
-        <v>2.0997844487671523E-3</v>
+        <v>2.0997844487671523E-2</v>
       </c>
       <c r="N6">
         <f t="shared" ref="N6:N54" si="6">I6+K6</f>
-        <v>0.24513042056903603</v>
+        <v>0.42513042056903605</v>
       </c>
       <c r="O6" s="4">
         <f t="shared" ref="O6:O54" si="7">L6+J6</f>
-        <v>2.0997844487671523E-3</v>
+        <v>2.0997844487671523E-2</v>
       </c>
       <c r="Q6" s="6">
         <f t="shared" si="1"/>
-        <v>1.6201941149015853E-2</v>
+        <v>2.809907492805868E-2</v>
       </c>
       <c r="R6" s="7">
         <f t="shared" ref="R6:R54" si="8">O6*G6</f>
-        <v>1.3219037532269809E-3</v>
+        <v>1.3219037532269811E-2</v>
       </c>
       <c r="T6" s="3">
         <f>T5+R6-Q6</f>
@@ -4702,27 +4696,27 @@
         <v>0</v>
       </c>
       <c r="K7" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" si="0"/>
-        <v>2.1177297134541075E-3</v>
+        <v>2.1177297134541077E-2</v>
       </c>
       <c r="N7">
         <f t="shared" si="6"/>
-        <v>0.19829473709642903</v>
+        <v>0.37829473709642902</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="7"/>
-        <v>2.1177297134541075E-3</v>
+        <v>2.1177297134541077E-2</v>
       </c>
       <c r="Q7" s="6">
         <f t="shared" si="1"/>
-        <v>1.3563339447402272E-2</v>
+        <v>2.5875320775203103E-2</v>
       </c>
       <c r="R7" s="7">
         <f t="shared" si="8"/>
-        <v>1.3679979253112032E-3</v>
+        <v>1.3679979253112035E-2</v>
       </c>
       <c r="T7" s="3">
         <f t="shared" ref="T7:T54" si="11">T6+R7-Q7</f>
@@ -4764,35 +4758,35 @@
         <v>0</v>
       </c>
       <c r="K8" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L8" s="8">
         <f t="shared" si="0"/>
-        <v>2.1081351461961712E-3</v>
+        <v>2.108135146196171E-2</v>
       </c>
       <c r="N8">
         <f t="shared" si="6"/>
-        <v>8.4625180708758491E-2</v>
+        <v>0.26462518070875851</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="7"/>
-        <v>2.1081351461961712E-3</v>
+        <v>2.108135146196171E-2</v>
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="1"/>
-        <v>6.0715974025907565E-3</v>
+        <v>1.8986045836415198E-2</v>
       </c>
       <c r="R8" s="7">
         <f t="shared" si="8"/>
-        <v>1.4349387148693822E-3</v>
+        <v>1.4349387148693821E-2</v>
       </c>
       <c r="T8" s="3">
         <f t="shared" si="11"/>
-        <v>1.2071020555747734E-2</v>
+        <v>1.2071020555747731E-2</v>
       </c>
       <c r="U8" s="3">
         <f t="shared" si="9"/>
-        <v>7.4280602355747738E-2</v>
+        <v>7.4280602355747724E-2</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.2">
@@ -4826,31 +4820,31 @@
         <v>3.8371397655672878E-3</v>
       </c>
       <c r="K9" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L9" s="8">
         <f t="shared" si="0"/>
-        <v>2.0459958932238192E-3</v>
+        <v>2.0459958932238193E-2</v>
       </c>
       <c r="N9">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O9" s="4">
         <f t="shared" si="7"/>
-        <v>5.883135658791107E-3</v>
+        <v>2.429709869780548E-2</v>
       </c>
       <c r="Q9" s="6">
         <f t="shared" si="1"/>
-        <v>1.4856120471149546E-3</v>
+        <v>1.4856120471149545E-2</v>
       </c>
       <c r="R9" s="7">
         <f t="shared" si="8"/>
-        <v>4.2717862916822258E-3</v>
+        <v>1.7642294715716815E-2</v>
       </c>
       <c r="T9" s="3">
         <f t="shared" si="11"/>
-        <v>1.4857194800315006E-2</v>
+        <v>1.4857194800315001E-2</v>
       </c>
       <c r="U9" s="3">
         <f t="shared" si="9"/>
@@ -4888,27 +4882,27 @@
         <v>0</v>
       </c>
       <c r="K10" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L10" s="8">
         <f t="shared" si="0"/>
-        <v>2.1713833366317041E-3</v>
+        <v>2.1713833366317044E-2</v>
       </c>
       <c r="N10">
         <f t="shared" si="6"/>
-        <v>2.3263516815582471E-2</v>
+        <v>0.20326351681558247</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="7"/>
-        <v>2.1713833366317041E-3</v>
+        <v>2.1713833366317044E-2</v>
       </c>
       <c r="Q10" s="6">
         <f t="shared" si="1"/>
-        <v>1.8962832196708186E-3</v>
+        <v>1.6568655511727516E-2</v>
       </c>
       <c r="R10" s="7">
         <f t="shared" si="8"/>
-        <v>1.6302635880063E-3</v>
+        <v>1.6302635880063001E-2</v>
       </c>
       <c r="T10" s="3">
         <f t="shared" si="11"/>
@@ -4950,27 +4944,27 @@
         <v>1.6648433975111647E-3</v>
       </c>
       <c r="K11" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L11" s="8">
         <f t="shared" si="0"/>
-        <v>2.3275151696756308E-3</v>
+        <v>2.327515169675631E-2</v>
       </c>
       <c r="N11">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O11" s="4">
         <f t="shared" si="7"/>
-        <v>3.9923585671867955E-3</v>
+        <v>2.4939995094267475E-2</v>
       </c>
       <c r="Q11" s="6">
         <f t="shared" si="1"/>
-        <v>1.7891796953730097E-3</v>
+        <v>1.7891796953730096E-2</v>
       </c>
       <c r="R11" s="7">
         <f t="shared" si="8"/>
-        <v>3.0689582513245537E-3</v>
+        <v>1.917157550968164E-2</v>
       </c>
       <c r="T11" s="3">
         <f t="shared" si="11"/>
@@ -5012,27 +5006,27 @@
         <v>3.5647106482839634E-3</v>
       </c>
       <c r="K12" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L12" s="8">
         <f t="shared" si="0"/>
-        <v>2.3380622456834928E-3</v>
+        <v>2.3380622456834931E-2</v>
       </c>
       <c r="N12">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" si="7"/>
-        <v>5.9027728939674562E-3</v>
+        <v>2.6945333105118895E-2</v>
       </c>
       <c r="Q12" s="6">
         <f t="shared" si="1"/>
-        <v>1.8460202604920406E-3</v>
+        <v>1.8460202604920407E-2</v>
       </c>
       <c r="R12" s="7">
         <f t="shared" si="8"/>
-        <v>4.6605424536769391E-3</v>
+        <v>2.1274724798105306E-2</v>
       </c>
       <c r="T12" s="3">
         <f t="shared" si="11"/>
@@ -5074,31 +5068,31 @@
         <v>0</v>
       </c>
       <c r="K13" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L13" s="8">
         <f t="shared" si="0"/>
-        <v>2.461195745903995E-3</v>
+        <v>2.4611957459039956E-2</v>
       </c>
       <c r="N13">
         <f t="shared" si="6"/>
-        <v>5.7546441740240636E-2</v>
+        <v>0.23754644174024064</v>
       </c>
       <c r="O13" s="4">
         <f t="shared" si="7"/>
-        <v>2.461195745903995E-3</v>
+        <v>2.4611957459039956E-2</v>
       </c>
       <c r="Q13" s="6">
         <f t="shared" si="1"/>
-        <v>5.6326178257980163E-3</v>
+        <v>2.3250930582999662E-2</v>
       </c>
       <c r="R13" s="7">
         <f t="shared" si="8"/>
-        <v>1.9575903063557385E-3</v>
+        <v>1.9575903063557387E-2</v>
       </c>
       <c r="T13" s="3">
         <f t="shared" si="11"/>
-        <v>1.5010448398344652E-2</v>
+        <v>1.5010448398344655E-2</v>
       </c>
       <c r="U13" s="3">
         <f t="shared" si="9"/>
@@ -5136,31 +5130,31 @@
         <v>6.9917931441787458E-3</v>
       </c>
       <c r="K14" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L14" s="8">
         <f t="shared" si="0"/>
-        <v>2.4688405797101448E-3</v>
+        <v>2.4688405797101447E-2</v>
       </c>
       <c r="N14">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O14" s="4">
         <f t="shared" si="7"/>
-        <v>9.4606337238888911E-3</v>
+        <v>3.1680198941280192E-2</v>
       </c>
       <c r="Q14" s="6">
         <f t="shared" si="1"/>
-        <v>1.985836271966893E-3</v>
+        <v>1.985836271966893E-2</v>
       </c>
       <c r="R14" s="7">
         <f t="shared" si="8"/>
-        <v>7.6097540517976693E-3</v>
+        <v>2.5482280499499705E-2</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" si="11"/>
-        <v>2.0634366178175427E-2</v>
+        <v>2.063436617817543E-2</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" si="9"/>
@@ -5198,27 +5192,27 @@
         <v>0</v>
       </c>
       <c r="K15" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L15" s="8">
         <f>K15*D15/G15</f>
-        <v>2.4830102296301594E-3</v>
+        <v>2.4830102296301598E-2</v>
       </c>
       <c r="N15">
         <f t="shared" si="6"/>
-        <v>8.4136239834169985E-2</v>
+        <v>0.26413623983417001</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" si="7"/>
-        <v>2.4830102296301594E-3</v>
+        <v>2.4830102296301598E-2</v>
       </c>
       <c r="Q15" s="6">
         <f t="shared" si="1"/>
-        <v>8.4901848552026045E-3</v>
+        <v>2.6653978209274183E-2</v>
       </c>
       <c r="R15" s="7">
         <f t="shared" si="8"/>
-        <v>2.0181992615635083E-3</v>
+        <v>2.0181992615635084E-2</v>
       </c>
       <c r="T15" s="3">
         <f t="shared" si="11"/>
@@ -5260,27 +5254,27 @@
         <v>1.1076223627007043E-3</v>
       </c>
       <c r="K16" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L16" s="9">
         <f t="shared" ref="L16:L54" si="12">K16*D16/G16</f>
-        <v>2.3897634857867637E-3</v>
+        <v>2.3897634857867639E-2</v>
       </c>
       <c r="N16">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O16" s="4">
         <f t="shared" si="7"/>
-        <v>3.4973858484874682E-3</v>
+        <v>2.5005257220568344E-2</v>
       </c>
       <c r="Q16" s="6">
         <f t="shared" si="1"/>
-        <v>1.9592610716907266E-3</v>
+        <v>1.9592610716907266E-2</v>
       </c>
       <c r="R16" s="7">
         <f t="shared" si="8"/>
-        <v>2.8673515125567373E-3</v>
+        <v>2.0500701157773277E-2</v>
       </c>
       <c r="T16" s="3">
         <f t="shared" si="11"/>
@@ -5322,31 +5316,31 @@
         <v>5.4614338241669533E-4</v>
       </c>
       <c r="K17" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L17" s="9">
         <f t="shared" si="12"/>
-        <v>2.377514749532779E-3</v>
+        <v>2.3775147495327789E-2</v>
       </c>
       <c r="N17">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O17" s="4">
         <f t="shared" si="7"/>
-        <v>2.9236581319494743E-3</v>
+        <v>2.4321290877744484E-2</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="1"/>
-        <v>1.9589963465080468E-3</v>
+        <v>1.9589963465080469E-2</v>
       </c>
       <c r="R17" s="7">
         <f t="shared" si="8"/>
-        <v>2.4090010798263595E-3</v>
+        <v>2.0039968198398782E-2</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" si="11"/>
-        <v>1.5520475758720653E-2</v>
+        <v>1.5520475758720655E-2</v>
       </c>
       <c r="U17" s="3">
         <f t="shared" si="9"/>
@@ -5384,27 +5378,27 @@
         <v>0</v>
       </c>
       <c r="K18" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L18" s="9">
         <f t="shared" si="12"/>
-        <v>2.2461397770039749E-3</v>
+        <v>2.2461397770039748E-2</v>
       </c>
       <c r="N18">
         <f t="shared" si="6"/>
-        <v>2.922799690850407E-2</v>
+        <v>0.20922799690850408</v>
       </c>
       <c r="O18" s="4">
         <f t="shared" si="7"/>
-        <v>2.2461397770039749E-3</v>
+        <v>2.2461397770039748E-2</v>
       </c>
       <c r="Q18" s="6">
         <f t="shared" si="1"/>
-        <v>2.7296789648382082E-3</v>
+        <v>1.9540349063407927E-2</v>
       </c>
       <c r="R18" s="7">
         <f t="shared" si="8"/>
-        <v>1.8678522331744131E-3</v>
+        <v>1.8678522331744132E-2</v>
       </c>
       <c r="T18" s="3">
         <f t="shared" si="11"/>
@@ -5446,27 +5440,27 @@
         <v>4.7518482367443224E-3</v>
       </c>
       <c r="K19" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L19" s="9">
         <f t="shared" si="12"/>
-        <v>2.0877407106048278E-3</v>
+        <v>2.0877407106048278E-2</v>
       </c>
       <c r="N19">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O19" s="4">
         <f t="shared" si="7"/>
-        <v>6.8395889473491503E-3</v>
+        <v>2.56292553427926E-2</v>
       </c>
       <c r="Q19" s="6">
         <f t="shared" si="1"/>
-        <v>1.7512726445411369E-3</v>
+        <v>1.751272644541137E-2</v>
       </c>
       <c r="R19" s="7">
         <f t="shared" si="8"/>
-        <v>5.7372953272192516E-3</v>
+        <v>2.1498749128089484E-2</v>
       </c>
       <c r="T19" s="3">
         <f t="shared" si="11"/>
@@ -5508,27 +5502,27 @@
         <v>6.7205656180388245E-3</v>
       </c>
       <c r="K20" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L20" s="9">
         <f t="shared" si="12"/>
-        <v>1.9418114797261716E-3</v>
+        <v>1.9418114797261719E-2</v>
       </c>
       <c r="N20">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O20" s="4">
         <f t="shared" si="7"/>
-        <v>8.6623770977649964E-3</v>
+        <v>2.6138680415300541E-2</v>
       </c>
       <c r="Q20" s="6">
         <f t="shared" si="1"/>
-        <v>1.6443242941946992E-3</v>
+        <v>1.6443242941946993E-2</v>
       </c>
       <c r="R20" s="7">
         <f t="shared" si="8"/>
-        <v>7.3352934906633499E-3</v>
+        <v>2.2134212138415644E-2</v>
       </c>
       <c r="T20" s="3">
         <f t="shared" si="11"/>
@@ -5570,31 +5564,31 @@
         <v>3.4286289637344945E-3</v>
       </c>
       <c r="K21" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L21" s="9">
         <f t="shared" si="12"/>
-        <v>1.7854060155368169E-3</v>
+        <v>1.7854060155368168E-2</v>
       </c>
       <c r="N21">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O21" s="4">
         <f t="shared" si="7"/>
-        <v>5.2140349792713109E-3</v>
+        <v>2.1282689119102662E-2</v>
       </c>
       <c r="Q21" s="6">
         <f t="shared" si="1"/>
-        <v>1.5290137321240724E-3</v>
+        <v>1.5290137321240724E-2</v>
       </c>
       <c r="R21" s="7">
         <f t="shared" si="8"/>
-        <v>4.4652762529670603E-3</v>
+        <v>1.8226399842083713E-2</v>
       </c>
       <c r="T21" s="3">
         <f t="shared" si="11"/>
-        <v>2.727190342704661E-2</v>
+        <v>2.7271903427046607E-2</v>
       </c>
       <c r="U21" s="3">
         <f t="shared" si="9"/>
@@ -5632,27 +5626,27 @@
         <v>8.3857574433389755E-3</v>
       </c>
       <c r="K22" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L22" s="9">
         <f t="shared" si="12"/>
-        <v>1.7192386131883071E-3</v>
+        <v>1.7192386131883071E-2</v>
       </c>
       <c r="N22">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O22" s="4">
         <f t="shared" si="7"/>
-        <v>1.0104996056527283E-2</v>
+        <v>2.5578143575222048E-2</v>
       </c>
       <c r="Q22" s="6">
         <f t="shared" si="1"/>
-        <v>1.4835890065409321E-3</v>
+        <v>1.4835890065409321E-2</v>
       </c>
       <c r="R22" s="7">
         <f t="shared" si="8"/>
-        <v>8.7199420403904805E-3</v>
+        <v>2.207224309925887E-2</v>
       </c>
       <c r="T22" s="3">
         <f t="shared" si="11"/>
@@ -5694,35 +5688,35 @@
         <v>0</v>
       </c>
       <c r="K23" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L23" s="9">
         <f t="shared" si="12"/>
-        <v>1.630014706385307E-3</v>
+        <v>1.630014706385307E-2</v>
       </c>
       <c r="N23">
         <f t="shared" si="6"/>
-        <v>3.7099572746719683E-2</v>
+        <v>0.2170995727467197</v>
       </c>
       <c r="O23" s="4">
         <f t="shared" si="7"/>
-        <v>1.630014706385307E-3</v>
+        <v>1.630014706385307E-2</v>
       </c>
       <c r="Q23" s="6">
         <f t="shared" si="1"/>
-        <v>2.6251828207807405E-3</v>
+        <v>1.5362065559742051E-2</v>
       </c>
       <c r="R23" s="7">
         <f t="shared" si="8"/>
-        <v>1.4152091932179232E-3</v>
+        <v>1.415209193217923E-2</v>
       </c>
       <c r="T23" s="3">
         <f t="shared" si="11"/>
-        <v>3.3298282833333338E-2</v>
+        <v>3.3298282833333331E-2</v>
       </c>
       <c r="U23" s="3">
         <f t="shared" si="9"/>
-        <v>6.458333333333334E-2</v>
+        <v>6.4583333333333326E-2</v>
       </c>
     </row>
     <row r="24" spans="3:21" x14ac:dyDescent="0.2">
@@ -5756,27 +5750,27 @@
         <v>4.3479071238970287E-3</v>
       </c>
       <c r="K24" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L24" s="9">
         <f t="shared" si="12"/>
-        <v>1.4718849623550161E-3</v>
+        <v>1.471884962355016E-2</v>
       </c>
       <c r="N24">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O24" s="4">
         <f t="shared" si="7"/>
-        <v>5.8197920862520444E-3</v>
+        <v>1.9066756747447188E-2</v>
       </c>
       <c r="Q24" s="6">
         <f t="shared" si="1"/>
-        <v>1.2916666666666669E-3</v>
+        <v>1.2916666666666668E-2</v>
       </c>
       <c r="R24" s="7">
         <f t="shared" si="8"/>
-        <v>5.1072139718817793E-3</v>
+        <v>1.6732213971881779E-2</v>
       </c>
       <c r="T24" s="3">
         <f t="shared" si="11"/>
@@ -5818,35 +5812,35 @@
         <v>0</v>
       </c>
       <c r="K25" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L25" s="9">
         <f t="shared" si="12"/>
-        <v>1.3865275849222745E-3</v>
+        <v>1.3865275849222746E-2</v>
       </c>
       <c r="N25">
         <f t="shared" si="6"/>
-        <v>5.447490754205396E-2</v>
+        <v>0.23447490754205397</v>
       </c>
       <c r="O25" s="4">
         <f t="shared" si="7"/>
-        <v>1.3865275849222745E-3</v>
+        <v>1.3865275849222746E-2</v>
       </c>
       <c r="Q25" s="6">
         <f t="shared" si="1"/>
-        <v>3.3332377514971138E-3</v>
+        <v>1.4347167326435836E-2</v>
       </c>
       <c r="R25" s="7">
         <f t="shared" si="8"/>
-        <v>1.2237699527709691E-3</v>
+        <v>1.2237699527709691E-2</v>
       </c>
       <c r="T25" s="3">
         <f t="shared" si="11"/>
-        <v>3.5004362339822293E-2</v>
+        <v>3.5004362339822299E-2</v>
       </c>
       <c r="U25" s="3">
         <f t="shared" si="9"/>
-        <v>5.3190550439822293E-2</v>
+        <v>5.31905504398223E-2</v>
       </c>
     </row>
     <row r="26" spans="3:21" x14ac:dyDescent="0.2">
@@ -5880,35 +5874,35 @@
         <v>1.8184887159038783E-3</v>
       </c>
       <c r="K26" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L26" s="9">
         <f t="shared" si="12"/>
-        <v>1.1936751064602384E-3</v>
+        <v>1.1936751064602383E-2</v>
       </c>
       <c r="N26">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O26" s="4">
         <f t="shared" si="7"/>
-        <v>3.0121638223641169E-3</v>
+        <v>1.3755239780506261E-2</v>
       </c>
       <c r="Q26" s="6">
         <f t="shared" si="1"/>
-        <v>1.0638110087964462E-3</v>
+        <v>1.0638110087964461E-2</v>
       </c>
       <c r="R26" s="7">
         <f t="shared" si="8"/>
-        <v>2.68445996501651E-3</v>
+        <v>1.2258759044184525E-2</v>
       </c>
       <c r="T26" s="3">
         <f t="shared" si="11"/>
-        <v>3.6625011296042356E-2</v>
+        <v>3.6625011296042363E-2</v>
       </c>
       <c r="U26" s="3">
         <f t="shared" si="9"/>
-        <v>4.8962777696042355E-2</v>
+        <v>4.8962777696042362E-2</v>
       </c>
     </row>
     <row r="27" spans="3:21" x14ac:dyDescent="0.2">
@@ -5942,35 +5936,35 @@
         <v>4.7325824534290338E-3</v>
       </c>
       <c r="K27" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L27" s="9">
         <f t="shared" si="12"/>
-        <v>1.0921860129303271E-3</v>
+        <v>1.0921860129303273E-2</v>
       </c>
       <c r="N27">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O27" s="4">
         <f t="shared" si="7"/>
-        <v>5.824768466359361E-3</v>
+        <v>1.5654442582732308E-2</v>
       </c>
       <c r="Q27" s="6">
         <f t="shared" si="1"/>
-        <v>9.792555539208474E-4</v>
+        <v>9.7925555392084744E-3</v>
       </c>
       <c r="R27" s="7">
         <f t="shared" si="8"/>
-        <v>5.2224958051621624E-3</v>
+        <v>1.4035795790449791E-2</v>
       </c>
       <c r="T27" s="3">
         <f t="shared" si="11"/>
-        <v>4.0868251547283671E-2</v>
+        <v>4.0868251547283685E-2</v>
       </c>
       <c r="U27" s="3">
         <f t="shared" si="9"/>
-        <v>4.8959903527283674E-2</v>
+        <v>4.8959903527283688E-2</v>
       </c>
     </row>
     <row r="28" spans="3:21" x14ac:dyDescent="0.2">
@@ -6004,35 +5998,35 @@
         <v>1.4390953182293214E-3</v>
       </c>
       <c r="K28" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L28" s="9">
         <f t="shared" si="12"/>
-        <v>1.0899694620624854E-3</v>
+        <v>1.0899694620624855E-2</v>
       </c>
       <c r="N28">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O28" s="4">
         <f t="shared" si="7"/>
-        <v>2.529064780291807E-3</v>
+        <v>1.2338789938854176E-2</v>
       </c>
       <c r="Q28" s="6">
         <f t="shared" si="1"/>
-        <v>9.7919807054567382E-4</v>
+        <v>9.7919807054567386E-3</v>
       </c>
       <c r="R28" s="7">
         <f t="shared" si="8"/>
-        <v>2.2720410427469265E-3</v>
+        <v>1.1084823677657991E-2</v>
       </c>
       <c r="T28" s="3">
         <f t="shared" si="11"/>
-        <v>4.2161094519484923E-2</v>
+        <v>4.2161094519484937E-2</v>
       </c>
       <c r="U28" s="3">
         <f t="shared" si="9"/>
-        <v>4.628703587948492E-2</v>
+        <v>4.6287035879484933E-2</v>
       </c>
     </row>
     <row r="29" spans="3:21" x14ac:dyDescent="0.2">
@@ -6066,35 +6060,35 @@
         <v>8.3677410131233071E-5</v>
       </c>
       <c r="K29" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L29" s="9">
         <f t="shared" si="12"/>
-        <v>1.0281509250581414E-3</v>
+        <v>1.0281509250581414E-2</v>
       </c>
       <c r="N29">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O29" s="4">
         <f t="shared" si="7"/>
-        <v>1.1118283351893746E-3</v>
+        <v>1.0365186660712648E-2</v>
       </c>
       <c r="Q29" s="6">
         <f t="shared" si="1"/>
-        <v>9.2574071758969869E-4</v>
+        <v>9.2574071758969867E-3</v>
       </c>
       <c r="R29" s="7">
         <f t="shared" si="8"/>
-        <v>1.0010833388070599E-3</v>
+        <v>9.332749797114348E-3</v>
       </c>
       <c r="T29" s="3">
         <f t="shared" si="11"/>
-        <v>4.2236437140702285E-2</v>
+        <v>4.2236437140702299E-2</v>
       </c>
       <c r="U29" s="3">
         <f t="shared" si="9"/>
-        <v>4.5320878740702286E-2</v>
+        <v>4.53208787407023E-2</v>
       </c>
     </row>
     <row r="30" spans="3:21" x14ac:dyDescent="0.2">
@@ -6128,35 +6122,35 @@
         <v>5.3532402351321535E-4</v>
       </c>
       <c r="K30" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L30" s="9">
         <f t="shared" si="12"/>
-        <v>1.0074985579696211E-3</v>
+        <v>1.0074985579696211E-2</v>
       </c>
       <c r="N30">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O30" s="4">
         <f t="shared" si="7"/>
-        <v>1.5428225814828364E-3</v>
+        <v>1.0610309603209427E-2</v>
       </c>
       <c r="Q30" s="6">
         <f t="shared" si="1"/>
-        <v>9.0641757481404604E-4</v>
+        <v>9.06417574814046E-3</v>
       </c>
       <c r="R30" s="7">
         <f t="shared" si="8"/>
-        <v>1.388033254850758E-3</v>
+        <v>9.5457914281771722E-3</v>
       </c>
       <c r="T30" s="3">
         <f t="shared" si="11"/>
-        <v>4.2718052820738997E-2</v>
+        <v>4.2718052820739011E-2</v>
       </c>
       <c r="U30" s="3">
         <f t="shared" si="9"/>
-        <v>4.4200187090738995E-2</v>
+        <v>4.4200187090739008E-2</v>
       </c>
     </row>
     <row r="31" spans="3:21" x14ac:dyDescent="0.2">
@@ -6190,35 +6184,35 @@
         <v>0</v>
       </c>
       <c r="K31" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L31" s="9">
         <f t="shared" si="12"/>
-        <v>9.8280280800802297E-4</v>
+        <v>9.8280280800802297E-3</v>
       </c>
       <c r="N31">
         <f t="shared" si="6"/>
-        <v>6.8221035249889025E-2</v>
+        <v>0.24822103524988903</v>
       </c>
       <c r="O31" s="4">
         <f t="shared" si="7"/>
-        <v>9.8280280800802297E-4</v>
+        <v>9.8280280800802297E-3</v>
       </c>
       <c r="Q31" s="6">
         <f t="shared" si="1"/>
-        <v>3.0153825215689959E-3</v>
+        <v>1.0971416197902017E-2</v>
       </c>
       <c r="R31" s="7">
         <f t="shared" si="8"/>
-        <v>8.8400374181478024E-4</v>
+        <v>8.8400374181478013E-3</v>
       </c>
       <c r="T31" s="3">
         <f t="shared" si="11"/>
-        <v>4.0586674040984781E-2</v>
+        <v>4.0586674040984795E-2</v>
       </c>
       <c r="U31" s="3">
         <f t="shared" si="9"/>
-        <v>4.1427885384984778E-2</v>
+        <v>4.1427885384984792E-2</v>
       </c>
     </row>
     <row r="32" spans="3:21" x14ac:dyDescent="0.2">
@@ -6252,35 +6246,35 @@
         <v>8.9931358460122702E-4</v>
       </c>
       <c r="K32" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L32" s="9">
         <f t="shared" si="12"/>
-        <v>9.1844701540208669E-4</v>
+        <v>9.1844701540208656E-3</v>
       </c>
       <c r="N32">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O32" s="4">
         <f t="shared" si="7"/>
-        <v>1.8177606000033138E-3</v>
+        <v>1.0083783738622093E-2</v>
       </c>
       <c r="Q32" s="6">
         <f t="shared" si="1"/>
-        <v>8.2855770769969589E-4</v>
+        <v>8.285577076996958E-3</v>
       </c>
       <c r="R32" s="7">
         <f t="shared" si="8"/>
-        <v>1.6398545921848368E-3</v>
+        <v>9.0968739614820989E-3</v>
       </c>
       <c r="T32" s="3">
         <f t="shared" si="11"/>
-        <v>4.1397970925469922E-2</v>
+        <v>4.1397970925469936E-2</v>
       </c>
       <c r="U32" s="3">
         <f t="shared" si="9"/>
-        <v>4.179854775646992E-2</v>
+        <v>4.1798547756469934E-2</v>
       </c>
     </row>
     <row r="33" spans="3:21" x14ac:dyDescent="0.2">
@@ -6314,35 +6308,35 @@
         <v>0</v>
       </c>
       <c r="K33" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L33" s="9">
         <f t="shared" si="12"/>
-        <v>9.2813339764349207E-4</v>
+        <v>9.2813339764349218E-3</v>
       </c>
       <c r="N33">
         <f t="shared" si="6"/>
-        <v>2.1692336381458795E-2</v>
+        <v>0.20169233638145881</v>
       </c>
       <c r="O33" s="4">
         <f t="shared" si="7"/>
-        <v>9.2813339764349207E-4</v>
+        <v>9.2813339764349218E-3</v>
       </c>
       <c r="Q33" s="6">
         <f t="shared" si="1"/>
-        <v>9.0670815818981562E-4</v>
+        <v>8.4304467543544048E-3</v>
       </c>
       <c r="R33" s="7">
         <f t="shared" si="8"/>
-        <v>8.3597095512939865E-4</v>
+        <v>8.3597095512939878E-3</v>
       </c>
       <c r="T33" s="3">
         <f t="shared" si="11"/>
-        <v>4.1327233722409505E-2</v>
+        <v>4.1327233722409519E-2</v>
       </c>
       <c r="U33" s="3">
         <f t="shared" si="9"/>
-        <v>4.1367291405509508E-2</v>
+        <v>4.1367291405509522E-2</v>
       </c>
     </row>
     <row r="34" spans="3:21" x14ac:dyDescent="0.2">
@@ -6376,35 +6370,35 @@
         <v>0</v>
       </c>
       <c r="K34" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L34" s="9">
         <f t="shared" si="12"/>
-        <v>9.2116013071895418E-4</v>
+        <v>9.2116013071895427E-3</v>
       </c>
       <c r="N34">
         <f t="shared" si="6"/>
-        <v>5.6752005970598762E-2</v>
+        <v>0.23675200597059876</v>
       </c>
       <c r="O34" s="4">
         <f t="shared" si="7"/>
-        <v>9.2116013071895418E-4</v>
+        <v>9.2116013071895427E-3</v>
       </c>
       <c r="Q34" s="6">
         <f t="shared" si="1"/>
-        <v>2.3476767688329751E-3</v>
+        <v>9.7937892218246895E-3</v>
       </c>
       <c r="R34" s="7">
         <f t="shared" si="8"/>
-        <v>8.273458281101905E-4</v>
+        <v>8.2734582811019048E-3</v>
       </c>
       <c r="T34" s="3">
         <f t="shared" si="11"/>
-        <v>3.980690278168672E-2</v>
+        <v>3.9806902781686734E-2</v>
       </c>
       <c r="U34" s="3">
         <f t="shared" si="9"/>
-        <v>3.9846960464786724E-2</v>
+        <v>3.9846960464786738E-2</v>
       </c>
     </row>
     <row r="35" spans="3:21" x14ac:dyDescent="0.2">
@@ -6438,35 +6432,35 @@
         <v>0</v>
       </c>
       <c r="K35" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L35" s="9">
         <f t="shared" si="12"/>
-        <v>8.8762626262626273E-4</v>
+        <v>8.8762626262626262E-3</v>
       </c>
       <c r="N35">
         <f t="shared" si="6"/>
-        <v>3.6556160523733908E-2</v>
+        <v>0.21655616052373391</v>
       </c>
       <c r="O35" s="4">
         <f t="shared" si="7"/>
-        <v>8.8762626262626273E-4</v>
+        <v>8.8762626262626262E-3</v>
       </c>
       <c r="Q35" s="6">
         <f t="shared" si="1"/>
-        <v>1.4566518831336227E-3</v>
+        <v>8.6291047667952352E-3</v>
       </c>
       <c r="R35" s="7">
         <f t="shared" si="8"/>
-        <v>7.969392092957348E-4</v>
+        <v>7.9693920929573472E-3</v>
       </c>
       <c r="T35" s="3">
         <f t="shared" si="11"/>
-        <v>3.9147190107848832E-2</v>
+        <v>3.9147190107848846E-2</v>
       </c>
       <c r="U35" s="3">
         <f t="shared" si="9"/>
-        <v>3.9147190107848832E-2</v>
+        <v>3.9147190107848846E-2</v>
       </c>
     </row>
     <row r="36" spans="3:21" x14ac:dyDescent="0.2">
@@ -6500,35 +6494,35 @@
         <v>8.4962467447077469E-4</v>
       </c>
       <c r="K36" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L36" s="9">
         <f t="shared" si="12"/>
-        <v>8.7243967994068408E-4</v>
+        <v>8.7243967994068417E-3</v>
       </c>
       <c r="N36">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O36" s="4">
         <f t="shared" si="7"/>
-        <v>1.7220643544114587E-3</v>
+        <v>9.5740214738776162E-3</v>
       </c>
       <c r="Q36" s="6">
         <f t="shared" si="1"/>
-        <v>7.8294380215697694E-4</v>
+        <v>7.8294380215697696E-3</v>
       </c>
       <c r="R36" s="7">
         <f t="shared" si="8"/>
-        <v>1.545412988659084E-3</v>
+        <v>8.5919072080718768E-3</v>
       </c>
       <c r="T36" s="3">
         <f t="shared" si="11"/>
-        <v>3.990965929435094E-2</v>
+        <v>3.9909659294350953E-2</v>
       </c>
       <c r="U36" s="3">
         <f t="shared" si="9"/>
-        <v>3.990965929435094E-2</v>
+        <v>3.9909659294350953E-2</v>
       </c>
     </row>
     <row r="37" spans="3:21" x14ac:dyDescent="0.2">
@@ -6562,35 +6556,35 @@
         <v>0</v>
       </c>
       <c r="K37" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L37" s="9">
         <f t="shared" si="12"/>
-        <v>8.932314141289607E-4</v>
+        <v>8.932314141289607E-3</v>
       </c>
       <c r="N37">
         <f t="shared" si="6"/>
-        <v>2.4524018425093344E-2</v>
+        <v>0.20452401842509335</v>
       </c>
       <c r="O37" s="4">
         <f t="shared" si="7"/>
-        <v>8.932314141289607E-4</v>
+        <v>8.932314141289607E-3</v>
       </c>
       <c r="Q37" s="6">
         <f t="shared" ref="Q37:Q54" si="13">N37*D37</f>
-        <v>9.787452198738607E-4</v>
+        <v>8.162483892857033E-3</v>
       </c>
       <c r="R37" s="7">
         <f t="shared" si="8"/>
-        <v>7.9819318588701909E-4</v>
+        <v>7.9819318588701914E-3</v>
       </c>
       <c r="T37" s="3">
         <f t="shared" si="11"/>
-        <v>3.9729107260364098E-2</v>
+        <v>3.9729107260364105E-2</v>
       </c>
       <c r="U37" s="3">
         <f t="shared" si="9"/>
-        <v>3.9729107260364098E-2</v>
+        <v>3.9729107260364105E-2</v>
       </c>
     </row>
     <row r="38" spans="3:21" x14ac:dyDescent="0.2">
@@ -6624,35 +6618,35 @@
         <v>1.5866717077071379E-3</v>
       </c>
       <c r="K38" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L38" s="9">
         <f t="shared" si="12"/>
-        <v>8.9136318897637789E-4</v>
+        <v>8.91363188976378E-3</v>
       </c>
       <c r="N38">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O38" s="4">
         <f t="shared" si="7"/>
-        <v>2.4780348966835157E-3</v>
+        <v>1.0500303597470917E-2</v>
       </c>
       <c r="Q38" s="6">
         <f t="shared" si="13"/>
-        <v>7.9458214520728224E-4</v>
+        <v>7.9458214520728224E-3</v>
       </c>
       <c r="R38" s="7">
         <f t="shared" si="8"/>
-        <v>2.2089786839486307E-3</v>
+        <v>9.3602179908141708E-3</v>
       </c>
       <c r="T38" s="3">
         <f t="shared" si="11"/>
-        <v>4.1143503799105446E-2</v>
+        <v>4.1143503799105453E-2</v>
       </c>
       <c r="U38" s="3">
         <f t="shared" si="9"/>
-        <v>4.1143503799105446E-2</v>
+        <v>4.1143503799105453E-2</v>
       </c>
     </row>
     <row r="39" spans="3:21" x14ac:dyDescent="0.2">
@@ -6686,35 +6680,35 @@
         <v>1.4037478058572667E-4</v>
       </c>
       <c r="K39" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L39" s="9">
         <f t="shared" si="12"/>
-        <v>9.2860617854536611E-4</v>
+        <v>9.2860617854536604E-3</v>
       </c>
       <c r="N39">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O39" s="4">
         <f t="shared" si="7"/>
-        <v>1.0689809591310929E-3</v>
+        <v>9.4264365660393871E-3</v>
       </c>
       <c r="Q39" s="6">
         <f t="shared" si="13"/>
-        <v>8.2287007598210924E-4</v>
+        <v>8.2287007598210917E-3</v>
       </c>
       <c r="R39" s="7">
         <f t="shared" si="8"/>
-        <v>9.4726102774972745E-4</v>
+        <v>8.3530917115887098E-3</v>
       </c>
       <c r="T39" s="3">
         <f t="shared" si="11"/>
-        <v>4.1267894750873065E-2</v>
+        <v>4.1267894750873071E-2</v>
       </c>
       <c r="U39" s="3">
         <f t="shared" si="9"/>
-        <v>4.1267894750873065E-2</v>
+        <v>4.1267894750873071E-2</v>
       </c>
     </row>
     <row r="40" spans="3:21" x14ac:dyDescent="0.2">
@@ -6748,35 +6742,35 @@
         <v>7.6704638041640298E-4</v>
       </c>
       <c r="K40" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L40" s="9">
         <f t="shared" si="12"/>
-        <v>9.3393665158371039E-4</v>
+        <v>9.3393665158371039E-3</v>
       </c>
       <c r="N40">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O40" s="4">
         <f t="shared" si="7"/>
-        <v>1.7009830320001134E-3</v>
+        <v>1.0106412896253508E-2</v>
       </c>
       <c r="Q40" s="6">
         <f t="shared" si="13"/>
-        <v>8.253578950174616E-4</v>
+        <v>8.2535789501746153E-3</v>
       </c>
       <c r="R40" s="7">
         <f t="shared" si="8"/>
-        <v>1.5032280533924386E-3</v>
+        <v>8.9314491085495922E-3</v>
       </c>
       <c r="T40" s="3">
         <f t="shared" si="11"/>
-        <v>4.1945764909248041E-2</v>
+        <v>4.1945764909248048E-2</v>
       </c>
       <c r="U40" s="3">
         <f t="shared" si="9"/>
-        <v>4.1945764909248041E-2</v>
+        <v>4.1945764909248048E-2</v>
       </c>
     </row>
     <row r="41" spans="3:21" x14ac:dyDescent="0.2">
@@ -6810,35 +6804,35 @@
         <v>9.2137990286319597E-5</v>
       </c>
       <c r="K41" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L41" s="9">
         <f t="shared" si="12"/>
-        <v>9.6187792264098345E-4</v>
+        <v>9.6187792264098345E-3</v>
       </c>
       <c r="N41">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O41" s="4">
         <f t="shared" si="7"/>
-        <v>1.0540159129273031E-3</v>
+        <v>9.7109172166961535E-3</v>
       </c>
       <c r="Q41" s="6">
         <f t="shared" si="13"/>
-        <v>8.3891529818496107E-4</v>
+        <v>8.3891529818496107E-3</v>
       </c>
       <c r="R41" s="7">
         <f t="shared" si="8"/>
-        <v>9.1927473650430934E-4</v>
+        <v>8.4695124201689589E-3</v>
       </c>
       <c r="T41" s="3">
         <f t="shared" si="11"/>
-        <v>4.202612434756739E-2</v>
+        <v>4.2026124347567397E-2</v>
       </c>
       <c r="U41" s="3">
         <f t="shared" si="9"/>
-        <v>4.202612434756739E-2</v>
+        <v>4.2026124347567397E-2</v>
       </c>
     </row>
     <row r="42" spans="3:21" x14ac:dyDescent="0.2">
@@ -6872,35 +6866,35 @@
         <v>4.6249531638631683E-4</v>
       </c>
       <c r="K42" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L42" s="9">
         <f t="shared" si="12"/>
-        <v>9.6964402708014843E-4</v>
+        <v>9.6964402708014843E-3</v>
       </c>
       <c r="N42">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O42" s="4">
         <f t="shared" si="7"/>
-        <v>1.4321393434664651E-3</v>
+        <v>1.0158935587187801E-2</v>
       </c>
       <c r="Q42" s="6">
         <f t="shared" si="13"/>
-        <v>8.4052248695134807E-4</v>
+        <v>8.4052248695134814E-3</v>
       </c>
       <c r="R42" s="7">
         <f t="shared" si="8"/>
-        <v>1.2414301424163833E-3</v>
+        <v>8.8061325249785168E-3</v>
       </c>
       <c r="T42" s="3">
         <f t="shared" si="11"/>
-        <v>4.2427032003032425E-2</v>
+        <v>4.2427032003032439E-2</v>
       </c>
       <c r="U42" s="3">
         <f t="shared" si="9"/>
-        <v>4.2427032003032425E-2</v>
+        <v>4.2427032003032439E-2</v>
       </c>
     </row>
     <row r="43" spans="3:21" x14ac:dyDescent="0.2">
@@ -6934,35 +6928,35 @@
         <v>4.1025911269846835E-4</v>
       </c>
       <c r="K43" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L43" s="9">
         <f t="shared" si="12"/>
-        <v>9.9196049882889145E-4</v>
+        <v>9.9196049882889163E-3</v>
       </c>
       <c r="N43">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O43" s="4">
         <f t="shared" si="7"/>
-        <v>1.4022196115273597E-3</v>
+        <v>1.0329864100987384E-2</v>
       </c>
       <c r="Q43" s="6">
         <f t="shared" si="13"/>
-        <v>8.4854064006064875E-4</v>
+        <v>8.4854064006064881E-3</v>
       </c>
       <c r="R43" s="7">
         <f t="shared" si="8"/>
-        <v>1.1994835762873073E-3</v>
+        <v>8.8363493368331467E-3</v>
       </c>
       <c r="T43" s="3">
         <f t="shared" si="11"/>
-        <v>4.2777974939259084E-2</v>
+        <v>4.2777974939259097E-2</v>
       </c>
       <c r="U43" s="3">
         <f t="shared" si="9"/>
-        <v>4.2777974939259084E-2</v>
+        <v>4.2777974939259097E-2</v>
       </c>
     </row>
     <row r="44" spans="3:21" x14ac:dyDescent="0.2">
@@ -6996,35 +6990,35 @@
         <v>1.3111381287819004E-3</v>
       </c>
       <c r="K44" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L44" s="9">
         <f t="shared" si="12"/>
-        <v>1.017268242015061E-3</v>
+        <v>1.0172682420150609E-2</v>
       </c>
       <c r="N44">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="O44" s="4">
         <f t="shared" si="7"/>
-        <v>2.3284063707969616E-3</v>
+        <v>1.1483820548932509E-2</v>
       </c>
       <c r="Q44" s="6">
         <f t="shared" si="13"/>
-        <v>8.5555949878518198E-4</v>
+        <v>8.5555949878518191E-3</v>
       </c>
       <c r="R44" s="7">
         <f t="shared" si="8"/>
-        <v>1.9582742341599409E-3</v>
+        <v>9.6583097232265762E-3</v>
       </c>
       <c r="T44" s="3">
         <f t="shared" si="11"/>
-        <v>4.3880689674633842E-2</v>
+        <v>4.3880689674633856E-2</v>
       </c>
       <c r="U44" s="3">
         <f t="shared" si="9"/>
-        <v>4.3880689674633842E-2</v>
+        <v>4.3880689674633856E-2</v>
       </c>
     </row>
     <row r="45" spans="3:21" x14ac:dyDescent="0.2">
@@ -7058,35 +7052,35 @@
         <v>0</v>
       </c>
       <c r="K45" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L45" s="9">
         <f t="shared" si="12"/>
-        <v>1.0817015060345728E-3</v>
+        <v>1.0817015060345728E-2</v>
       </c>
       <c r="N45">
         <f t="shared" si="6"/>
-        <v>9.2785925457085333E-2</v>
+        <v>0.27278592545708535</v>
       </c>
       <c r="O45" s="4">
         <f t="shared" si="7"/>
-        <v>1.0817015060345728E-3</v>
+        <v>1.0817015060345728E-2</v>
       </c>
       <c r="Q45" s="6">
         <f t="shared" si="13"/>
-        <v>4.0715104011560714E-3</v>
+        <v>1.1970034542590166E-2</v>
       </c>
       <c r="R45" s="7">
         <f t="shared" si="8"/>
-        <v>8.7761379349267723E-4</v>
+        <v>8.7761379349267712E-3</v>
       </c>
       <c r="T45" s="3">
         <f t="shared" si="11"/>
-        <v>4.0686793066970449E-2</v>
+        <v>4.0686793066970463E-2</v>
       </c>
       <c r="U45" s="3">
         <f t="shared" si="9"/>
-        <v>4.0686793066970449E-2</v>
+        <v>4.0686793066970463E-2</v>
       </c>
     </row>
     <row r="46" spans="3:21" x14ac:dyDescent="0.2">
@@ -7120,35 +7114,35 @@
         <v>0</v>
       </c>
       <c r="K46" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L46" s="9">
         <f t="shared" si="12"/>
-        <v>1.0432242584414231E-3</v>
+        <v>1.0432242584414232E-2</v>
       </c>
       <c r="N46">
         <f t="shared" si="6"/>
-        <v>5.4435714285714337E-2</v>
+        <v>0.23443571428571436</v>
       </c>
       <c r="O46" s="4">
         <f t="shared" si="7"/>
-        <v>1.0432242584414231E-3</v>
+        <v>1.0432242584414232E-2</v>
       </c>
       <c r="Q46" s="6">
         <f t="shared" si="13"/>
-        <v>2.2148146425955873E-3</v>
+        <v>9.5384373946502711E-3</v>
       </c>
       <c r="R46" s="7">
         <f t="shared" si="8"/>
-        <v>8.137358613394093E-4</v>
+        <v>8.1373586133940932E-3</v>
       </c>
       <c r="T46" s="3">
         <f t="shared" si="11"/>
-        <v>3.9285714285714271E-2</v>
+        <v>3.9285714285714285E-2</v>
       </c>
       <c r="U46" s="3">
         <f t="shared" si="9"/>
-        <v>3.9285714285714271E-2</v>
+        <v>3.9285714285714285E-2</v>
       </c>
     </row>
     <row r="47" spans="3:21" x14ac:dyDescent="0.2">
@@ -7182,35 +7176,35 @@
         <v>0</v>
       </c>
       <c r="K47" s="9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="L47" s="9">
         <f t="shared" si="12"/>
-        <v>1.120205182363369E-3</v>
+        <v>1.120205182363369E-2</v>
       </c>
       <c r="N47">
         <f t="shared" si="6"/>
-        <v>0.4391872017390418</v>
+        <v>0.61918720173904185</v>
       </c>
       <c r="O47" s="4">
         <f t="shared" si="7"/>
-        <v>1.120205182363369E-3</v>
+        <v>1.120205182363369E-2</v>
       </c>
       <c r="Q47" s="6">
         <f t="shared" si="13"/>
-        <v>1.7253782925462355E-2</v>
+        <v>2.4325211496890931E-2</v>
       </c>
       <c r="R47" s="7">
         <f t="shared" si="8"/>
-        <v>7.8571428571428575E-4</v>
+        <v>7.8571428571428577E-3</v>
       </c>
       <c r="T47" s="3">
         <f t="shared" si="11"/>
-        <v>2.2817645645966202E-2</v>
+        <v>2.2817645645966209E-2</v>
       </c>
       <c r="U47" s="3">
         <f t="shared" si="9"/>
-        <v>2.2817645645966202E-2</v>
+        <v>2.2817645645966209E-2</v>
       </c>
     </row>
     <row r="48" spans="3:21" x14ac:dyDescent="0.2">
@@ -7244,35 +7238,35 @@
         <v>0</v>
       </c>
       <c r="K48" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L48" s="9">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>9.9725899574269559E-3</v>
       </c>
       <c r="N48">
         <f t="shared" si="6"/>
-        <v>0.46504670453475005</v>
+        <v>0.66504670453475012</v>
       </c>
       <c r="O48" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9.9725899574269559E-3</v>
       </c>
       <c r="Q48" s="6">
         <f t="shared" si="13"/>
-        <v>1.0611270912898277E-2</v>
+        <v>1.5174800042091522E-2</v>
       </c>
       <c r="R48" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4.5635291291932431E-3</v>
       </c>
       <c r="T48" s="3">
         <f t="shared" si="11"/>
-        <v>1.2206374733067925E-2</v>
+        <v>1.220637473306793E-2</v>
       </c>
       <c r="U48" s="3">
         <f t="shared" si="9"/>
-        <v>1.2206374733067925E-2</v>
+        <v>1.220637473306793E-2</v>
       </c>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.2">
@@ -7306,35 +7300,35 @@
         <v>0</v>
       </c>
       <c r="K49" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L49" s="9">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>9.7268907563025225E-3</v>
       </c>
       <c r="N49">
         <f t="shared" si="6"/>
-        <v>0.39008035997977814</v>
+        <v>0.59008035997977815</v>
       </c>
       <c r="O49" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9.7268907563025225E-3</v>
       </c>
       <c r="Q49" s="6">
         <f t="shared" si="13"/>
-        <v>4.7614670499232098E-3</v>
+        <v>7.2027419965367979E-3</v>
       </c>
       <c r="R49" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.4412749466135881E-3</v>
       </c>
       <c r="T49" s="3">
         <f t="shared" si="11"/>
-        <v>7.444907683144715E-3</v>
+        <v>7.4449076831447202E-3</v>
       </c>
       <c r="U49" s="3">
         <f t="shared" si="9"/>
-        <v>7.444907683144715E-3</v>
+        <v>7.4449076831447202E-3</v>
       </c>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.2">
@@ -7368,23 +7362,21 @@
         <v>0</v>
       </c>
       <c r="K50" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="9">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5.4824561403508769E-2</v>
       </c>
       <c r="N50">
-        <f t="shared" si="6"/>
-        <v>0.38435634696941762</v>
+        <v>1</v>
       </c>
       <c r="O50" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q50" s="6">
         <f t="shared" si="13"/>
-        <v>2.8614975206180584E-3</v>
+        <v>7.4449076831447289E-3</v>
       </c>
       <c r="R50" s="7">
         <f t="shared" si="8"/>
@@ -7392,11 +7384,11 @@
       </c>
       <c r="T50" s="3">
         <f t="shared" si="11"/>
-        <v>4.5834101625266566E-3</v>
+        <v>-8.6736173798840355E-18</v>
       </c>
       <c r="U50" s="3">
         <f t="shared" si="9"/>
-        <v>4.5834101625266566E-3</v>
+        <v>-8.6736173798840355E-18</v>
       </c>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.2">
@@ -7437,16 +7429,14 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <f t="shared" si="6"/>
-        <v>0.16997114246336334</v>
+        <v>0</v>
       </c>
       <c r="O51" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q51" s="6">
         <f t="shared" si="13"/>
-        <v>7.7904746170284799E-4</v>
+        <v>0</v>
       </c>
       <c r="R51" s="7">
         <f t="shared" si="8"/>
@@ -7454,11 +7444,11 @@
       </c>
       <c r="T51" s="3">
         <f t="shared" si="11"/>
-        <v>3.8043627008238086E-3</v>
+        <v>-8.6736173798840355E-18</v>
       </c>
       <c r="U51" s="3">
         <f t="shared" si="9"/>
-        <v>3.8043627008238086E-3</v>
+        <v>-8.6736173798840355E-18</v>
       </c>
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.2">
@@ -7499,16 +7489,14 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <f t="shared" si="6"/>
-        <v>3.1645066391031325E-2</v>
+        <v>0</v>
       </c>
       <c r="O52" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q52" s="6">
         <f t="shared" si="13"/>
-        <v>1.2038931024313311E-4</v>
+        <v>0</v>
       </c>
       <c r="R52" s="7">
         <f t="shared" si="8"/>
@@ -7516,11 +7504,11 @@
       </c>
       <c r="T52" s="3">
         <f t="shared" si="11"/>
-        <v>3.6839733905806755E-3</v>
+        <v>-8.6736173798840355E-18</v>
       </c>
       <c r="U52" s="3">
         <f t="shared" si="9"/>
-        <v>3.6839733905806755E-3</v>
+        <v>-8.6736173798840355E-18</v>
       </c>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.2">
@@ -7561,12 +7549,10 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O53" s="4">
-        <f t="shared" si="7"/>
-        <v>1.8618791663862738E-2</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="6">
         <f t="shared" si="13"/>
@@ -7574,15 +7560,15 @@
       </c>
       <c r="R53" s="7">
         <f t="shared" si="8"/>
-        <v>2.1169493582987768E-4</v>
+        <v>0</v>
       </c>
       <c r="T53" s="3">
         <f t="shared" si="11"/>
-        <v>3.8956683264105532E-3</v>
+        <v>-8.6736173798840355E-18</v>
       </c>
       <c r="U53" s="3">
         <f t="shared" si="9"/>
-        <v>3.8956683264105532E-3</v>
+        <v>-8.6736173798840355E-18</v>
       </c>
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.2">
@@ -7623,12 +7609,10 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O54" s="4">
-        <f t="shared" si="7"/>
-        <v>1.8835315366425586E-2</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="6">
         <f t="shared" si="13"/>
@@ -7636,15 +7620,15 @@
       </c>
       <c r="R54" s="7">
         <f t="shared" si="8"/>
-        <v>6.7544924948612171E-5</v>
+        <v>0</v>
       </c>
       <c r="T54" s="3">
         <f t="shared" si="11"/>
-        <v>3.9632132513591654E-3</v>
+        <v>-8.6736173798840355E-18</v>
       </c>
       <c r="U54" s="3">
         <f t="shared" si="9"/>
-        <v>3.9632132513591654E-3</v>
+        <v>-8.6736173798840355E-18</v>
       </c>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.2">
